--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -38,100 +38,100 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.8033275604248</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7210521697998</t>
+    <t xml:space="preserve">8.74573516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72105503082275</t>
   </si>
   <si>
     <t xml:space="preserve">8.72928047180176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79510021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77864646911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54827690124512</t>
+    <t xml:space="preserve">8.79509830474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77864456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
     <t xml:space="preserve">8.52359485626221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59764289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14513492584229</t>
+    <t xml:space="preserve">8.59764194488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14513397216797</t>
   </si>
   <si>
     <t xml:space="preserve">8.1039981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60586929321289</t>
+    <t xml:space="preserve">8.60586833953857</t>
   </si>
   <si>
     <t xml:space="preserve">8.4330940246582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30968379974365</t>
+    <t xml:space="preserve">8.30968189239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.25209140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3425931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004859924316</t>
+    <t xml:space="preserve">8.34259128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54004955291748</t>
   </si>
   <si>
     <t xml:space="preserve">8.46600246429443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22740840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613945007324</t>
+    <t xml:space="preserve">8.22740936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613849639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.63877868652344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49068546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67168998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737369537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041912078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98433113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978321075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9102840423584</t>
+    <t xml:space="preserve">8.49068737030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473350524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67168807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041816711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9185094833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978225708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">9.04192161560059</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">8.96787643432617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89382839202881</t>
+    <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
     <t xml:space="preserve">9.05014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97610282897949</t>
+    <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
     <t xml:space="preserve">9.07483196258545</t>
@@ -155,133 +155,133 @@
     <t xml:space="preserve">8.81155490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86091804504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09951305389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09128761291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06660270690918</t>
+    <t xml:space="preserve">8.86091995239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09951496124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09128570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0666036605835</t>
   </si>
   <si>
     <t xml:space="preserve">9.21469688415527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46974849700928</t>
+    <t xml:space="preserve">9.46974754333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.54379367828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5273380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74947834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83998203277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7165699005127</t>
+    <t xml:space="preserve">9.52733898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74947929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83998107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71656894683838</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94693756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088523864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93048286437988</t>
+    <t xml:space="preserve">9.94693660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088428497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9304838180542</t>
   </si>
   <si>
     <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83175277709961</t>
+    <t xml:space="preserve">9.83175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114854812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88934516906738</t>
+    <t xml:space="preserve">10.1114845275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88934421539307</t>
   </si>
   <si>
     <t xml:space="preserve">10.3994455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6133556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120866775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722208023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5307931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2490873336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2739458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3567991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.497652053833</t>
+    <t xml:space="preserve">10.4652643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488077163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133575439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5307941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2490882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.273943901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3568000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4976511001587</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805063247681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4727964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893665313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3982257843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396533966064</t>
+    <t xml:space="preserve">10.4727954864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893655776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3982267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396543502808</t>
   </si>
   <si>
     <t xml:space="preserve">10.2905149459839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1910905838013</t>
+    <t xml:space="preserve">10.1910886764526</t>
   </si>
   <si>
     <t xml:space="preserve">10.0253820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98395538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252777099609</t>
+    <t xml:space="preserve">9.98395442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
     <t xml:space="preserve">9.85967254638672</t>
@@ -290,73 +290,73 @@
     <t xml:space="preserve">10.1082363128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96738338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0668087005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5225076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1165208816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1579484939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3816566467285</t>
+    <t xml:space="preserve">10.4230833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96738433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0668077468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5225067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1165199279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1579494476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3816547393799</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5556497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5639352798462</t>
+    <t xml:space="preserve">10.5556488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5639371871948</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4147987365723</t>
+    <t xml:space="preserve">10.4147968292236</t>
   </si>
   <si>
     <t xml:space="preserve">10.232518196106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5887928009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.54736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142221450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4810810089111</t>
+    <t xml:space="preserve">10.5887908935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5473642349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4810800552368</t>
   </si>
   <si>
     <t xml:space="preserve">10.4645099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1330919265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3485126495361</t>
+    <t xml:space="preserve">10.1330909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3485136032104</t>
   </si>
   <si>
     <t xml:space="preserve">10.3650846481323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136474609375</t>
+    <t xml:space="preserve">10.6136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059366226196</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">10.4562244415283</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5390787124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2988004684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2242336273193</t>
+    <t xml:space="preserve">10.5390796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2987995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2242317199707</t>
   </si>
   <si>
     <t xml:space="preserve">10.1662349700928</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">10.1248064041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3236570358276</t>
+    <t xml:space="preserve">10.3236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">10.182804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6053609848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402280807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970773696899</t>
+    <t xml:space="preserve">10.6053628921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402309417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970783233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6716451644897</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">10.7213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7544984817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7379302978516</t>
+    <t xml:space="preserve">10.7544994354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
     <t xml:space="preserve">11.0610618591309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1107749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.127345085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433414459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3427677154541</t>
+    <t xml:space="preserve">11.1107730865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1273460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433423995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3427658081055</t>
   </si>
   <si>
     <t xml:space="preserve">11.4504776000977</t>
@@ -434,37 +434,37 @@
     <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1853446960449</t>
+    <t xml:space="preserve">11.1853437423706</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096227645874</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0196352005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.903639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953523635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776309967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870658874512</t>
+    <t xml:space="preserve">11.0196361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9036388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776338577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870668411255</t>
   </si>
   <si>
     <t xml:space="preserve">10.7710704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.679931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302175521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8622093200684</t>
+    <t xml:space="preserve">10.6799306869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622102737427</t>
   </si>
   <si>
     <t xml:space="preserve">10.8042125701904</t>
@@ -476,40 +476,40 @@
     <t xml:space="preserve">10.7462129592896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7627859115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047872543335</t>
+    <t xml:space="preserve">10.7627840042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047882080078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8787822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7959270477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6965026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.994776725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924798965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4339065551758</t>
+    <t xml:space="preserve">10.7959280014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6965007781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4339046478271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3510513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1439151763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024885177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599124908447</t>
+    <t xml:space="preserve">11.1439161300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024894714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.259913444519</t>
   </si>
   <si>
     <t xml:space="preserve">11.2681980133057</t>
@@ -521,109 +521,109 @@
     <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1687707901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1356315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359335899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847671508789</t>
+    <t xml:space="preserve">11.1687717437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847681045532</t>
   </si>
   <si>
     <t xml:space="preserve">11.4753341674805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4587621688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2267713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.094202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841934204102</t>
+    <t xml:space="preserve">11.4587640762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.226770401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942029953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344812393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841943740845</t>
   </si>
   <si>
     <t xml:space="preserve">11.3013391494751</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1770572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.953351020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764825820923</t>
+    <t xml:space="preserve">11.1770582199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9533500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764835357666</t>
   </si>
   <si>
     <t xml:space="preserve">11.6658983230591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1215982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0967426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0470294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2624502182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2210235595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3453044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044525146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.312162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352949142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6684370040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8092889785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435804367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6021528244019</t>
+    <t xml:space="preserve">12.1215991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0967407226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0470285415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2624521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2210216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453054428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044515609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3121633529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352958679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.668436050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.809289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6021537780762</t>
   </si>
   <si>
     <t xml:space="preserve">12.4944429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3370189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695863723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938682556152</t>
+    <t xml:space="preserve">12.3370180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695873260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938692092896</t>
   </si>
   <si>
     <t xml:space="preserve">12.676721572876</t>
@@ -632,64 +632,64 @@
     <t xml:space="preserve">12.7595748901367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318468093872</t>
+    <t xml:space="preserve">13.2318477630615</t>
   </si>
   <si>
     <t xml:space="preserve">13.2484169006348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3644151687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4224109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466957092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.342095375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706654548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480821609497</t>
+    <t xml:space="preserve">13.3644142150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4224100112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7066564559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480812072754</t>
   </si>
   <si>
     <t xml:space="preserve">14.9137907028198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3338108062744</t>
+    <t xml:space="preserve">14.3338098526001</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698253631592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6709756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195375442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3255243301392</t>
+    <t xml:space="preserve">13.6709747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935297012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
     <t xml:space="preserve">14.300669670105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2923831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8640785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580926895142</t>
+    <t xml:space="preserve">14.292384147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8640775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580898284912</t>
   </si>
   <si>
     <t xml:space="preserve">14.4995183944702</t>
@@ -698,124 +698,124 @@
     <t xml:space="preserve">14.83922290802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6817970275879</t>
+    <t xml:space="preserve">14.6817989349365</t>
   </si>
   <si>
     <t xml:space="preserve">14.62380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7895088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.576623916626</t>
+    <t xml:space="preserve">14.7895107269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766258239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.568341255188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.618052482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423343658447</t>
+    <t xml:space="preserve">15.6180543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.742335319519</t>
   </si>
   <si>
     <t xml:space="preserve">15.883186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4523448944092</t>
+    <t xml:space="preserve">15.4523458480835</t>
   </si>
   <si>
     <t xml:space="preserve">15.5020561218262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6097679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5186281204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7257642745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872119903564</t>
+    <t xml:space="preserve">15.609769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186252593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7257623672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872100830078</t>
   </si>
   <si>
     <t xml:space="preserve">15.203782081604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1371688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870416641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5784664154053</t>
+    <t xml:space="preserve">15.137170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.578462600708</t>
   </si>
   <si>
     <t xml:space="preserve">15.6867074966431</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2370872497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699680328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201797485352</t>
+    <t xml:space="preserve">15.2370853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036947250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285879135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699689865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615560531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201787948608</t>
   </si>
   <si>
     <t xml:space="preserve">15.5451574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5285062789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954545974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366619110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868783950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.903190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199253082275</t>
+    <t xml:space="preserve">15.528507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202661514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782926559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868774414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283372879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783800125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.90318775177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199262619019</t>
   </si>
   <si>
     <t xml:space="preserve">15.645073890686</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">14.9040355682373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2537384033203</t>
+    <t xml:space="preserve">15.2537393569946</t>
   </si>
   <si>
     <t xml:space="preserve">15.0289297103882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0539083480835</t>
+    <t xml:space="preserve">15.0539093017578</t>
   </si>
   <si>
     <t xml:space="preserve">15.0372562408447</t>
@@ -839,40 +839,40 @@
     <t xml:space="preserve">15.4119396209717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5701360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951156616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284227371216</t>
+    <t xml:space="preserve">15.5701370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618124008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284198760986</t>
   </si>
   <si>
     <t xml:space="preserve">15.7533168792725</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9448184967041</t>
+    <t xml:space="preserve">15.9448194503784</t>
   </si>
   <si>
     <t xml:space="preserve">15.6950330734253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7200107574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117677688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452419281006</t>
+    <t xml:space="preserve">15.7200126647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117668151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.620096206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452438354492</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037801742554</t>
@@ -881,118 +881,118 @@
     <t xml:space="preserve">15.1121921539307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7957935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787208557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120222091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872961044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.370306968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538248062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702215194702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6034450531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035276412964</t>
+    <t xml:space="preserve">14.7957925796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787189483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203506469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205186843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370027542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368347167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6034440994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5035285949707</t>
   </si>
   <si>
     <t xml:space="preserve">15.5118532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534858703613</t>
+    <t xml:space="preserve">15.553484916687</t>
   </si>
   <si>
     <t xml:space="preserve">15.4036102294922</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7033557891846</t>
+    <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3869581222534</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3619794845581</t>
+    <t xml:space="preserve">15.3619785308838</t>
   </si>
   <si>
     <t xml:space="preserve">16.6525535583496</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4943542480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026836395264</t>
+    <t xml:space="preserve">16.4943561553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026798248291</t>
   </si>
   <si>
     <t xml:space="preserve">16.4110908508301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3444805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3028469085693</t>
+    <t xml:space="preserve">16.344482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443969726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3028507232666</t>
   </si>
   <si>
     <t xml:space="preserve">16.1446514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1529769897461</t>
+    <t xml:space="preserve">16.1529750823975</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7116842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4618949890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614725112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449029922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532285690308</t>
+    <t xml:space="preserve">15.7116832733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.461895942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532304763794</t>
   </si>
   <si>
     <t xml:space="preserve">15.9531450271606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0031032562256</t>
+    <t xml:space="preserve">16.0031051635742</t>
   </si>
   <si>
     <t xml:space="preserve">16.0530605316162</t>
@@ -1001,43 +1001,43 @@
     <t xml:space="preserve">15.9864530563354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8365793228149</t>
+    <t xml:space="preserve">15.836576461792</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281673431396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6367473602295</t>
+    <t xml:space="preserve">15.6367483139038</t>
   </si>
   <si>
     <t xml:space="preserve">15.6533994674683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7866239547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280838012695</t>
+    <t xml:space="preserve">15.78662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280799865723</t>
   </si>
   <si>
     <t xml:space="preserve">16.0697135925293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861122131348</t>
+    <t xml:space="preserve">16.386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">16.5443134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.602596282959</t>
+    <t xml:space="preserve">16.6025943756104</t>
   </si>
   <si>
     <t xml:space="preserve">16.8190784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8607120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7774505615234</t>
+    <t xml:space="preserve">16.860710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.6941833496094</t>
@@ -1046,31 +1046,31 @@
     <t xml:space="preserve">16.4693756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2029342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694610595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272369384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1104984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684432983398</t>
+    <t xml:space="preserve">16.2029323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694591522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272350311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1105003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684413909912</t>
   </si>
   <si>
     <t xml:space="preserve">17.4019184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9023399353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3186569213867</t>
+    <t xml:space="preserve">16.90234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3186550140381</t>
   </si>
   <si>
     <t xml:space="preserve">17.4435501098633</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">16.9856052398682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.068868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5193290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1363258361816</t>
+    <t xml:space="preserve">17.0688667297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5193347930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136323928833</t>
   </si>
   <si>
     <t xml:space="preserve">16.1196727752686</t>
@@ -1097,112 +1097,112 @@
     <t xml:space="preserve">16.4194183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.252893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861957550049</t>
+    <t xml:space="preserve">16.2528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861938476562</t>
   </si>
   <si>
     <t xml:space="preserve">16.0364093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2695446014404</t>
+    <t xml:space="preserve">16.2695465087891</t>
   </si>
   <si>
     <t xml:space="preserve">15.0705614089966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2703914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709012985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374242782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044580459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376787185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3711557388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877233505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212810516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380176544189</t>
+    <t xml:space="preserve">15.2703895568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535694122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6708974838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878904342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376777648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3711547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877223968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380186080933</t>
   </si>
   <si>
     <t xml:space="preserve">14.0714082717896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1213655471802</t>
+    <t xml:space="preserve">14.1213665008545</t>
   </si>
   <si>
     <t xml:space="preserve">14.3878078460693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3211946487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7541608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039510726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041181564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0206022262573</t>
+    <t xml:space="preserve">14.3211965560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7541627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039501190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041200637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.020604133606</t>
   </si>
   <si>
     <t xml:space="preserve">15.9198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1038627624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285539627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946733474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1457061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293844223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101655960083</t>
+    <t xml:space="preserve">15.1038646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1457042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293825149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101665496826</t>
   </si>
   <si>
     <t xml:space="preserve">13.8570652008057</t>
@@ -1211,82 +1211,82 @@
     <t xml:space="preserve">14.4093389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2252473831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.325662612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7273139953613</t>
+    <t xml:space="preserve">14.225248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3256635665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7273149490356</t>
   </si>
   <si>
     <t xml:space="preserve">14.6436357498169</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8444662094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5264873504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5599613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771106719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4762811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3926029205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603746414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.961615562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118207931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7775239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2126455307007</t>
+    <t xml:space="preserve">14.8444633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5264863967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5599603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771097183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.476282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3926038742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603727340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9616117477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7775220870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2126474380493</t>
   </si>
   <si>
     <t xml:space="preserve">15.2795886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1791734695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950876235962</t>
+    <t xml:space="preserve">15.1791753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950828552246</t>
   </si>
   <si>
     <t xml:space="preserve">15.0452909469604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1122341156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3632650375366</t>
+    <t xml:space="preserve">15.112232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3632688522339</t>
   </si>
   <si>
     <t xml:space="preserve">15.2628545761108</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0620250701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3297958374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812467575073</t>
+    <t xml:space="preserve">15.0620269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3297996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6812448501587</t>
   </si>
   <si>
     <t xml:space="preserve">15.6143016815186</t>
@@ -1295,52 +1295,52 @@
     <t xml:space="preserve">15.5473585128784</t>
   </si>
   <si>
-    <t xml:space="preserve">15.463680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306253433228</t>
+    <t xml:space="preserve">15.4636821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306234359741</t>
   </si>
   <si>
     <t xml:space="preserve">15.6477718353271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7983932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114065170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5640983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649240493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804153442383</t>
+    <t xml:space="preserve">15.7983951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6979827880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649259567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804172515869</t>
   </si>
   <si>
     <t xml:space="preserve">15.2963256835938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3130617141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109931945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624393463135</t>
+    <t xml:space="preserve">15.3130598068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109903335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624402999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432243347168</t>
+    <t xml:space="preserve">14.5432233810425</t>
   </si>
   <si>
     <t xml:space="preserve">14.5934295654297</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">14.7942581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8277273178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6938457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7399158477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7231798171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060314178467</t>
+    <t xml:space="preserve">14.8277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6938409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7399168014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7231788635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9742136001587</t>
+    <t xml:space="preserve">13.974214553833</t>
   </si>
   <si>
     <t xml:space="preserve">14.0913639068604</t>
@@ -1376,31 +1376,31 @@
     <t xml:space="preserve">13.7064447402954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2211122512817</t>
+    <t xml:space="preserve">13.2211132049561</t>
   </si>
   <si>
     <t xml:space="preserve">13.5892953872681</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3047914505005</t>
+    <t xml:space="preserve">13.3047924041748</t>
   </si>
   <si>
     <t xml:space="preserve">12.7023086547852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9533443450928</t>
+    <t xml:space="preserve">12.9533433914185</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0872268676758</t>
+    <t xml:space="preserve">13.0872278213501</t>
   </si>
   <si>
     <t xml:space="preserve">13.1541700363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0537567138672</t>
+    <t xml:space="preserve">13.0537576675415</t>
   </si>
   <si>
     <t xml:space="preserve">12.8529300689697</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6186332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512767791748</t>
+    <t xml:space="preserve">12.6186323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516891479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512758255005</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496215820312</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">11.2965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7818508148193</t>
+    <t xml:space="preserve">11.7818517684937</t>
   </si>
   <si>
     <t xml:space="preserve">12.1835069656372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8320579528809</t>
+    <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
     <t xml:space="preserve">11.9157371520996</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">12.5349531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3801984786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7168378829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2764472961426</t>
+    <t xml:space="preserve">11.380199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7168369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2764463424683</t>
   </si>
   <si>
     <t xml:space="preserve">12.2239837646484</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">11.4894971847534</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0316190719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7661066055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1365451812744</t>
+    <t xml:space="preserve">12.0316181182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7661075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.136547088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.979154586792</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">11.891716003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1540327072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1715211868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1190567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5594482421875</t>
+    <t xml:space="preserve">12.15403175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1715221405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1190576553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5594472885132</t>
   </si>
   <si>
     <t xml:space="preserve">11.8042774200439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7518129348755</t>
+    <t xml:space="preserve">11.7518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163503646851</t>
@@ -1505,22 +1505,22 @@
     <t xml:space="preserve">12.5212774276733</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5912294387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5037889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4688148498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6643743515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.786789894104</t>
+    <t xml:space="preserve">12.5912275314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5037899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4688129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6643753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7867879867554</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616670608521</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">11.874228477478</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7343254089355</t>
+    <t xml:space="preserve">11.7343263626099</t>
   </si>
   <si>
     <t xml:space="preserve">11.6993494033813</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">12.0491056442261</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9966430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2589597702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5562534332275</t>
+    <t xml:space="preserve">11.9966440200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.258960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5562524795532</t>
   </si>
   <si>
     <t xml:space="preserve">12.8535451889038</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">12.69615650177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087169647217</t>
+    <t xml:space="preserve">12.6087160110474</t>
   </si>
   <si>
     <t xml:space="preserve">12.8185701370239</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2939367294312</t>
+    <t xml:space="preserve">12.2939357757568</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441795349121</t>
@@ -1580,49 +1580,49 @@
     <t xml:space="preserve">11.5244722366333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.419545173645</t>
+    <t xml:space="preserve">11.4195461273193</t>
   </si>
   <si>
     <t xml:space="preserve">11.3845691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9298849105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8074703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173234939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.244665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1572275161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1397409439087</t>
+    <t xml:space="preserve">10.9298858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8074712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1572284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1397390365601</t>
   </si>
   <si>
     <t xml:space="preserve">11.2271795272827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2096900939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4720067977905</t>
+    <t xml:space="preserve">11.2096920013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4720077514648</t>
   </si>
   <si>
     <t xml:space="preserve">11.4545211791992</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1922035217285</t>
+    <t xml:space="preserve">11.1922025680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.437032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6818618774414</t>
+    <t xml:space="preserve">11.6818628311157</t>
   </si>
   <si>
     <t xml:space="preserve">12.0141305923462</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">12.1015701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665941238403</t>
+    <t xml:space="preserve">12.0665950775146</t>
   </si>
   <si>
     <t xml:space="preserve">11.3321056365967</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">11.3146171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621555328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5419597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869436264038</t>
+    <t xml:space="preserve">11.2621536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5419588088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869455337524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">11.4565095901489</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6500902175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8436717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8612718582153</t>
+    <t xml:space="preserve">11.650089263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8436737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.861270904541</t>
   </si>
   <si>
     <t xml:space="preserve">11.632493019104</t>
@@ -1673,25 +1673,25 @@
     <t xml:space="preserve">11.2981243133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1573371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1749353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805252075195</t>
+    <t xml:space="preserve">11.157338142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.174934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805261611938</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3861150741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4213123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028865814209</t>
+    <t xml:space="preserve">11.386116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.421311378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028856277466</t>
   </si>
   <si>
     <t xml:space="preserve">11.7380828857422</t>
@@ -1706,34 +1706,34 @@
     <t xml:space="preserve">11.7732791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0020580291748</t>
+    <t xml:space="preserve">12.0020589828491</t>
   </si>
   <si>
     <t xml:space="preserve">11.7908773422241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4389114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5445003509521</t>
+    <t xml:space="preserve">11.438910484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5445013046265</t>
   </si>
   <si>
     <t xml:space="preserve">11.5093040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5269031524658</t>
+    <t xml:space="preserve">11.5269041061401</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7204837799072</t>
+    <t xml:space="preserve">11.7204847335815</t>
   </si>
   <si>
     <t xml:space="preserve">12.0196561813354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2308359146118</t>
+    <t xml:space="preserve">12.2308349609375</t>
   </si>
   <si>
     <t xml:space="preserve">12.1428442001343</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">12.5124092102051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3716230392456</t>
+    <t xml:space="preserve">12.3716220855713</t>
   </si>
   <si>
     <t xml:space="preserve">12.0724515914917</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">12.1604423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6707944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7059888839722</t>
+    <t xml:space="preserve">12.6707935333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7059898376465</t>
   </si>
   <si>
     <t xml:space="preserve">12.4948101043701</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">12.6003999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5796976089478</t>
+    <t xml:space="preserve">11.5796966552734</t>
   </si>
   <si>
     <t xml:space="preserve">11.614893913269</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">11.5621004104614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4741067886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333215713501</t>
+    <t xml:space="preserve">11.4741077423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333206176758</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917058944702</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">12.4772119522095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5828008651733</t>
+    <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
     <t xml:space="preserve">12.4596138000488</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">11.9844598770142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.107647895813</t>
+    <t xml:space="preserve">12.1076469421387</t>
   </si>
   <si>
     <t xml:space="preserve">12.3188276290894</t>
@@ -1823,31 +1823,31 @@
     <t xml:space="preserve">12.2836294174194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3892202377319</t>
+    <t xml:space="preserve">12.3892211914062</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451208114624</t>
+    <t xml:space="preserve">13.3923254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451198577881</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635465621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3571271896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.251540184021</t>
+    <t xml:space="preserve">13.3571281433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2515392303467</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099245071411</t>
+    <t xml:space="preserve">13.4099235534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4627180099487</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">13.3747262954712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.286735534668</t>
+    <t xml:space="preserve">13.2867345809937</t>
   </si>
   <si>
     <t xml:space="preserve">13.4275217056274</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">13.3395299911499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5476055145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068193435669</t>
+    <t xml:space="preserve">12.5476064682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068183898926</t>
   </si>
   <si>
     <t xml:space="preserve">12.811580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3043327331543</t>
+    <t xml:space="preserve">13.3043336868286</t>
   </si>
   <si>
     <t xml:space="preserve">13.5859060287476</t>
@@ -1886,61 +1886,61 @@
     <t xml:space="preserve">13.4803161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3219318389893</t>
+    <t xml:space="preserve">13.3219327926636</t>
   </si>
   <si>
     <t xml:space="preserve">13.1283502578735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9523677825928</t>
+    <t xml:space="preserve">12.9523668289185</t>
   </si>
   <si>
     <t xml:space="preserve">13.0579566955566</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9171705245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.022759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8467769622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9347677230835</t>
+    <t xml:space="preserve">12.9171695709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8467779159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9347686767578</t>
   </si>
   <si>
     <t xml:space="preserve">12.8995714187622</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6355972290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7587852478027</t>
+    <t xml:space="preserve">12.6355962753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7587842941284</t>
   </si>
   <si>
     <t xml:space="preserve">12.7411861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0900478363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3012285232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0372543334961</t>
+    <t xml:space="preserve">12.090048789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3012294769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0372552871704</t>
   </si>
   <si>
     <t xml:space="preserve">11.6676893234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6852874755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3157215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2629289627075</t>
+    <t xml:space="preserve">11.6852884292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3157224655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2629280090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.4037141799927</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">10.1366357803345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0134477615356</t>
+    <t xml:space="preserve">10.0134468078613</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126182556152</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">9.20392417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45599460601807</t>
+    <t xml:space="preserve">8.45599365234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.03363513946533</t>
@@ -1994,13 +1994,13 @@
     <t xml:space="preserve">7.94564342498779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95133781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25050973892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96013736724854</t>
+    <t xml:space="preserve">6.95133829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25051021575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96013689041138</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2009,31 +2009,31 @@
     <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97463130950928</t>
+    <t xml:space="preserve">5.97463083267212</t>
   </si>
   <si>
     <t xml:space="preserve">6.24740505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34419631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20340967178345</t>
+    <t xml:space="preserve">6.34419584274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20340919494629</t>
   </si>
   <si>
     <t xml:space="preserve">6.07142210006714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73705339431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05382394790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01862716674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04502391815186</t>
+    <t xml:space="preserve">5.73705387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05382347106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01862764358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04502439498901</t>
   </si>
   <si>
     <t xml:space="preserve">5.98342990875244</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">6.15941381454468</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1858115196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51137971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100830078125</t>
+    <t xml:space="preserve">6.18581104278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51138019561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100734710693</t>
   </si>
   <si>
     <t xml:space="preserve">6.6873631477356</t>
@@ -2057,76 +2057,76 @@
     <t xml:space="preserve">6.6345682144165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55537605285645</t>
+    <t xml:space="preserve">6.55537557601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.59057235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06572675704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15371894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2593092918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96893644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29450511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03933000564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0569281578064</t>
+    <t xml:space="preserve">6.66096639633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332586288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06572723388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1537184715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25930833816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96893692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29450559616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03932952880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05692863464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378204345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45858526229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6257700920105</t>
+    <t xml:space="preserve">6.49378156661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45858478546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62576961517334</t>
   </si>
   <si>
     <t xml:space="preserve">6.71376085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69616222381592</t>
+    <t xml:space="preserve">6.69616270065308</t>
   </si>
   <si>
     <t xml:space="preserve">6.8193507194519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03053045272827</t>
+    <t xml:space="preserve">7.03052997589111</t>
   </si>
   <si>
     <t xml:space="preserve">7.18011617660522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43529224395752</t>
+    <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
     <t xml:space="preserve">7.34730052947998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32970237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210470199585</t>
+    <t xml:space="preserve">7.32970285415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210422515869</t>
   </si>
   <si>
     <t xml:space="preserve">7.47928762435913</t>
@@ -2138,22 +2138,22 @@
     <t xml:space="preserve">8.21841716766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00723838806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204208374023</t>
+    <t xml:space="preserve">8.00723743438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204113006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.78725957870483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36489820480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168851852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63767242431641</t>
+    <t xml:space="preserve">7.36489868164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63767337799072</t>
   </si>
   <si>
     <t xml:space="preserve">7.40009546279907</t>
@@ -2165,25 +2165,25 @@
     <t xml:space="preserve">7.54968070983887</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6288743019104</t>
+    <t xml:space="preserve">7.62887334823608</t>
   </si>
   <si>
     <t xml:space="preserve">7.7256646156311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51448440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924524307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88404893875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74326372146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66407108306885</t>
+    <t xml:space="preserve">7.51448488235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74326276779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66407012939453</t>
   </si>
   <si>
     <t xml:space="preserve">7.58487844467163</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">7.60247659683228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75206327438354</t>
+    <t xml:space="preserve">7.75206136703491</t>
   </si>
   <si>
     <t xml:space="preserve">7.5232834815979</t>
@@ -2201,10 +2201,10 @@
     <t xml:space="preserve">7.59367704391479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21531295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812908172607</t>
+    <t xml:space="preserve">7.21531343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812955856323</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">7.26810789108276</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3385009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10092353820801</t>
+    <t xml:space="preserve">7.33850193023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10092401504517</t>
   </si>
   <si>
     <t xml:space="preserve">7.12732219696045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14491987228394</t>
+    <t xml:space="preserve">7.14491891860962</t>
   </si>
   <si>
     <t xml:space="preserve">6.92494058609009</t>
@@ -2243,16 +2243,16 @@
     <t xml:space="preserve">6.78415441513062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7225604057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70496225357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738386154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59937191009521</t>
+    <t xml:space="preserve">6.72255992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7049617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59937143325806</t>
   </si>
   <si>
     <t xml:space="preserve">6.43218755722046</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26500368118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19461011886597</t>
+    <t xml:space="preserve">6.2650032043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19461059570312</t>
   </si>
   <si>
     <t xml:space="preserve">6.23860597610474</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">6.5025806427002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47618389129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54657649993896</t>
+    <t xml:space="preserve">6.47618341445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54657745361328</t>
   </si>
   <si>
     <t xml:space="preserve">6.66976499557495</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60817098617554</t>
+    <t xml:space="preserve">6.60817050933838</t>
   </si>
   <si>
     <t xml:space="preserve">6.52897834777832</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67856359481812</t>
+    <t xml:space="preserve">6.67856407165527</t>
   </si>
   <si>
     <t xml:space="preserve">6.40579032897949</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">6.168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82504510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64026260375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41148519515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37628841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42908334732056</t>
+    <t xml:space="preserve">5.82504463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64026308059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4114842414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37628889083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4290828704834</t>
   </si>
   <si>
     <t xml:space="preserve">5.45548057556152</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">5.67545938491821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144329071045</t>
+    <t xml:space="preserve">5.85144281387329</t>
   </si>
   <si>
     <t xml:space="preserve">6.84574794769287</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96324157714844</t>
+    <t xml:space="preserve">7.96324253082275</t>
   </si>
   <si>
     <t xml:space="preserve">7.83125400543213</t>
@@ -2366,25 +2366,25 @@
     <t xml:space="preserve">7.82245540618896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7080659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65527153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76085996627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.804856300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64647102355957</t>
+    <t xml:space="preserve">7.70806550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65527057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086091995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80485725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64647197723389</t>
   </si>
   <si>
     <t xml:space="preserve">7.53208351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808717727661</t>
+    <t xml:space="preserve">7.48808813095093</t>
   </si>
   <si>
     <t xml:space="preserve">7.87525033950806</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">7.49688673019409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56728029251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69046688079834</t>
+    <t xml:space="preserve">7.56728076934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69046783447266</t>
   </si>
   <si>
     <t xml:space="preserve">7.8928484916687</t>
@@ -2408,22 +2408,22 @@
     <t xml:space="preserve">7.85765171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76965951919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91044759750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08643054962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402774810791</t>
+    <t xml:space="preserve">7.76966047286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044664382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0864315032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402870178223</t>
   </si>
   <si>
     <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3416051864624</t>
+    <t xml:space="preserve">8.34160614013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.06003189086914</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">8.01603603363037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38249778747559</t>
+    <t xml:space="preserve">7.38249731063843</t>
   </si>
   <si>
     <t xml:space="preserve">7.444091796875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4264931678772</t>
+    <t xml:space="preserve">7.42649221420288</t>
   </si>
   <si>
     <t xml:space="preserve">7.67286968231201</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682315826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721672058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19201946258545</t>
+    <t xml:space="preserve">8.15682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721767425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19202041625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.42079830169678</t>
@@ -2465,13 +2465,13 @@
     <t xml:space="preserve">8.59678268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50879001617432</t>
+    <t xml:space="preserve">8.5087890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.46479415893555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5527868270874</t>
+    <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
     <t xml:space="preserve">8.43839740753174</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">8.47359371185303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35920333862305</t>
+    <t xml:space="preserve">8.35920429229736</t>
   </si>
   <si>
     <t xml:space="preserve">8.20081901550293</t>
@@ -2489,49 +2489,49 @@
     <t xml:space="preserve">8.24481582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05123329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18322086334229</t>
+    <t xml:space="preserve">8.05123233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18321990966797</t>
   </si>
   <si>
     <t xml:space="preserve">8.49119091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93994903564453</t>
+    <t xml:space="preserve">8.93994808197021</t>
   </si>
   <si>
     <t xml:space="preserve">8.79916191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81676006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71117115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7815637588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51758861541748</t>
+    <t xml:space="preserve">8.8167610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7111701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78156280517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5175895690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.1744213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32400703430176</t>
+    <t xml:space="preserve">8.32400798797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.39440155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06313800811768</t>
+    <t xml:space="preserve">9.06313705444336</t>
   </si>
   <si>
     <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88715362548828</t>
+    <t xml:space="preserve">8.8871545791626</t>
   </si>
   <si>
     <t xml:space="preserve">8.719970703125</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">8.42959785461426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73756885528564</t>
+    <t xml:space="preserve">8.73756790161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.79036331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64077663421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57038307189941</t>
+    <t xml:space="preserve">8.64077758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57038402557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.67597389221191</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">8.60558032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35040378570557</t>
+    <t xml:space="preserve">8.35040473937988</t>
   </si>
   <si>
     <t xml:space="preserve">8.36800289154053</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">9.36230945587158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15112781524658</t>
+    <t xml:space="preserve">9.1511287689209</t>
   </si>
   <si>
     <t xml:space="preserve">9.13353061676025</t>
@@ -2600,13 +2600,13 @@
     <t xml:space="preserve">9.64985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81008720397949</t>
+    <t xml:space="preserve">9.81008815765381</t>
   </si>
   <si>
     <t xml:space="preserve">10.1127586364746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661720275879</t>
+    <t xml:space="preserve">10.1661710739136</t>
   </si>
   <si>
     <t xml:space="preserve">10.2373876571655</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">10.3976249694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3442134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3264093399048</t>
+    <t xml:space="preserve">10.3442125320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3264083862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.0949554443359</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">9.9703254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91691303253174</t>
+    <t xml:space="preserve">9.91691398620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.75667572021484</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">9.61424255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77447891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86350154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54302597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45400428771973</t>
+    <t xml:space="preserve">9.77447986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86350059509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54302501678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45400524139404</t>
   </si>
   <si>
     <t xml:space="preserve">9.56082916259766</t>
@@ -2675,40 +2675,40 @@
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34718132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31157207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09792232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91988182067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97329235076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02670478820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4896125793457</t>
+    <t xml:space="preserve">9.29376792907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3471794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31157112121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09792137145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91988086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97329330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02670574188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48961353302002</t>
   </si>
   <si>
     <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40059280395508</t>
+    <t xml:space="preserve">9.40059185028076</t>
   </si>
   <si>
     <t xml:space="preserve">9.52522087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82789325714111</t>
+    <t xml:space="preserve">9.8278923034668</t>
   </si>
   <si>
     <t xml:space="preserve">9.84569644927979</t>
@@ -2726,22 +2726,22 @@
     <t xml:space="preserve">9.3649845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32937622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25815868377686</t>
+    <t xml:space="preserve">9.32937526702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25816059112549</t>
   </si>
   <si>
     <t xml:space="preserve">9.70326328277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72106742858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.044508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95548915863037</t>
+    <t xml:space="preserve">9.72106647491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04450988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95549011230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.85756587982178</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">8.93768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81305503845215</t>
+    <t xml:space="preserve">8.81305599212646</t>
   </si>
   <si>
     <t xml:space="preserve">8.63501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65281867980957</t>
+    <t xml:space="preserve">8.65281772613525</t>
   </si>
   <si>
     <t xml:space="preserve">8.87537002563477</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">8.6973295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79525089263916</t>
+    <t xml:space="preserve">8.79525184631348</t>
   </si>
   <si>
     <t xml:space="preserve">8.64391613006592</t>
@@ -2795,13 +2795,13 @@
     <t xml:space="preserve">8.62611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75074005126953</t>
+    <t xml:space="preserve">8.75074100494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.76854610443115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83976268768311</t>
+    <t xml:space="preserve">8.83976173400879</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">9.88130474090576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53709125518799</t>
+    <t xml:space="preserve">8.53709030151367</t>
   </si>
   <si>
     <t xml:space="preserve">8.51928615570068</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">8.22551822662354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2166166305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712127685547</t>
+    <t xml:space="preserve">8.21661567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712223052979</t>
   </si>
   <si>
     <t xml:space="preserve">7.70919799804688</t>
@@ -2843,46 +2843,46 @@
     <t xml:space="preserve">7.9050440788269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83382749557495</t>
+    <t xml:space="preserve">7.83382654190063</t>
   </si>
   <si>
     <t xml:space="preserve">8.32344150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17210674285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14540004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04747581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94065141677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01186752319336</t>
+    <t xml:space="preserve">8.1721076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14539909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04747676849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94065237045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418346405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01186847686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.0563793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28783321380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34124565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43916797637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88427257537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78634834289551</t>
+    <t xml:space="preserve">8.28783416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3412446975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43916702270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8842716217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78634929656982</t>
   </si>
   <si>
     <t xml:space="preserve">8.7418384552002</t>
@@ -2894,13 +2894,13 @@
     <t xml:space="preserve">8.50148296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67952346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.563796043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45697212219238</t>
+    <t xml:space="preserve">8.67952442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45697116851807</t>
   </si>
   <si>
     <t xml:space="preserve">8.42136383056641</t>
@@ -2921,28 +2921,28 @@
     <t xml:space="preserve">8.29673480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10089111328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23441982269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453895568848</t>
+    <t xml:space="preserve">8.10089015960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23442077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453990936279</t>
   </si>
   <si>
     <t xml:space="preserve">8.12759494781494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02077198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40355968475342</t>
+    <t xml:space="preserve">8.02077102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40356063842773</t>
   </si>
   <si>
     <t xml:space="preserve">8.2789306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36795139312744</t>
+    <t xml:space="preserve">8.36795234680176</t>
   </si>
   <si>
     <t xml:space="preserve">8.46587467193604</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884202957153</t>
+    <t xml:space="preserve">7.46884250640869</t>
   </si>
   <si>
     <t xml:space="preserve">7.27299642562866</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">7.88723945617676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10979175567627</t>
+    <t xml:space="preserve">8.10979080200195</t>
   </si>
   <si>
     <t xml:space="preserve">8.11869335174561</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">8.02967357635498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13649940490723</t>
+    <t xml:space="preserve">8.13649845123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.90207576751709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82195663452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68842697143555</t>
+    <t xml:space="preserve">8.8219575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68842601776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.75964260101318</t>
@@ -3002,13 +3002,13 @@
     <t xml:space="preserve">8.73293781280518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38575553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44806957244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48367786407471</t>
+    <t xml:space="preserve">8.38575649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44807052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48367881774902</t>
   </si>
   <si>
     <t xml:space="preserve">8.49258041381836</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">8.16320323944092</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35905075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91394662857056</t>
+    <t xml:space="preserve">8.35904979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91394567489624</t>
   </si>
   <si>
     <t xml:space="preserve">8.41246223449707</t>
@@ -60076,7 +60076,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.649375</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>82791</v>
@@ -60097,6 +60097,32 @@
         <v>1334</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6495486111</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>42738</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>9.14999961853027</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>9.07999992370605</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>9.10999965667725</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>9.14000034332275</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8033275604248</t>
+    <t xml:space="preserve">8.80332660675049</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573421478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72105312347412</t>
+    <t xml:space="preserve">8.74573612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72105503082275</t>
   </si>
   <si>
     <t xml:space="preserve">8.72928047180176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79509925842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77864551544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54827690124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359580993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59764289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1451358795166</t>
+    <t xml:space="preserve">8.79510021209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77864456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359390258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59764194488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14513492584229</t>
   </si>
   <si>
     <t xml:space="preserve">8.1039981842041</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">8.4330940246582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30968379974365</t>
+    <t xml:space="preserve">8.30968284606934</t>
   </si>
   <si>
     <t xml:space="preserve">8.25209045410156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34259223937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46600246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22740840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613849639893</t>
+    <t xml:space="preserve">8.3425931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54004859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46600341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22740745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613945007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.63877868652344</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">8.56473350524902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6716890335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737369537354</t>
+    <t xml:space="preserve">8.67168807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737464904785</t>
   </si>
   <si>
     <t xml:space="preserve">8.77041816711426</t>
@@ -122,34 +122,34 @@
     <t xml:space="preserve">8.91851139068604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92673873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98433113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978321075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9102840423584</t>
+    <t xml:space="preserve">8.92673969268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978225708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028308868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.0419225692749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96787548065186</t>
+    <t xml:space="preserve">8.96787643432617</t>
   </si>
   <si>
     <t xml:space="preserve">8.89382839202881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05014896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97610378265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07483196258545</t>
+    <t xml:space="preserve">9.05015087127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97610187530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07483100891113</t>
   </si>
   <si>
     <t xml:space="preserve">8.81155490875244</t>
@@ -164,49 +164,49 @@
     <t xml:space="preserve">9.09128761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0666036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21469688415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46974849700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52733898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202388763428</t>
+    <t xml:space="preserve">9.06660461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21469783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46974658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54379558563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52734088897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202198028564</t>
   </si>
   <si>
     <t xml:space="preserve">9.74948024749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83998012542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71656894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87289047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94693565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088523864746</t>
+    <t xml:space="preserve">9.83998203277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7165699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87288951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94693660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088428497314</t>
   </si>
   <si>
     <t xml:space="preserve">9.86466312408447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93048191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77416229248047</t>
+    <t xml:space="preserve">9.93048286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77416324615479</t>
   </si>
   <si>
     <t xml:space="preserve">9.83175373077393</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114854812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3994436264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4652652740479</t>
+    <t xml:space="preserve">10.1114845275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88934421539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3994455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4652643203735</t>
   </si>
   <si>
     <t xml:space="preserve">10.4488096237183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120876312256</t>
+    <t xml:space="preserve">10.6133575439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722208023071</t>
@@ -242,49 +242,49 @@
     <t xml:space="preserve">10.5307931900024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2490882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2739448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3567981719971</t>
+    <t xml:space="preserve">10.2490873336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2739458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3567991256714</t>
   </si>
   <si>
     <t xml:space="preserve">10.4976511001587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805044174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4727945327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893655776978</t>
+    <t xml:space="preserve">10.5805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4727954864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
     <t xml:space="preserve">10.3982267379761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4396533966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1910905838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253810882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9839563369751</t>
+    <t xml:space="preserve">10.4396553039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905149459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253820419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98395442962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85967254638672</t>
+    <t xml:space="preserve">9.85967350006104</t>
   </si>
   <si>
     <t xml:space="preserve">10.1082363128662</t>
@@ -293,13 +293,13 @@
     <t xml:space="preserve">10.4230823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95909881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96738338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0668077468872</t>
+    <t xml:space="preserve">9.95909690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96738243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0668087005615</t>
   </si>
   <si>
     <t xml:space="preserve">10.5225076675415</t>
@@ -320,25 +320,25 @@
     <t xml:space="preserve">10.5556497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5639352798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722198486328</t>
+    <t xml:space="preserve">10.5639343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722217559814</t>
   </si>
   <si>
     <t xml:space="preserve">10.4147977828979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2325172424316</t>
+    <t xml:space="preserve">10.232518196106</t>
   </si>
   <si>
     <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5473642349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142211914062</t>
+    <t xml:space="preserve">10.5473651885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142221450806</t>
   </si>
   <si>
     <t xml:space="preserve">10.4810810089111</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">10.4645090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.133092880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3485136032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3650827407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6136484146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5059375762939</t>
+    <t xml:space="preserve">10.1330919265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3485145568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3650846481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6136474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5059385299683</t>
   </si>
   <si>
     <t xml:space="preserve">10.4562244415283</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">10.1248054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.323657989502</t>
+    <t xml:space="preserve">10.3236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">10.182804107666</t>
@@ -392,100 +392,100 @@
     <t xml:space="preserve">10.3402280807495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5970764160156</t>
+    <t xml:space="preserve">10.5970783233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6716451644897</t>
   </si>
   <si>
-    <t xml:space="preserve">10.721360206604</t>
+    <t xml:space="preserve">10.7213582992554</t>
   </si>
   <si>
     <t xml:space="preserve">10.7544994354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7379293441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0610628128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1107749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1273460388184</t>
+    <t xml:space="preserve">10.7379283905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0610618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1107740402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.127345085144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2433414459229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3427667617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.450478553772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5830450057983</t>
+    <t xml:space="preserve">11.3427658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4504766464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.583044052124</t>
   </si>
   <si>
     <t xml:space="preserve">11.5167608261108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5996141433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1853427886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3096237182617</t>
+    <t xml:space="preserve">11.5996150970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1853437423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3096227645874</t>
   </si>
   <si>
     <t xml:space="preserve">11.0196352005005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.903639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953533172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.771071434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6799306869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302185058594</t>
+    <t xml:space="preserve">10.9036388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953514099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776338577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7710704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.679931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302175521851</t>
   </si>
   <si>
     <t xml:space="preserve">10.8622102737427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8042125701904</t>
+    <t xml:space="preserve">10.8042116165161</t>
   </si>
   <si>
     <t xml:space="preserve">10.6633615493774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7462158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627859115601</t>
+    <t xml:space="preserve">10.7462148666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627849578857</t>
   </si>
   <si>
     <t xml:space="preserve">10.7047872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8787832260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7959280014038</t>
+    <t xml:space="preserve">10.8787813186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7959270477295</t>
   </si>
   <si>
     <t xml:space="preserve">10.6965007781982</t>
@@ -497,40 +497,40 @@
     <t xml:space="preserve">11.3924789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4339065551758</t>
+    <t xml:space="preserve">11.4339056015015</t>
   </si>
   <si>
     <t xml:space="preserve">11.3510513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1439151763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599115371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.268196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0859174728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1356315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3593378067017</t>
+    <t xml:space="preserve">11.1439170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024885177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2599124908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2681970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9450645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687726974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.359335899353</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847681045532</t>
@@ -545,19 +545,19 @@
     <t xml:space="preserve">11.226770401001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344812393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841924667358</t>
+    <t xml:space="preserve">11.0942049026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344802856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841934204102</t>
   </si>
   <si>
     <t xml:space="preserve">11.3013401031494</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">12.0470285415649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2624502182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2210216522217</t>
+    <t xml:space="preserve">12.2624521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.221022605896</t>
   </si>
   <si>
     <t xml:space="preserve">12.3453035354614</t>
@@ -596,28 +596,28 @@
     <t xml:space="preserve">12.2044515609741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.312162399292</t>
+    <t xml:space="preserve">12.3121633529663</t>
   </si>
   <si>
     <t xml:space="preserve">12.6352949142456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.668436050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.809289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435804367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6021547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4944429397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3370189666748</t>
+    <t xml:space="preserve">12.6684379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8092889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435794830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6021537780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4944448471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3370199203491</t>
   </si>
   <si>
     <t xml:space="preserve">12.4695863723755</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">12.759575843811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318458557129</t>
+    <t xml:space="preserve">13.2318477630615</t>
   </si>
   <si>
     <t xml:space="preserve">13.2484169006348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3644132614136</t>
+    <t xml:space="preserve">13.3644142150879</t>
   </si>
   <si>
     <t xml:space="preserve">13.4224119186401</t>
@@ -647,28 +647,28 @@
     <t xml:space="preserve">13.5466938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">14.342095375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137916564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338117599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538299560547</t>
+    <t xml:space="preserve">14.3420944213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7066555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480821609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538280487061</t>
   </si>
   <si>
     <t xml:space="preserve">14.0935306549072</t>
@@ -680,22 +680,22 @@
     <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3006687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2923822402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8640775680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8392238616943</t>
+    <t xml:space="preserve">14.300669670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2923831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8640785217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995164871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.83922290802</t>
   </si>
   <si>
     <t xml:space="preserve">14.6817979812622</t>
@@ -704,82 +704,82 @@
     <t xml:space="preserve">14.6238012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7895088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766258239746</t>
+    <t xml:space="preserve">14.7895107269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315111160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937705993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766267776489</t>
   </si>
   <si>
     <t xml:space="preserve">15.568341255188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.618052482605</t>
+    <t xml:space="preserve">15.6180515289307</t>
   </si>
   <si>
     <t xml:space="preserve">15.7423343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8831872940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020589828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097707748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5186290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7257623672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872081756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1371688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870435714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.578465461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867055892944</t>
+    <t xml:space="preserve">15.883186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097688674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7257661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.137170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870454788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867065429688</t>
   </si>
   <si>
     <t xml:space="preserve">15.2370853424072</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3036975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285879135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699680328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949457168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615550994873</t>
+    <t xml:space="preserve">15.3036956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699699401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949495315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615579605103</t>
   </si>
   <si>
     <t xml:space="preserve">15.5201807022095</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">15.5451574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5285053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954565048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366638183594</t>
+    <t xml:space="preserve">15.5285062789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202642440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366628646851</t>
   </si>
   <si>
     <t xml:space="preserve">15.7782945632935</t>
@@ -806,13 +806,13 @@
     <t xml:space="preserve">15.4868764877319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7283372879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783800125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.90318775177</t>
+    <t xml:space="preserve">15.7283353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783781051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031896591187</t>
   </si>
   <si>
     <t xml:space="preserve">15.8199253082275</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">15.6450748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.904034614563</t>
+    <t xml:space="preserve">14.9040355682373</t>
   </si>
   <si>
     <t xml:space="preserve">15.2537412643433</t>
@@ -830,130 +830,130 @@
     <t xml:space="preserve">15.0289306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0539073944092</t>
+    <t xml:space="preserve">15.0539064407349</t>
   </si>
   <si>
     <t xml:space="preserve">15.0372552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">15.411940574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951166152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618095397949</t>
+    <t xml:space="preserve">15.4119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701360702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618114471436</t>
   </si>
   <si>
     <t xml:space="preserve">15.6284198760986</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448175430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.720009803772</t>
+    <t xml:space="preserve">15.7533187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6950302124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7200107574463</t>
   </si>
   <si>
     <t xml:space="preserve">15.6117677688599</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7449884414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200971603394</t>
+    <t xml:space="preserve">15.7449903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200981140137</t>
   </si>
   <si>
     <t xml:space="preserve">15.4452438354492</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112193107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787189483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.320348739624</t>
+    <t xml:space="preserve">15.2037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1121940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957935333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787160873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203506469727</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9872980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370008468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.370306968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538228988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785470962524</t>
+    <t xml:space="preserve">14.9872961044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703050613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785480499268</t>
   </si>
   <si>
     <t xml:space="preserve">15.5368328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4702215194702</t>
+    <t xml:space="preserve">15.4702224731445</t>
   </si>
   <si>
     <t xml:space="preserve">15.6034440994263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5035285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534830093384</t>
+    <t xml:space="preserve">15.5035257339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534858703613</t>
   </si>
   <si>
     <t xml:space="preserve">15.4036111831665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7033576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619804382324</t>
+    <t xml:space="preserve">15.7033596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869600296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619785308838</t>
   </si>
   <si>
     <t xml:space="preserve">16.652551651001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4943561553955</t>
+    <t xml:space="preserve">16.4943542480469</t>
   </si>
   <si>
     <t xml:space="preserve">16.5026817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4110908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3444805145264</t>
+    <t xml:space="preserve">16.4110927581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3444843292236</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443969726562</t>
@@ -965,61 +965,61 @@
     <t xml:space="preserve">16.1446495056152</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116823196411</t>
+    <t xml:space="preserve">16.1529769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030178070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116832733154</t>
   </si>
   <si>
     <t xml:space="preserve">15.461895942688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9614725112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.853232383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9531440734863</t>
+    <t xml:space="preserve">15.9614715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616386413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532304763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.953145980835</t>
   </si>
   <si>
     <t xml:space="preserve">16.0031032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0530605316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864530563354</t>
+    <t xml:space="preserve">16.0530586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864521026611</t>
   </si>
   <si>
     <t xml:space="preserve">15.8365783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9281663894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367454528809</t>
+    <t xml:space="preserve">15.9281692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367464065552</t>
   </si>
   <si>
     <t xml:space="preserve">15.6534004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.78662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0697154998779</t>
+    <t xml:space="preserve">15.7866191864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0697135925293</t>
   </si>
   <si>
     <t xml:space="preserve">16.3861141204834</t>
@@ -1037,172 +1037,172 @@
     <t xml:space="preserve">16.8607082366943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7774486541748</t>
+    <t xml:space="preserve">16.7774467468262</t>
   </si>
   <si>
     <t xml:space="preserve">16.694185256958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4693737030029</t>
+    <t xml:space="preserve">16.4693756103516</t>
   </si>
   <si>
     <t xml:space="preserve">16.2029342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3694610595703</t>
+    <t xml:space="preserve">16.3694591522217</t>
   </si>
   <si>
     <t xml:space="preserve">17.2353935241699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272350311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1105003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9023399353027</t>
+    <t xml:space="preserve">17.0272369384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1104984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019203186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3186550140381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4435501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9856052398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5193328857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1363220214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1196708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0197563171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4194164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2528915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861976623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2695465087891</t>
+    <t xml:space="preserve">17.4435520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9856071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5193309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1196727752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0197582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4194145202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.252893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861938476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2695446014404</t>
   </si>
   <si>
     <t xml:space="preserve">15.0705614089966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2703914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535675048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.67005443573</t>
+    <t xml:space="preserve">15.2703895568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535694122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700563430786</t>
   </si>
   <si>
     <t xml:space="preserve">14.6708993911743</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8374261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044580459595</t>
+    <t xml:space="preserve">14.8374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542482376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044589996338</t>
   </si>
   <si>
     <t xml:space="preserve">14.2878904342651</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5543327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376796722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3711538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877233505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212800979614</t>
+    <t xml:space="preserve">14.55433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376777648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3711547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877214431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212810516357</t>
   </si>
   <si>
     <t xml:space="preserve">14.1380195617676</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0714073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3878078460693</t>
+    <t xml:space="preserve">14.0714092254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1213655471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3878087997437</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211975097656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7541627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039491653442</t>
+    <t xml:space="preserve">14.7541618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039510726929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8041200637817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.020604133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038665771484</t>
+    <t xml:space="preserve">15.0206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038656234741</t>
   </si>
   <si>
     <t xml:space="preserve">15.0954971313477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0285568237305</t>
+    <t xml:space="preserve">15.0285558700562</t>
   </si>
   <si>
     <t xml:space="preserve">14.8946704864502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1457052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293825149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101655960083</t>
+    <t xml:space="preserve">15.1457061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.229380607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.610164642334</t>
   </si>
   <si>
     <t xml:space="preserve">13.85706615448</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">14.4093399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2252473831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.325662612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7273149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6436376571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.844464302063</t>
+    <t xml:space="preserve">14.225248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3256635665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7273168563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6436357498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444662094116</t>
   </si>
   <si>
     <t xml:space="preserve">14.5264883041382</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">14.5599594116211</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6771097183228</t>
+    <t xml:space="preserve">14.6771078109741</t>
   </si>
   <si>
     <t xml:space="preserve">14.476282119751</t>
@@ -1244,64 +1244,64 @@
     <t xml:space="preserve">14.6603727340698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9616146087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118198394775</t>
+    <t xml:space="preserve">14.961612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118207931519</t>
   </si>
   <si>
     <t xml:space="preserve">14.7775211334229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.212646484375</t>
+    <t xml:space="preserve">15.2126474380493</t>
   </si>
   <si>
     <t xml:space="preserve">15.2795896530151</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1791772842407</t>
+    <t xml:space="preserve">15.1791753768921</t>
   </si>
   <si>
     <t xml:space="preserve">14.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0452890396118</t>
+    <t xml:space="preserve">15.0452909469604</t>
   </si>
   <si>
     <t xml:space="preserve">15.1122331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3632678985596</t>
+    <t xml:space="preserve">15.3632688522339</t>
   </si>
   <si>
     <t xml:space="preserve">15.2628555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0620269775391</t>
+    <t xml:space="preserve">15.0620260238647</t>
   </si>
   <si>
     <t xml:space="preserve">15.3297986984253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7314500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6143016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4636793136597</t>
+    <t xml:space="preserve">15.7314519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6812448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143026351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636821746826</t>
   </si>
   <si>
     <t xml:space="preserve">15.5306234359741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6477708816528</t>
+    <t xml:space="preserve">15.6477718353271</t>
   </si>
   <si>
     <t xml:space="preserve">15.798394203186</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">14.9114074707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5640954971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971504211426</t>
+    <t xml:space="preserve">15.5640964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6979808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971513748169</t>
   </si>
   <si>
     <t xml:space="preserve">15.7649230957031</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">15.4804162979126</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2963247299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3130617141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109922409058</t>
+    <t xml:space="preserve">15.2963256835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.313060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109912872314</t>
   </si>
   <si>
     <t xml:space="preserve">15.1624393463135</t>
@@ -1349,16 +1349,16 @@
     <t xml:space="preserve">14.7942581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8277292251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6938438415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7399168014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.723180770874</t>
+    <t xml:space="preserve">14.8277282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6938428878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7399158477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7231798171997</t>
   </si>
   <si>
     <t xml:space="preserve">13.6060304641724</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">13.974214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0913648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064437866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2211112976074</t>
+    <t xml:space="preserve">14.0913639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7064447402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2211132049561</t>
   </si>
   <si>
     <t xml:space="preserve">13.5892953872681</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">12.7023096084595</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9533443450928</t>
+    <t xml:space="preserve">12.9533433914185</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198713302612</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.618631362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516881942749</t>
+    <t xml:space="preserve">12.6186332702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516901016235</t>
   </si>
   <si>
     <t xml:space="preserve">12.4512758255005</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496225357056</t>
+    <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965211868286</t>
@@ -1445,40 +1445,40 @@
     <t xml:space="preserve">12.5349531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3801975250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7168369293213</t>
+    <t xml:space="preserve">11.3801984786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7168388366699</t>
   </si>
   <si>
     <t xml:space="preserve">12.2764472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8392534255981</t>
+    <t xml:space="preserve">12.2239847183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8392524719238</t>
   </si>
   <si>
     <t xml:space="preserve">11.9266920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4894962310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0316190719604</t>
+    <t xml:space="preserve">11.4894952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0316181182861</t>
   </si>
   <si>
     <t xml:space="preserve">12.7661075592041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1365442276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9791555404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.891716003418</t>
+    <t xml:space="preserve">12.1365461349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.979154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8917169570923</t>
   </si>
   <si>
     <t xml:space="preserve">12.1540327072144</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8042764663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518129348755</t>
+    <t xml:space="preserve">11.5594472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8042774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163503646851</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">12.5912284851074</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5037889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638858795166</t>
+    <t xml:space="preserve">12.5037899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638868331909</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6643733978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7867889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616670608521</t>
+    <t xml:space="preserve">11.6643753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7867879867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616680145264</t>
   </si>
   <si>
     <t xml:space="preserve">11.8567409515381</t>
@@ -1535,76 +1535,76 @@
     <t xml:space="preserve">11.7343254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6993503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0491075515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966421127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.258960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5562524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8535451889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.69615650177</t>
+    <t xml:space="preserve">11.6993494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0491056442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2589597702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5562515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8535470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8360576629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6961555480957</t>
   </si>
   <si>
     <t xml:space="preserve">12.6087160110474</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8185710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3988637924194</t>
+    <t xml:space="preserve">12.8185701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3988628387451</t>
   </si>
   <si>
     <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2939357757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5244703292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4195461273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3845701217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9298858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8074703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173263549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2446670532227</t>
+    <t xml:space="preserve">12.2939367294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441795349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5244731903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.419545173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3845691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9298868179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8074712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446660995483</t>
   </si>
   <si>
     <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1397399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271785736084</t>
+    <t xml:space="preserve">11.1397390365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271795272827</t>
   </si>
   <si>
     <t xml:space="preserve">11.2096910476685</t>
@@ -1622,37 +1622,37 @@
     <t xml:space="preserve">11.4370336532593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6818609237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141305923462</t>
+    <t xml:space="preserve">11.6818618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141296386719</t>
   </si>
   <si>
     <t xml:space="preserve">12.1015691757202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3321046829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3146181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2621536254883</t>
+    <t xml:space="preserve">12.0665941238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.332106590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3146171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2621545791626</t>
   </si>
   <si>
     <t xml:space="preserve">11.5419588088989</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0869455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685169219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4565105438232</t>
+    <t xml:space="preserve">11.0869445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685178756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4565086364746</t>
   </si>
   <si>
     <t xml:space="preserve">11.6500902175903</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">11.8436727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.861270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.632493019104</t>
+    <t xml:space="preserve">11.8612699508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6324920654297</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
@@ -1685,25 +1685,25 @@
     <t xml:space="preserve">11.3509187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.386116027832</t>
+    <t xml:space="preserve">11.3861150741577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380819320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0548524856567</t>
+    <t xml:space="preserve">11.7028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0548515319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.8964681625366</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7732791900635</t>
+    <t xml:space="preserve">11.7732782363892</t>
   </si>
   <si>
     <t xml:space="preserve">12.0020580291748</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">11.7908763885498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.438910484314</t>
+    <t xml:space="preserve">11.4389114379883</t>
   </si>
   <si>
     <t xml:space="preserve">11.5445003509521</t>
@@ -1721,25 +1721,25 @@
     <t xml:space="preserve">11.5093050003052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5269021987915</t>
+    <t xml:space="preserve">11.5269041061401</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7204837799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196542739868</t>
+    <t xml:space="preserve">11.7204847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0196561813354</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428422927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124092102051</t>
+    <t xml:space="preserve">12.1428442001343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124082565308</t>
   </si>
   <si>
     <t xml:space="preserve">12.3716220855713</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">12.0724496841431</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1604413986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6707935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7059907913208</t>
+    <t xml:space="preserve">12.1604423522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6707925796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7059898376465</t>
   </si>
   <si>
     <t xml:space="preserve">12.4948101043701</t>
@@ -1781,40 +1781,40 @@
     <t xml:space="preserve">11.3333206176758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4917068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132358551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5652027130127</t>
+    <t xml:space="preserve">11.4917058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132368087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
     <t xml:space="preserve">12.4772129058838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5828018188477</t>
+    <t xml:space="preserve">12.5828008651733</t>
   </si>
   <si>
     <t xml:space="preserve">12.4596138000488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1252470016479</t>
+    <t xml:space="preserve">12.1252460479736</t>
   </si>
   <si>
     <t xml:space="preserve">11.9668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9844589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.107647895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3188276290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33642578125</t>
+    <t xml:space="preserve">11.9844579696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076469421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3188285827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3364267349243</t>
   </si>
   <si>
     <t xml:space="preserve">12.1780405044556</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">12.2836303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3892202377319</t>
+    <t xml:space="preserve">12.3892192840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
@@ -1832,37 +1832,37 @@
     <t xml:space="preserve">13.3923254013062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4451189041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635465621948</t>
+    <t xml:space="preserve">13.4451208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635475158691</t>
   </si>
   <si>
     <t xml:space="preserve">13.3571290969849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2515382766724</t>
+    <t xml:space="preserve">13.2515392303467</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099235534668</t>
+    <t xml:space="preserve">13.4099225997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.462718963623</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6387004852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3747253417969</t>
+    <t xml:space="preserve">13.6387023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3747272491455</t>
   </si>
   <si>
     <t xml:space="preserve">13.286735534668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4275217056274</t>
+    <t xml:space="preserve">13.4275207519531</t>
   </si>
   <si>
     <t xml:space="preserve">13.3395299911499</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">12.4068193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.811580657959</t>
+    <t xml:space="preserve">12.8115797042847</t>
   </si>
   <si>
     <t xml:space="preserve">13.3043327331543</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">13.5859060287476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219327926636</t>
+    <t xml:space="preserve">13.4803161621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219308853149</t>
   </si>
   <si>
     <t xml:space="preserve">13.1283512115479</t>
@@ -1901,25 +1901,25 @@
     <t xml:space="preserve">12.9171714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0227603912354</t>
+    <t xml:space="preserve">13.022759437561</t>
   </si>
   <si>
     <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347677230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8995723724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6355962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7587842941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7411870956421</t>
+    <t xml:space="preserve">12.9347696304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8995704650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6355981826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7587862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7411861419678</t>
   </si>
   <si>
     <t xml:space="preserve">12.090048789978</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">12.3012285232544</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0372543334961</t>
+    <t xml:space="preserve">12.0372552871704</t>
   </si>
   <si>
     <t xml:space="preserve">11.6676893234253</t>
@@ -1937,46 +1937,46 @@
     <t xml:space="preserve">11.6852874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3157234191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2629280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4037132263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2277307510376</t>
+    <t xml:space="preserve">11.3157224655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2629270553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4037141799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2277317047119</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693464279175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.210132598877</t>
+    <t xml:space="preserve">11.2101335525513</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0134477615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126182556152</t>
+    <t xml:space="preserve">10.0134468078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126192092896</t>
   </si>
   <si>
     <t xml:space="preserve">10.1894292831421</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94305324554443</t>
+    <t xml:space="preserve">9.94305419921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.57348823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46789932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32711124420166</t>
+    <t xml:space="preserve">9.46789836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32711315155029</t>
   </si>
   <si>
     <t xml:space="preserve">9.30951309204102</t>
@@ -1985,25 +1985,25 @@
     <t xml:space="preserve">9.20392417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45599555969238</t>
+    <t xml:space="preserve">8.45599460601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.03363609313965</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95133876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25050973892212</t>
+    <t xml:space="preserve">7.94564294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95133829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25050926208496</t>
   </si>
   <si>
     <t xml:space="preserve">6.96013689041138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61697006225586</t>
+    <t xml:space="preserve">6.61697053909302</t>
   </si>
   <si>
     <t xml:space="preserve">5.93943452835083</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">6.20340967178345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07142114639282</t>
+    <t xml:space="preserve">6.07142210006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.73705387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05382394790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01862716674805</t>
+    <t xml:space="preserve">6.05382347106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01862764358521</t>
   </si>
   <si>
     <t xml:space="preserve">6.04502439498901</t>
@@ -2039,127 +2039,127 @@
     <t xml:space="preserve">5.9834303855896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15941381454468</t>
+    <t xml:space="preserve">6.15941429138184</t>
   </si>
   <si>
     <t xml:space="preserve">6.18581104278564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51138019561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68736267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63456869125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55537605285645</t>
+    <t xml:space="preserve">6.51137971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68736362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6345682144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55537509918213</t>
   </si>
   <si>
     <t xml:space="preserve">6.59057188034058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66096639633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332586288452</t>
+    <t xml:space="preserve">6.66096544265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332633972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.06572675704956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15371942520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2593092918396</t>
+    <t xml:space="preserve">7.1537184715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25930881500244</t>
   </si>
   <si>
     <t xml:space="preserve">6.96893644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29450607299805</t>
+    <t xml:space="preserve">7.29450511932373</t>
   </si>
   <si>
     <t xml:space="preserve">7.03933000564575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05692863464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91614198684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49378204345703</t>
+    <t xml:space="preserve">7.0569281578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91614103317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49378156661987</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858573913574</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62576913833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71376085281372</t>
+    <t xml:space="preserve">6.62576961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71376037597656</t>
   </si>
   <si>
     <t xml:space="preserve">6.69616270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81935024261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03052997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18011617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43529176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34730100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970190048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21841716766357</t>
+    <t xml:space="preserve">6.81935119628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03053092956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18011713027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43529224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34730052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99843883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97204160690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725814819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489868164062</t>
+    <t xml:space="preserve">7.97204065322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725862503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489915847778</t>
   </si>
   <si>
     <t xml:space="preserve">7.46168947219849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63767337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40009498596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41769409179688</t>
+    <t xml:space="preserve">7.63767290115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40009593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41769361495972</t>
   </si>
   <si>
     <t xml:space="preserve">7.54968118667603</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">7.62887382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72566413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448488235474</t>
+    <t xml:space="preserve">7.72566366195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448440551758</t>
   </si>
   <si>
     <t xml:space="preserve">7.91924667358398</t>
@@ -2180,97 +2180,97 @@
     <t xml:space="preserve">7.88404941558838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74326324462891</t>
+    <t xml:space="preserve">7.74326229095459</t>
   </si>
   <si>
     <t xml:space="preserve">7.66407012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58487701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60247611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75206279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5232834815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59367656707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21531295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812955856323</t>
+    <t xml:space="preserve">7.58487796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60247707366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75206232070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52328395843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59367704391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21531248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812908172607</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26810836791992</t>
+    <t xml:space="preserve">7.28570699691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26810741424561</t>
   </si>
   <si>
     <t xml:space="preserve">7.33850145339966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10092353820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12732172012329</t>
+    <t xml:space="preserve">7.10092401504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12732219696045</t>
   </si>
   <si>
     <t xml:space="preserve">7.14491939544678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92494058609009</t>
+    <t xml:space="preserve">6.92494106292725</t>
   </si>
   <si>
     <t xml:space="preserve">6.79295301437378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88094520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334705352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7841534614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72255945205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7049617767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738386154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59937191009521</t>
+    <t xml:space="preserve">6.88094568252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334657669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78415441513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7225604057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70496129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738481521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59937143325806</t>
   </si>
   <si>
     <t xml:space="preserve">6.43218755722046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25620460510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37059354782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28260135650635</t>
+    <t xml:space="preserve">6.25620412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37059307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.26500368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19461011886597</t>
+    <t xml:space="preserve">6.19460964202881</t>
   </si>
   <si>
     <t xml:space="preserve">6.23860645294189</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">6.47618341445923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54657649993896</t>
+    <t xml:space="preserve">6.54657697677612</t>
   </si>
   <si>
     <t xml:space="preserve">6.66976499557495</t>
@@ -2294,10 +2294,10 @@
     <t xml:space="preserve">6.73135948181152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41458892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60817098617554</t>
+    <t xml:space="preserve">6.41458940505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60817050933838</t>
   </si>
   <si>
     <t xml:space="preserve">6.52897834777832</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">6.67856454849243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40579032897949</t>
+    <t xml:space="preserve">6.40578985214233</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.168212890625</t>
+    <t xml:space="preserve">6.16821336746216</t>
   </si>
   <si>
     <t xml:space="preserve">5.82504510879517</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">5.64026308059692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41148519515991</t>
+    <t xml:space="preserve">5.41148471832275</t>
   </si>
   <si>
     <t xml:space="preserve">5.37628793716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42908334732056</t>
+    <t xml:space="preserve">5.4290828704834</t>
   </si>
   <si>
     <t xml:space="preserve">5.45548057556152</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">5.67545938491821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144376754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574890136719</t>
+    <t xml:space="preserve">5.85144281387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574842453003</t>
   </si>
   <si>
     <t xml:space="preserve">6.80175256729126</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96324110031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125448226929</t>
+    <t xml:space="preserve">7.9632420539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125400543213</t>
   </si>
   <si>
     <t xml:space="preserve">7.82245588302612</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70806694030762</t>
+    <t xml:space="preserve">7.7080659866333</t>
   </si>
   <si>
     <t xml:space="preserve">7.65527105331421</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">7.76086091995239</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80485677719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64647197723389</t>
+    <t xml:space="preserve">7.804856300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64647150039673</t>
   </si>
   <si>
     <t xml:space="preserve">7.53208303451538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808670043945</t>
+    <t xml:space="preserve">7.48808717727661</t>
   </si>
   <si>
     <t xml:space="preserve">7.8752498626709</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">7.49688673019409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56728029251099</t>
+    <t xml:space="preserve">7.56727933883667</t>
   </si>
   <si>
     <t xml:space="preserve">7.69046783447266</t>
@@ -2402,25 +2402,25 @@
     <t xml:space="preserve">7.89284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06883239746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85765171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76966047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9104471206665</t>
+    <t xml:space="preserve">8.06883144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85765218734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76965999603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044616699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.08642959594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33280563354492</t>
+    <t xml:space="preserve">8.10402774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.34160423278809</t>
@@ -2429,16 +2429,16 @@
     <t xml:space="preserve">8.06003284454346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01603698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38249731063843</t>
+    <t xml:space="preserve">8.01603603363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38249778747559</t>
   </si>
   <si>
     <t xml:space="preserve">7.444091796875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42649269104004</t>
+    <t xml:space="preserve">7.42649221420288</t>
   </si>
   <si>
     <t xml:space="preserve">7.67286920547485</t>
@@ -2447,25 +2447,25 @@
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682315826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19202041625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42079830169678</t>
+    <t xml:space="preserve">8.15682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19202136993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42079734802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.64957714080811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59678268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50879001617432</t>
+    <t xml:space="preserve">8.59678173065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5087890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.46479415893555</t>
@@ -2474,19 +2474,19 @@
     <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43839740753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47359275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35920429229736</t>
+    <t xml:space="preserve">8.43839645385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47359466552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35920333862305</t>
   </si>
   <si>
     <t xml:space="preserve">8.20081901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24481582641602</t>
+    <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
     <t xml:space="preserve">8.05123329162598</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">8.79916286468506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81676006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7111701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7815637588501</t>
+    <t xml:space="preserve">8.8167610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71117115020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78156280517578</t>
   </si>
   <si>
     <t xml:space="preserve">8.5175895690918</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">8.32400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39440059661865</t>
+    <t xml:space="preserve">8.39440155029297</t>
   </si>
   <si>
     <t xml:space="preserve">9.06313705444336</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88715362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.719970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42959785461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73756885528564</t>
+    <t xml:space="preserve">8.8871545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71996974945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42959690093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73756694793701</t>
   </si>
   <si>
     <t xml:space="preserve">8.79036331176758</t>
@@ -2552,37 +2552,37 @@
     <t xml:space="preserve">8.57038402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6759729385376</t>
+    <t xml:space="preserve">8.67597389221191</t>
   </si>
   <si>
     <t xml:space="preserve">8.72876930236816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6055793762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35040378570557</t>
+    <t xml:space="preserve">8.60558128356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3504056930542</t>
   </si>
   <si>
     <t xml:space="preserve">8.36800384521484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57918262481689</t>
+    <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
     <t xml:space="preserve">8.74636650085449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27431774139404</t>
+    <t xml:space="preserve">9.27431678771973</t>
   </si>
   <si>
     <t xml:space="preserve">9.36230945587158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15112781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13352966308594</t>
+    <t xml:space="preserve">9.1511287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13353061676025</t>
   </si>
   <si>
     <t xml:space="preserve">9.24035549163818</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">9.20474624633789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64985179901123</t>
+    <t xml:space="preserve">9.64985084533691</t>
   </si>
   <si>
     <t xml:space="preserve">9.81008815765381</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">10.1661710739136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3086042404175</t>
+    <t xml:space="preserve">10.2373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3086032867432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3976259231567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3442134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3264093399048</t>
+    <t xml:space="preserve">10.3442115783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3264083862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.0949544906616</t>
@@ -2636,10 +2636,10 @@
     <t xml:space="preserve">9.9703254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91691303253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75667572021484</t>
+    <t xml:space="preserve">9.91691398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75667667388916</t>
   </si>
   <si>
     <t xml:space="preserve">9.61424255371094</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">9.77447986602783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86350059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54302597045898</t>
+    <t xml:space="preserve">9.86349964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5430269241333</t>
   </si>
   <si>
     <t xml:space="preserve">9.45400524139404</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">9.56082916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68545818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63204574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43620109558105</t>
+    <t xml:space="preserve">9.68545913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63204669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43620204925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.11572647094727</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376792907715</t>
+    <t xml:space="preserve">9.29376697540283</t>
   </si>
   <si>
     <t xml:space="preserve">9.34718036651611</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">9.31157207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09792232513428</t>
+    <t xml:space="preserve">9.09792137145996</t>
   </si>
   <si>
     <t xml:space="preserve">8.91988086700439</t>
@@ -2696,49 +2696,49 @@
     <t xml:space="preserve">9.02670574188232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48961353302002</t>
+    <t xml:space="preserve">9.4896125793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40059280395508</t>
+    <t xml:space="preserve">9.40059185028076</t>
   </si>
   <si>
     <t xml:space="preserve">9.525221824646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82789134979248</t>
+    <t xml:space="preserve">9.8278923034668</t>
   </si>
   <si>
     <t xml:space="preserve">9.8456974029541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93471717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41839694976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47180938720703</t>
+    <t xml:space="preserve">9.93471622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41839599609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47181034088135</t>
   </si>
   <si>
     <t xml:space="preserve">9.3649845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32937431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25815868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70326328277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72106742858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04450988769531</t>
+    <t xml:space="preserve">9.32937526702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25815963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70326232910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72106647491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.044508934021</t>
   </si>
   <si>
     <t xml:space="preserve">8.95548915863037</t>
@@ -2750,28 +2750,28 @@
     <t xml:space="preserve">8.93768501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81305503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63501358032227</t>
+    <t xml:space="preserve">8.81305599212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63501453399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87537002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59940624237061</t>
+    <t xml:space="preserve">8.87537097930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59940528869629</t>
   </si>
   <si>
     <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6973295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525184631348</t>
+    <t xml:space="preserve">8.69732856750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525089263916</t>
   </si>
   <si>
     <t xml:space="preserve">8.64391613006592</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">8.54599380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60830783843994</t>
+    <t xml:space="preserve">8.60830688476562</t>
   </si>
   <si>
     <t xml:space="preserve">8.67062187194824</t>
@@ -2792,16 +2792,16 @@
     <t xml:space="preserve">8.47477722167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62611198425293</t>
+    <t xml:space="preserve">8.62611103057861</t>
   </si>
   <si>
     <t xml:space="preserve">8.75074195861816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76854610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83976268768311</t>
+    <t xml:space="preserve">8.76854515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83976078033447</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">9.88130474090576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5370922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.519287109375</t>
+    <t xml:space="preserve">8.53709125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51928615570068</t>
   </si>
   <si>
     <t xml:space="preserve">8.18990993499756</t>
@@ -2828,28 +2828,28 @@
     <t xml:space="preserve">8.21661567687988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74480581283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712223052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70919799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00296688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9050440788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83382749557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32344150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17210578918457</t>
+    <t xml:space="preserve">7.74480628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70919847488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00296592712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90504360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83382654190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32344055175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.14540004730225</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065284729004</t>
+    <t xml:space="preserve">7.94065189361572</t>
   </si>
   <si>
     <t xml:space="preserve">8.07418346405029</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">8.34124565124512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43916797637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842716217041</t>
+    <t xml:space="preserve">8.43916702270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88427066802979</t>
   </si>
   <si>
     <t xml:space="preserve">8.78634929656982</t>
@@ -2888,34 +2888,34 @@
     <t xml:space="preserve">8.7418384552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43026542663574</t>
+    <t xml:space="preserve">8.43026638031006</t>
   </si>
   <si>
     <t xml:space="preserve">8.50148296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67952346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56379795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4569730758667</t>
+    <t xml:space="preserve">8.67952442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45697212219238</t>
   </si>
   <si>
     <t xml:space="preserve">8.42136383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33234310150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30563735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89614200592041</t>
+    <t xml:space="preserve">8.33234405517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30563640594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89614105224609</t>
   </si>
   <si>
     <t xml:space="preserve">8.29673480987549</t>
@@ -2924,16 +2924,16 @@
     <t xml:space="preserve">8.10089015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23441982269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453895568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12759590148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077007293701</t>
+    <t xml:space="preserve">8.23442077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12759685516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077102661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.40355968475342</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">8.46587467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014820098877</t>
+    <t xml:space="preserve">8.35014724731445</t>
   </si>
   <si>
     <t xml:space="preserve">8.20771503448486</t>
@@ -2957,34 +2957,34 @@
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884202957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27299690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45993995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69139432907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88723850250244</t>
+    <t xml:space="preserve">7.46884250640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27299642562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45993947982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6913948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88723993301392</t>
   </si>
   <si>
     <t xml:space="preserve">8.10979080200195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11869335174561</t>
+    <t xml:space="preserve">8.11869239807129</t>
   </si>
   <si>
     <t xml:space="preserve">7.9762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02967262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13649845123291</t>
+    <t xml:space="preserve">8.02967357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13649749755859</t>
   </si>
   <si>
     <t xml:space="preserve">8.90207672119141</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">8.8219575881958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68842792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7596435546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73293685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38575553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44806957244873</t>
+    <t xml:space="preserve">8.68842601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75964260101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73293781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38575649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44807147979736</t>
   </si>
   <si>
     <t xml:space="preserve">8.48367786407471</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">8.49258136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16320419311523</t>
+    <t xml:space="preserve">8.16320323944092</t>
   </si>
   <si>
     <t xml:space="preserve">8.35904979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9139461517334</t>
+    <t xml:space="preserve">7.91394662857056</t>
   </si>
   <si>
     <t xml:space="preserve">8.41246223449707</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">8.3744010925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26481151580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2374153137207</t>
+    <t xml:space="preserve">8.26481246948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23741436004639</t>
   </si>
   <si>
     <t xml:space="preserve">8.44745922088623</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45659255981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42919540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394580841064</t>
+    <t xml:space="preserve">8.45659160614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42919445037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394485473633</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">7.62554502487183</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57988309860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75339794158936</t>
+    <t xml:space="preserve">7.57988262176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7533974647522</t>
   </si>
   <si>
     <t xml:space="preserve">7.60727977752686</t>
@@ -3092,10 +3092,10 @@
     <t xml:space="preserve">7.76253080368042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68033838272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5890154838562</t>
+    <t xml:space="preserve">7.68033885955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">7.48855876922607</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">7.57075071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30591106414795</t>
+    <t xml:space="preserve">7.30591154098511</t>
   </si>
   <si>
     <t xml:space="preserve">7.32417631149292</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">7.50682401657104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49769115447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39723539352417</t>
+    <t xml:space="preserve">7.49769163131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39723491668701</t>
   </si>
   <si>
     <t xml:space="preserve">7.46116209030151</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">7.47942638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31504344940186</t>
+    <t xml:space="preserve">7.31504392623901</t>
   </si>
   <si>
     <t xml:space="preserve">7.2328519821167</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">7.51595544815063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72600078582764</t>
+    <t xml:space="preserve">7.72600126266479</t>
   </si>
   <si>
     <t xml:space="preserve">7.59814739227295</t>
@@ -3155,10 +3155,10 @@
     <t xml:space="preserve">7.64380931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34244108200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29677867889404</t>
+    <t xml:space="preserve">7.34244060516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29677820205688</t>
   </si>
   <si>
     <t xml:space="preserve">7.33330774307251</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">7.21458768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10499858856201</t>
+    <t xml:space="preserve">7.10499906539917</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">6.93148374557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72143888473511</t>
+    <t xml:space="preserve">6.72143840789795</t>
   </si>
   <si>
     <t xml:space="preserve">6.7305703163147</t>
@@ -3206,16 +3206,16 @@
     <t xml:space="preserve">6.80362939834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67577648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62098169326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64837980270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53879070281982</t>
+    <t xml:space="preserve">6.67577600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6483793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53879022598267</t>
   </si>
   <si>
     <t xml:space="preserve">6.5844521522522</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">6.4474663734436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49312877655029</t>
+    <t xml:space="preserve">6.49312829971313</t>
   </si>
   <si>
     <t xml:space="preserve">6.47486400604248</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">6.41093683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52965784072876</t>
+    <t xml:space="preserve">6.52965831756592</t>
   </si>
   <si>
     <t xml:space="preserve">6.48399591445923</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">6.3561429977417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16436243057251</t>
+    <t xml:space="preserve">6.16436195373535</t>
   </si>
   <si>
     <t xml:space="preserve">6.09130334854126</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">6.12783288955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13696479797363</t>
+    <t xml:space="preserve">6.13696527481079</t>
   </si>
   <si>
     <t xml:space="preserve">5.96345043182373</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">6.03650903701782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10956811904907</t>
+    <t xml:space="preserve">6.10956859588623</t>
   </si>
   <si>
     <t xml:space="preserve">6.04564142227173</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">6.3013482093811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57531976699829</t>
+    <t xml:space="preserve">6.57532024383545</t>
   </si>
   <si>
     <t xml:space="preserve">6.42006969451904</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">6.54792261123657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27395105361938</t>
+    <t xml:space="preserve">6.27395057678223</t>
   </si>
   <si>
     <t xml:space="preserve">6.70317363739014</t>
@@ -3305,13 +3305,13 @@
     <t xml:space="preserve">6.50226068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39267206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33787775039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38353967666626</t>
+    <t xml:space="preserve">6.39267253875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3835391998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.19176006317139</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24655389785767</t>
+    <t xml:space="preserve">6.24655437469482</t>
   </si>
   <si>
     <t xml:space="preserve">6.21915674209595</t>
@@ -3335,13 +3335,13 @@
     <t xml:space="preserve">6.43833446502686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2922158241272</t>
+    <t xml:space="preserve">6.29221630096436</t>
   </si>
   <si>
     <t xml:space="preserve">6.17349529266357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32874584197998</t>
+    <t xml:space="preserve">6.32874536514282</t>
   </si>
   <si>
     <t xml:space="preserve">6.20089197158813</t>
@@ -3350,19 +3350,19 @@
     <t xml:space="preserve">6.28308391571045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11870098114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14609813690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25568675994873</t>
+    <t xml:space="preserve">6.11870050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460976600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25568628311157</t>
   </si>
   <si>
     <t xml:space="preserve">6.51139354705811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40180492401123</t>
+    <t xml:space="preserve">6.40180540084839</t>
   </si>
   <si>
     <t xml:space="preserve">6.73970317840576</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">6.7944974899292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230554580688</t>
+    <t xml:space="preserve">6.71230602264404</t>
   </si>
   <si>
     <t xml:space="preserve">6.55705499649048</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">6.63924694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61184978485107</t>
+    <t xml:space="preserve">6.61184930801392</t>
   </si>
   <si>
     <t xml:space="preserve">6.91321849822998</t>
@@ -3404,13 +3404,13 @@
     <t xml:space="preserve">6.88582134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95888042449951</t>
+    <t xml:space="preserve">6.95887994766235</t>
   </si>
   <si>
     <t xml:space="preserve">6.8584246635437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86755609512329</t>
+    <t xml:space="preserve">6.86755657196045</t>
   </si>
   <si>
     <t xml:space="preserve">6.84015893936157</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">6.78536462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92235040664673</t>
+    <t xml:space="preserve">6.92235088348389</t>
   </si>
   <si>
     <t xml:space="preserve">6.96066236495972</t>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1340">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.80332565307617</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
@@ -47,49 +47,49 @@
     <t xml:space="preserve">8.74573612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72105503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72928047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79510021209717</t>
+    <t xml:space="preserve">8.72105312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72927951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79509925842285</t>
   </si>
   <si>
     <t xml:space="preserve">8.77864456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54827880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359390258789</t>
+    <t xml:space="preserve">8.54827785491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359580993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14513492584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1039981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60586929321289</t>
+    <t xml:space="preserve">8.1451358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10399723052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60586833953857</t>
   </si>
   <si>
     <t xml:space="preserve">8.4330940246582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30968284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25209045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3425931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004859924316</t>
+    <t xml:space="preserve">8.30968189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34259223937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5400505065918</t>
   </si>
   <si>
     <t xml:space="preserve">8.46600341796875</t>
@@ -98,91 +98,91 @@
     <t xml:space="preserve">8.22740745544434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32613945007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63877868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67168807983398</t>
+    <t xml:space="preserve">8.32613849639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877964019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068737030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6716890335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.87737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77041816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673969268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98433017730713</t>
+    <t xml:space="preserve">8.77041721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433208465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.81978225708008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91028308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0419225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787643432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89382839202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05015087127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97610187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07483100891113</t>
+    <t xml:space="preserve">8.91028499603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787738800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89382934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05014991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97610282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07483196258545</t>
   </si>
   <si>
     <t xml:space="preserve">8.81155490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86091899871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09951400756836</t>
+    <t xml:space="preserve">8.86091995239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09951305389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.09128761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06660461425781</t>
+    <t xml:space="preserve">9.0666036605835</t>
   </si>
   <si>
     <t xml:space="preserve">9.21469783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46974658966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54379558563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52734088897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74948024749756</t>
+    <t xml:space="preserve">9.46974849700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52733993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202388763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74947929382324</t>
   </si>
   <si>
     <t xml:space="preserve">9.83998203277588</t>
@@ -191,31 +191,31 @@
     <t xml:space="preserve">9.7165699005127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87288951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94693660736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088428497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466312408447</t>
+    <t xml:space="preserve">9.87289047241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088523864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466217041016</t>
   </si>
   <si>
     <t xml:space="preserve">9.93048286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77416324615479</t>
+    <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
     <t xml:space="preserve">9.83175373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95516490936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1114845275879</t>
+    <t xml:space="preserve">9.95516395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1114854812622</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934421539307</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">10.4488096237183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133575439453</t>
+    <t xml:space="preserve">10.613356590271</t>
   </si>
   <si>
     <t xml:space="preserve">10.7120866775513</t>
@@ -242,40 +242,40 @@
     <t xml:space="preserve">10.5307931900024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2490873336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2739458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3567991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4976511001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805063247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4727954864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893665313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3982267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905149459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1910886764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253820419312</t>
+    <t xml:space="preserve">10.2490882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2739448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3567981719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805053710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4727964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893655776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3982276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396533966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910905838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253801345825</t>
   </si>
   <si>
     <t xml:space="preserve">9.98395442962646</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85967350006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082363128662</t>
+    <t xml:space="preserve">9.8596715927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082353591919</t>
   </si>
   <si>
     <t xml:space="preserve">10.4230823516846</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">10.0668087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225076675415</t>
+    <t xml:space="preserve">10.5225086212158</t>
   </si>
   <si>
     <t xml:space="preserve">10.1165208816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579484939575</t>
+    <t xml:space="preserve">10.1579494476318</t>
   </si>
   <si>
     <t xml:space="preserve">10.3816556930542</t>
@@ -320,22 +320,22 @@
     <t xml:space="preserve">10.5556497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5639343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4147977828979</t>
+    <t xml:space="preserve">10.5639352798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4147987365723</t>
   </si>
   <si>
     <t xml:space="preserve">10.232518196106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.588791847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473651885986</t>
+    <t xml:space="preserve">10.5887908935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5473642349243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142221450806</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">10.1330919265747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3485145568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3650846481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6136474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5059385299683</t>
+    <t xml:space="preserve">10.3485136032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.365083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6136465072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5059356689453</t>
   </si>
   <si>
     <t xml:space="preserve">10.4562244415283</t>
@@ -371,28 +371,28 @@
     <t xml:space="preserve">10.2988014221191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.224232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1662340164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248054504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236560821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.182804107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6053609848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402280807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970783233643</t>
+    <t xml:space="preserve">10.2242336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1662349700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1828050613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6053619384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970773696899</t>
   </si>
   <si>
     <t xml:space="preserve">10.6716451644897</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">10.7213582992554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7544994354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7379283905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0610618591309</t>
+    <t xml:space="preserve">10.7545003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7379293441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0610609054565</t>
   </si>
   <si>
     <t xml:space="preserve">11.1107740402222</t>
@@ -416,49 +416,49 @@
     <t xml:space="preserve">11.127345085144</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2433414459229</t>
+    <t xml:space="preserve">11.2433404922485</t>
   </si>
   <si>
     <t xml:space="preserve">11.3427658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4504766464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.583044052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5167608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996150970459</t>
+    <t xml:space="preserve">11.4504776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5830450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5167617797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
     <t xml:space="preserve">11.1853437423706</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3096227645874</t>
+    <t xml:space="preserve">11.3096237182617</t>
   </si>
   <si>
     <t xml:space="preserve">11.0196352005005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9036388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953514099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776338577271</t>
+    <t xml:space="preserve">10.903639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776319503784</t>
   </si>
   <si>
     <t xml:space="preserve">10.8870677947998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7710704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.679931640625</t>
+    <t xml:space="preserve">10.771071434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6799306869507</t>
   </si>
   <si>
     <t xml:space="preserve">10.6302175521851</t>
@@ -467,34 +467,34 @@
     <t xml:space="preserve">10.8622102737427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8042116165161</t>
+    <t xml:space="preserve">10.8042135238647</t>
   </si>
   <si>
     <t xml:space="preserve">10.6633615493774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7462148666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8787813186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7959270477295</t>
+    <t xml:space="preserve">10.7462139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7959280014038</t>
   </si>
   <si>
     <t xml:space="preserve">10.6965007781982</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9947776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924789428711</t>
+    <t xml:space="preserve">10.9947786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924798965454</t>
   </si>
   <si>
     <t xml:space="preserve">11.4339056015015</t>
@@ -509,94 +509,94 @@
     <t xml:space="preserve">11.1024885177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2599124908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2681970596313</t>
+    <t xml:space="preserve">11.2599115371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2681980133057</t>
   </si>
   <si>
     <t xml:space="preserve">11.0859184265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9450645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687726974487</t>
+    <t xml:space="preserve">10.9450654983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687717437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.135630607605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2516269683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359335899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847681045532</t>
+    <t xml:space="preserve">11.2516260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847671508789</t>
   </si>
   <si>
     <t xml:space="preserve">11.4753341674805</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4587631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.226770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942049026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782056808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344802856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841934204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3013401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1770572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9533519744873</t>
+    <t xml:space="preserve">11.4587621688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2267713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942029953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344821929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841924667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3013381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.177056312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.953351020813</t>
   </si>
   <si>
     <t xml:space="preserve">11.2764835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6658983230591</t>
+    <t xml:space="preserve">11.6658973693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.1215982437134</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0967407226562</t>
+    <t xml:space="preserve">12.0967416763306</t>
   </si>
   <si>
     <t xml:space="preserve">12.0470285415649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2624521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.221022605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3453035354614</t>
+    <t xml:space="preserve">12.2624502182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2210235595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453044891357</t>
   </si>
   <si>
     <t xml:space="preserve">12.2044515609741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3121633529663</t>
+    <t xml:space="preserve">12.312162399292</t>
   </si>
   <si>
     <t xml:space="preserve">12.6352949142456</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">12.6021537780762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4944448471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3370199203491</t>
+    <t xml:space="preserve">12.4944429397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3370189666748</t>
   </si>
   <si>
     <t xml:space="preserve">12.4695863723755</t>
@@ -626,22 +626,22 @@
     <t xml:space="preserve">12.5938682556152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.676721572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.759575843811</t>
+    <t xml:space="preserve">12.6767225265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7595767974854</t>
   </si>
   <si>
     <t xml:space="preserve">13.2318477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2484169006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3644142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4224119186401</t>
+    <t xml:space="preserve">13.2484159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3644151687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4224109649658</t>
   </si>
   <si>
     <t xml:space="preserve">13.5466938018799</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">14.3420944213867</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066555023193</t>
+    <t xml:space="preserve">14.7066535949707</t>
   </si>
   <si>
     <t xml:space="preserve">14.7480821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9137887954712</t>
+    <t xml:space="preserve">14.9137897491455</t>
   </si>
   <si>
     <t xml:space="preserve">14.3338108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8698272705078</t>
+    <t xml:space="preserve">13.8698263168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.6709747314453</t>
@@ -674,64 +674,64 @@
     <t xml:space="preserve">14.0935306549072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9195384979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3255233764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.300669670105</t>
+    <t xml:space="preserve">13.9195375442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3255243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3006677627563</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8640785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580907821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995164871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.83922290802</t>
+    <t xml:space="preserve">14.8640775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580926895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8392219543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.6817979812622</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6238012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895107269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315111160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.568341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180515289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423343658447</t>
+    <t xml:space="preserve">14.62380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895097732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.576623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.618052482605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.742335319519</t>
   </si>
   <si>
     <t xml:space="preserve">15.883186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4523448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020580291748</t>
+    <t xml:space="preserve">15.4523458480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020570755005</t>
   </si>
   <si>
     <t xml:space="preserve">15.6097688674927</t>
@@ -740,49 +740,49 @@
     <t xml:space="preserve">15.5186262130737</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7257661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440603256226</t>
+    <t xml:space="preserve">15.7257652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440574645996</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.137170791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870454788208</t>
+    <t xml:space="preserve">15.203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1371688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870416641235</t>
   </si>
   <si>
     <t xml:space="preserve">15.5784645080566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6867065429688</t>
+    <t xml:space="preserve">15.6867074966431</t>
   </si>
   <si>
     <t xml:space="preserve">15.2370853424072</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3036956787109</t>
+    <t xml:space="preserve">15.3036966323853</t>
   </si>
   <si>
     <t xml:space="preserve">15.4285898208618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7699699401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949495315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201807022095</t>
+    <t xml:space="preserve">15.7699661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949476242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615560531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201787948608</t>
   </si>
   <si>
     <t xml:space="preserve">15.5451574325562</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">15.4202642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1954536437988</t>
+    <t xml:space="preserve">15.1954545974731</t>
   </si>
   <si>
     <t xml:space="preserve">15.7366628646851</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7782945632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868764877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783781051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9031896591187</t>
+    <t xml:space="preserve">15.7782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783790588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031925201416</t>
   </si>
   <si>
     <t xml:space="preserve">15.8199253082275</t>
@@ -824,52 +824,52 @@
     <t xml:space="preserve">14.9040355682373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2537412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539064407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4119396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951147079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618114471436</t>
+    <t xml:space="preserve">15.2537393569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289297103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372562408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4119386672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951175689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618104934692</t>
   </si>
   <si>
     <t xml:space="preserve">15.6284198760986</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7533187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448184967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950302124023</t>
+    <t xml:space="preserve">15.7533168792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448165893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6950330734253</t>
   </si>
   <si>
     <t xml:space="preserve">15.7200107574463</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6117677688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7449903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200981140137</t>
+    <t xml:space="preserve">15.6117668151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.620096206665</t>
   </si>
   <si>
     <t xml:space="preserve">15.4452438354492</t>
@@ -878,142 +878,142 @@
     <t xml:space="preserve">15.2037811279297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1121940612793</t>
+    <t xml:space="preserve">15.112193107605</t>
   </si>
   <si>
     <t xml:space="preserve">14.7957935333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2787160873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872961044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785480499268</t>
+    <t xml:space="preserve">15.2787199020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.320348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370027542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703098297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538228988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785499572754</t>
   </si>
   <si>
     <t xml:space="preserve">15.5368328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4702224731445</t>
+    <t xml:space="preserve">15.4702215194702</t>
   </si>
   <si>
     <t xml:space="preserve">15.6034440994263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5035257339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118532180786</t>
+    <t xml:space="preserve">15.5035276412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118541717529</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534858703613</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4036111831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7033596038818</t>
+    <t xml:space="preserve">15.4036092758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3869600296021</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3619785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.652551651001</t>
+    <t xml:space="preserve">15.3619813919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6525535583496</t>
   </si>
   <si>
     <t xml:space="preserve">16.4943542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110927581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3444843292236</t>
+    <t xml:space="preserve">16.5026798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110908508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.344482421875</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3028507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1446495056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1529769897461</t>
+    <t xml:space="preserve">16.302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1446514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1529788970947</t>
   </si>
   <si>
     <t xml:space="preserve">16.1030178070068</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7116832733154</t>
+    <t xml:space="preserve">15.7116842269897</t>
   </si>
   <si>
     <t xml:space="preserve">15.461895942688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9614715576172</t>
+    <t xml:space="preserve">15.9614686965942</t>
   </si>
   <si>
     <t xml:space="preserve">15.8449039459229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7616386413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532304763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.953145980835</t>
+    <t xml:space="preserve">15.7616405487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532295227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9531450271606</t>
   </si>
   <si>
     <t xml:space="preserve">16.0031032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0530586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281692504883</t>
+    <t xml:space="preserve">16.0530605316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365774154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281702041626</t>
   </si>
   <si>
     <t xml:space="preserve">15.6367464065552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6534004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7866191864014</t>
+    <t xml:space="preserve">15.6533985137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7866220474243</t>
   </si>
   <si>
     <t xml:space="preserve">16.0280838012695</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">16.0697135925293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861141204834</t>
+    <t xml:space="preserve">16.3861122131348</t>
   </si>
   <si>
     <t xml:space="preserve">16.5443115234375</t>
@@ -1031,13 +1031,13 @@
     <t xml:space="preserve">16.602596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8190784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8607082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7774467468262</t>
+    <t xml:space="preserve">16.8190765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.860710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.694185256958</t>
@@ -1046,40 +1046,40 @@
     <t xml:space="preserve">16.4693756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2029342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694591522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353935241699</t>
+    <t xml:space="preserve">16.202938079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694610595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353954315186</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272369384766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1104984283447</t>
+    <t xml:space="preserve">17.1104965209961</t>
   </si>
   <si>
     <t xml:space="preserve">17.5684432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4019203186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9023418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3186550140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4435520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9856071472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688648223877</t>
+    <t xml:space="preserve">17.4019184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.90234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4435482025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9856052398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688667297363</t>
   </si>
   <si>
     <t xml:space="preserve">16.5193309783936</t>
@@ -1094,49 +1094,49 @@
     <t xml:space="preserve">16.0197582244873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4194145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.252893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364093780518</t>
+    <t xml:space="preserve">16.4194183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861957550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364112854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.2695446014404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0705614089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703895568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700563430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6708993911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374252319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878904342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55433177948</t>
+    <t xml:space="preserve">15.0705604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703924179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.67005443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8374271392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878923416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5543327331543</t>
   </si>
   <si>
     <t xml:space="preserve">14.5376777648926</t>
@@ -1145,28 +1145,28 @@
     <t xml:space="preserve">14.3711547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877214431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212810516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714092254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1213655471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3878087997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3211975097656</t>
+    <t xml:space="preserve">14.7708148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877223968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1213645935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.387806892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.321195602417</t>
   </si>
   <si>
     <t xml:space="preserve">14.7541618347168</t>
@@ -1181,220 +1181,220 @@
     <t xml:space="preserve">15.0206022262573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9198389053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038656234741</t>
+    <t xml:space="preserve">15.9198446273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038646697998</t>
   </si>
   <si>
     <t xml:space="preserve">15.0954971313477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0285558700562</t>
+    <t xml:space="preserve">15.0285539627075</t>
   </si>
   <si>
     <t xml:space="preserve">14.8946704864502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1457061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.229380607605</t>
+    <t xml:space="preserve">15.1457052230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293834686279</t>
   </si>
   <si>
     <t xml:space="preserve">14.610164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.85706615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4093399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.225248336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3256635665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7273168563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6436357498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444662094116</t>
+    <t xml:space="preserve">13.8570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4093389511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2252473831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.325662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7273139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6436367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.844464302063</t>
   </si>
   <si>
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599594116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771078109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.476282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3926057815552</t>
+    <t xml:space="preserve">14.5599603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771097183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4762811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3926038742065</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603727340698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.961612701416</t>
+    <t xml:space="preserve">14.9616146087646</t>
   </si>
   <si>
     <t xml:space="preserve">15.0118207931519</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7775211334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2126474380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2795896530151</t>
+    <t xml:space="preserve">14.7775230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.212646484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2795886993408</t>
   </si>
   <si>
     <t xml:space="preserve">15.1791753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9950838088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452909469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1122331619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3632688522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2628555297852</t>
+    <t xml:space="preserve">14.9950866699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1122341156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3632659912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2628536224365</t>
   </si>
   <si>
     <t xml:space="preserve">15.0620260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3297986984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314519882202</t>
+    <t xml:space="preserve">15.3297967910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314491271973</t>
   </si>
   <si>
     <t xml:space="preserve">15.6812448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6143026351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4636821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.798394203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5640964508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649230957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963256835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.313060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109912872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624393463135</t>
+    <t xml:space="preserve">15.6143016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473585128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306253433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477727890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114084243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640954971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.697979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971523284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649240493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804134368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3130598068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624402999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432233810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.593430519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942581176758</t>
+    <t xml:space="preserve">14.5432262420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5934314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">14.8277282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6938428878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7399158477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7231798171997</t>
+    <t xml:space="preserve">14.6938457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7399168014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.723180770874</t>
   </si>
   <si>
     <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6897087097168</t>
+    <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
     <t xml:space="preserve">13.974214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0913639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064447402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2211132049561</t>
+    <t xml:space="preserve">14.0913648605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7064456939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2211122512817</t>
   </si>
   <si>
     <t xml:space="preserve">13.5892953872681</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3047914505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023096084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533433914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198713302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0872268676758</t>
+    <t xml:space="preserve">13.3047924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023077011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533443450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0872278213501</t>
   </si>
   <si>
     <t xml:space="preserve">13.1541700363159</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6186332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512758255005</t>
+    <t xml:space="preserve">12.6186323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516891479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512767791748</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965211868286</t>
+    <t xml:space="preserve">11.29651927948</t>
   </si>
   <si>
     <t xml:space="preserve">11.781852722168</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006544113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.384334564209</t>
+    <t xml:space="preserve">11.9157361984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3843336105347</t>
   </si>
   <si>
     <t xml:space="preserve">12.5349531173706</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">11.3801984786987</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7168388366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2764472961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2239847183228</t>
+    <t xml:space="preserve">11.7168378829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2764482498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2239837646484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8392524719238</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">11.9266920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4894952774048</t>
+    <t xml:space="preserve">11.4894971847534</t>
   </si>
   <si>
     <t xml:space="preserve">12.0316181182861</t>
@@ -1472,64 +1472,64 @@
     <t xml:space="preserve">12.7661075592041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1365461349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.979154586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8917169570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1540327072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1715211868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1190576553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5594472885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8042774200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518119812012</t>
+    <t xml:space="preserve">12.1365451812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9791555404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.891716003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1540336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1715221405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1190567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5594482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518129348755</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163503646851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.521276473999</t>
+    <t xml:space="preserve">12.5212774276733</t>
   </si>
   <si>
     <t xml:space="preserve">12.5912284851074</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5037899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638868331909</t>
+    <t xml:space="preserve">12.5037889480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638877868652</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6643753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7867879867554</t>
+    <t xml:space="preserve">11.6643743515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.786789894104</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616680145264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8567409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8742275238037</t>
+    <t xml:space="preserve">11.8567399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.874228477478</t>
   </si>
   <si>
     <t xml:space="preserve">11.7343254089355</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">12.2589597702026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8535470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8360576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6961555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087160110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8185701370239</t>
+    <t xml:space="preserve">12.5562534332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8535451889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6961545944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8185691833496</t>
   </si>
   <si>
     <t xml:space="preserve">12.3988628387451</t>
@@ -1571,46 +1571,46 @@
     <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2939367294312</t>
+    <t xml:space="preserve">12.2939357757568</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441795349121</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5244731903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.419545173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3845691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9298868179321</t>
+    <t xml:space="preserve">11.524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4195442199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3845710754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
     <t xml:space="preserve">10.8074712753296</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0173254013062</t>
+    <t xml:space="preserve">11.0173234939575</t>
   </si>
   <si>
     <t xml:space="preserve">11.2446660995483</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1572275161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1397390365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271795272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2096910476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4720077514648</t>
+    <t xml:space="preserve">11.1572284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1397409439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2096900939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4720087051392</t>
   </si>
   <si>
     <t xml:space="preserve">11.4545202255249</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">11.1922035217285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4370336532593</t>
+    <t xml:space="preserve">11.4370317459106</t>
   </si>
   <si>
     <t xml:space="preserve">11.6818618774414</t>
@@ -1631,31 +1631,31 @@
     <t xml:space="preserve">12.1015691757202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.332106590271</t>
+    <t xml:space="preserve">12.0665950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3321056365967</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5419588088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685178756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4565086364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6500902175903</t>
+    <t xml:space="preserve">11.2621555328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5419597625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869436264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685169219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4565095901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.650089263916</t>
   </si>
   <si>
     <t xml:space="preserve">11.8436727523804</t>
@@ -1664,22 +1664,22 @@
     <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6324920654297</t>
+    <t xml:space="preserve">11.6324939727783</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2981243133545</t>
+    <t xml:space="preserve">11.2981252670288</t>
   </si>
   <si>
     <t xml:space="preserve">11.1573371887207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1749353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805261611938</t>
+    <t xml:space="preserve">11.1749362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
@@ -1688,49 +1688,49 @@
     <t xml:space="preserve">11.3861150741577</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4213123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028856277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380828857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0548515319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8964681625366</t>
+    <t xml:space="preserve">11.4213132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380819320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0548524856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8964672088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.7732782363892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0020580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7908763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4389114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5445003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5093050003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5269041061401</t>
+    <t xml:space="preserve">12.0020570755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.438910484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5445013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5269021987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7204847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196561813354</t>
+    <t xml:space="preserve">11.7204837799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0196552276611</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308349609375</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">12.5124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3716220855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0724496841431</t>
+    <t xml:space="preserve">12.3716230392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0724506378174</t>
   </si>
   <si>
     <t xml:space="preserve">12.1604423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6707925796509</t>
+    <t xml:space="preserve">12.6707944869995</t>
   </si>
   <si>
     <t xml:space="preserve">12.7059898376465</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">11.5620994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4741077423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333206176758</t>
+    <t xml:space="preserve">11.4741067886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333215713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917058944702</t>
@@ -1790,31 +1790,31 @@
     <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4772129058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5828008651733</t>
+    <t xml:space="preserve">12.4772119522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
     <t xml:space="preserve">12.4596138000488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1252460479736</t>
+    <t xml:space="preserve">12.1252450942993</t>
   </si>
   <si>
     <t xml:space="preserve">11.9668607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9844579696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076469421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3188285827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3364267349243</t>
+    <t xml:space="preserve">11.9844598770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.107647895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.318826675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.33642578125</t>
   </si>
   <si>
     <t xml:space="preserve">12.1780405044556</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">12.2836303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3892192840576</t>
+    <t xml:space="preserve">12.3892202377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
@@ -1835,31 +1835,31 @@
     <t xml:space="preserve">13.4451208114624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1635475158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3571290969849</t>
+    <t xml:space="preserve">13.1635465621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3571281433105</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5507097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4099225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.462718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6387023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3747272491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.286735534668</t>
+    <t xml:space="preserve">13.550708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4099235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4627180099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6387014389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3747262954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2867345809937</t>
   </si>
   <si>
     <t xml:space="preserve">13.4275207519531</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">12.5476055145264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4068193435669</t>
+    <t xml:space="preserve">12.4068202972412</t>
   </si>
   <si>
     <t xml:space="preserve">12.8115797042847</t>
@@ -1880,40 +1880,40 @@
     <t xml:space="preserve">13.3043327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5859060287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4803161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9523668289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0579566955566</t>
+    <t xml:space="preserve">13.5859050750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283502578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9523677825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.057957649231</t>
   </si>
   <si>
     <t xml:space="preserve">12.9171714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.022759437561</t>
+    <t xml:space="preserve">13.0227603912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347696304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8995704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6355981826782</t>
+    <t xml:space="preserve">12.9347677230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8995714187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6355972290039</t>
   </si>
   <si>
     <t xml:space="preserve">12.7587862014771</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">12.7411861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.090048789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3012285232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0372552871704</t>
+    <t xml:space="preserve">12.0900478363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3012275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0372543334961</t>
   </si>
   <si>
     <t xml:space="preserve">11.6676893234253</t>
@@ -1937,16 +1937,16 @@
     <t xml:space="preserve">11.6852874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3157224655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2629270553589</t>
+    <t xml:space="preserve">11.3157215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2629280090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.4037141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277317047119</t>
+    <t xml:space="preserve">11.2277307510376</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693464279175</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">10.0134468078613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126192092896</t>
+    <t xml:space="preserve">10.3126173019409</t>
   </si>
   <si>
     <t xml:space="preserve">10.1894292831421</t>
@@ -1970,13 +1970,13 @@
     <t xml:space="preserve">9.94305419921875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57348823547363</t>
+    <t xml:space="preserve">9.57348918914795</t>
   </si>
   <si>
     <t xml:space="preserve">9.46789836883545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32711315155029</t>
+    <t xml:space="preserve">9.32711219787598</t>
   </si>
   <si>
     <t xml:space="preserve">9.30951309204102</t>
@@ -1985,25 +1985,25 @@
     <t xml:space="preserve">9.20392417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45599460601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03363609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564294815063</t>
+    <t xml:space="preserve">8.45599555969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03363513946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564342498779</t>
   </si>
   <si>
     <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25050926208496</t>
+    <t xml:space="preserve">7.25050973892212</t>
   </si>
   <si>
     <t xml:space="preserve">6.96013689041138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61697053909302</t>
+    <t xml:space="preserve">6.61697006225586</t>
   </si>
   <si>
     <t xml:space="preserve">5.93943452835083</t>
@@ -2018,64 +2018,64 @@
     <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20340967178345</t>
+    <t xml:space="preserve">6.20341014862061</t>
   </si>
   <si>
     <t xml:space="preserve">6.07142210006714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73705387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05382347106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01862764358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04502439498901</t>
+    <t xml:space="preserve">5.73705339431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05382394790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01862716674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04502391815186</t>
   </si>
   <si>
     <t xml:space="preserve">5.9834303855896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15941429138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18581104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51137971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68736362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6345682144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55537509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59057188034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66096544265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06572675704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1537184715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25930881500244</t>
+    <t xml:space="preserve">6.15941333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1858115196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51138019561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100782394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6873631477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63456869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55537557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59057235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66096591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06572723388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15371942520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2593092918396</t>
   </si>
   <si>
     <t xml:space="preserve">6.96893644332886</t>
@@ -2084,16 +2084,16 @@
     <t xml:space="preserve">7.29450511932373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03933000564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0569281578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91614103317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49378156661987</t>
+    <t xml:space="preserve">7.03932952880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05692863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91614198684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49378204345703</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858573913574</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">6.69616270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81935119628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03053092956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18011713027954</t>
+    <t xml:space="preserve">6.8193507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03053045272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18011569976807</t>
   </si>
   <si>
     <t xml:space="preserve">7.43529224395752</t>
@@ -2123,94 +2123,94 @@
     <t xml:space="preserve">7.34730052947998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32970237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210374832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843883514404</t>
+    <t xml:space="preserve">7.32970142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210422515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928762435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99843788146973</t>
   </si>
   <si>
     <t xml:space="preserve">8.21841812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00723838806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725862503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489915847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168947219849</t>
+    <t xml:space="preserve">8.00723934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204256057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725957870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489868164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168899536133</t>
   </si>
   <si>
     <t xml:space="preserve">7.63767290115356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40009593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41769361495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968118667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62887382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72566366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88404941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74326229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66407012939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58487796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60247707366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75206232070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52328395843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59367704391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21531248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812908172607</t>
+    <t xml:space="preserve">7.40009546279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41769313812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6288743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72566509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448392868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404846191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74326276779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66407108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58487844467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60247659683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75206279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5232834815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59367752075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21531295776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812955856323</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570699691772</t>
+    <t xml:space="preserve">7.28570604324341</t>
   </si>
   <si>
     <t xml:space="preserve">7.26810741424561</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">7.33850145339966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10092401504517</t>
+    <t xml:space="preserve">7.10092306137085</t>
   </si>
   <si>
     <t xml:space="preserve">7.12732219696045</t>
@@ -2228,16 +2228,16 @@
     <t xml:space="preserve">7.14491939544678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92494106292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79295301437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88094568252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334657669067</t>
+    <t xml:space="preserve">6.92494058609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79295253753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88094520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334705352783</t>
   </si>
   <si>
     <t xml:space="preserve">6.78415441513062</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">6.7225604057312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70496129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738481521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59937143325806</t>
+    <t xml:space="preserve">6.7049617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59937191009521</t>
   </si>
   <si>
     <t xml:space="preserve">6.43218755722046</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">6.26500368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19460964202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23860645294189</t>
+    <t xml:space="preserve">6.19461011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23860597610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.48498249053955</t>
@@ -2282,31 +2282,31 @@
     <t xml:space="preserve">6.5025806427002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47618341445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54657697677612</t>
+    <t xml:space="preserve">6.47618389129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">6.66976499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73135948181152</t>
+    <t xml:space="preserve">6.73135900497437</t>
   </si>
   <si>
     <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60817050933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52897834777832</t>
+    <t xml:space="preserve">6.60817098617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52897882461548</t>
   </si>
   <si>
     <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67856454849243</t>
+    <t xml:space="preserve">6.67856407165527</t>
   </si>
   <si>
     <t xml:space="preserve">6.40578985214233</t>
@@ -2315,22 +2315,22 @@
     <t xml:space="preserve">6.22980690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16821336746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82504510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64026308059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41148471832275</t>
+    <t xml:space="preserve">6.168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82504463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64026260375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41148519515991</t>
   </si>
   <si>
     <t xml:space="preserve">5.37628793716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4290828704834</t>
+    <t xml:space="preserve">5.42908382415771</t>
   </si>
   <si>
     <t xml:space="preserve">5.45548057556152</t>
@@ -2339,19 +2339,19 @@
     <t xml:space="preserve">5.67545938491821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144281387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574842453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80175256729126</t>
+    <t xml:space="preserve">5.85144329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80175304412842</t>
   </si>
   <si>
     <t xml:space="preserve">6.88974380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90164804458618</t>
+    <t xml:space="preserve">7.90164709091187</t>
   </si>
   <si>
     <t xml:space="preserve">8.16562271118164</t>
@@ -2363,76 +2363,76 @@
     <t xml:space="preserve">7.83125400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82245588302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7080659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65527105331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76086091995239</t>
+    <t xml:space="preserve">7.82245492935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70806646347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65527057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086044311523</t>
   </si>
   <si>
     <t xml:space="preserve">7.804856300354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64647150039673</t>
+    <t xml:space="preserve">7.64647102355957</t>
   </si>
   <si>
     <t xml:space="preserve">7.53208303451538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808717727661</t>
+    <t xml:space="preserve">7.48808670043945</t>
   </si>
   <si>
     <t xml:space="preserve">7.8752498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49688673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56727933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69046783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89284896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06883144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85765218734741</t>
+    <t xml:space="preserve">7.49688625335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56727981567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6904673576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284944534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06883239746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85765171051025</t>
   </si>
   <si>
     <t xml:space="preserve">7.76965999603271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91044616699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08642959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402774810791</t>
+    <t xml:space="preserve">7.91044664382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08643054962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402870178223</t>
   </si>
   <si>
     <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34160423278809</t>
+    <t xml:space="preserve">8.3416051864624</t>
   </si>
   <si>
     <t xml:space="preserve">8.06003284454346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01603603363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38249778747559</t>
+    <t xml:space="preserve">8.01603698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38249731063843</t>
   </si>
   <si>
     <t xml:space="preserve">7.444091796875</t>
@@ -2441,49 +2441,49 @@
     <t xml:space="preserve">7.42649221420288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67286920547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98963928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721576690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19202136993408</t>
+    <t xml:space="preserve">7.67286968231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98963832855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15682315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19202041625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.42079734802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64957714080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46479415893555</t>
+    <t xml:space="preserve">8.64957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50879001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46479320526123</t>
   </si>
   <si>
     <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43839645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47359466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20081901550293</t>
+    <t xml:space="preserve">8.43839740753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47359371185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20081806182861</t>
   </si>
   <si>
     <t xml:space="preserve">8.2448148727417</t>
@@ -2495,22 +2495,22 @@
     <t xml:space="preserve">8.18322086334229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49119186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93994808197021</t>
+    <t xml:space="preserve">8.49119091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93994903564453</t>
   </si>
   <si>
     <t xml:space="preserve">8.79916286468506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8167610168457</t>
+    <t xml:space="preserve">8.81676006317139</t>
   </si>
   <si>
     <t xml:space="preserve">8.71117115020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78156280517578</t>
+    <t xml:space="preserve">8.7815637588501</t>
   </si>
   <si>
     <t xml:space="preserve">8.5175895690918</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">8.32400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39440155029297</t>
+    <t xml:space="preserve">8.39440059661865</t>
   </si>
   <si>
     <t xml:space="preserve">9.06313705444336</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8871545791626</t>
+    <t xml:space="preserve">8.88715362548828</t>
   </si>
   <si>
     <t xml:space="preserve">8.71996974945068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42959690093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73756694793701</t>
+    <t xml:space="preserve">8.42959785461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73756885528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.79036331176758</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57038402557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67597389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72876930236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60558128356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3504056930542</t>
+    <t xml:space="preserve">8.57038307189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6759729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72876834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6055793762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35040378570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.36800384521484</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74636650085449</t>
+    <t xml:space="preserve">8.74636745452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431678771973</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">9.24035549163818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0623140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99109745025635</t>
+    <t xml:space="preserve">9.06231498718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99109649658203</t>
   </si>
   <si>
     <t xml:space="preserve">9.20474624633789</t>
@@ -2612,19 +2612,19 @@
     <t xml:space="preserve">10.2373876571655</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3086032867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3442115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3264083862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0949544906616</t>
+    <t xml:space="preserve">10.3086042404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976249694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3442125320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3264093399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0949554443359</t>
   </si>
   <si>
     <t xml:space="preserve">10.1305627822876</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">10.1483669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9703254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91691398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75667667388916</t>
+    <t xml:space="preserve">9.97032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91691303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75667572021484</t>
   </si>
   <si>
     <t xml:space="preserve">9.61424255371094</t>
@@ -2648,16 +2648,16 @@
     <t xml:space="preserve">9.77447986602783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86349964141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5430269241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45400524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56082916259766</t>
+    <t xml:space="preserve">9.86350059509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54302597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45400428771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56083011627197</t>
   </si>
   <si>
     <t xml:space="preserve">9.68545913696289</t>
@@ -2666,16 +2666,16 @@
     <t xml:space="preserve">9.63204669952393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43620204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11572647094727</t>
+    <t xml:space="preserve">9.43620109558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11572551727295</t>
   </si>
   <si>
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376697540283</t>
+    <t xml:space="preserve">9.29376792907715</t>
   </si>
   <si>
     <t xml:space="preserve">9.34718036651611</t>
@@ -2684,40 +2684,40 @@
     <t xml:space="preserve">9.31157207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91988086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97329235076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02670574188232</t>
+    <t xml:space="preserve">9.09792232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91988182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97329330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02670478820801</t>
   </si>
   <si>
     <t xml:space="preserve">9.4896125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57863426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40059185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.525221824646</t>
+    <t xml:space="preserve">9.57863330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40059280395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52522087097168</t>
   </si>
   <si>
     <t xml:space="preserve">9.8278923034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8456974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93471622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41839599609375</t>
+    <t xml:space="preserve">9.84569644927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93471717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41839694976807</t>
   </si>
   <si>
     <t xml:space="preserve">9.47181034088135</t>
@@ -2729,40 +2729,40 @@
     <t xml:space="preserve">9.32937526702881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25815963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70326232910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72106647491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.044508934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95548915863037</t>
+    <t xml:space="preserve">9.25815868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70326328277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72106742858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04450988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95548820495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.85756587982178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81305599212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63501453399658</t>
+    <t xml:space="preserve">8.93768405914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81305503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63501358032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87537097930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59940528869629</t>
+    <t xml:space="preserve">8.87537002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59940624237061</t>
   </si>
   <si>
     <t xml:space="preserve">8.59050369262695</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">8.64391613006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80415344238281</t>
+    <t xml:space="preserve">8.80415439605713</t>
   </si>
   <si>
     <t xml:space="preserve">8.54599380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60830688476562</t>
+    <t xml:space="preserve">8.60830783843994</t>
   </si>
   <si>
     <t xml:space="preserve">8.67062187194824</t>
@@ -2792,16 +2792,16 @@
     <t xml:space="preserve">8.47477722167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62611103057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75074195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76854515075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83976078033447</t>
+    <t xml:space="preserve">8.62611198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75074100494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76854705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83976268768311</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
@@ -2810,25 +2810,25 @@
     <t xml:space="preserve">9.73887157440186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88130474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53709125518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51928615570068</t>
+    <t xml:space="preserve">9.88130569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5370922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.18990993499756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22551822662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480628967285</t>
+    <t xml:space="preserve">8.22551918029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480581283569</t>
   </si>
   <si>
     <t xml:space="preserve">7.80712080001831</t>
@@ -2840,25 +2840,25 @@
     <t xml:space="preserve">8.00296592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90504360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83382654190063</t>
+    <t xml:space="preserve">7.9050440788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83382749557495</t>
   </si>
   <si>
     <t xml:space="preserve">8.32344055175781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17210674285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14540004730225</t>
+    <t xml:space="preserve">8.17210578918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14539909362793</t>
   </si>
   <si>
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065189361572</t>
+    <t xml:space="preserve">7.94065093994141</t>
   </si>
   <si>
     <t xml:space="preserve">8.07418346405029</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">8.0563793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28783416748047</t>
+    <t xml:space="preserve">8.28783321380615</t>
   </si>
   <si>
     <t xml:space="preserve">8.34124565124512</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">8.43916702270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88427066802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78634929656982</t>
+    <t xml:space="preserve">8.88427257537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78634834289551</t>
   </si>
   <si>
     <t xml:space="preserve">8.7418384552002</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">8.56379699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45697212219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42136383056641</t>
+    <t xml:space="preserve">8.4569730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42136478424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.33234405517578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30563640594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03857421875</t>
+    <t xml:space="preserve">8.30563831329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03857517242432</t>
   </si>
   <si>
     <t xml:space="preserve">7.89614105224609</t>
@@ -2924,19 +2924,19 @@
     <t xml:space="preserve">8.10089015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23442077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12759685516357</t>
+    <t xml:space="preserve">8.23441982269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453895568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12759590148926</t>
   </si>
   <si>
     <t xml:space="preserve">8.02077102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40355968475342</t>
+    <t xml:space="preserve">8.4035587310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.2789306640625</t>
@@ -2948,79 +2948,79 @@
     <t xml:space="preserve">8.46587467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014724731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20771503448486</t>
+    <t xml:space="preserve">8.35014820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20771408081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884250640869</t>
+    <t xml:space="preserve">7.46884202957153</t>
   </si>
   <si>
     <t xml:space="preserve">7.27299642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45993947982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6913948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88723993301392</t>
+    <t xml:space="preserve">7.4599404335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69139432907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88723945617676</t>
   </si>
   <si>
     <t xml:space="preserve">8.10979080200195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11869239807129</t>
+    <t xml:space="preserve">8.11869335174561</t>
   </si>
   <si>
     <t xml:space="preserve">7.9762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02967357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13649749755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90207672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8219575881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68842601776123</t>
+    <t xml:space="preserve">8.02967262268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13649845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90207576751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82195663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68842697143555</t>
   </si>
   <si>
     <t xml:space="preserve">8.75964260101318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73293781280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38575649261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44807147979736</t>
+    <t xml:space="preserve">8.73293685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38575553894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44806957244873</t>
   </si>
   <si>
     <t xml:space="preserve">8.48367786407471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49258136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16320323944092</t>
+    <t xml:space="preserve">8.49258041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16320419311523</t>
   </si>
   <si>
     <t xml:space="preserve">8.35904979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91394662857056</t>
+    <t xml:space="preserve">7.9139461517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.41246223449707</t>
@@ -3029,13 +3029,13 @@
     <t xml:space="preserve">8.3744010925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26481246948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23741436004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44745922088623</t>
+    <t xml:space="preserve">8.26481151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2374153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44746017456055</t>
   </si>
   <si>
     <t xml:space="preserve">8.53878402709961</t>
@@ -3053,40 +3053,40 @@
     <t xml:space="preserve">8.45659160614014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42919445037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394485473633</t>
+    <t xml:space="preserve">8.42919540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394580841064</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686840057373</t>
+    <t xml:space="preserve">7.71686887741089</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63467693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62554502487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57988262176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7533974647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60727977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61641263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69860410690308</t>
+    <t xml:space="preserve">7.63467741012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62554454803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57988309860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75339794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60728025436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61641216278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69860363006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.76253080368042</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">7.48855876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57075071334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30591154098511</t>
+    <t xml:space="preserve">7.57075023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30591106414795</t>
   </si>
   <si>
     <t xml:space="preserve">7.32417631149292</t>
@@ -3116,22 +3116,22 @@
     <t xml:space="preserve">7.56161785125732</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50682401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49769163131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39723491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46116209030151</t>
+    <t xml:space="preserve">7.5068244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49769067764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39723587036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46116161346436</t>
   </si>
   <si>
     <t xml:space="preserve">7.47942638397217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31504392623901</t>
+    <t xml:space="preserve">7.31504344940186</t>
   </si>
   <si>
     <t xml:space="preserve">7.2328519821167</t>
@@ -3140,25 +3140,25 @@
     <t xml:space="preserve">7.24198436737061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51595544815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72600126266479</t>
+    <t xml:space="preserve">7.51595592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72600078582764</t>
   </si>
   <si>
     <t xml:space="preserve">7.59814739227295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53422117233276</t>
+    <t xml:space="preserve">7.53422069549561</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34244060516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29677820205688</t>
+    <t xml:space="preserve">7.34244108200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29677867889404</t>
   </si>
   <si>
     <t xml:space="preserve">7.33330774307251</t>
@@ -3167,22 +3167,22 @@
     <t xml:space="preserve">7.27851390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21458768844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10499906539917</t>
+    <t xml:space="preserve">7.21458721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10499858856201</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99540996551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87668895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93148374557495</t>
+    <t xml:space="preserve">6.99540948867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87668943405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93148326873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.72143840789795</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">6.98627758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80362939834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67577600479126</t>
+    <t xml:space="preserve">6.80362987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67577648162842</t>
   </si>
   <si>
     <t xml:space="preserve">6.62098217010498</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">6.6483793258667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53879022598267</t>
+    <t xml:space="preserve">6.53879070281982</t>
   </si>
   <si>
     <t xml:space="preserve">6.5844521522522</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">6.49312829971313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47486400604248</t>
+    <t xml:space="preserve">6.47486352920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.41093683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52965831756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48399591445923</t>
+    <t xml:space="preserve">6.52965784072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48399639129639</t>
   </si>
   <si>
     <t xml:space="preserve">6.3561429977417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16436195373535</t>
+    <t xml:space="preserve">6.16436243057251</t>
   </si>
   <si>
     <t xml:space="preserve">6.09130334854126</t>
@@ -3278,13 +3278,13 @@
     <t xml:space="preserve">6.03650903701782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10956859588623</t>
+    <t xml:space="preserve">6.10956811904907</t>
   </si>
   <si>
     <t xml:space="preserve">6.04564142227173</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3013482093811</t>
+    <t xml:space="preserve">6.30134868621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.57532024383545</t>
@@ -3293,10 +3293,10 @@
     <t xml:space="preserve">6.42006969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54792261123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395057678223</t>
+    <t xml:space="preserve">6.54792308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395105361938</t>
   </si>
   <si>
     <t xml:space="preserve">6.70317363739014</t>
@@ -3305,22 +3305,22 @@
     <t xml:space="preserve">6.50226068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39267253875732</t>
+    <t xml:space="preserve">6.39267206192017</t>
   </si>
   <si>
     <t xml:space="preserve">6.33787822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3835391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19176006317139</t>
+    <t xml:space="preserve">6.38353967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19175958633423</t>
   </si>
   <si>
     <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24655437469482</t>
+    <t xml:space="preserve">6.24655389785767</t>
   </si>
   <si>
     <t xml:space="preserve">6.21915674209595</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">6.43833446502686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29221630096436</t>
+    <t xml:space="preserve">6.29221534729004</t>
   </si>
   <si>
     <t xml:space="preserve">6.17349529266357</t>
@@ -3344,40 +3344,40 @@
     <t xml:space="preserve">6.32874536514282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20089197158813</t>
+    <t xml:space="preserve">6.20089244842529</t>
   </si>
   <si>
     <t xml:space="preserve">6.28308391571045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11870050430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460976600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25568628311157</t>
+    <t xml:space="preserve">6.11870098114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14609813690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25568675994873</t>
   </si>
   <si>
     <t xml:space="preserve">6.51139354705811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40180540084839</t>
+    <t xml:space="preserve">6.40180492401123</t>
   </si>
   <si>
     <t xml:space="preserve">6.73970317840576</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94061517715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97714519500732</t>
+    <t xml:space="preserve">6.9406156539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97714567184448</t>
   </si>
   <si>
     <t xml:space="preserve">7.02280712127686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81276226043701</t>
+    <t xml:space="preserve">6.81276178359985</t>
   </si>
   <si>
     <t xml:space="preserve">6.74883556365967</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">6.7944974899292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230602264404</t>
+    <t xml:space="preserve">6.71230554580688</t>
   </si>
   <si>
     <t xml:space="preserve">6.55705499649048</t>
@@ -3404,13 +3404,13 @@
     <t xml:space="preserve">6.88582134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95887994766235</t>
+    <t xml:space="preserve">6.95888042449951</t>
   </si>
   <si>
     <t xml:space="preserve">6.8584246635437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86755657196045</t>
+    <t xml:space="preserve">6.86755609512329</t>
   </si>
   <si>
     <t xml:space="preserve">6.84015893936157</t>
@@ -3419,13 +3419,13 @@
     <t xml:space="preserve">6.82189464569092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89495372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83102655410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46573162078857</t>
+    <t xml:space="preserve">6.89495325088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46573114395142</t>
   </si>
   <si>
     <t xml:space="preserve">6.31961297988892</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">6.78536462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92235088348389</t>
+    <t xml:space="preserve">6.92235040664673</t>
   </si>
   <si>
     <t xml:space="preserve">6.96066236495972</t>
@@ -4025,7 +4025,13 @@
     <t xml:space="preserve">9.02000045776367</t>
   </si>
   <si>
+    <t xml:space="preserve">8.88000011444092</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.01000022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64999961853027</t>
   </si>
 </sst>
 </file>
@@ -60215,27 +60221,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6493171296</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>60267</v>
+        <v>84699</v>
       </c>
       <c r="C2149" t="n">
-        <v>9.01000022888184</v>
+        <v>9.05000019073486</v>
       </c>
       <c r="D2149" t="n">
+        <v>8.78999996185303</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>9.05000019073486</v>
+      </c>
+      <c r="F2149" t="n">
         <v>8.88000011444092</v>
-      </c>
-      <c r="E2149" t="n">
-        <v>8.90999984741211</v>
-      </c>
-      <c r="F2149" t="n">
-        <v>9.01000022888184</v>
       </c>
       <c r="G2149" t="s">
         <v>1337</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>60267</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>9.01000022888184</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>8.88000011444092</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>8.90999984741211</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>9.01000022888184</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6496064815</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>82416</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>8.93000030517578</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>8.67000007629395</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>8.93000030517578</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>8.64999961853027</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.80332946777344</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">8.74573612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72105312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72928047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79510021209717</t>
+    <t xml:space="preserve">8.72105407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72927951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79510116577148</t>
   </si>
   <si>
     <t xml:space="preserve">8.77864456176758</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52359676361084</t>
+    <t xml:space="preserve">8.52359485626221</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764194488525</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">8.10399723052979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60586929321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43309497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2520923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46600246429443</t>
+    <t xml:space="preserve">8.60586833953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4330940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968284606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34259223937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5400505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46600341796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.22740840911865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32613945007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63877964019775</t>
+    <t xml:space="preserve">8.32613849639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877868652344</t>
   </si>
   <si>
     <t xml:space="preserve">8.49068737030029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56473255157471</t>
+    <t xml:space="preserve">8.56473350524902</t>
   </si>
   <si>
     <t xml:space="preserve">8.6716890335083</t>
@@ -116,37 +116,37 @@
     <t xml:space="preserve">8.87737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77041721343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98433113098145</t>
+    <t xml:space="preserve">8.77041912078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433017730713</t>
   </si>
   <si>
     <t xml:space="preserve">8.81978225708008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91028499603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04192161560059</t>
+    <t xml:space="preserve">8.91028308868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192352294922</t>
   </si>
   <si>
     <t xml:space="preserve">8.96787643432617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89382839202881</t>
+    <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
     <t xml:space="preserve">9.05014896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97610282897949</t>
+    <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
     <t xml:space="preserve">9.07483196258545</t>
@@ -158,46 +158,46 @@
     <t xml:space="preserve">8.86091899871826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09951400756836</t>
+    <t xml:space="preserve">9.09951305389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.09128665924072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0666036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21469783782959</t>
+    <t xml:space="preserve">9.06660461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21469879150391</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54379367828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5273380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74947738647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83998107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7165699005127</t>
+    <t xml:space="preserve">9.54379463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52733898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74947929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83998012542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71656894683838</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94693756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088523864746</t>
+    <t xml:space="preserve">9.94693660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088333129883</t>
   </si>
   <si>
     <t xml:space="preserve">9.86466217041016</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">9.93048286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77416133880615</t>
+    <t xml:space="preserve">9.77416038513184</t>
   </si>
   <si>
     <t xml:space="preserve">9.83175277709961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95516586303711</t>
+    <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
     <t xml:space="preserve">10.1114845275879</t>
@@ -221,61 +221,61 @@
     <t xml:space="preserve">9.8893461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3994445800781</t>
+    <t xml:space="preserve">10.3994455337524</t>
   </si>
   <si>
     <t xml:space="preserve">10.4652652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4488105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6133575439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.712085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5307941436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2490882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.273943901062</t>
+    <t xml:space="preserve">10.4488077163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.613356590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120866775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722208023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5307931900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2490873336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2739458084106</t>
   </si>
   <si>
     <t xml:space="preserve">10.3567991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4976511001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805053710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4727945327759</t>
+    <t xml:space="preserve">10.4976501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805044174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4727954864502</t>
   </si>
   <si>
     <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3982257843018</t>
+    <t xml:space="preserve">10.3982267379761</t>
   </si>
   <si>
     <t xml:space="preserve">10.4396533966064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2905149459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253820419312</t>
+    <t xml:space="preserve">10.2905158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253810882568</t>
   </si>
   <si>
     <t xml:space="preserve">9.98395347595215</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">10.1082363128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909786224365</t>
+    <t xml:space="preserve">10.4230813980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909881591797</t>
   </si>
   <si>
     <t xml:space="preserve">9.96738433837891</t>
@@ -302,10 +302,10 @@
     <t xml:space="preserve">10.0668087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1165208816528</t>
+    <t xml:space="preserve">10.5225067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1165218353271</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579484939575</t>
@@ -314,37 +314,40 @@
     <t xml:space="preserve">10.3816556930542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3153715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5556497573853</t>
+    <t xml:space="preserve">10.315372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5556488037109</t>
   </si>
   <si>
     <t xml:space="preserve">10.5639362335205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4147987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2325191497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5887908935547</t>
+    <t xml:space="preserve">10.5722217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4147977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232518196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.54736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5142221450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4810800552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645109176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.133092880249</t>
+    <t xml:space="preserve">10.5142230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4810810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645090103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1330909729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3485136032104</t>
@@ -353,10 +356,10 @@
     <t xml:space="preserve">10.3650846481323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136484146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5059375762939</t>
+    <t xml:space="preserve">10.6136474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
     <t xml:space="preserve">10.4562244415283</t>
@@ -368,40 +371,40 @@
     <t xml:space="preserve">10.2988004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.224232673645</t>
+    <t xml:space="preserve">10.2242336273193</t>
   </si>
   <si>
     <t xml:space="preserve">10.1662340164185</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1248054504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236570358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.182804107666</t>
+    <t xml:space="preserve">10.1248064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1828050613403</t>
   </si>
   <si>
     <t xml:space="preserve">10.6053619384766</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3402299880981</t>
+    <t xml:space="preserve">10.3402271270752</t>
   </si>
   <si>
     <t xml:space="preserve">10.5970773696899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6716470718384</t>
+    <t xml:space="preserve">10.6716461181641</t>
   </si>
   <si>
     <t xml:space="preserve">10.721360206604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7545003890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7379293441772</t>
+    <t xml:space="preserve">10.7544984817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7379302978516</t>
   </si>
   <si>
     <t xml:space="preserve">11.0610609054565</t>
@@ -410,28 +413,28 @@
     <t xml:space="preserve">11.1107740402222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1273441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433423995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3427677154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4504776000977</t>
+    <t xml:space="preserve">11.1273460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433404922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3427658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4504766464233</t>
   </si>
   <si>
     <t xml:space="preserve">11.5830450057983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5167617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996141433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1853446960449</t>
+    <t xml:space="preserve">11.5167598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1853427886963</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096237182617</t>
@@ -443,88 +446,88 @@
     <t xml:space="preserve">10.903639793396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8953523635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870658874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.771071434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302165985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8622093200684</t>
+    <t xml:space="preserve">10.8953533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776329040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870687484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7710704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.679931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622102737427</t>
   </si>
   <si>
     <t xml:space="preserve">10.8042125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6633605957031</t>
+    <t xml:space="preserve">10.6633596420288</t>
   </si>
   <si>
     <t xml:space="preserve">10.7462148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7627859115601</t>
+    <t xml:space="preserve">10.7627849578857</t>
   </si>
   <si>
     <t xml:space="preserve">10.7047872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8787822723389</t>
+    <t xml:space="preserve">10.8787813186646</t>
   </si>
   <si>
     <t xml:space="preserve">10.7959270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6965017318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.994776725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924798965454</t>
+    <t xml:space="preserve">10.6965036392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924789428711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4339056015015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3510522842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1439161300659</t>
+    <t xml:space="preserve">11.3510513305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1439170837402</t>
   </si>
   <si>
     <t xml:space="preserve">11.1024885177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2599115371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2681970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0859174728394</t>
+    <t xml:space="preserve">11.2599105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.268196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859184265137</t>
   </si>
   <si>
     <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1687717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1356315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516250610352</t>
+    <t xml:space="preserve">11.1687726974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516269683838</t>
   </si>
   <si>
     <t xml:space="preserve">11.3593368530273</t>
@@ -533,13 +536,13 @@
     <t xml:space="preserve">11.2847681045532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4753341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.45876121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2267694473267</t>
+    <t xml:space="preserve">11.4753332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2267713546753</t>
   </si>
   <si>
     <t xml:space="preserve">11.0942029953003</t>
@@ -548,61 +551,61 @@
     <t xml:space="preserve">10.9782056808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841924667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3013391494751</t>
+    <t xml:space="preserve">11.1522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344812393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841934204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3013401031494</t>
   </si>
   <si>
     <t xml:space="preserve">11.177056312561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9533529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764825820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6658973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1215982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0967426300049</t>
+    <t xml:space="preserve">10.9533500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6658983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1215972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0967407226562</t>
   </si>
   <si>
     <t xml:space="preserve">12.0470285415649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2624492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2210235595703</t>
+    <t xml:space="preserve">12.2624502182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2210245132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.3453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2044534683228</t>
+    <t xml:space="preserve">12.2044515609741</t>
   </si>
   <si>
     <t xml:space="preserve">12.3121633529663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6352939605713</t>
+    <t xml:space="preserve">12.6352949142456</t>
   </si>
   <si>
     <t xml:space="preserve">12.6684379577637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.809289932251</t>
+    <t xml:space="preserve">12.8092880249023</t>
   </si>
   <si>
     <t xml:space="preserve">12.6435813903809</t>
@@ -611,31 +614,31 @@
     <t xml:space="preserve">12.6021528244019</t>
   </si>
   <si>
-    <t xml:space="preserve">12.494441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3370180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695844650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.676721572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.759575843811</t>
+    <t xml:space="preserve">12.4944438934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3370189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6767234802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7595767974854</t>
   </si>
   <si>
     <t xml:space="preserve">13.2318477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2484169006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3644142150879</t>
+    <t xml:space="preserve">13.2484159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3644132614136</t>
   </si>
   <si>
     <t xml:space="preserve">13.4224119186401</t>
@@ -647,22 +650,22 @@
     <t xml:space="preserve">14.3420944213867</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066526412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480802536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137897491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698253631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709756851196</t>
+    <t xml:space="preserve">14.7066535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480812072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137907028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338098526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709766387939</t>
   </si>
   <si>
     <t xml:space="preserve">13.7538299560547</t>
@@ -677,7 +680,7 @@
     <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">14.300669670105</t>
+    <t xml:space="preserve">14.3006677627563</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
@@ -686,253 +689,250 @@
     <t xml:space="preserve">14.8640785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4580926895142</t>
+    <t xml:space="preserve">14.4580917358398</t>
   </si>
   <si>
     <t xml:space="preserve">14.4995183944702</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8392238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817979812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6238021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895107269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937715530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766258239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423334121704</t>
+    <t xml:space="preserve">14.8392219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817998886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895088195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937705993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423372268677</t>
   </si>
   <si>
     <t xml:space="preserve">15.883186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4523439407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020570755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.609769821167</t>
+    <t xml:space="preserve">15.4523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020561218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097660064697</t>
   </si>
   <si>
     <t xml:space="preserve">15.5186281204224</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7257633209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440584182739</t>
+    <t xml:space="preserve">15.7257661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440574645996</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872110366821</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037839889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1371698379517</t>
+    <t xml:space="preserve">15.2037801742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1371688842773</t>
   </si>
   <si>
     <t xml:space="preserve">15.2870435714722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5784645080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867074966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370853424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949466705322</t>
+    <t xml:space="preserve">15.578462600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370843887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036966323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949476242065</t>
   </si>
   <si>
     <t xml:space="preserve">15.8615579605103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5201816558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.420262336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954526901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366628646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782926559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283382415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783800125122</t>
+    <t xml:space="preserve">15.5201778411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451583862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202642440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954555511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782945632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283372879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783761978149</t>
   </si>
   <si>
     <t xml:space="preserve">15.90318775177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8199234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040365219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289268493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372562408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4119415283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951147079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618124008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284208297729</t>
+    <t xml:space="preserve">15.8199253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6450729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537393569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289297103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539093017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.411940574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701360702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951166152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618104934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284198760986</t>
   </si>
   <si>
     <t xml:space="preserve">15.7533168792725</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9448165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950311660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.720009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117687225342</t>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695032119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7200107574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117677688599</t>
   </si>
   <si>
     <t xml:space="preserve">15.7449903488159</t>
   </si>
   <si>
-    <t xml:space="preserve">15.620096206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452419281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1121921539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957925796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787179946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203496932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872961044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370027542114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703079223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368318557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702215194702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6034421920776</t>
+    <t xml:space="preserve">15.6200942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1121940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957935333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787170410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203477859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120241165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3369998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703050613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538248062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6034440994263</t>
   </si>
   <si>
     <t xml:space="preserve">15.5035276412964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5118522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4036111831665</t>
+    <t xml:space="preserve">15.5118541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534887313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4036140441895</t>
   </si>
   <si>
     <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3869590759277</t>
+    <t xml:space="preserve">15.3869581222534</t>
   </si>
   <si>
     <t xml:space="preserve">15.3619794845581</t>
@@ -944,82 +944,82 @@
     <t xml:space="preserve">16.4943542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110908508301</t>
+    <t xml:space="preserve">16.5026798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110927581787</t>
   </si>
   <si>
     <t xml:space="preserve">16.3444805145264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4443950653076</t>
+    <t xml:space="preserve">16.4443969726562</t>
   </si>
   <si>
     <t xml:space="preserve">16.3028507232666</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1446514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1529769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116823196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.461895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614744186401</t>
+    <t xml:space="preserve">16.1446495056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030178070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116851806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614715576172</t>
   </si>
   <si>
     <t xml:space="preserve">15.8449039459229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7616386413574</t>
+    <t xml:space="preserve">15.7616405487061</t>
   </si>
   <si>
     <t xml:space="preserve">15.853232383728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9531469345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0031051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367473602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6533975601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7866220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280838012695</t>
+    <t xml:space="preserve">15.953145980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0031032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530605316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367464065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6534004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7866191864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280857086182</t>
   </si>
   <si>
     <t xml:space="preserve">16.0697154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861141204834</t>
+    <t xml:space="preserve">16.3861103057861</t>
   </si>
   <si>
     <t xml:space="preserve">16.5443115234375</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">16.602596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8190784454346</t>
+    <t xml:space="preserve">16.8190765380859</t>
   </si>
   <si>
     <t xml:space="preserve">16.860710144043</t>
@@ -1037,34 +1037,34 @@
     <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6941833496094</t>
+    <t xml:space="preserve">16.694185256958</t>
   </si>
   <si>
     <t xml:space="preserve">16.4693756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2029323577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.369457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353935241699</t>
+    <t xml:space="preserve">16.2029342651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694591522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353916168213</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272350311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1104984283447</t>
+    <t xml:space="preserve">17.1104965209961</t>
   </si>
   <si>
     <t xml:space="preserve">17.5684452056885</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4019222259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.90234375</t>
+    <t xml:space="preserve">17.4019203186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3186569213867</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">17.4435501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9856071472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5193309783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.136323928833</t>
+    <t xml:space="preserve">16.9856052398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5193328857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1363258361816</t>
   </si>
   <si>
     <t xml:space="preserve">16.1196746826172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0197563171387</t>
+    <t xml:space="preserve">16.0197601318359</t>
   </si>
   <si>
     <t xml:space="preserve">16.4194183349609</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">16.2528915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2861938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364112854004</t>
+    <t xml:space="preserve">16.2861957550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364093780518</t>
   </si>
   <si>
     <t xml:space="preserve">16.2695465087891</t>
@@ -1112,82 +1112,82 @@
     <t xml:space="preserve">15.2703905105591</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4535694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700534820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374242782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542472839355</t>
+    <t xml:space="preserve">15.4535703659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700525283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709012985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542482376099</t>
   </si>
   <si>
     <t xml:space="preserve">14.4044589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2878904342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543308258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376796722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3711538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877233505249</t>
+    <t xml:space="preserve">14.2878913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376787185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3711547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708139419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.487720489502</t>
   </si>
   <si>
     <t xml:space="preserve">14.2212810516357</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1380195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714073181152</t>
+    <t xml:space="preserve">14.1380186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714092254639</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3878078460693</t>
+    <t xml:space="preserve">14.387806892395</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211975097656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7541618347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039491653442</t>
+    <t xml:space="preserve">14.7541627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039510726929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8041191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">15.020604133606</t>
+    <t xml:space="preserve">15.0206022262573</t>
   </si>
   <si>
     <t xml:space="preserve">15.9198408126831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1038637161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285558700562</t>
+    <t xml:space="preserve">15.1038656234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285568237305</t>
   </si>
   <si>
     <t xml:space="preserve">14.8946704864502</t>
@@ -1196,55 +1196,55 @@
     <t xml:space="preserve">15.1457052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8570652008057</t>
+    <t xml:space="preserve">15.2293834686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.85706615448</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.225248336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3256616592407</t>
+    <t xml:space="preserve">14.2252473831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.325662612915</t>
   </si>
   <si>
     <t xml:space="preserve">14.72731590271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6436386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444652557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5264883041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5599613189697</t>
+    <t xml:space="preserve">14.6436367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.844464302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5264892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5599584579468</t>
   </si>
   <si>
     <t xml:space="preserve">14.6771097183228</t>
   </si>
   <si>
-    <t xml:space="preserve">14.476282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3926057815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603727340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9616146087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118217468262</t>
+    <t xml:space="preserve">14.4762811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3926048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9616136550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118207931519</t>
   </si>
   <si>
     <t xml:space="preserve">14.7775230407715</t>
@@ -1253,91 +1253,91 @@
     <t xml:space="preserve">15.212646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2795906066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950828552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452919006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1122341156006</t>
+    <t xml:space="preserve">15.2795896530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950838088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452890396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112232208252</t>
   </si>
   <si>
     <t xml:space="preserve">15.3632669448853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2628545761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0620250701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.329797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812438964844</t>
+    <t xml:space="preserve">15.2628555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0620260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3297986984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6812448501587</t>
   </si>
   <si>
     <t xml:space="preserve">15.6143007278442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5473585128784</t>
+    <t xml:space="preserve">15.5473575592041</t>
   </si>
   <si>
     <t xml:space="preserve">15.4636812210083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5306234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477727890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983922958374</t>
+    <t xml:space="preserve">15.5306243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.798394203186</t>
   </si>
   <si>
     <t xml:space="preserve">14.9114065170288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5640954971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971504211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649240493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963247299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3130598068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109912872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624393463135</t>
+    <t xml:space="preserve">15.564094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.697979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649230957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804182052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963237762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.313060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109922409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624402999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432243347168</t>
+    <t xml:space="preserve">14.5432233810425</t>
   </si>
   <si>
     <t xml:space="preserve">14.593430519104</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">14.8277282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6938447952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7399158477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.723180770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060314178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6897077560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9742136001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0913639068604</t>
+    <t xml:space="preserve">14.6938428878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7399168014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7231798171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6897096633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.091362953186</t>
   </si>
   <si>
     <t xml:space="preserve">13.7064447402954</t>
@@ -1379,55 +1379,55 @@
     <t xml:space="preserve">13.5892963409424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3047924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023077011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533433914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198713302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0872268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1541709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0537576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8529300689697</t>
+    <t xml:space="preserve">13.3047914505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023096084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533443450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198722839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0872287750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1541700363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0537567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.852931022644</t>
   </si>
   <si>
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6186323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516891479492</t>
+    <t xml:space="preserve">12.6186332702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516901016235</t>
   </si>
   <si>
     <t xml:space="preserve">12.4512758255005</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965211868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7818517684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1835079193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320589065552</t>
+    <t xml:space="preserve">12.0496225357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1835060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320579528809</t>
   </si>
   <si>
     <t xml:space="preserve">11.9157371520996</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">12.384334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3801984786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7168388366699</t>
+    <t xml:space="preserve">12.5349540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3801975250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7168378829956</t>
   </si>
   <si>
     <t xml:space="preserve">12.2764472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239837646484</t>
+    <t xml:space="preserve">12.2239847183228</t>
   </si>
   <si>
     <t xml:space="preserve">11.8392524719238</t>
@@ -1463,37 +1463,37 @@
     <t xml:space="preserve">11.4894962310791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0316181182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7661085128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1365461349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9791555404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8917169570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1540327072144</t>
+    <t xml:space="preserve">12.0316190719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7661066055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1365451812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.979154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.891716003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.15403175354</t>
   </si>
   <si>
     <t xml:space="preserve">12.1715211868286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190576553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5594472885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8042764663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518138885498</t>
+    <t xml:space="preserve">12.1190586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5594482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8042755126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163503646851</t>
@@ -1502,13 +1502,13 @@
     <t xml:space="preserve">12.521276473999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5912284851074</t>
+    <t xml:space="preserve">12.5912294387817</t>
   </si>
   <si>
     <t xml:space="preserve">12.5037899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3638877868652</t>
+    <t xml:space="preserve">12.3638868331909</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">11.6643743515015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7867879867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8567399978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8742275238037</t>
+    <t xml:space="preserve">11.7867889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8567419052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.874228477478</t>
   </si>
   <si>
     <t xml:space="preserve">11.7343254089355</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">12.0491056442261</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9966430664062</t>
+    <t xml:space="preserve">11.9966421127319</t>
   </si>
   <si>
     <t xml:space="preserve">12.258960723877</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">12.5562524795532</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8535461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8360576629639</t>
+    <t xml:space="preserve">12.8535470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8360586166382</t>
   </si>
   <si>
     <t xml:space="preserve">12.6961555480957</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">12.8185691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3988628387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1890077590942</t>
+    <t xml:space="preserve">12.3988637924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1890096664429</t>
   </si>
   <si>
     <t xml:space="preserve">12.2939357757568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9441785812378</t>
+    <t xml:space="preserve">11.9441795349121</t>
   </si>
   <si>
     <t xml:space="preserve">11.524471282959</t>
@@ -1580,58 +1580,58 @@
     <t xml:space="preserve">11.419545173645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3845701217651</t>
+    <t xml:space="preserve">11.3845691680908</t>
   </si>
   <si>
     <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8074703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173263549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.244665145874</t>
+    <t xml:space="preserve">10.8074712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446670532227</t>
   </si>
   <si>
     <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1397399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271776199341</t>
+    <t xml:space="preserve">11.1397390365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271795272827</t>
   </si>
   <si>
     <t xml:space="preserve">11.2096910476685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4720077514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4545202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1922035217285</t>
+    <t xml:space="preserve">11.4720087051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4545192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1922025680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.437032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6818609237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141305923462</t>
+    <t xml:space="preserve">11.6818618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141296386719</t>
   </si>
   <si>
     <t xml:space="preserve">12.1015701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3321056365967</t>
+    <t xml:space="preserve">12.066593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.332106590271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146181106567</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">11.2621545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5419597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869455337524</t>
+    <t xml:space="preserve">11.5419578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869445800781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">11.4565105438232</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6500911712646</t>
+    <t xml:space="preserve">11.6500902175903</t>
   </si>
   <si>
     <t xml:space="preserve">11.8436727523804</t>
@@ -1664,40 +1664,40 @@
     <t xml:space="preserve">11.6324920654297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1925344467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2981233596802</t>
+    <t xml:space="preserve">11.192533493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2981243133545</t>
   </si>
   <si>
     <t xml:space="preserve">11.157338142395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1749353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805261611938</t>
+    <t xml:space="preserve">11.1749362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.386116027832</t>
+    <t xml:space="preserve">11.3861150741577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380828857422</t>
+    <t xml:space="preserve">11.7028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380819320679</t>
   </si>
   <si>
     <t xml:space="preserve">12.0548524856567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.896466255188</t>
+    <t xml:space="preserve">11.8964672088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.7732791900635</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">12.0020580291748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7908782958984</t>
+    <t xml:space="preserve">11.7908773422241</t>
   </si>
   <si>
     <t xml:space="preserve">11.4389114379883</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7204828262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196552276611</t>
+    <t xml:space="preserve">11.7204847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0196561813354</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308349609375</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">12.1428442001343</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124092102051</t>
+    <t xml:space="preserve">12.5124082565308</t>
   </si>
   <si>
     <t xml:space="preserve">12.3716220855713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0724506378174</t>
+    <t xml:space="preserve">12.0724496841431</t>
   </si>
   <si>
     <t xml:space="preserve">12.1604423522949</t>
@@ -1751,25 +1751,25 @@
     <t xml:space="preserve">12.6707935333252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059898376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4948101043701</t>
+    <t xml:space="preserve">12.7059888839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4948091506958</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5796966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6148948669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5620994567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4741086959839</t>
+    <t xml:space="preserve">11.5796976089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.614893913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5621004104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4741077423096</t>
   </si>
   <si>
     <t xml:space="preserve">11.7556800842285</t>
@@ -1781,70 +1781,70 @@
     <t xml:space="preserve">11.4917058944702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2132377624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5652027130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4772119522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.582802772522</t>
+    <t xml:space="preserve">12.2132368087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.565203666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4772129058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
     <t xml:space="preserve">12.4596138000488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1252450942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668617248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844589233398</t>
+    <t xml:space="preserve">12.1252460479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844579696655</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.318826675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1780414581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2836294174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3892211914062</t>
+    <t xml:space="preserve">12.3188285827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3364267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1780405044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2836303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3892202377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451208114624</t>
+    <t xml:space="preserve">13.3923244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451198577881</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635465621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3571290969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.251537322998</t>
+    <t xml:space="preserve">13.3571300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2515392303467</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099235534668</t>
+    <t xml:space="preserve">13.4099225997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.4627180099487</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">13.3747262954712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2867345809937</t>
+    <t xml:space="preserve">13.286735534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4275217056274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3395290374756</t>
+    <t xml:space="preserve">13.3395299911499</t>
   </si>
   <si>
     <t xml:space="preserve">12.5476055145264</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">12.4068193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8115816116333</t>
+    <t xml:space="preserve">12.811580657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.3043327331543</t>
@@ -1880,79 +1880,79 @@
     <t xml:space="preserve">13.5859060287476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4803161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283502578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9523658752441</t>
+    <t xml:space="preserve">13.4803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9523668289185</t>
   </si>
   <si>
     <t xml:space="preserve">13.0579566955566</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9171695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0227613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8467788696289</t>
+    <t xml:space="preserve">12.9171705245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8467769622803</t>
   </si>
   <si>
     <t xml:space="preserve">12.9347686767578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8995704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6355962753296</t>
+    <t xml:space="preserve">12.8995714187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6355972290039</t>
   </si>
   <si>
     <t xml:space="preserve">12.7587862014771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7411861419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.090048789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3012285232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0372543334961</t>
+    <t xml:space="preserve">12.7411870956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0900478363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3012275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0372552871704</t>
   </si>
   <si>
     <t xml:space="preserve">11.6676893234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6852865219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3157215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2629280090332</t>
+    <t xml:space="preserve">11.6852874755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3157234191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2629270553589</t>
   </si>
   <si>
     <t xml:space="preserve">11.4037141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277307510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693464279175</t>
+    <t xml:space="preserve">11.2277317047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693454742432</t>
   </si>
   <si>
     <t xml:space="preserve">11.210132598877</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1366348266602</t>
+    <t xml:space="preserve">10.1366357803345</t>
   </si>
   <si>
     <t xml:space="preserve">10.0134468078613</t>
@@ -1961,28 +1961,28 @@
     <t xml:space="preserve">10.3126182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1894302368164</t>
+    <t xml:space="preserve">10.1894292831421</t>
   </si>
   <si>
     <t xml:space="preserve">9.94305324554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57348823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46789836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32711124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30951404571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20392322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45599365234375</t>
+    <t xml:space="preserve">9.57348728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46789741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32711219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30951309204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20392417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45599460601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.03363513946533</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">7.94564294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95133876800537</t>
+    <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
     <t xml:space="preserve">7.25050926208496</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">6.61697006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93943452835083</t>
+    <t xml:space="preserve">5.93943405151367</t>
   </si>
   <si>
     <t xml:space="preserve">5.97463083267212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24740505218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34419536590576</t>
+    <t xml:space="preserve">6.2474045753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
     <t xml:space="preserve">6.20340967178345</t>
@@ -2021,28 +2021,28 @@
     <t xml:space="preserve">6.07142210006714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73705434799194</t>
+    <t xml:space="preserve">5.73705387115479</t>
   </si>
   <si>
     <t xml:space="preserve">6.05382347106934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01862716674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04502439498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98343086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15941333770752</t>
+    <t xml:space="preserve">6.01862764358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04502391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9834303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15941429138184</t>
   </si>
   <si>
     <t xml:space="preserve">6.18581104278564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51138067245483</t>
+    <t xml:space="preserve">6.51138019561768</t>
   </si>
   <si>
     <t xml:space="preserve">6.22100830078125</t>
@@ -2057,19 +2057,19 @@
     <t xml:space="preserve">6.55537557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59057283401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66096544265747</t>
+    <t xml:space="preserve">6.59057188034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66096591949463</t>
   </si>
   <si>
     <t xml:space="preserve">7.08332586288452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15371942520142</t>
+    <t xml:space="preserve">7.06572675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15371894836426</t>
   </si>
   <si>
     <t xml:space="preserve">7.2593092918396</t>
@@ -2078,31 +2078,31 @@
     <t xml:space="preserve">6.96893644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29450464248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03933000564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05692863464355</t>
+    <t xml:space="preserve">7.29450559616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03933048248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0569281578064</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378156661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45858478546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62576866149902</t>
+    <t xml:space="preserve">6.49378204345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45858526229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62576961517334</t>
   </si>
   <si>
     <t xml:space="preserve">6.71376085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69616270065308</t>
+    <t xml:space="preserve">6.69616222381592</t>
   </si>
   <si>
     <t xml:space="preserve">6.81935119628906</t>
@@ -2111,22 +2111,22 @@
     <t xml:space="preserve">7.03052997589111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18011617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43529224395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34730052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210374832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928762435913</t>
+    <t xml:space="preserve">7.18011665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43529176712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34730100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970190048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210422515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928857803345</t>
   </si>
   <si>
     <t xml:space="preserve">7.99843883514404</t>
@@ -2138,79 +2138,79 @@
     <t xml:space="preserve">8.00723743438721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97204113006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725957870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489820480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63767290115356</t>
+    <t xml:space="preserve">7.97204160690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725862503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489868164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168947219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63767337799072</t>
   </si>
   <si>
     <t xml:space="preserve">7.40009546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41769456863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62887382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7256646156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448535919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88404989242554</t>
+    <t xml:space="preserve">7.41769361495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6288743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72566413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404941558838</t>
   </si>
   <si>
     <t xml:space="preserve">7.74326324462891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66406965255737</t>
+    <t xml:space="preserve">7.66407012939453</t>
   </si>
   <si>
     <t xml:space="preserve">7.58487749099731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60247707366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75206327438354</t>
+    <t xml:space="preserve">7.60247611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75206232070923</t>
   </si>
   <si>
     <t xml:space="preserve">7.5232834815979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59367704391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21531295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812908172607</t>
+    <t xml:space="preserve">7.59367656707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21531248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812955856323</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570699691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26810836791992</t>
+    <t xml:space="preserve">7.28570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26810789108276</t>
   </si>
   <si>
     <t xml:space="preserve">7.33850145339966</t>
@@ -2219,31 +2219,31 @@
     <t xml:space="preserve">7.10092401504517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12732124328613</t>
+    <t xml:space="preserve">7.12732172012329</t>
   </si>
   <si>
     <t xml:space="preserve">7.14491987228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92494058609009</t>
+    <t xml:space="preserve">6.92494106292725</t>
   </si>
   <si>
     <t xml:space="preserve">6.79295301437378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88094520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334705352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78415441513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7225604057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7049617767334</t>
+    <t xml:space="preserve">6.88094568252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334657669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78415393829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72255992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70496129989624</t>
   </si>
   <si>
     <t xml:space="preserve">6.46738433837891</t>
@@ -2252,46 +2252,46 @@
     <t xml:space="preserve">6.59937191009521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4321870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620460510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37059307098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28260135650635</t>
+    <t xml:space="preserve">6.43218755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37059354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.26500368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19461059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23860597610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48498249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5025806427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47618293762207</t>
+    <t xml:space="preserve">6.19461011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23860645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48498201370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50258111953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47618341445923</t>
   </si>
   <si>
     <t xml:space="preserve">6.54657649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66976451873779</t>
+    <t xml:space="preserve">6.66976499557495</t>
   </si>
   <si>
     <t xml:space="preserve">6.73135900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41458940505981</t>
+    <t xml:space="preserve">6.41458892822266</t>
   </si>
   <si>
     <t xml:space="preserve">6.60817098617554</t>
@@ -2300,25 +2300,25 @@
     <t xml:space="preserve">6.52897834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82814979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67856454849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40579080581665</t>
+    <t xml:space="preserve">6.82815027236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67856502532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40579032897949</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.168212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82504558563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64026308059692</t>
+    <t xml:space="preserve">6.16821336746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82504510879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64026260375977</t>
   </si>
   <si>
     <t xml:space="preserve">5.41148519515991</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">5.37628793716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42908334732056</t>
+    <t xml:space="preserve">5.4290828704834</t>
   </si>
   <si>
     <t xml:space="preserve">5.45548057556152</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">5.67545938491821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144329071045</t>
+    <t xml:space="preserve">5.85144281387329</t>
   </si>
   <si>
     <t xml:space="preserve">6.84574842453003</t>
@@ -2345,43 +2345,43 @@
     <t xml:space="preserve">6.80175256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88974475860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90164756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16562271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96324253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125352859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82245540618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7080659866333</t>
+    <t xml:space="preserve">6.88974380493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90164709091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16562366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9632420539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125495910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82245492935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70806646347046</t>
   </si>
   <si>
     <t xml:space="preserve">7.65527057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76085996627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80485677719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64647197723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53208303451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48808670043945</t>
+    <t xml:space="preserve">7.76086139678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.804856300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64647245407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53208351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48808765411377</t>
   </si>
   <si>
     <t xml:space="preserve">7.8752498626709</t>
@@ -2393,22 +2393,22 @@
     <t xml:space="preserve">7.56727981567383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69046831130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8928484916687</t>
+    <t xml:space="preserve">7.6904673576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284896850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.06883144378662</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8576512336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76965999603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91044616699219</t>
+    <t xml:space="preserve">7.85765218734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76966047286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9104471206665</t>
   </si>
   <si>
     <t xml:space="preserve">8.08642959594727</t>
@@ -2417,49 +2417,49 @@
     <t xml:space="preserve">8.10402870178223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33280754089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34160614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06003284454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.016037940979</t>
+    <t xml:space="preserve">8.33280658721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34160423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06003379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01603603363037</t>
   </si>
   <si>
     <t xml:space="preserve">7.38249778747559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44409084320068</t>
+    <t xml:space="preserve">7.44409132003784</t>
   </si>
   <si>
     <t xml:space="preserve">7.4264931678772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67286968231201</t>
+    <t xml:space="preserve">7.67286920547485</t>
   </si>
   <si>
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19202041625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42079830169678</t>
+    <t xml:space="preserve">8.15682315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19202136993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42079734802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.64957618713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59678268432617</t>
+    <t xml:space="preserve">8.59678363800049</t>
   </si>
   <si>
     <t xml:space="preserve">8.50879001617432</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">8.46479415893555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55278491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43839740753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47359275817871</t>
+    <t xml:space="preserve">8.55278587341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43839645385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47359371185303</t>
   </si>
   <si>
     <t xml:space="preserve">8.35920333862305</t>
@@ -2483,37 +2483,37 @@
     <t xml:space="preserve">8.20081901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24481582641602</t>
+    <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
     <t xml:space="preserve">8.05123329162598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18321990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49118995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93994808197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79916191101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81676006317139</t>
+    <t xml:space="preserve">8.1832218170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49119186401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93994903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79916286468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8167610168457</t>
   </si>
   <si>
     <t xml:space="preserve">8.71117115020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78156280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1744213104248</t>
+    <t xml:space="preserve">8.7815637588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51759052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17442226409912</t>
   </si>
   <si>
     <t xml:space="preserve">8.32400798797607</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">9.06313705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9223518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88715362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71996974945068</t>
+    <t xml:space="preserve">8.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8871545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.719970703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.42959690093994</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">8.73756885528564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79036235809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64077663421631</t>
+    <t xml:space="preserve">8.79036331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64077758789062</t>
   </si>
   <si>
     <t xml:space="preserve">8.57038402557373</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">8.60558032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3504056930542</t>
+    <t xml:space="preserve">8.35040473937988</t>
   </si>
   <si>
     <t xml:space="preserve">8.36800384521484</t>
@@ -2567,157 +2567,157 @@
     <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74636745452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27431678771973</t>
+    <t xml:space="preserve">8.74636554718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27431774139404</t>
   </si>
   <si>
     <t xml:space="preserve">9.36230945587158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15112686157227</t>
+    <t xml:space="preserve">9.1511287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13353061676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24035549163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0623140335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99109745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20474624633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64985084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81008815765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1127586364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1661710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3086032867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976259231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3442125320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3264093399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0949544906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1305627822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1483669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9703254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91691398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75667572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61424255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77447891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86350059509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54302597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45400428771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56082916259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68545818328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63204669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43620109558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11572647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27596378326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29376697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34718036651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31157207489014</t>
   </si>
   <si>
     <t xml:space="preserve">9.13352966308594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24035453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0623140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99109840393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20474720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1127586364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1661720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2373876571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3086051940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976268768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3442134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3264093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0949544906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1305627822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1483669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97032642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91691398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75667572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61424255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77447986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86350059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54302597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45400524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56083011627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68545913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63204669952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43620109558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11572551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27596378326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29376697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34718036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31157207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13353061676025</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.09792232513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.91988086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97329330444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02670669555664</t>
+    <t xml:space="preserve">8.97329235076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02670574188232</t>
   </si>
   <si>
     <t xml:space="preserve">9.48961353302002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57863426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40059375762939</t>
+    <t xml:space="preserve">9.57863330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40059280395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.525221824646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82789325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84569644927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93471813201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41839790344238</t>
+    <t xml:space="preserve">9.8278923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8456974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93471717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41839599609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.47181034088135</t>
@@ -2726,22 +2726,22 @@
     <t xml:space="preserve">9.36498546600342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32937622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25815868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70326328277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72106742858887</t>
+    <t xml:space="preserve">9.32937431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25815963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70326232910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72106838226318</t>
   </si>
   <si>
     <t xml:space="preserve">9.04450988769531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95549011230469</t>
+    <t xml:space="preserve">8.95548915863037</t>
   </si>
   <si>
     <t xml:space="preserve">8.85756587982178</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">8.87537002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59940624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59050273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69732856750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525184631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64391613006592</t>
+    <t xml:space="preserve">8.59940528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59050369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69733047485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525089263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6439151763916</t>
   </si>
   <si>
     <t xml:space="preserve">8.80415344238281</t>
@@ -2789,58 +2789,58 @@
     <t xml:space="preserve">8.67062187194824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47477722167969</t>
+    <t xml:space="preserve">8.47477626800537</t>
   </si>
   <si>
     <t xml:space="preserve">8.62611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75074005126953</t>
+    <t xml:space="preserve">8.75074100494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.76854515075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83976173400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79228496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73887157440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88130569458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5370922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18991088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22551822662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712032318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70919704437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00296592712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90504312515259</t>
+    <t xml:space="preserve">8.83976268768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79228401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73887062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88130474090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53709125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51928615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18990993499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22551727294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480581283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70919847488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00296688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90504360198975</t>
   </si>
   <si>
     <t xml:space="preserve">7.83382749557495</t>
@@ -2852,13 +2852,13 @@
     <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14539909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04747676849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94065141677856</t>
+    <t xml:space="preserve">8.14540004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04747772216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94065284729004</t>
   </si>
   <si>
     <t xml:space="preserve">8.07418346405029</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">8.0563793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28783321380615</t>
+    <t xml:space="preserve">8.28783416748047</t>
   </si>
   <si>
     <t xml:space="preserve">8.34124565124512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43916893005371</t>
+    <t xml:space="preserve">8.43916702270508</t>
   </si>
   <si>
     <t xml:space="preserve">8.8842716217041</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">8.78634834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7418384552002</t>
+    <t xml:space="preserve">8.74183940887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.43026638031006</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">8.67952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56379795074463</t>
+    <t xml:space="preserve">8.56379699707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.45697212219238</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">8.33234310150146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30563735961914</t>
+    <t xml:space="preserve">8.30563640594482</t>
   </si>
   <si>
     <t xml:space="preserve">8.03857421875</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">8.29673480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10089015960693</t>
+    <t xml:space="preserve">8.10088920593262</t>
   </si>
   <si>
     <t xml:space="preserve">8.23441982269287</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">8.12759590148926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02077102661133</t>
+    <t xml:space="preserve">8.02077007293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.40355968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2789306640625</t>
+    <t xml:space="preserve">8.27893161773682</t>
   </si>
   <si>
     <t xml:space="preserve">8.36795139312744</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">8.46587467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014820098877</t>
+    <t xml:space="preserve">8.35014724731445</t>
   </si>
   <si>
     <t xml:space="preserve">8.20771503448486</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">7.27299642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45993947982788</t>
+    <t xml:space="preserve">7.45993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">7.69139385223389</t>
@@ -2972,16 +2972,16 @@
     <t xml:space="preserve">7.8872389793396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10979175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11869430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97626066207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02967357635498</t>
+    <t xml:space="preserve">8.10979080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11869239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9762601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02967262268066</t>
   </si>
   <si>
     <t xml:space="preserve">8.13649845123291</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">8.90207672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82195663452148</t>
+    <t xml:space="preserve">8.82195854187012</t>
   </si>
   <si>
     <t xml:space="preserve">8.68842601776123</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">8.7596435546875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73293685913086</t>
+    <t xml:space="preserve">8.73293781280518</t>
   </si>
   <si>
     <t xml:space="preserve">8.38575649261475</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">8.49258136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16320419311523</t>
+    <t xml:space="preserve">8.16320323944092</t>
   </si>
   <si>
     <t xml:space="preserve">8.35904884338379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9139461517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41246128082275</t>
+    <t xml:space="preserve">7.91394567489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41246223449707</t>
   </si>
   <si>
     <t xml:space="preserve">8.3744010925293</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">8.26481246948242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2374153137207</t>
+    <t xml:space="preserve">8.23741436004639</t>
   </si>
   <si>
     <t xml:space="preserve">8.44745922088623</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">8.62097454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5205192565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40179824829102</t>
+    <t xml:space="preserve">8.52051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
     <t xml:space="preserve">8.45659160614014</t>
@@ -3074,37 +3074,37 @@
     <t xml:space="preserve">7.62554502487183</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57988309860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75339794158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60728025436401</t>
+    <t xml:space="preserve">7.57988262176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7533974647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60727977752686</t>
   </si>
   <si>
     <t xml:space="preserve">7.61641263961792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69860458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76253032684326</t>
+    <t xml:space="preserve">7.69860410690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76253080368042</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5890154838562</t>
+    <t xml:space="preserve">7.58901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">7.48855876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57074975967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30591106414795</t>
+    <t xml:space="preserve">7.57075071334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30591154098511</t>
   </si>
   <si>
     <t xml:space="preserve">7.32417631149292</t>
@@ -3113,13 +3113,13 @@
     <t xml:space="preserve">7.42463254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56161832809448</t>
+    <t xml:space="preserve">7.56161785125732</t>
   </si>
   <si>
     <t xml:space="preserve">7.50682401657104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49769115447998</t>
+    <t xml:space="preserve">7.49769163131714</t>
   </si>
   <si>
     <t xml:space="preserve">7.39723491668701</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">7.46116209030151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47942590713501</t>
+    <t xml:space="preserve">7.47942638397217</t>
   </si>
   <si>
     <t xml:space="preserve">7.31504392623901</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">7.24198436737061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51595592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72600078582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59814786911011</t>
+    <t xml:space="preserve">7.51595544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72600126266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59814739227295</t>
   </si>
   <si>
     <t xml:space="preserve">7.53422117233276</t>
@@ -3161,22 +3161,22 @@
     <t xml:space="preserve">7.29677820205688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33330821990967</t>
+    <t xml:space="preserve">7.33330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">7.27851390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21458721160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10499858856201</t>
+    <t xml:space="preserve">7.21458768844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10499906539917</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99540948867798</t>
+    <t xml:space="preserve">6.99540996551514</t>
   </si>
   <si>
     <t xml:space="preserve">6.87668895721436</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">6.93148374557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72143793106079</t>
+    <t xml:space="preserve">6.72143840789795</t>
   </si>
   <si>
     <t xml:space="preserve">6.7305703163147</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">6.75796794891357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66664457321167</t>
+    <t xml:space="preserve">6.66664409637451</t>
   </si>
   <si>
     <t xml:space="preserve">6.84929180145264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98627710342407</t>
+    <t xml:space="preserve">6.98627758026123</t>
   </si>
   <si>
     <t xml:space="preserve">6.80362939834595</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">6.62098217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64837980270386</t>
+    <t xml:space="preserve">6.6483793258667</t>
   </si>
   <si>
     <t xml:space="preserve">6.53879022598267</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">6.36527490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44746685028076</t>
+    <t xml:space="preserve">6.4474663734436</t>
   </si>
   <si>
     <t xml:space="preserve">6.49312829971313</t>
@@ -3248,16 +3248,16 @@
     <t xml:space="preserve">6.3561429977417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16436243057251</t>
+    <t xml:space="preserve">6.16436195373535</t>
   </si>
   <si>
     <t xml:space="preserve">6.09130334854126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02737712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0821704864502</t>
+    <t xml:space="preserve">6.02737665176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08217096328735</t>
   </si>
   <si>
     <t xml:space="preserve">6.05477380752563</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">6.13696527481079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96344995498657</t>
+    <t xml:space="preserve">5.96345043182373</t>
   </si>
   <si>
     <t xml:space="preserve">5.94518566131592</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">6.03650903701782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10956811904907</t>
+    <t xml:space="preserve">6.10956859588623</t>
   </si>
   <si>
     <t xml:space="preserve">6.04564142227173</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">6.3013482093811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57531976699829</t>
+    <t xml:space="preserve">6.57532024383545</t>
   </si>
   <si>
     <t xml:space="preserve">6.42006969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54792308807373</t>
+    <t xml:space="preserve">6.54792261123657</t>
   </si>
   <si>
     <t xml:space="preserve">6.27395057678223</t>
@@ -3305,13 +3305,13 @@
     <t xml:space="preserve">6.50226068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39267206192017</t>
+    <t xml:space="preserve">6.39267253875732</t>
   </si>
   <si>
     <t xml:space="preserve">6.33787822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38353967666626</t>
+    <t xml:space="preserve">6.3835391998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.19176006317139</t>
@@ -3323,22 +3323,22 @@
     <t xml:space="preserve">6.24655437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21915721893311</t>
+    <t xml:space="preserve">6.21915674209595</t>
   </si>
   <si>
     <t xml:space="preserve">6.37440729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23742198944092</t>
+    <t xml:space="preserve">6.23742151260376</t>
   </si>
   <si>
     <t xml:space="preserve">6.43833446502686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29221534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17349481582642</t>
+    <t xml:space="preserve">6.29221630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17349529266357</t>
   </si>
   <si>
     <t xml:space="preserve">6.32874536514282</t>
@@ -3347,28 +3347,28 @@
     <t xml:space="preserve">6.20089197158813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28308343887329</t>
+    <t xml:space="preserve">6.28308391571045</t>
   </si>
   <si>
     <t xml:space="preserve">6.11870050430298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14609813690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25568675994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51139307022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40180492401123</t>
+    <t xml:space="preserve">6.1460976600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25568628311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51139354705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40180540084839</t>
   </si>
   <si>
     <t xml:space="preserve">6.73970317840576</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9406156539917</t>
+    <t xml:space="preserve">6.94061517715454</t>
   </si>
   <si>
     <t xml:space="preserve">6.97714519500732</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">6.81276226043701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74883508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449701309204</t>
+    <t xml:space="preserve">6.74883556365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
   </si>
   <si>
     <t xml:space="preserve">6.71230602264404</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">6.88582134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95888042449951</t>
+    <t xml:space="preserve">6.95887994766235</t>
   </si>
   <si>
     <t xml:space="preserve">6.8584246635437</t>
@@ -3413,16 +3413,16 @@
     <t xml:space="preserve">6.86755657196045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84015941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189416885376</t>
+    <t xml:space="preserve">6.84015893936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189464569092</t>
   </si>
   <si>
     <t xml:space="preserve">6.89495372772217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83102703094482</t>
+    <t xml:space="preserve">6.83102655410767</t>
   </si>
   <si>
     <t xml:space="preserve">6.46573162078857</t>
@@ -3434,10 +3434,10 @@
     <t xml:space="preserve">6.31048059463501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12326383590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60271692276001</t>
+    <t xml:space="preserve">7.12326335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60271739959717</t>
   </si>
   <si>
     <t xml:space="preserve">6.5935845375061</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">6.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96066188812256</t>
+    <t xml:space="preserve">6.96066236495972</t>
   </si>
   <si>
     <t xml:space="preserve">7.00706672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79360628128052</t>
+    <t xml:space="preserve">6.79360675811768</t>
   </si>
   <si>
     <t xml:space="preserve">7.10915613174438</t>
@@ -3479,16 +3479,16 @@
     <t xml:space="preserve">7.43398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35974025726318</t>
+    <t xml:space="preserve">7.35973978042603</t>
   </si>
   <si>
     <t xml:space="preserve">7.28549289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.239089012146</t>
+    <t xml:space="preserve">7.25765085220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23908853530884</t>
   </si>
   <si>
     <t xml:space="preserve">7.19268417358398</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">7.15556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36902093887329</t>
+    <t xml:space="preserve">7.36902141571045</t>
   </si>
   <si>
     <t xml:space="preserve">7.42470645904541</t>
@@ -3515,16 +3515,16 @@
     <t xml:space="preserve">7.27621221542358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693153381348</t>
+    <t xml:space="preserve">7.2483696937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693105697632</t>
   </si>
   <si>
     <t xml:space="preserve">7.18340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1648416519165</t>
+    <t xml:space="preserve">7.16484117507935</t>
   </si>
   <si>
     <t xml:space="preserve">6.9049768447876</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">7.06275177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0720329284668</t>
+    <t xml:space="preserve">7.07203245162964</t>
   </si>
   <si>
     <t xml:space="preserve">7.13699913024902</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">7.20196533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32261610031128</t>
+    <t xml:space="preserve">7.32261657714844</t>
   </si>
   <si>
     <t xml:space="preserve">7.41542482376099</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">7.40614461898804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68457126617432</t>
+    <t xml:space="preserve">7.68457078933716</t>
   </si>
   <si>
     <t xml:space="preserve">7.77737998962402</t>
@@ -3599,31 +3599,31 @@
     <t xml:space="preserve">7.48039197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234523773193</t>
+    <t xml:space="preserve">7.71241426467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234571456909</t>
   </si>
   <si>
     <t xml:space="preserve">7.76809883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65672826766968</t>
+    <t xml:space="preserve">7.65672874450684</t>
   </si>
   <si>
     <t xml:space="preserve">7.67529058456421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097562789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176301956177</t>
+    <t xml:space="preserve">7.79594135284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176206588745</t>
   </si>
   <si>
     <t xml:space="preserve">7.54535818099976</t>
@@ -3635,25 +3635,25 @@
     <t xml:space="preserve">7.09059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87713432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7750449180603</t>
+    <t xml:space="preserve">6.87713384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85857248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072996139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77504444122314</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001064300537</t>
+    <t xml:space="preserve">6.84001016616821</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3662,16 +3662,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785316467285</t>
+    <t xml:space="preserve">6.86785364151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65439319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6079888343811</t>
+    <t xml:space="preserve">6.6543927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60798835754395</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661779403687</t>
+    <t xml:space="preserve">6.49661827087402</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3704,22 +3704,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210052490234</t>
+    <t xml:space="preserve">6.94210004806519</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6381664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679586410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032342910767</t>
+    <t xml:space="preserve">7.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63816595077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032390594482</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3728,31 +3728,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98156023025513</t>
+    <t xml:space="preserve">7.89803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98155975341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580615997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88875007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083948135376</t>
+    <t xml:space="preserve">8.05580711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8887505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0465259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083995819092</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436847686768</t>
+    <t xml:space="preserve">8.07436752319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286224365234</t>
+    <t xml:space="preserve">8.22286128997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940227508545</t>
+    <t xml:space="preserve">8.00940132141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3779,13 +3779,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443559646606</t>
+    <t xml:space="preserve">7.94443607330322</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488452911377</t>
+    <t xml:space="preserve">8.45488357543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -4035,6 +4035,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.60000038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71000003814697</t>
   </si>
 </sst>
 </file>
@@ -8008,7 +8011,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G140" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8112,7 +8115,7 @@
         <v>12.0293064117432</v>
       </c>
       <c r="G144" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8138,7 +8141,7 @@
         <v>11.8187694549561</v>
       </c>
       <c r="G145" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8190,7 +8193,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G147" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8216,7 +8219,7 @@
         <v>12.1824235916138</v>
       </c>
       <c r="G148" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8242,7 +8245,7 @@
         <v>12.1441440582275</v>
       </c>
       <c r="G149" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8268,7 +8271,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8294,7 +8297,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G151" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8320,7 +8323,7 @@
         <v>11.7039308547974</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8346,7 +8349,7 @@
         <v>11.9527473449707</v>
       </c>
       <c r="G153" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8398,7 +8401,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G155" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8424,7 +8427,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G156" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8502,7 +8505,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G159" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8528,7 +8531,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G160" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8554,7 +8557,7 @@
         <v>12.1345748901367</v>
       </c>
       <c r="G161" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8580,7 +8583,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G162" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8606,7 +8609,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G163" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8632,7 +8635,7 @@
         <v>12.1728544235229</v>
       </c>
       <c r="G164" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8684,7 +8687,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G166" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8710,7 +8713,7 @@
         <v>11.8953275680542</v>
       </c>
       <c r="G167" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8736,7 +8739,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G168" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8762,7 +8765,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G169" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8814,7 +8817,7 @@
         <v>11.7422113418579</v>
       </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8840,7 +8843,7 @@
         <v>11.6943607330322</v>
       </c>
       <c r="G172" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8892,7 +8895,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8918,7 +8921,7 @@
         <v>11.9240379333496</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8944,7 +8947,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G176" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9074,7 +9077,7 @@
         <v>11.7613496780396</v>
       </c>
       <c r="G181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9126,7 +9129,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9152,7 +9155,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9178,7 +9181,7 @@
         <v>11.9431781768799</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9230,7 +9233,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G187" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9256,7 +9259,7 @@
         <v>12.2398433685303</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9282,7 +9285,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G189" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9334,7 +9337,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G191" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9360,7 +9363,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G192" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9386,7 +9389,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G193" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9412,7 +9415,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G194" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9438,7 +9441,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G195" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9464,7 +9467,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G196" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9490,7 +9493,7 @@
         <v>12.402530670166</v>
       </c>
       <c r="G197" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9516,7 +9519,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G198" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9542,7 +9545,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G199" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9568,7 +9571,7 @@
         <v>12.8331737518311</v>
       </c>
       <c r="G200" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9594,7 +9597,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G201" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9620,7 +9623,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G202" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9646,7 +9649,7 @@
         <v>13.1011295318604</v>
       </c>
       <c r="G203" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9672,7 +9675,7 @@
         <v>13.2255382537842</v>
       </c>
       <c r="G204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9698,7 +9701,7 @@
         <v>13.3786563873291</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9724,7 +9727,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G206" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9750,7 +9753,7 @@
         <v>13.3977947235107</v>
       </c>
       <c r="G207" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9776,7 +9779,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9802,7 +9805,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G209" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9828,7 +9831,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9854,7 +9857,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G211" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9880,7 +9883,7 @@
         <v>12.5939283370972</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9906,7 +9909,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G213" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9932,7 +9935,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G214" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9958,7 +9961,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G215" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9984,7 +9987,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G216" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10010,7 +10013,7 @@
         <v>12.5747880935669</v>
       </c>
       <c r="G217" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10036,7 +10039,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G218" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10140,7 +10143,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G222" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10166,7 +10169,7 @@
         <v>12.3355417251587</v>
       </c>
       <c r="G223" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10192,7 +10195,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10218,7 +10221,7 @@
         <v>12.2781219482422</v>
       </c>
       <c r="G225" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10244,7 +10247,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10270,7 +10273,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G227" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10296,7 +10299,7 @@
         <v>12.5460777282715</v>
       </c>
       <c r="G228" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10322,7 +10325,7 @@
         <v>12.4790887832642</v>
       </c>
       <c r="G229" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10348,7 +10351,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G230" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10374,7 +10377,7 @@
         <v>12.4120998382568</v>
       </c>
       <c r="G231" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10400,7 +10403,7 @@
         <v>12.4312400817871</v>
       </c>
       <c r="G232" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10426,7 +10429,7 @@
         <v>12.3642511367798</v>
       </c>
       <c r="G233" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10452,7 +10455,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G234" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10478,7 +10481,7 @@
         <v>12.5652179718018</v>
       </c>
       <c r="G235" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10504,7 +10507,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10530,7 +10533,7 @@
         <v>12.4695196151733</v>
       </c>
       <c r="G237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10556,7 +10559,7 @@
         <v>12.3546810150146</v>
       </c>
       <c r="G238" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10582,7 +10585,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G239" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10608,7 +10611,7 @@
         <v>12.6991958618164</v>
       </c>
       <c r="G240" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10634,7 +10637,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G241" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10660,7 +10663,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G242" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10686,7 +10689,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G243" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10712,7 +10715,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G244" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10738,7 +10741,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G245" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10764,7 +10767,7 @@
         <v>12.8714532852173</v>
       </c>
       <c r="G246" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10790,7 +10793,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G247" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10816,7 +10819,7 @@
         <v>13.0054311752319</v>
       </c>
       <c r="G248" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10842,7 +10845,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G249" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10868,7 +10871,7 @@
         <v>12.80446434021</v>
       </c>
       <c r="G250" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10894,7 +10897,7 @@
         <v>12.6417770385742</v>
       </c>
       <c r="G251" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10920,7 +10923,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G252" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10946,7 +10949,7 @@
         <v>12.9001626968384</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -10972,7 +10975,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G254" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10998,7 +11001,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G255" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11024,7 +11027,7 @@
         <v>12.8618841171265</v>
       </c>
       <c r="G256" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11050,7 +11053,7 @@
         <v>12.9958610534668</v>
       </c>
       <c r="G257" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11076,7 +11079,7 @@
         <v>13.1202697753906</v>
       </c>
       <c r="G258" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11102,7 +11105,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G259" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11128,7 +11131,7 @@
         <v>13.034140586853</v>
       </c>
       <c r="G260" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11154,7 +11157,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G261" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11180,7 +11183,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G262" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11206,7 +11209,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G263" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11232,7 +11235,7 @@
         <v>13.2351083755493</v>
       </c>
       <c r="G264" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11258,7 +11261,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G265" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11284,7 +11287,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G266" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11310,7 +11313,7 @@
         <v>12.8140344619751</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11336,7 +11339,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G268" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11362,7 +11365,7 @@
         <v>12.6800556182861</v>
       </c>
       <c r="G269" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11388,7 +11391,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G270" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11414,7 +11417,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G271" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11440,7 +11443,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G272" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11466,7 +11469,7 @@
         <v>13.0915603637695</v>
       </c>
       <c r="G273" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11492,7 +11495,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G274" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11518,7 +11521,7 @@
         <v>13.1489791870117</v>
       </c>
       <c r="G275" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11544,7 +11547,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G276" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11570,7 +11573,7 @@
         <v>13.0532808303833</v>
       </c>
       <c r="G277" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11596,7 +11599,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G278" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11622,7 +11625,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G279" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11648,7 +11651,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G280" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11674,7 +11677,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G281" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11700,7 +11703,7 @@
         <v>12.6513471603394</v>
       </c>
       <c r="G282" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11726,7 +11729,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G283" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11752,7 +11755,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G284" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11778,7 +11781,7 @@
         <v>13.0245714187622</v>
       </c>
       <c r="G285" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11804,7 +11807,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G286" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11830,7 +11833,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G287" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11856,7 +11859,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G288" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11882,7 +11885,7 @@
         <v>13.4743537902832</v>
       </c>
       <c r="G289" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11908,7 +11911,7 @@
         <v>14.000696182251</v>
       </c>
       <c r="G290" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11934,7 +11937,7 @@
         <v>13.9719867706299</v>
       </c>
       <c r="G291" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11960,7 +11963,7 @@
         <v>13.9145669937134</v>
       </c>
       <c r="G292" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11986,7 +11989,7 @@
         <v>14.163384437561</v>
       </c>
       <c r="G293" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12012,7 +12015,7 @@
         <v>14.1155338287354</v>
       </c>
       <c r="G294" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12038,7 +12041,7 @@
         <v>14.2590818405151</v>
       </c>
       <c r="G295" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12064,7 +12067,7 @@
         <v>14.0963945388794</v>
       </c>
       <c r="G296" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12090,7 +12093,7 @@
         <v>14.2208032608032</v>
       </c>
       <c r="G297" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12116,7 +12119,7 @@
         <v>14.5940265655518</v>
       </c>
       <c r="G298" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12142,7 +12145,7 @@
         <v>14.6323070526123</v>
       </c>
       <c r="G299" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12168,7 +12171,7 @@
         <v>14.794994354248</v>
       </c>
       <c r="G300" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12194,7 +12197,7 @@
         <v>14.6035966873169</v>
       </c>
       <c r="G301" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12220,7 +12223,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G302" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12246,7 +12249,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G303" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12272,7 +12275,7 @@
         <v>14.24951171875</v>
       </c>
       <c r="G304" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12298,7 +12301,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G305" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12324,7 +12327,7 @@
         <v>14.4026298522949</v>
       </c>
       <c r="G306" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12350,7 +12353,7 @@
         <v>14.5461778640747</v>
       </c>
       <c r="G307" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12376,7 +12379,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G308" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12402,7 +12405,7 @@
         <v>14.6418762207031</v>
       </c>
       <c r="G309" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12428,7 +12431,7 @@
         <v>14.7375745773315</v>
       </c>
       <c r="G310" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12454,7 +12457,7 @@
         <v>15.2830572128296</v>
       </c>
       <c r="G311" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12480,7 +12483,7 @@
         <v>15.3021955490112</v>
       </c>
       <c r="G312" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12506,7 +12509,7 @@
         <v>15.4361743927002</v>
       </c>
       <c r="G313" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12532,7 +12535,7 @@
         <v>15.5031633377075</v>
       </c>
       <c r="G314" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12558,7 +12561,7 @@
         <v>15.6467113494873</v>
       </c>
       <c r="G315" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12584,7 +12587,7 @@
         <v>16.5654163360596</v>
       </c>
       <c r="G316" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12610,7 +12613,7 @@
         <v>16.9864902496338</v>
       </c>
       <c r="G317" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12636,7 +12639,7 @@
         <v>17.0343399047852</v>
       </c>
       <c r="G318" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12662,7 +12665,7 @@
         <v>17.225736618042</v>
       </c>
       <c r="G319" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12688,7 +12691,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G320" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12714,7 +12717,7 @@
         <v>16.0199356079102</v>
       </c>
       <c r="G321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12740,7 +12743,7 @@
         <v>15.7902593612671</v>
       </c>
       <c r="G322" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12766,7 +12769,7 @@
         <v>15.8859567642212</v>
       </c>
       <c r="G323" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12792,7 +12795,7 @@
         <v>16.2783203125</v>
       </c>
       <c r="G324" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12818,7 +12821,7 @@
         <v>16.0773544311523</v>
       </c>
       <c r="G325" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12844,7 +12847,7 @@
         <v>16.5462760925293</v>
       </c>
       <c r="G326" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12870,7 +12873,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G327" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12896,7 +12899,7 @@
         <v>16.5175685882568</v>
       </c>
       <c r="G328" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12922,7 +12925,7 @@
         <v>16.5079975128174</v>
       </c>
       <c r="G329" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12948,7 +12951,7 @@
         <v>17.1683177947998</v>
       </c>
       <c r="G330" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12974,7 +12977,7 @@
         <v>16.6993942260742</v>
       </c>
       <c r="G331" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13000,7 +13003,7 @@
         <v>16.7472438812256</v>
       </c>
       <c r="G332" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13026,7 +13029,7 @@
         <v>17.1396083831787</v>
       </c>
       <c r="G333" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13052,7 +13055,7 @@
         <v>16.9577808380127</v>
       </c>
       <c r="G334" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13078,7 +13081,7 @@
         <v>16.8907928466797</v>
       </c>
       <c r="G335" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13104,7 +13107,7 @@
         <v>17.0821895599365</v>
       </c>
       <c r="G336" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13130,7 +13133,7 @@
         <v>17.0151996612549</v>
       </c>
       <c r="G337" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13156,7 +13159,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G338" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13182,7 +13185,7 @@
         <v>17.991325378418</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13208,7 +13211,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G340" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13234,7 +13237,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G341" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13260,7 +13263,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G342" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13286,7 +13289,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G343" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13312,7 +13315,7 @@
         <v>18.3454093933105</v>
       </c>
       <c r="G344" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13338,7 +13341,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G345" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13364,7 +13367,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G346" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13390,7 +13393,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G347" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13416,7 +13419,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G348" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13442,7 +13445,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G349" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13468,7 +13471,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G350" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13494,7 +13497,7 @@
         <v>18.1635837554932</v>
       </c>
       <c r="G351" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13520,7 +13523,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13546,7 +13549,7 @@
         <v>17.5415420532227</v>
       </c>
       <c r="G353" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13572,7 +13575,7 @@
         <v>17.5606822967529</v>
       </c>
       <c r="G354" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13598,7 +13601,7 @@
         <v>17.3979930877686</v>
       </c>
       <c r="G355" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13624,7 +13627,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G356" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13650,7 +13653,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G357" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13676,7 +13679,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13702,7 +13705,7 @@
         <v>17.5128326416016</v>
       </c>
       <c r="G359" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13728,7 +13731,7 @@
         <v>17.589391708374</v>
       </c>
       <c r="G360" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13754,7 +13757,7 @@
         <v>17.7329387664795</v>
       </c>
       <c r="G361" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13780,7 +13783,7 @@
         <v>18.1253032684326</v>
       </c>
       <c r="G362" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13806,7 +13809,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G363" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13832,7 +13835,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G364" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13858,7 +13861,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G365" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13884,7 +13887,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G366" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13910,7 +13913,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G367" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13936,7 +13939,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13962,7 +13965,7 @@
         <v>17.7233695983887</v>
       </c>
       <c r="G369" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13988,7 +13991,7 @@
         <v>17.4649829864502</v>
       </c>
       <c r="G370" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14014,7 +14017,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G371" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14040,7 +14043,7 @@
         <v>18.1348724365234</v>
       </c>
       <c r="G372" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14066,7 +14069,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G373" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14092,7 +14095,7 @@
         <v>18.0774536132812</v>
       </c>
       <c r="G374" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14118,7 +14121,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G375" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14144,7 +14147,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G376" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14170,7 +14173,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G377" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14196,7 +14199,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G378" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14222,7 +14225,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G379" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14248,7 +14251,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G380" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14274,7 +14277,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G381" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14300,7 +14303,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G382" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14326,7 +14329,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G383" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14352,7 +14355,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G384" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14378,7 +14381,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G385" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14404,7 +14407,7 @@
         <v>17.2735862731934</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14430,7 +14433,7 @@
         <v>17.3022956848145</v>
       </c>
       <c r="G387" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14456,7 +14459,7 @@
         <v>17.2831554412842</v>
       </c>
       <c r="G388" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14482,7 +14485,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G389" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14508,7 +14511,7 @@
         <v>17.7138004302979</v>
       </c>
       <c r="G390" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14534,7 +14537,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G391" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14560,7 +14563,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G392" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14586,7 +14589,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14612,7 +14615,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14638,7 +14641,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G395" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14664,7 +14667,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G396" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14690,7 +14693,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G397" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14716,7 +14719,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G398" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14742,7 +14745,7 @@
         <v>17.9626159667969</v>
       </c>
       <c r="G399" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14768,7 +14771,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G400" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14794,7 +14797,7 @@
         <v>18.3262691497803</v>
       </c>
       <c r="G401" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14820,7 +14823,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G402" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14846,7 +14849,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G403" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14872,7 +14875,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G404" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14898,7 +14901,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G405" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14924,7 +14927,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G406" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14950,7 +14953,7 @@
         <v>18.0965938568115</v>
       </c>
       <c r="G407" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14976,7 +14979,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G408" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15002,7 +15005,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G409" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15028,7 +15031,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G410" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15054,7 +15057,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G411" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15080,7 +15083,7 @@
         <v>17.474552154541</v>
       </c>
       <c r="G412" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15522,7 +15525,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G429" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15548,7 +15551,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15652,7 +15655,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G434" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15678,7 +15681,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G435" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15808,7 +15811,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G440" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15834,7 +15837,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G441" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15860,7 +15863,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G442" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15912,7 +15915,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G444" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15938,7 +15941,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G445" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15990,7 +15993,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G447" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16094,7 +16097,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G451" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16432,7 +16435,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G464" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16510,7 +16513,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G467" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16536,7 +16539,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G468" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16562,7 +16565,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G469" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16692,7 +16695,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G474" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16718,7 +16721,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G475" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16796,7 +16799,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G478" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16822,7 +16825,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G479" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16926,7 +16929,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G483" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16952,7 +16955,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G484" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16978,7 +16981,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G485" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17004,7 +17007,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G486" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17186,7 +17189,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G493" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17212,7 +17215,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G494" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17238,7 +17241,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G495" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17264,7 +17267,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G496" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17342,7 +17345,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G499" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17420,7 +17423,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G502" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17498,7 +17501,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G505" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17550,7 +17553,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G507" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18382,7 +18385,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G539" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18434,7 +18437,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G541" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18460,7 +18463,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G542" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18486,7 +18489,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G543" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18564,7 +18567,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G546" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18590,7 +18593,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G547" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18902,7 +18905,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G559" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18928,7 +18931,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G560" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18980,7 +18983,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G562" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19006,7 +19009,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G563" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19838,7 +19841,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G595" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19890,7 +19893,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G597" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19942,7 +19945,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G599" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20072,7 +20075,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G604" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -60302,7 +60305,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6521990741</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>112089</v>
@@ -60323,6 +60326,32 @@
         <v>1340</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495023148</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>48108</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>8.57999992370605</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>8.71000003814697</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>8.71000003814697</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1344">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332946777344</t>
+    <t xml:space="preserve">8.8033275604248</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573612213135</t>
+    <t xml:space="preserve">8.74573516845703</t>
   </si>
   <si>
     <t xml:space="preserve">8.72105407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72927951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79510116577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77864456176758</t>
+    <t xml:space="preserve">8.72928047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79509925842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77864551544189</t>
   </si>
   <si>
     <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52359485626221</t>
+    <t xml:space="preserve">8.52359580993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1451358795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10399723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60586833953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4330940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968284606934</t>
+    <t xml:space="preserve">8.14513492584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1039981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60587024688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43309307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968379974365</t>
   </si>
   <si>
     <t xml:space="preserve">8.25209045410156</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">8.34259223937988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5400505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46600341796875</t>
+    <t xml:space="preserve">8.54004955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46600246429443</t>
   </si>
   <si>
     <t xml:space="preserve">8.22740840911865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32613849639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63877868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473350524902</t>
+    <t xml:space="preserve">8.32613563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877773284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473159790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.6716890335083</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">8.87737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77041912078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851043701172</t>
+    <t xml:space="preserve">8.77041721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851139068604</t>
   </si>
   <si>
     <t xml:space="preserve">8.92673778533936</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">8.98433017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81978225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91028308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04192352294922</t>
+    <t xml:space="preserve">8.81978321075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028499603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192161560059</t>
   </si>
   <si>
     <t xml:space="preserve">8.96787643432617</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05014896392822</t>
+    <t xml:space="preserve">9.05014801025391</t>
   </si>
   <si>
     <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07483196258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81155395507812</t>
+    <t xml:space="preserve">9.07483100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81155490875244</t>
   </si>
   <si>
     <t xml:space="preserve">8.86091899871826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09951305389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09128665924072</t>
+    <t xml:space="preserve">9.09951400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09128570556641</t>
   </si>
   <si>
     <t xml:space="preserve">9.06660461425781</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">9.21469879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46974754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54379463195801</t>
+    <t xml:space="preserve">9.46974945068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54379272460938</t>
   </si>
   <si>
     <t xml:space="preserve">9.52733898162842</t>
@@ -185,28 +185,28 @@
     <t xml:space="preserve">9.74947929382324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83998012542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71656894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87289142608643</t>
+    <t xml:space="preserve">9.83998107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71657085418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87289047241211</t>
   </si>
   <si>
     <t xml:space="preserve">9.94693660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51088333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93048286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77416038513184</t>
+    <t xml:space="preserve">9.51088428497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93048191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
     <t xml:space="preserve">9.83175277709961</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">10.1114845275879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8893461227417</t>
+    <t xml:space="preserve">9.88934421539307</t>
   </si>
   <si>
     <t xml:space="preserve">10.3994455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488077163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.613356590271</t>
+    <t xml:space="preserve">10.4652633666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133575439453</t>
   </si>
   <si>
     <t xml:space="preserve">10.7120866775513</t>
@@ -239,49 +239,49 @@
     <t xml:space="preserve">10.5722208023071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5307931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2490873336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2739458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3567991256714</t>
+    <t xml:space="preserve">10.5307941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2490882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2739448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3568000793457</t>
   </si>
   <si>
     <t xml:space="preserve">10.4976501464844</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805044174194</t>
+    <t xml:space="preserve">10.5805063247681</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727954864502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4893665313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3982267379761</t>
+    <t xml:space="preserve">10.4893655776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3982257843018</t>
   </si>
   <si>
     <t xml:space="preserve">10.4396533966064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2905158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1910886764526</t>
+    <t xml:space="preserve">10.2905168533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910905838013</t>
   </si>
   <si>
     <t xml:space="preserve">10.0253810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98395347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252777099609</t>
+    <t xml:space="preserve">9.9839563369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
     <t xml:space="preserve">9.85967350006104</t>
@@ -290,40 +290,37 @@
     <t xml:space="preserve">10.1082363128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4230813980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909881591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96738433837891</t>
+    <t xml:space="preserve">10.4230823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96738243103027</t>
   </si>
   <si>
     <t xml:space="preserve">10.0668087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1165218353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1579484939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3816556930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.315372467041</t>
+    <t xml:space="preserve">10.5225076675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1165199279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1579494476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3816566467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153696060181</t>
   </si>
   <si>
     <t xml:space="preserve">10.5556488037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5639362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722217559814</t>
+    <t xml:space="preserve">10.5639343261719</t>
   </si>
   <si>
     <t xml:space="preserve">10.4147977828979</t>
@@ -347,7 +344,7 @@
     <t xml:space="preserve">10.4645090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1330909729004</t>
+    <t xml:space="preserve">10.1330938339233</t>
   </si>
   <si>
     <t xml:space="preserve">10.3485136032104</t>
@@ -359,70 +356,70 @@
     <t xml:space="preserve">10.6136474609375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5059366226196</t>
+    <t xml:space="preserve">10.5059375762939</t>
   </si>
   <si>
     <t xml:space="preserve">10.4562244415283</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5390796661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2988004684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2242336273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1662340164185</t>
+    <t xml:space="preserve">10.5390787124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2987995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.224232673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1662349700928</t>
   </si>
   <si>
     <t xml:space="preserve">10.1248064041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3236560821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1828050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6053619384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402271270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970773696899</t>
+    <t xml:space="preserve">10.3236570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.182804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6053609848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402280807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970764160156</t>
   </si>
   <si>
     <t xml:space="preserve">10.6716461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">10.721360206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7544984817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7379302978516</t>
+    <t xml:space="preserve">10.7213573455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7545003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
     <t xml:space="preserve">11.0610609054565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1107740402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1273460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433404922485</t>
+    <t xml:space="preserve">11.1107730865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.127345085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433414459229</t>
   </si>
   <si>
     <t xml:space="preserve">11.3427658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4504766464233</t>
+    <t xml:space="preserve">11.4504776000977</t>
   </si>
   <si>
     <t xml:space="preserve">11.5830450057983</t>
@@ -431,64 +428,64 @@
     <t xml:space="preserve">11.5167598724365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5996131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1853427886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3096237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0196352005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.903639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953533172607</t>
+    <t xml:space="preserve">11.5996150970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1853446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3096227645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0196323394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9036378860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953542709351</t>
   </si>
   <si>
     <t xml:space="preserve">11.0776329040527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8870687484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7710704803467</t>
+    <t xml:space="preserve">10.8870697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.771071434021</t>
   </si>
   <si>
     <t xml:space="preserve">10.679931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6302185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8622102737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8042125701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6633596420288</t>
+    <t xml:space="preserve">10.6302194595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622093200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8042116165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6633605957031</t>
   </si>
   <si>
     <t xml:space="preserve">10.7462148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7627849578857</t>
+    <t xml:space="preserve">10.7627859115601</t>
   </si>
   <si>
     <t xml:space="preserve">10.7047872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8787813186646</t>
+    <t xml:space="preserve">10.8787822723389</t>
   </si>
   <si>
     <t xml:space="preserve">10.7959270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6965036392212</t>
+    <t xml:space="preserve">10.6965017318726</t>
   </si>
   <si>
     <t xml:space="preserve">10.9947786331177</t>
@@ -500,94 +497,94 @@
     <t xml:space="preserve">11.4339056015015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3510513305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1439170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024885177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.268196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0859184265137</t>
+    <t xml:space="preserve">11.3510522842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1439142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024875640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.259913444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2681970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859174728394</t>
   </si>
   <si>
     <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1687726974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.135630607605</t>
+    <t xml:space="preserve">11.1687717437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1356315612793</t>
   </si>
   <si>
     <t xml:space="preserve">11.2516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3593368530273</t>
+    <t xml:space="preserve">11.3593378067017</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847681045532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4753332138062</t>
+    <t xml:space="preserve">11.4753351211548</t>
   </si>
   <si>
     <t xml:space="preserve">11.4587631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2267713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782056808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344812393188</t>
+    <t xml:space="preserve">11.226770401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942039489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782085418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344821929932</t>
   </si>
   <si>
     <t xml:space="preserve">11.3841934204102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3013401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.177056312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9533500671387</t>
+    <t xml:space="preserve">11.3013381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1770582199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9533519744873</t>
   </si>
   <si>
     <t xml:space="preserve">11.2764835357666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6658983230591</t>
+    <t xml:space="preserve">11.6658973693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.1215972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0967407226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0470285415649</t>
+    <t xml:space="preserve">12.0967435836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0470275878906</t>
   </si>
   <si>
     <t xml:space="preserve">12.2624502182007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2210245132446</t>
+    <t xml:space="preserve">12.2210216522217</t>
   </si>
   <si>
     <t xml:space="preserve">12.3453044891357</t>
@@ -599,43 +596,43 @@
     <t xml:space="preserve">12.3121633529663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6352949142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6684379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8092880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435813903809</t>
+    <t xml:space="preserve">12.6352939605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6684370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8092889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435804367065</t>
   </si>
   <si>
     <t xml:space="preserve">12.6021528244019</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4944438934326</t>
+    <t xml:space="preserve">12.4944429397583</t>
   </si>
   <si>
     <t xml:space="preserve">12.3370189666748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4695863723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6767234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7595767974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2318477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2484159469604</t>
+    <t xml:space="preserve">12.4695854187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6767225265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.759575843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2318468093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2484169006348</t>
   </si>
   <si>
     <t xml:space="preserve">13.3644132614136</t>
@@ -644,43 +641,43 @@
     <t xml:space="preserve">13.4224119186401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5466938018799</t>
+    <t xml:space="preserve">13.5466928482056</t>
   </si>
   <si>
     <t xml:space="preserve">14.3420944213867</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480812072754</t>
+    <t xml:space="preserve">14.7066555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480840682983</t>
   </si>
   <si>
     <t xml:space="preserve">14.9137907028198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3338098526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195375442505</t>
+    <t xml:space="preserve">14.3338088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698263168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709756851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538290023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935325622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195365905762</t>
   </si>
   <si>
     <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3006677627563</t>
+    <t xml:space="preserve">14.300669670105</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
@@ -689,205 +686,208 @@
     <t xml:space="preserve">14.8640785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4580917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995183944702</t>
+    <t xml:space="preserve">14.4580907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995193481445</t>
   </si>
   <si>
     <t xml:space="preserve">14.8392219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6817998886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.62380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423372268677</t>
+    <t xml:space="preserve">14.6817979812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6238021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895097732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315130233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766229629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423362731934</t>
   </si>
   <si>
     <t xml:space="preserve">15.883186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4523448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097660064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5186281204224</t>
+    <t xml:space="preserve">15.4523468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020570755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.609766960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186243057251</t>
   </si>
   <si>
     <t xml:space="preserve">15.7257661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872110366821</t>
+    <t xml:space="preserve">15.4440584182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.137167930603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784616470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201787948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285062789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954526901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366628646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.486873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783781051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199272155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6450748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537393569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289268493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372533798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.411940574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618085861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284227371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533168792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448194503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695032119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.720009803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449855804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452447891235</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037801742554</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1371688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870435714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.578462600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370843887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036966323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285898208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699680328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949476242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201778411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5285053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202642440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366647720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782945632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283372879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783761978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.90318775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040336608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537393569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289297103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539093017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411940574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951166152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618104934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284198760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448184967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.695032119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200107574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117677688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7449903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1121940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787170410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120241165161</t>
+    <t xml:space="preserve">15.1121921539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957925796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787179946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.320348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120222091675</t>
   </si>
   <si>
     <t xml:space="preserve">14.9872980117798</t>
@@ -896,145 +896,145 @@
     <t xml:space="preserve">15.1205177307129</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3369998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538248062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785461425781</t>
+    <t xml:space="preserve">15.3370027542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.370306968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785480499268</t>
   </si>
   <si>
     <t xml:space="preserve">15.5368328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4702224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6034440994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035276412964</t>
+    <t xml:space="preserve">15.4702215194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.603443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.503529548645</t>
   </si>
   <si>
     <t xml:space="preserve">15.5118541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534887313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4036140441895</t>
+    <t xml:space="preserve">15.553484916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4036121368408</t>
   </si>
   <si>
     <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3869581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619794845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6525535583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4943542480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026798248291</t>
+    <t xml:space="preserve">15.3869600296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.652551651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4943561553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026817321777</t>
   </si>
   <si>
     <t xml:space="preserve">16.4110927581787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3444805145264</t>
+    <t xml:space="preserve">16.344482421875</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3028507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1446495056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116851806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4618968963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616405487061</t>
+    <t xml:space="preserve">16.302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1446514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1529769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618978500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449048995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616386413574</t>
   </si>
   <si>
     <t xml:space="preserve">15.853232383728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.953145980835</t>
+    <t xml:space="preserve">15.9531469345093</t>
   </si>
   <si>
     <t xml:space="preserve">16.0031032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0530605316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.928165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367464065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6534004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7866191864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280857086182</t>
+    <t xml:space="preserve">16.0530624389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864530563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365793228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928168296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6533975601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7866230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280818939209</t>
   </si>
   <si>
     <t xml:space="preserve">16.0697154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861103057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5443115234375</t>
+    <t xml:space="preserve">16.3861141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5443134307861</t>
   </si>
   <si>
     <t xml:space="preserve">16.602596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8190765380859</t>
+    <t xml:space="preserve">16.8190784454346</t>
   </si>
   <si>
     <t xml:space="preserve">16.860710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7774486541748</t>
+    <t xml:space="preserve">16.7774448394775</t>
   </si>
   <si>
     <t xml:space="preserve">16.694185256958</t>
@@ -1046,34 +1046,34 @@
     <t xml:space="preserve">16.2029342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3694591522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353916168213</t>
+    <t xml:space="preserve">16.369457244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353935241699</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272350311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1104965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019203186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9023418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3186569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4435501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9856052398682</t>
+    <t xml:space="preserve">17.1104984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.90234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3186550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4435482025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9856071472168</t>
   </si>
   <si>
     <t xml:space="preserve">17.0688648223877</t>
@@ -1082,52 +1082,52 @@
     <t xml:space="preserve">16.5193328857422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1363258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1196746826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0197601318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4194183349609</t>
+    <t xml:space="preserve">16.136323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1196708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0197582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4194202423096</t>
   </si>
   <si>
     <t xml:space="preserve">16.2528915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2861957550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2695465087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0705604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703905105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535703659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709012985229</t>
+    <t xml:space="preserve">16.2861938476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.036413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2695446014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0705595016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.670051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6708974838257</t>
   </si>
   <si>
     <t xml:space="preserve">14.8374252319336</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044589996338</t>
+    <t xml:space="preserve">14.6542444229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044580459595</t>
   </si>
   <si>
     <t xml:space="preserve">14.2878913879395</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">14.3711547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708139419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.487720489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212810516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380186080933</t>
+    <t xml:space="preserve">14.7708168029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877214431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380176544189</t>
   </si>
   <si>
     <t xml:space="preserve">14.0714092254639</t>
@@ -1160,22 +1160,22 @@
     <t xml:space="preserve">14.1213655471802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.387806892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3211975097656</t>
+    <t xml:space="preserve">14.3878078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3211984634399</t>
   </si>
   <si>
     <t xml:space="preserve">14.7541627883911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0039510726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041191101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0206022262573</t>
+    <t xml:space="preserve">15.0039520263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041210174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.020604133606</t>
   </si>
   <si>
     <t xml:space="preserve">15.9198408126831</t>
@@ -1184,52 +1184,52 @@
     <t xml:space="preserve">15.1038656234741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0954971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946704864502</t>
+    <t xml:space="preserve">15.095498085022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285558700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946723937988</t>
   </si>
   <si>
     <t xml:space="preserve">15.1457052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293834686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.85706615448</t>
+    <t xml:space="preserve">15.2293815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101665496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8570642471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2252473831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.325662612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.72731590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6436367034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.844464302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5264892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5599584579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771097183228</t>
+    <t xml:space="preserve">14.225248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3256635665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7273149490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6436376571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5264873504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5599594116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771106719971</t>
   </si>
   <si>
     <t xml:space="preserve">14.4762811660767</t>
@@ -1238,34 +1238,34 @@
     <t xml:space="preserve">14.3926048278809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603717803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9616136550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118207931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7775230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.212646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2795896530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791753768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950838088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452890396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112232208252</t>
+    <t xml:space="preserve">14.6603755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.961612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7775211334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2126455307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2795886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950828552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452909469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1122331619263</t>
   </si>
   <si>
     <t xml:space="preserve">15.3632669448853</t>
@@ -1274,55 +1274,55 @@
     <t xml:space="preserve">15.2628555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0620260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3297986984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314519882202</t>
+    <t xml:space="preserve">15.0620269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3297967910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314500808716</t>
   </si>
   <si>
     <t xml:space="preserve">15.6812448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6143007278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4636812210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.798394203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114065170288</t>
+    <t xml:space="preserve">15.6143016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473604202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636783599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477718353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114074707031</t>
   </si>
   <si>
     <t xml:space="preserve">15.564094543457</t>
   </si>
   <si>
-    <t xml:space="preserve">15.697979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649230957031</t>
+    <t xml:space="preserve">15.6979808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649211883545</t>
   </si>
   <si>
     <t xml:space="preserve">15.4804182052612</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2963237762451</t>
+    <t xml:space="preserve">15.2963256835938</t>
   </si>
   <si>
     <t xml:space="preserve">15.313060760498</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">15.1624402999878</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2921905517578</t>
+    <t xml:space="preserve">14.2921895980835</t>
   </si>
   <si>
     <t xml:space="preserve">14.5432233810425</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">14.8277282714844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6938428878784</t>
+    <t xml:space="preserve">14.6938447952271</t>
   </si>
   <si>
     <t xml:space="preserve">13.7399168014526</t>
@@ -1358,112 +1358,112 @@
     <t xml:space="preserve">13.7231798171997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6060304641724</t>
+    <t xml:space="preserve">13.6060314178467</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">13.974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.091362953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064447402954</t>
+    <t xml:space="preserve">13.9742136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0913639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7064437866211</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211122512817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047914505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023096084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533443450928</t>
+    <t xml:space="preserve">13.5892953872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023105621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533424377441</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0872287750244</t>
+    <t xml:space="preserve">13.0872268676758</t>
   </si>
   <si>
     <t xml:space="preserve">13.1541700363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0537567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.852931022644</t>
+    <t xml:space="preserve">13.0537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8529300689697</t>
   </si>
   <si>
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6186332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516901016235</t>
+    <t xml:space="preserve">12.618631362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516891479492</t>
   </si>
   <si>
     <t xml:space="preserve">12.4512758255005</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496225357056</t>
+    <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7818508148193</t>
+    <t xml:space="preserve">11.7818517684937</t>
   </si>
   <si>
     <t xml:space="preserve">12.1835060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8320579528809</t>
+    <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
     <t xml:space="preserve">11.9157371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3006553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.384334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5349540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3801975250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7168378829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2764472961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2239847183228</t>
+    <t xml:space="preserve">12.3006563186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3843336105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5349531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3801984786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7168369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2764492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2239837646484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8392524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9266920089722</t>
+    <t xml:space="preserve">11.9266910552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4894962310791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0316190719604</t>
+    <t xml:space="preserve">12.0316171646118</t>
   </si>
   <si>
     <t xml:space="preserve">12.7661066055298</t>
@@ -1472,70 +1472,70 @@
     <t xml:space="preserve">12.1365451812744</t>
   </si>
   <si>
-    <t xml:space="preserve">11.979154586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.891716003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.15403175354</t>
+    <t xml:space="preserve">11.9791555404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8917150497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1540327072144</t>
   </si>
   <si>
     <t xml:space="preserve">12.1715211868286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190586090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8042755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163503646851</t>
+    <t xml:space="preserve">12.1190567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5594472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8042774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163494110107</t>
   </si>
   <si>
     <t xml:space="preserve">12.521276473999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5912294387817</t>
+    <t xml:space="preserve">12.5912284851074</t>
   </si>
   <si>
     <t xml:space="preserve">12.5037899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3638868331909</t>
+    <t xml:space="preserve">12.3638877868652</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6643743515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7867889404297</t>
+    <t xml:space="preserve">11.6643753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7867879867554</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616680145264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8567419052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.874228477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7343254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6993503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0491056442261</t>
+    <t xml:space="preserve">11.8567409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8742275238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7343244552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6993494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0491065979004</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966421127319</t>
@@ -1544,37 +1544,37 @@
     <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8535470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8360586166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6961555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.608715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8185691833496</t>
+    <t xml:space="preserve">12.5562534332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8535461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8360576629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.69615650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8185701370239</t>
   </si>
   <si>
     <t xml:space="preserve">12.3988637924194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1890096664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2939357757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.524471282959</t>
+    <t xml:space="preserve">12.1890087127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2939367294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441785812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5244722366333</t>
   </si>
   <si>
     <t xml:space="preserve">11.419545173645</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8074712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2446670532227</t>
+    <t xml:space="preserve">10.8074722290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173263549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446660995483</t>
   </si>
   <si>
     <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1397390365601</t>
+    <t xml:space="preserve">11.1397399902344</t>
   </si>
   <si>
     <t xml:space="preserve">11.2271795272827</t>
@@ -1607,43 +1607,43 @@
     <t xml:space="preserve">11.2096910476685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4720087051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4545192718506</t>
+    <t xml:space="preserve">11.4720067977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4545211791992</t>
   </si>
   <si>
     <t xml:space="preserve">11.1922025680542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.437032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6818618774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141296386719</t>
+    <t xml:space="preserve">11.4370336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6818609237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141305923462</t>
   </si>
   <si>
     <t xml:space="preserve">12.1015701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.066593170166</t>
+    <t xml:space="preserve">12.0665950775146</t>
   </si>
   <si>
     <t xml:space="preserve">11.332106590271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3146181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2621545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5419578552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869445800781</t>
+    <t xml:space="preserve">11.3146171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2621536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5419597625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869455337524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6324920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.192533493042</t>
+    <t xml:space="preserve">11.6324911117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1925344467163</t>
   </si>
   <si>
     <t xml:space="preserve">11.2981243133545</t>
@@ -1673,49 +1673,49 @@
     <t xml:space="preserve">11.157338142395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1749362945557</t>
+    <t xml:space="preserve">11.1749353408813</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3509187698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3861150741577</t>
+    <t xml:space="preserve">11.3509197235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028856277466</t>
+    <t xml:space="preserve">11.7028865814209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7380819320679</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0548524856567</t>
+    <t xml:space="preserve">12.0548515319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.8964672088623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7732791900635</t>
+    <t xml:space="preserve">11.7732801437378</t>
   </si>
   <si>
     <t xml:space="preserve">12.0020580291748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7908773422241</t>
+    <t xml:space="preserve">11.7908763885498</t>
   </si>
   <si>
     <t xml:space="preserve">11.4389114379883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5445003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5093040466309</t>
+    <t xml:space="preserve">11.5445013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093050003052</t>
   </si>
   <si>
     <t xml:space="preserve">11.5269021987915</t>
@@ -1724,25 +1724,25 @@
     <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7204847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196561813354</t>
+    <t xml:space="preserve">11.7204837799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0196552276611</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124082565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3716220855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0724496841431</t>
+    <t xml:space="preserve">12.1428451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124092102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3716230392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0724506378174</t>
   </si>
   <si>
     <t xml:space="preserve">12.1604423522949</t>
@@ -1751,31 +1751,31 @@
     <t xml:space="preserve">12.6707935333252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059888839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4948091506958</t>
+    <t xml:space="preserve">12.7059898376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4948101043701</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5796976089478</t>
+    <t xml:space="preserve">11.5796966552734</t>
   </si>
   <si>
     <t xml:space="preserve">11.614893913269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5621004104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4741077423096</t>
+    <t xml:space="preserve">11.5620994567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4741067886353</t>
   </si>
   <si>
     <t xml:space="preserve">11.7556800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3333215713501</t>
+    <t xml:space="preserve">11.3333206176758</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917058944702</t>
@@ -1787,31 +1787,31 @@
     <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4772129058838</t>
+    <t xml:space="preserve">12.4772138595581</t>
   </si>
   <si>
     <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4596138000488</t>
+    <t xml:space="preserve">12.4596147537231</t>
   </si>
   <si>
     <t xml:space="preserve">12.1252460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9668607711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844579696655</t>
+    <t xml:space="preserve">11.9668598175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844589233398</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3188285827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3364267349243</t>
+    <t xml:space="preserve">12.3188276290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.33642578125</t>
   </si>
   <si>
     <t xml:space="preserve">12.1780405044556</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">12.3892202377319</t>
   </si>
   <si>
-    <t xml:space="preserve">13.040358543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635465621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3571300506592</t>
+    <t xml:space="preserve">13.0403575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451189041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635475158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3571281433105</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515392303467</t>
@@ -1844,28 +1844,28 @@
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099225997925</t>
+    <t xml:space="preserve">13.4099235534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4627180099487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6387023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3747262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.286735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4275217056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3395299911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5476055145264</t>
+    <t xml:space="preserve">13.6387014389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3747272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2867345809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4275226593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3395290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5476045608521</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068193435669</t>
@@ -1886,10 +1886,10 @@
     <t xml:space="preserve">13.3219318389893</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1283512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9523668289185</t>
+    <t xml:space="preserve">13.1283502578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
     <t xml:space="preserve">13.0579566955566</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">13.0227603912354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8467769622803</t>
+    <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
     <t xml:space="preserve">12.9347686767578</t>
@@ -1913,28 +1913,28 @@
     <t xml:space="preserve">12.6355972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7411870956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0900478363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3012275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0372552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6676893234253</t>
+    <t xml:space="preserve">12.7587852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7411861419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.090048789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3012285232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0372543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6676902770996</t>
   </si>
   <si>
     <t xml:space="preserve">11.6852874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3157234191895</t>
+    <t xml:space="preserve">11.3157215118408</t>
   </si>
   <si>
     <t xml:space="preserve">11.2629270553589</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">11.2277317047119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0693454742432</t>
+    <t xml:space="preserve">11.0693464279175</t>
   </si>
   <si>
     <t xml:space="preserve">11.210132598877</t>
@@ -1961,25 +1961,25 @@
     <t xml:space="preserve">10.3126182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1894292831421</t>
+    <t xml:space="preserve">10.1894302368164</t>
   </si>
   <si>
     <t xml:space="preserve">9.94305324554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57348728179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46789741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32711219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30951309204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20392417907715</t>
+    <t xml:space="preserve">9.57348823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46789836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32711315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30951404571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20392322540283</t>
   </si>
   <si>
     <t xml:space="preserve">8.45599460601807</t>
@@ -1988,88 +1988,88 @@
     <t xml:space="preserve">8.03363513946533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564294815063</t>
+    <t xml:space="preserve">7.94564342498779</t>
   </si>
   <si>
     <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25050926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">7.25050973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93943405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97463083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2474045753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34419584274292</t>
+    <t xml:space="preserve">5.93943452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97463035583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24740505218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">6.20340967178345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07142210006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73705387115479</t>
+    <t xml:space="preserve">6.0714225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73705339431763</t>
   </si>
   <si>
     <t xml:space="preserve">6.05382347106934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01862764358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04502391815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9834303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15941429138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18581104278564</t>
+    <t xml:space="preserve">6.01862716674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04502439498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98342990875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15941381454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
     <t xml:space="preserve">6.51138019561768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22100830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6873631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6345682144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55537557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59057188034058</t>
+    <t xml:space="preserve">6.22100782394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68736362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63456869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55537605285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59057235717773</t>
   </si>
   <si>
     <t xml:space="preserve">6.66096591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08332586288452</t>
+    <t xml:space="preserve">7.08332633972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.06572675704956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15371894836426</t>
+    <t xml:space="preserve">7.1537184715271</t>
   </si>
   <si>
     <t xml:space="preserve">7.2593092918396</t>
@@ -2081,16 +2081,16 @@
     <t xml:space="preserve">7.29450559616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03933048248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0569281578064</t>
+    <t xml:space="preserve">7.03932952880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05692863464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378204345703</t>
+    <t xml:space="preserve">6.49378156661987</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858526229858</t>
@@ -2099,64 +2099,64 @@
     <t xml:space="preserve">6.62576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71376085281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69616222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81935119628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03052997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18011665344238</t>
+    <t xml:space="preserve">6.71376132965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69616270065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8193507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03053045272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18011617660522</t>
   </si>
   <si>
     <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34730100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970190048218</t>
+    <t xml:space="preserve">7.34730005264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970142364502</t>
   </si>
   <si>
     <t xml:space="preserve">7.31210422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47928857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843883514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21841716766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00723743438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204160690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725862503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489868164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168947219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63767337799072</t>
+    <t xml:space="preserve">7.47928714752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9984393119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21841812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00723838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725957870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168994903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63767242431641</t>
   </si>
   <si>
     <t xml:space="preserve">7.40009546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41769361495972</t>
+    <t xml:space="preserve">7.41769456863403</t>
   </si>
   <si>
     <t xml:space="preserve">7.54968118667603</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">7.6288743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72566413879395</t>
+    <t xml:space="preserve">7.72566366195679</t>
   </si>
   <si>
     <t xml:space="preserve">7.51448440551758</t>
@@ -2174,34 +2174,34 @@
     <t xml:space="preserve">7.91924667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88404941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74326324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66407012939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58487749099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60247611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75206232070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5232834815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59367656707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21531248092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812955856323</t>
+    <t xml:space="preserve">7.88404846191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74326181411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66406965255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58487701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60247707366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75206184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52328443527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59367704391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21531295776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812908172607</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">7.12732172012329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14491987228394</t>
+    <t xml:space="preserve">7.14491939544678</t>
   </si>
   <si>
     <t xml:space="preserve">6.92494106292725</t>
@@ -2231,34 +2231,34 @@
     <t xml:space="preserve">6.79295301437378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88094568252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334657669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78415393829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72255992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70496129989624</t>
+    <t xml:space="preserve">6.88094472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78415441513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72255945205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7049617767334</t>
   </si>
   <si>
     <t xml:space="preserve">6.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59937191009521</t>
+    <t xml:space="preserve">6.59937143325806</t>
   </si>
   <si>
     <t xml:space="preserve">6.43218755722046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25620412826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37059354782104</t>
+    <t xml:space="preserve">6.25620460510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37059307098389</t>
   </si>
   <si>
     <t xml:space="preserve">6.28260183334351</t>
@@ -2270,28 +2270,28 @@
     <t xml:space="preserve">6.19461011886597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23860645294189</t>
+    <t xml:space="preserve">6.23860692977905</t>
   </si>
   <si>
     <t xml:space="preserve">6.48498201370239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50258111953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47618341445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54657649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66976499557495</t>
+    <t xml:space="preserve">6.5025806427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47618389129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54657697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66976451873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.73135900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41458892822266</t>
+    <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
     <t xml:space="preserve">6.60817098617554</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">6.52897834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82815027236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67856502532959</t>
+    <t xml:space="preserve">6.82814979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67856407165527</t>
   </si>
   <si>
     <t xml:space="preserve">6.40579032897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22980690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16821336746216</t>
+    <t xml:space="preserve">6.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.168212890625</t>
   </si>
   <si>
     <t xml:space="preserve">5.82504510879517</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">5.41148519515991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37628793716431</t>
+    <t xml:space="preserve">5.37628889083862</t>
   </si>
   <si>
     <t xml:space="preserve">5.4290828704834</t>
@@ -2333,31 +2333,31 @@
     <t xml:space="preserve">5.45548057556152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67545938491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85144281387329</t>
+    <t xml:space="preserve">5.67545986175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85144329071045</t>
   </si>
   <si>
     <t xml:space="preserve">6.84574842453003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80175256729126</t>
+    <t xml:space="preserve">6.8017520904541</t>
   </si>
   <si>
     <t xml:space="preserve">6.88974380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90164709091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16562366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9632420539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125495910645</t>
+    <t xml:space="preserve">7.90164852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16562271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96324157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125400543213</t>
   </si>
   <si>
     <t xml:space="preserve">7.82245492935181</t>
@@ -2375,31 +2375,31 @@
     <t xml:space="preserve">7.804856300354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64647245407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53208351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48808765411377</t>
+    <t xml:space="preserve">7.64647102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53208303451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48808622360229</t>
   </si>
   <si>
     <t xml:space="preserve">7.8752498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49688673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56727981567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6904673576355</t>
+    <t xml:space="preserve">7.49688625335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56727933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69046688079834</t>
   </si>
   <si>
     <t xml:space="preserve">7.89284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06883144378662</t>
+    <t xml:space="preserve">8.06883239746094</t>
   </si>
   <si>
     <t xml:space="preserve">7.85765218734741</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">7.76966047286987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9104471206665</t>
+    <t xml:space="preserve">7.91044616699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.08642959594727</t>
@@ -2417,52 +2417,52 @@
     <t xml:space="preserve">8.10402870178223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33280658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34160423278809</t>
+    <t xml:space="preserve">8.33280754089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3416051864624</t>
   </si>
   <si>
     <t xml:space="preserve">8.06003379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01603603363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38249778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44409132003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4264931678772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67286920547485</t>
+    <t xml:space="preserve">8.01603698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38249731063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.444091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42649173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67286968231201</t>
   </si>
   <si>
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682315826416</t>
+    <t xml:space="preserve">8.15682411193848</t>
   </si>
   <si>
     <t xml:space="preserve">8.22721672058105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19202136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42079734802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50879001617432</t>
+    <t xml:space="preserve">8.19202041625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42079830169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64957714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678077697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5087890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.46479415893555</t>
@@ -2471,16 +2471,16 @@
     <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43839645385742</t>
+    <t xml:space="preserve">8.43839550018311</t>
   </si>
   <si>
     <t xml:space="preserve">8.47359371185303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20081901550293</t>
+    <t xml:space="preserve">8.35920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20081806182861</t>
   </si>
   <si>
     <t xml:space="preserve">8.2448148727417</t>
@@ -2489,31 +2489,31 @@
     <t xml:space="preserve">8.05123329162598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1832218170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49119186401367</t>
+    <t xml:space="preserve">8.18321990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49119091033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.93994903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79916286468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8167610168457</t>
+    <t xml:space="preserve">8.79916191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81676006317139</t>
   </si>
   <si>
     <t xml:space="preserve">8.71117115020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7815637588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51759052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17442226409912</t>
+    <t xml:space="preserve">8.78156280517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51758861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1744213104248</t>
   </si>
   <si>
     <t xml:space="preserve">8.32400798797607</t>
@@ -2522,22 +2522,22 @@
     <t xml:space="preserve">8.39440155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06313705444336</t>
+    <t xml:space="preserve">9.06313800811768</t>
   </si>
   <si>
     <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8871545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.719970703125</t>
+    <t xml:space="preserve">8.88715362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71996974945068</t>
   </si>
   <si>
     <t xml:space="preserve">8.42959690093994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73756885528564</t>
+    <t xml:space="preserve">8.73756790161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.79036331176758</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">8.57038402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67597389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72876930236816</t>
+    <t xml:space="preserve">8.6759729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72877025604248</t>
   </si>
   <si>
     <t xml:space="preserve">8.60558032989502</t>
@@ -2564,25 +2564,25 @@
     <t xml:space="preserve">8.36800384521484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57918357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74636554718018</t>
+    <t xml:space="preserve">8.57918262481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74636745452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431774139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36230945587158</t>
+    <t xml:space="preserve">9.36230850219727</t>
   </si>
   <si>
     <t xml:space="preserve">9.1511287689209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13353061676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24035549163818</t>
+    <t xml:space="preserve">9.13352870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24035453796387</t>
   </si>
   <si>
     <t xml:space="preserve">9.0623140335083</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">8.99109745025635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20474624633789</t>
+    <t xml:space="preserve">9.20474720001221</t>
   </si>
   <si>
     <t xml:space="preserve">9.64985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81008815765381</t>
+    <t xml:space="preserve">9.81008911132812</t>
   </si>
   <si>
     <t xml:space="preserve">10.1127586364746</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">10.1661710739136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373876571655</t>
+    <t xml:space="preserve">10.2373886108398</t>
   </si>
   <si>
     <t xml:space="preserve">10.3086032867432</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">10.3442125320435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3264093399048</t>
+    <t xml:space="preserve">10.3264083862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.0949544906616</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">10.1305627822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1483669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9703254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91691398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75667572021484</t>
+    <t xml:space="preserve">10.1483659744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97032451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91691303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75667667388916</t>
   </si>
   <si>
     <t xml:space="preserve">9.61424255371094</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">9.54302597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45400428771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56082916259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68545818328857</t>
+    <t xml:space="preserve">9.45400524139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56083011627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68545913696289</t>
   </si>
   <si>
     <t xml:space="preserve">9.63204669952393</t>
@@ -2690,43 +2690,43 @@
     <t xml:space="preserve">8.91988086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97329235076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02670574188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48961353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57863330841064</t>
+    <t xml:space="preserve">8.97329330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02670669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4896125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
     <t xml:space="preserve">9.40059280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.525221824646</t>
+    <t xml:space="preserve">9.52522087097168</t>
   </si>
   <si>
     <t xml:space="preserve">9.8278923034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8456974029541</t>
+    <t xml:space="preserve">9.84569644927979</t>
   </si>
   <si>
     <t xml:space="preserve">9.93471717834473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41839599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47181034088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36498546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32937431335449</t>
+    <t xml:space="preserve">9.41839694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47180938720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3649845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32937526702881</t>
   </si>
   <si>
     <t xml:space="preserve">9.25815963745117</t>
@@ -2735,31 +2735,31 @@
     <t xml:space="preserve">9.70326232910156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72106838226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04450988769531</t>
+    <t xml:space="preserve">9.72106647491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.044508934021</t>
   </si>
   <si>
     <t xml:space="preserve">8.95548915863037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85756587982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93768501281738</t>
+    <t xml:space="preserve">8.85756492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93768405914307</t>
   </si>
   <si>
     <t xml:space="preserve">8.81305599212646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63501453399658</t>
+    <t xml:space="preserve">8.63501358032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87537002563477</t>
+    <t xml:space="preserve">8.87537097930908</t>
   </si>
   <si>
     <t xml:space="preserve">8.59940528869629</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69733047485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525089263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6439151763916</t>
+    <t xml:space="preserve">8.6973295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525184631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64391613006592</t>
   </si>
   <si>
     <t xml:space="preserve">8.80415344238281</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">8.60830783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67062187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47477626800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62611198425293</t>
+    <t xml:space="preserve">8.67062282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47477722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62611103057861</t>
   </si>
   <si>
     <t xml:space="preserve">8.75074100494385</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">8.76854515075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83976268768311</t>
+    <t xml:space="preserve">8.83976173400879</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
@@ -2819,22 +2819,22 @@
     <t xml:space="preserve">8.51928615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18990993499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22551727294922</t>
+    <t xml:space="preserve">8.18991088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22551822662354</t>
   </si>
   <si>
     <t xml:space="preserve">8.2166166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74480581283569</t>
+    <t xml:space="preserve">7.74480628967285</t>
   </si>
   <si>
     <t xml:space="preserve">7.80712127685547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70919847488403</t>
+    <t xml:space="preserve">7.70919799804688</t>
   </si>
   <si>
     <t xml:space="preserve">8.00296688079834</t>
@@ -2843,25 +2843,25 @@
     <t xml:space="preserve">7.90504360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83382749557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32344150543213</t>
+    <t xml:space="preserve">7.83382701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32344055175781</t>
   </si>
   <si>
     <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14540004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04747772216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94065284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418346405029</t>
+    <t xml:space="preserve">8.14539909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04747676849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94065189361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418251037598</t>
   </si>
   <si>
     <t xml:space="preserve">8.01186943054199</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">8.43916702270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8842716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78634834289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74183940887451</t>
+    <t xml:space="preserve">8.88427066802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78634929656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7418384552002</t>
   </si>
   <si>
     <t xml:space="preserve">8.43026638031006</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">8.50148296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67952442169189</t>
+    <t xml:space="preserve">8.67952346801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.56379699707031</t>
@@ -2906,10 +2906,10 @@
     <t xml:space="preserve">8.42136478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33234310150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30563640594482</t>
+    <t xml:space="preserve">8.33234405517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30563735961914</t>
   </si>
   <si>
     <t xml:space="preserve">8.03857421875</t>
@@ -2918,16 +2918,16 @@
     <t xml:space="preserve">7.89614105224609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29673480987549</t>
+    <t xml:space="preserve">8.29673385620117</t>
   </si>
   <si>
     <t xml:space="preserve">8.10088920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23441982269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453895568848</t>
+    <t xml:space="preserve">8.23442077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453990936279</t>
   </si>
   <si>
     <t xml:space="preserve">8.12759590148926</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">8.02077007293701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40355968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27893161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36795139312744</t>
+    <t xml:space="preserve">8.4035587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2789306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36795234680176</t>
   </si>
   <si>
     <t xml:space="preserve">8.46587467193604</t>
@@ -2957,22 +2957,22 @@
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884250640869</t>
+    <t xml:space="preserve">7.46884298324585</t>
   </si>
   <si>
     <t xml:space="preserve">7.27299642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45993995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69139385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8872389793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10979080200195</t>
+    <t xml:space="preserve">7.45993947982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69139528274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88723993301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10979175567627</t>
   </si>
   <si>
     <t xml:space="preserve">8.11869239807129</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">7.9762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02967262268066</t>
+    <t xml:space="preserve">8.02967357635498</t>
   </si>
   <si>
     <t xml:space="preserve">8.13649845123291</t>
@@ -2990,13 +2990,13 @@
     <t xml:space="preserve">8.90207672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82195854187012</t>
+    <t xml:space="preserve">8.8219575881958</t>
   </si>
   <si>
     <t xml:space="preserve">8.68842601776123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7596435546875</t>
+    <t xml:space="preserve">8.75964260101318</t>
   </si>
   <si>
     <t xml:space="preserve">8.73293781280518</t>
@@ -3008,22 +3008,22 @@
     <t xml:space="preserve">8.44807052612305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48367881774902</t>
+    <t xml:space="preserve">8.48367786407471</t>
   </si>
   <si>
     <t xml:space="preserve">8.49258136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16320323944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35904884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91394567489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41246223449707</t>
+    <t xml:space="preserve">8.16320419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35904979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91394662857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41246318817139</t>
   </si>
   <si>
     <t xml:space="preserve">8.3744010925293</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">8.23741436004639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44745922088623</t>
+    <t xml:space="preserve">8.44746017456055</t>
   </si>
   <si>
     <t xml:space="preserve">8.53878402709961</t>
@@ -3044,16 +3044,16 @@
     <t xml:space="preserve">8.62097454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52051830291748</t>
+    <t xml:space="preserve">8.5205192565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45659160614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42919445037842</t>
+    <t xml:space="preserve">8.45659255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4291934967041</t>
   </si>
   <si>
     <t xml:space="preserve">8.27394485473633</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686840057373</t>
+    <t xml:space="preserve">7.71686792373657</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
@@ -3077,31 +3077,31 @@
     <t xml:space="preserve">7.57988262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7533974647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60727977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61641263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69860410690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76253080368042</t>
+    <t xml:space="preserve">7.75339841842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60728025436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61641216278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69860458374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76253032684326</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58901596069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48855876922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57075071334839</t>
+    <t xml:space="preserve">7.5890154838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48855829238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57075023651123</t>
   </si>
   <si>
     <t xml:space="preserve">7.30591154098511</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">7.42463254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56161785125732</t>
+    <t xml:space="preserve">7.56161832809448</t>
   </si>
   <si>
     <t xml:space="preserve">7.50682401657104</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">7.46116209030151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47942638397217</t>
+    <t xml:space="preserve">7.47942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">7.31504392623901</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">7.2328519821167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24198436737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51595544815063</t>
+    <t xml:space="preserve">7.24198484420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51595592498779</t>
   </si>
   <si>
     <t xml:space="preserve">7.72600126266479</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">7.59814739227295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53422117233276</t>
+    <t xml:space="preserve">7.53422069549561</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">7.21458768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10499906539917</t>
+    <t xml:space="preserve">7.10499858856201</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
@@ -3185,475 +3185,478 @@
     <t xml:space="preserve">6.93148374557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7305703163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75796794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66664409637451</t>
+    <t xml:space="preserve">6.72143793106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73057079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75796747207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66664457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84929132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98627758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80362939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67577600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6483793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53879022598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5844521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618785858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36527442932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44746685028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49312829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47486400604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41093683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52965831756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48399591445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3561429977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16436243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09130382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02737712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0821704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05477380752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13696527481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96345043182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94518518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03650903701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10956811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04564142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3013482093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57532024383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42006969451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54792308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317363739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5022611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39267206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38353967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19176006317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22828912734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24655437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37440776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23742151260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43833446502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2922158241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17349481582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32874536514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20089197158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28308391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460976600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25568628311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51139354705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40180492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73970317840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94061517715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97714519500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02280712127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81276226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74883508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230602264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63924694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61184930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91321802139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88582134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95888042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8584246635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86755657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189464569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89495372772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31961297988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048107147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326383590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60271739959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5935845375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78536462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79360628128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10915613174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3318977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31333589553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30405473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34117794036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45254850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43398761749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35974025726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28549289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.239089012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19268417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15556049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36902093887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42470645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29477405548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39686346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35045909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27621221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18340301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1648416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9049768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92353868484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93281936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06275177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0720329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13699913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17412233352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11843729019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01634740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20196533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32261610031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41542482376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49895334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51751518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44326829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40614461898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68457126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77737998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7216944694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56391906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47111082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57320022583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48967218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48039197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76809883117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65672826766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67529058456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176301956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54535818099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09059429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87713432312012</t>
   </si>
   <si>
     <t xml:space="preserve">6.84929180145264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98627758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80362939834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67577600479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62098217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6483793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53879022598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5844521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36527490615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4474663734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49312829971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47486400604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41093683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52965831756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48399591445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3561429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16436195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09130334854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02737665176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08217096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05477380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12783288955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13696527481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96345043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94518566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03650903701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10956859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04564142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3013482093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57532024383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42006969451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54792261123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395057678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317363739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50226068496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39267253875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33787822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3835391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19176006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24655437469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37440729141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23742151260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43833446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29221630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17349529266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32874536514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20089197158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28308391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870050430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460976600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25568628311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51139354705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40180540084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73970317840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94061517715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97714519500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02280712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81276226043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74883556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230602264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55705499649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63924694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61184930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88582134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95887994766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8584246635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86755657196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015893936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189464569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89495372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83102655410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46573162078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31961297988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60271739959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5935845375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78536462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79360675811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10915613174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3318977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31333589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30405473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34117794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45254850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35973978042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28549289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25765085220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23908853530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19268417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15556049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36902141571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42470645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29477405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39686346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35045909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27621221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2483696937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693105697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18340301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16484117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9049768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92353868484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93281936645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06275177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07203245162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13699913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17412233352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11843729019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01634740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20196533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32261657714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49895334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51751518249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44326829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40614461898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68457078933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77737998962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7216944694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56391906738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47111082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57320022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48967218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48039197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71241426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234571456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76809883117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65672874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67529058456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79594135284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097515106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176206588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54535818099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55463886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87713384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072996139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77504444122314</t>
+    <t xml:space="preserve">6.85857200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7750449180603</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001016616821</t>
+    <t xml:space="preserve">6.84001064300537</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3662,16 +3665,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785364151001</t>
+    <t xml:space="preserve">6.86785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6543927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60798835754395</t>
+    <t xml:space="preserve">6.65439319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6079888343811</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3680,7 +3683,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661827087402</t>
+    <t xml:space="preserve">6.49661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3704,22 +3707,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210004806519</t>
+    <t xml:space="preserve">6.94210052490234</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980737686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63816595077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032390594482</t>
+    <t xml:space="preserve">7.22980785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6381664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679586410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3728,31 +3731,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98155975341797</t>
+    <t xml:space="preserve">7.89803123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98156023025513</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8887505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0465259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083995819092</t>
+    <t xml:space="preserve">8.05580615997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88875007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083948135376</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436752319336</t>
+    <t xml:space="preserve">8.07436847686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3761,7 +3764,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286128997803</t>
+    <t xml:space="preserve">8.22286224365234</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3770,7 +3773,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940132141113</t>
+    <t xml:space="preserve">8.00940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3779,13 +3782,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443607330322</t>
+    <t xml:space="preserve">7.94443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488357543945</t>
+    <t xml:space="preserve">8.45488452911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -4038,6 +4041,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.71000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69999980926514</t>
   </si>
 </sst>
 </file>
@@ -8011,7 +8017,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G140" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8115,7 +8121,7 @@
         <v>12.0293064117432</v>
       </c>
       <c r="G144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8141,7 +8147,7 @@
         <v>11.8187694549561</v>
       </c>
       <c r="G145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8193,7 +8199,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8219,7 +8225,7 @@
         <v>12.1824235916138</v>
       </c>
       <c r="G148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8245,7 +8251,7 @@
         <v>12.1441440582275</v>
       </c>
       <c r="G149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8271,7 +8277,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8297,7 +8303,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8323,7 +8329,7 @@
         <v>11.7039308547974</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8349,7 +8355,7 @@
         <v>11.9527473449707</v>
       </c>
       <c r="G153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8401,7 +8407,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8427,7 +8433,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G156" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8505,7 +8511,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8531,7 +8537,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8557,7 +8563,7 @@
         <v>12.1345748901367</v>
       </c>
       <c r="G161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8583,7 +8589,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8609,7 +8615,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8635,7 +8641,7 @@
         <v>12.1728544235229</v>
       </c>
       <c r="G164" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8687,7 +8693,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8713,7 +8719,7 @@
         <v>11.8953275680542</v>
       </c>
       <c r="G167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8739,7 +8745,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G168" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8765,7 +8771,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8817,7 +8823,7 @@
         <v>11.7422113418579</v>
       </c>
       <c r="G171" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8843,7 +8849,7 @@
         <v>11.6943607330322</v>
       </c>
       <c r="G172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8895,7 +8901,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8921,7 +8927,7 @@
         <v>11.9240379333496</v>
       </c>
       <c r="G175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8947,7 +8953,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G176" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9077,7 +9083,7 @@
         <v>11.7613496780396</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9129,7 +9135,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G183" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9155,7 +9161,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9181,7 +9187,7 @@
         <v>11.9431781768799</v>
       </c>
       <c r="G185" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9233,7 +9239,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9259,7 +9265,7 @@
         <v>12.2398433685303</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9285,7 +9291,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G189" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9337,7 +9343,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9363,7 +9369,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G192" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9389,7 +9395,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G193" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9415,7 +9421,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G194" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9441,7 +9447,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G195" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9467,7 +9473,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G196" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9493,7 +9499,7 @@
         <v>12.402530670166</v>
       </c>
       <c r="G197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9519,7 +9525,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9545,7 +9551,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G199" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9571,7 +9577,7 @@
         <v>12.8331737518311</v>
       </c>
       <c r="G200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9597,7 +9603,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9623,7 +9629,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G202" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9649,7 +9655,7 @@
         <v>13.1011295318604</v>
       </c>
       <c r="G203" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9675,7 +9681,7 @@
         <v>13.2255382537842</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9701,7 +9707,7 @@
         <v>13.3786563873291</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9727,7 +9733,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9753,7 +9759,7 @@
         <v>13.3977947235107</v>
       </c>
       <c r="G207" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9779,7 +9785,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G208" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9805,7 +9811,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G209" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9831,7 +9837,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G210" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9857,7 +9863,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9883,7 +9889,7 @@
         <v>12.5939283370972</v>
       </c>
       <c r="G212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9909,7 +9915,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G213" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9935,7 +9941,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G214" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9961,7 +9967,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9987,7 +9993,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10013,7 +10019,7 @@
         <v>12.5747880935669</v>
       </c>
       <c r="G217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10039,7 +10045,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G218" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10143,7 +10149,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G222" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10169,7 +10175,7 @@
         <v>12.3355417251587</v>
       </c>
       <c r="G223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10195,7 +10201,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10221,7 +10227,7 @@
         <v>12.2781219482422</v>
       </c>
       <c r="G225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10247,7 +10253,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10273,7 +10279,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G227" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10299,7 +10305,7 @@
         <v>12.5460777282715</v>
       </c>
       <c r="G228" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10325,7 +10331,7 @@
         <v>12.4790887832642</v>
       </c>
       <c r="G229" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10351,7 +10357,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10377,7 +10383,7 @@
         <v>12.4120998382568</v>
       </c>
       <c r="G231" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10403,7 +10409,7 @@
         <v>12.4312400817871</v>
       </c>
       <c r="G232" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10429,7 +10435,7 @@
         <v>12.3642511367798</v>
       </c>
       <c r="G233" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10455,7 +10461,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G234" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10481,7 +10487,7 @@
         <v>12.5652179718018</v>
       </c>
       <c r="G235" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10507,7 +10513,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G236" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10533,7 +10539,7 @@
         <v>12.4695196151733</v>
       </c>
       <c r="G237" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10559,7 +10565,7 @@
         <v>12.3546810150146</v>
       </c>
       <c r="G238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10585,7 +10591,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G239" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10611,7 +10617,7 @@
         <v>12.6991958618164</v>
       </c>
       <c r="G240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10637,7 +10643,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G241" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10663,7 +10669,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G242" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10689,7 +10695,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G243" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10715,7 +10721,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10741,7 +10747,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G245" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10767,7 +10773,7 @@
         <v>12.8714532852173</v>
       </c>
       <c r="G246" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10793,7 +10799,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G247" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10819,7 +10825,7 @@
         <v>13.0054311752319</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10845,7 +10851,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G249" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10871,7 +10877,7 @@
         <v>12.80446434021</v>
       </c>
       <c r="G250" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10897,7 +10903,7 @@
         <v>12.6417770385742</v>
       </c>
       <c r="G251" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10923,7 +10929,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G252" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10949,7 +10955,7 @@
         <v>12.9001626968384</v>
       </c>
       <c r="G253" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -10975,7 +10981,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G254" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11001,7 +11007,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G255" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11027,7 +11033,7 @@
         <v>12.8618841171265</v>
       </c>
       <c r="G256" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11053,7 +11059,7 @@
         <v>12.9958610534668</v>
       </c>
       <c r="G257" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11079,7 +11085,7 @@
         <v>13.1202697753906</v>
       </c>
       <c r="G258" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11105,7 +11111,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G259" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11131,7 +11137,7 @@
         <v>13.034140586853</v>
       </c>
       <c r="G260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11157,7 +11163,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G261" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11183,7 +11189,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G262" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11209,7 +11215,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G263" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11235,7 +11241,7 @@
         <v>13.2351083755493</v>
       </c>
       <c r="G264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11261,7 +11267,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11287,7 +11293,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11313,7 +11319,7 @@
         <v>12.8140344619751</v>
       </c>
       <c r="G267" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11339,7 +11345,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G268" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11365,7 +11371,7 @@
         <v>12.6800556182861</v>
       </c>
       <c r="G269" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11391,7 +11397,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G270" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11417,7 +11423,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G271" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11443,7 +11449,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G272" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11469,7 +11475,7 @@
         <v>13.0915603637695</v>
       </c>
       <c r="G273" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11495,7 +11501,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G274" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11521,7 +11527,7 @@
         <v>13.1489791870117</v>
       </c>
       <c r="G275" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11547,7 +11553,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11573,7 +11579,7 @@
         <v>13.0532808303833</v>
       </c>
       <c r="G277" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11599,7 +11605,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G278" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11625,7 +11631,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G279" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11651,7 +11657,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G280" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11677,7 +11683,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G281" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11703,7 +11709,7 @@
         <v>12.6513471603394</v>
       </c>
       <c r="G282" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11729,7 +11735,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G283" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11755,7 +11761,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G284" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11781,7 +11787,7 @@
         <v>13.0245714187622</v>
       </c>
       <c r="G285" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11807,7 +11813,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G286" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11833,7 +11839,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G287" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11859,7 +11865,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G288" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11885,7 +11891,7 @@
         <v>13.4743537902832</v>
       </c>
       <c r="G289" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11911,7 +11917,7 @@
         <v>14.000696182251</v>
       </c>
       <c r="G290" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11937,7 +11943,7 @@
         <v>13.9719867706299</v>
       </c>
       <c r="G291" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11963,7 +11969,7 @@
         <v>13.9145669937134</v>
       </c>
       <c r="G292" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11989,7 +11995,7 @@
         <v>14.163384437561</v>
       </c>
       <c r="G293" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12015,7 +12021,7 @@
         <v>14.1155338287354</v>
       </c>
       <c r="G294" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12041,7 +12047,7 @@
         <v>14.2590818405151</v>
       </c>
       <c r="G295" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12067,7 +12073,7 @@
         <v>14.0963945388794</v>
       </c>
       <c r="G296" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12093,7 +12099,7 @@
         <v>14.2208032608032</v>
       </c>
       <c r="G297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12119,7 +12125,7 @@
         <v>14.5940265655518</v>
       </c>
       <c r="G298" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12145,7 +12151,7 @@
         <v>14.6323070526123</v>
       </c>
       <c r="G299" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12171,7 +12177,7 @@
         <v>14.794994354248</v>
       </c>
       <c r="G300" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12197,7 +12203,7 @@
         <v>14.6035966873169</v>
       </c>
       <c r="G301" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12223,7 +12229,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G302" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12249,7 +12255,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G303" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12275,7 +12281,7 @@
         <v>14.24951171875</v>
       </c>
       <c r="G304" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12301,7 +12307,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G305" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12327,7 +12333,7 @@
         <v>14.4026298522949</v>
       </c>
       <c r="G306" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12353,7 +12359,7 @@
         <v>14.5461778640747</v>
       </c>
       <c r="G307" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12379,7 +12385,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G308" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12405,7 +12411,7 @@
         <v>14.6418762207031</v>
       </c>
       <c r="G309" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12431,7 +12437,7 @@
         <v>14.7375745773315</v>
       </c>
       <c r="G310" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12457,7 +12463,7 @@
         <v>15.2830572128296</v>
       </c>
       <c r="G311" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12483,7 +12489,7 @@
         <v>15.3021955490112</v>
       </c>
       <c r="G312" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12509,7 +12515,7 @@
         <v>15.4361743927002</v>
       </c>
       <c r="G313" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12535,7 +12541,7 @@
         <v>15.5031633377075</v>
       </c>
       <c r="G314" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12561,7 +12567,7 @@
         <v>15.6467113494873</v>
       </c>
       <c r="G315" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12587,7 +12593,7 @@
         <v>16.5654163360596</v>
       </c>
       <c r="G316" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12613,7 +12619,7 @@
         <v>16.9864902496338</v>
       </c>
       <c r="G317" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12639,7 +12645,7 @@
         <v>17.0343399047852</v>
       </c>
       <c r="G318" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12665,7 +12671,7 @@
         <v>17.225736618042</v>
       </c>
       <c r="G319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12691,7 +12697,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G320" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12717,7 +12723,7 @@
         <v>16.0199356079102</v>
       </c>
       <c r="G321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12743,7 +12749,7 @@
         <v>15.7902593612671</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12769,7 +12775,7 @@
         <v>15.8859567642212</v>
       </c>
       <c r="G323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12795,7 +12801,7 @@
         <v>16.2783203125</v>
       </c>
       <c r="G324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12821,7 +12827,7 @@
         <v>16.0773544311523</v>
       </c>
       <c r="G325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12847,7 +12853,7 @@
         <v>16.5462760925293</v>
       </c>
       <c r="G326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12873,7 +12879,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G327" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12899,7 +12905,7 @@
         <v>16.5175685882568</v>
       </c>
       <c r="G328" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12925,7 +12931,7 @@
         <v>16.5079975128174</v>
       </c>
       <c r="G329" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12951,7 +12957,7 @@
         <v>17.1683177947998</v>
       </c>
       <c r="G330" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12977,7 +12983,7 @@
         <v>16.6993942260742</v>
       </c>
       <c r="G331" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13003,7 +13009,7 @@
         <v>16.7472438812256</v>
       </c>
       <c r="G332" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13029,7 +13035,7 @@
         <v>17.1396083831787</v>
       </c>
       <c r="G333" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13055,7 +13061,7 @@
         <v>16.9577808380127</v>
       </c>
       <c r="G334" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13081,7 +13087,7 @@
         <v>16.8907928466797</v>
       </c>
       <c r="G335" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13107,7 +13113,7 @@
         <v>17.0821895599365</v>
       </c>
       <c r="G336" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13133,7 +13139,7 @@
         <v>17.0151996612549</v>
       </c>
       <c r="G337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13159,7 +13165,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13185,7 +13191,7 @@
         <v>17.991325378418</v>
       </c>
       <c r="G339" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13211,7 +13217,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G340" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13237,7 +13243,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13263,7 +13269,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G342" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13289,7 +13295,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13315,7 +13321,7 @@
         <v>18.3454093933105</v>
       </c>
       <c r="G344" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13341,7 +13347,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G345" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13367,7 +13373,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13393,7 +13399,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G347" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13419,7 +13425,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G348" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13445,7 +13451,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G349" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13471,7 +13477,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G350" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13497,7 +13503,7 @@
         <v>18.1635837554932</v>
       </c>
       <c r="G351" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13523,7 +13529,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G352" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13549,7 +13555,7 @@
         <v>17.5415420532227</v>
       </c>
       <c r="G353" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13575,7 +13581,7 @@
         <v>17.5606822967529</v>
       </c>
       <c r="G354" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13601,7 +13607,7 @@
         <v>17.3979930877686</v>
       </c>
       <c r="G355" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13627,7 +13633,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G356" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13653,7 +13659,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G357" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13679,7 +13685,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G358" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13705,7 +13711,7 @@
         <v>17.5128326416016</v>
       </c>
       <c r="G359" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13731,7 +13737,7 @@
         <v>17.589391708374</v>
       </c>
       <c r="G360" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13757,7 +13763,7 @@
         <v>17.7329387664795</v>
       </c>
       <c r="G361" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13783,7 +13789,7 @@
         <v>18.1253032684326</v>
       </c>
       <c r="G362" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13809,7 +13815,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G363" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13835,7 +13841,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G364" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13861,7 +13867,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G365" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13887,7 +13893,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G366" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13913,7 +13919,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G367" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13939,7 +13945,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G368" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13965,7 +13971,7 @@
         <v>17.7233695983887</v>
       </c>
       <c r="G369" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13991,7 +13997,7 @@
         <v>17.4649829864502</v>
       </c>
       <c r="G370" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14017,7 +14023,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G371" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14043,7 +14049,7 @@
         <v>18.1348724365234</v>
       </c>
       <c r="G372" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14069,7 +14075,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G373" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14095,7 +14101,7 @@
         <v>18.0774536132812</v>
       </c>
       <c r="G374" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14121,7 +14127,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G375" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14147,7 +14153,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G376" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14173,7 +14179,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G377" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14199,7 +14205,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G378" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14225,7 +14231,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G379" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14251,7 +14257,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G380" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14277,7 +14283,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G381" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14303,7 +14309,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14329,7 +14335,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G383" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14355,7 +14361,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G384" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14381,7 +14387,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G385" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14407,7 +14413,7 @@
         <v>17.2735862731934</v>
       </c>
       <c r="G386" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14433,7 +14439,7 @@
         <v>17.3022956848145</v>
       </c>
       <c r="G387" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14459,7 +14465,7 @@
         <v>17.2831554412842</v>
       </c>
       <c r="G388" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14485,7 +14491,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14511,7 +14517,7 @@
         <v>17.7138004302979</v>
       </c>
       <c r="G390" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14537,7 +14543,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G391" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14563,7 +14569,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G392" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14589,7 +14595,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14615,7 +14621,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14641,7 +14647,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G395" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14667,7 +14673,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G396" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14693,7 +14699,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G397" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14719,7 +14725,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G398" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14745,7 +14751,7 @@
         <v>17.9626159667969</v>
       </c>
       <c r="G399" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14771,7 +14777,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G400" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14797,7 +14803,7 @@
         <v>18.3262691497803</v>
       </c>
       <c r="G401" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14823,7 +14829,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G402" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14849,7 +14855,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G403" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14875,7 +14881,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G404" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14901,7 +14907,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G405" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14927,7 +14933,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G406" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14953,7 +14959,7 @@
         <v>18.0965938568115</v>
       </c>
       <c r="G407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14979,7 +14985,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G408" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15005,7 +15011,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G409" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15031,7 +15037,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G410" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15057,7 +15063,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G411" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15083,7 +15089,7 @@
         <v>17.474552154541</v>
       </c>
       <c r="G412" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15525,7 +15531,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G429" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15551,7 +15557,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G430" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15655,7 +15661,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G434" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15681,7 +15687,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G435" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15811,7 +15817,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G440" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15837,7 +15843,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G441" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15863,7 +15869,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G442" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15915,7 +15921,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G444" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15941,7 +15947,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G445" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15993,7 +15999,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G447" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16097,7 +16103,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G451" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16435,7 +16441,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G464" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16513,7 +16519,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G467" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16539,7 +16545,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G468" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16565,7 +16571,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G469" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16695,7 +16701,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G474" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16721,7 +16727,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G475" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16799,7 +16805,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G478" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16825,7 +16831,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G479" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16929,7 +16935,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G483" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16955,7 +16961,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G484" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16981,7 +16987,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G485" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17007,7 +17013,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17189,7 +17195,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G493" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17215,7 +17221,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G494" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17241,7 +17247,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G495" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17267,7 +17273,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G496" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17345,7 +17351,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G499" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17423,7 +17429,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G502" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17501,7 +17507,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G505" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17553,7 +17559,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G507" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18385,7 +18391,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G539" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18437,7 +18443,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G541" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18463,7 +18469,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G542" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18489,7 +18495,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G543" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18567,7 +18573,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G546" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18593,7 +18599,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G547" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18905,7 +18911,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G559" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18931,7 +18937,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G560" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18983,7 +18989,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G562" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19009,7 +19015,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G563" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19841,7 +19847,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G595" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19893,7 +19899,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G597" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19945,7 +19951,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G599" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20075,7 +20081,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G604" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -55591,7 +55597,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>1061</v>
+        <v>1208</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55617,7 +55623,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1971" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55643,7 +55649,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1972" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55669,7 +55675,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1973" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55695,7 +55701,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1974" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55721,7 +55727,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55747,7 +55753,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1976" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55773,7 +55779,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55799,7 +55805,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1978" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55825,7 +55831,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1979" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55851,7 +55857,7 @@
         <v>7.25</v>
       </c>
       <c r="G1980" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55877,7 +55883,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55903,7 +55909,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55929,7 +55935,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55955,7 +55961,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1984" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55981,7 +55987,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56007,7 +56013,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1986" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56033,7 +56039,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1987" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56059,7 +56065,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56085,7 +56091,7 @@
         <v>7</v>
       </c>
       <c r="G1989" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56111,7 +56117,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56137,7 +56143,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1991" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56163,7 +56169,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56189,7 +56195,7 @@
         <v>7</v>
       </c>
       <c r="G1993" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56215,7 +56221,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56241,7 +56247,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1995" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56267,7 +56273,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1996" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56293,7 +56299,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56319,7 +56325,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1998" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56345,7 +56351,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1999" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56371,7 +56377,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G2000" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56397,7 +56403,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56475,7 +56481,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56501,7 +56507,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56605,7 +56611,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2009" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56761,7 +56767,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2015" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56839,7 +56845,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2018" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56865,7 +56871,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56891,7 +56897,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2020" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56917,7 +56923,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2021" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56943,7 +56949,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2022" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56969,7 +56975,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2023" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56995,7 +57001,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2024" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57021,7 +57027,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2025" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57047,7 +57053,7 @@
         <v>8.5</v>
       </c>
       <c r="G2026" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57073,7 +57079,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57099,7 +57105,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57125,7 +57131,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2029" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57151,7 +57157,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2030" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57177,7 +57183,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2031" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57203,7 +57209,7 @@
         <v>8.75</v>
       </c>
       <c r="G2032" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57229,7 +57235,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2033" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57255,7 +57261,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2034" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57281,7 +57287,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57307,7 +57313,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2036" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57333,7 +57339,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2037" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57359,7 +57365,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57385,7 +57391,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57411,7 +57417,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2040" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57437,7 +57443,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2041" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57463,7 +57469,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57489,7 +57495,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2043" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57515,7 +57521,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2044" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57541,7 +57547,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2045" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57567,7 +57573,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57593,7 +57599,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G2047" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57619,7 +57625,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57645,7 +57651,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2049" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57671,7 +57677,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57697,7 +57703,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2051" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57723,7 +57729,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G2052" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57749,7 +57755,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2053" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57775,7 +57781,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57801,7 +57807,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57827,7 +57833,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2056" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57853,7 +57859,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2057" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57879,7 +57885,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2058" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57905,7 +57911,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2059" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57931,7 +57937,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2060" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57957,7 +57963,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2061" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57983,7 +57989,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2062" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58009,7 +58015,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58035,7 +58041,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2064" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58061,7 +58067,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2065" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58087,7 +58093,7 @@
         <v>8.5</v>
       </c>
       <c r="G2066" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58113,7 +58119,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2067" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58139,7 +58145,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2068" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58165,7 +58171,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2069" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58191,7 +58197,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2070" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58217,7 +58223,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2071" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58243,7 +58249,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2072" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58269,7 +58275,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58295,7 +58301,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2074" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58321,7 +58327,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2075" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58347,7 +58353,7 @@
         <v>8.75</v>
       </c>
       <c r="G2076" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58373,7 +58379,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2077" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58399,7 +58405,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2078" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58425,7 +58431,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58451,7 +58457,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58477,7 +58483,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58503,7 +58509,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2082" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58529,7 +58535,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2083" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58555,7 +58561,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2084" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58581,7 +58587,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2085" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58607,7 +58613,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58633,7 +58639,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2087" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58659,7 +58665,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2088" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58685,7 +58691,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2089" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58711,7 +58717,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G2090" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58737,7 +58743,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2091" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58763,7 +58769,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2092" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58789,7 +58795,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2093" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58815,7 +58821,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58841,7 +58847,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2095" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58867,7 +58873,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58893,7 +58899,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58919,7 +58925,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2098" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58945,7 +58951,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2099" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58971,7 +58977,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58997,7 +59003,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59023,7 +59029,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2102" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59049,7 +59055,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2103" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59075,7 +59081,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G2104" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59101,7 +59107,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59127,7 +59133,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2106" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59153,7 +59159,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2107" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59179,7 +59185,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59205,7 +59211,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59231,7 +59237,7 @@
         <v>8.25</v>
       </c>
       <c r="G2110" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59257,7 +59263,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2111" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59283,7 +59289,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2112" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59309,7 +59315,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2113" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59335,7 +59341,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2114" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59361,7 +59367,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59387,7 +59393,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2116" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59413,7 +59419,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59439,7 +59445,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2118" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59465,7 +59471,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2119" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59491,7 +59497,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2120" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59517,7 +59523,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2121" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59543,7 +59549,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59569,7 +59575,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2123" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59595,7 +59601,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2124" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59621,7 +59627,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59647,7 +59653,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2126" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59673,7 +59679,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2127" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59699,7 +59705,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2128" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59725,7 +59731,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2129" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59751,7 +59757,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2130" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59777,7 +59783,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2131" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59803,7 +59809,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59829,7 +59835,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2133" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59855,7 +59861,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2134" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59881,7 +59887,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2135" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59907,7 +59913,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59933,7 +59939,7 @@
         <v>9</v>
       </c>
       <c r="G2137" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59959,7 +59965,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2138" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59985,7 +59991,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2139" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60011,7 +60017,7 @@
         <v>9</v>
       </c>
       <c r="G2140" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60037,7 +60043,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2141" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60063,7 +60069,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2142" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60089,7 +60095,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2143" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60115,7 +60121,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2144" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60141,7 +60147,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2145" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60167,7 +60173,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2146" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60193,7 +60199,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2147" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60219,7 +60225,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2148" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60245,7 +60251,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2149" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60271,7 +60277,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60297,7 +60303,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2151" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60323,7 +60329,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2152" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60331,7 +60337,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495023148</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>48108</v>
@@ -60343,15 +60349,41 @@
         <v>8.57999992370605</v>
       </c>
       <c r="E2153" t="n">
-        <v>8.71000003814697</v>
+        <v>8.64999961853027</v>
       </c>
       <c r="F2153" t="n">
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6493634259</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>50535</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>8.8100004196167</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>8.68000030517578</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>8.78999996185303</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>8.69999980926514</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1347">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.80332851409912</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">8.74573612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72105407714844</t>
+    <t xml:space="preserve">8.72105121612549</t>
   </si>
   <si>
     <t xml:space="preserve">8.72928142547607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79510021209717</t>
+    <t xml:space="preserve">8.79509925842285</t>
   </si>
   <si>
     <t xml:space="preserve">8.77864456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54827880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359580993652</t>
+    <t xml:space="preserve">8.54827785491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359390258789</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764099121094</t>
@@ -74,76 +74,76 @@
     <t xml:space="preserve">8.10399627685547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60587024688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4330940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25209045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259223937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46600246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22740936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613754272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63877868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67168998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737464904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041816711426</t>
+    <t xml:space="preserve">8.60586929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43309307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3425931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5400505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46600341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22740840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613849639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877773284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473350524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67168807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041912078857</t>
   </si>
   <si>
     <t xml:space="preserve">8.91851043701172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92673969268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98433113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91028308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0419225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787548065186</t>
+    <t xml:space="preserve">8.92673873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978321075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028499603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192352294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787643432617</t>
   </si>
   <si>
     <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05014896392822</t>
+    <t xml:space="preserve">9.05014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">8.97610282897949</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">9.07483291625977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81155490875244</t>
+    <t xml:space="preserve">8.81155395507812</t>
   </si>
   <si>
     <t xml:space="preserve">8.86091899871826</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">9.09128761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0666036605835</t>
+    <t xml:space="preserve">9.06660461425781</t>
   </si>
   <si>
     <t xml:space="preserve">9.21469688415527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46974658966064</t>
+    <t xml:space="preserve">9.46974754333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.54379367828369</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">9.55202198028564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74947929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83998203277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71657180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87289237976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94693660736084</t>
+    <t xml:space="preserve">9.74948024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83998107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7165699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87289333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94693756103516</t>
   </si>
   <si>
     <t xml:space="preserve">9.51088428497314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86466312408447</t>
+    <t xml:space="preserve">9.86466217041016</t>
   </si>
   <si>
     <t xml:space="preserve">9.93048286437988</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">9.77416133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83175373077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95516490936279</t>
+    <t xml:space="preserve">9.83175277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95516395568848</t>
   </si>
   <si>
     <t xml:space="preserve">10.1114845275879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3994426727295</t>
+    <t xml:space="preserve">9.88934516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3994436264038</t>
   </si>
   <si>
     <t xml:space="preserve">10.4652652740479</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722208023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5307950973511</t>
+    <t xml:space="preserve">10.5722227096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5307931900024</t>
   </si>
   <si>
     <t xml:space="preserve">10.2490882873535</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">10.2739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3567991256714</t>
+    <t xml:space="preserve">10.35680103302</t>
   </si>
   <si>
     <t xml:space="preserve">10.497652053833</t>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">10.5805053710938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4727935791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893646240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3982267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396524429321</t>
+    <t xml:space="preserve">10.4727945327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893665313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3982257843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396533966064</t>
   </si>
   <si>
     <t xml:space="preserve">10.2905158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1910886764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253820419312</t>
+    <t xml:space="preserve">10.191089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253810882568</t>
   </si>
   <si>
     <t xml:space="preserve">9.98395442962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94252872467041</t>
+    <t xml:space="preserve">9.94252967834473</t>
   </si>
   <si>
     <t xml:space="preserve">9.85967254638672</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">10.1082372665405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909881591797</t>
+    <t xml:space="preserve">10.4230813980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909786224365</t>
   </si>
   <si>
     <t xml:space="preserve">9.96738338470459</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">10.1165199279785</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579494476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3816566467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5556488037109</t>
+    <t xml:space="preserve">10.1579484939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3816556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5556516647339</t>
   </si>
   <si>
     <t xml:space="preserve">10.5639352798462</t>
@@ -326,34 +326,34 @@
     <t xml:space="preserve">10.5722198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4147977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2325172424316</t>
+    <t xml:space="preserve">10.4147987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232518196106</t>
   </si>
   <si>
     <t xml:space="preserve">10.5887908935547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5473651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142230987549</t>
+    <t xml:space="preserve">10.54736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142211914062</t>
   </si>
   <si>
     <t xml:space="preserve">10.4810810089111</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4645099639893</t>
+    <t xml:space="preserve">10.4645109176636</t>
   </si>
   <si>
     <t xml:space="preserve">10.1330919265747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3485145568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.365083694458</t>
+    <t xml:space="preserve">10.3485136032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3650827407837</t>
   </si>
   <si>
     <t xml:space="preserve">10.6136484146118</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4562225341797</t>
+    <t xml:space="preserve">10.456223487854</t>
   </si>
   <si>
     <t xml:space="preserve">10.5390796661377</t>
@@ -371,22 +371,22 @@
     <t xml:space="preserve">10.2987995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.224232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1662359237671</t>
+    <t xml:space="preserve">10.2242317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1662340164185</t>
   </si>
   <si>
     <t xml:space="preserve">10.1248064041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3236570358276</t>
+    <t xml:space="preserve">10.323657989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.182804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6053628921509</t>
+    <t xml:space="preserve">10.6053619384766</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402290344238</t>
@@ -395,25 +395,25 @@
     <t xml:space="preserve">10.5970773696899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6716451644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213592529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7545003890991</t>
+    <t xml:space="preserve">10.6716470718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.721360206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7544994354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0610609054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1107730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.127345085144</t>
+    <t xml:space="preserve">11.0610618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1273441314697</t>
   </si>
   <si>
     <t xml:space="preserve">11.2433414459229</t>
@@ -431,46 +431,46 @@
     <t xml:space="preserve">11.5167608261108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5996141433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1853446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3096227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0196352005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9036378860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953542709351</t>
+    <t xml:space="preserve">11.5996160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1853437423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.309624671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0196361541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.903639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953533172607</t>
   </si>
   <si>
     <t xml:space="preserve">11.0776329040527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8870677947998</t>
+    <t xml:space="preserve">10.8870658874512</t>
   </si>
   <si>
     <t xml:space="preserve">10.771071434021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302175521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.862211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8042125701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6633605957031</t>
+    <t xml:space="preserve">10.6799306869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622093200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8042116165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6633596420288</t>
   </si>
   <si>
     <t xml:space="preserve">10.7462148666382</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">10.7627859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047891616821</t>
+    <t xml:space="preserve">10.7047882080078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8787822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7959270477295</t>
+    <t xml:space="preserve">10.7959280014038</t>
   </si>
   <si>
     <t xml:space="preserve">10.6965026855469</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">11.4339065551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3510522842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1439151763916</t>
+    <t xml:space="preserve">11.3510503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1439161300659</t>
   </si>
   <si>
     <t xml:space="preserve">11.1024885177612</t>
@@ -512,16 +512,16 @@
     <t xml:space="preserve">11.2599124908447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2681970596313</t>
+    <t xml:space="preserve">11.2681980133057</t>
   </si>
   <si>
     <t xml:space="preserve">11.0859184265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687726974487</t>
+    <t xml:space="preserve">10.9450664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687717437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.1356315612793</t>
@@ -533,58 +533,58 @@
     <t xml:space="preserve">11.3593378067017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2847681045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4753332138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4587640762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.226770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344821929932</t>
+    <t xml:space="preserve">11.2847690582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4753322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2267694473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942039489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344802856445</t>
   </si>
   <si>
     <t xml:space="preserve">11.3841934204102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3013401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1770582199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9533500671387</t>
+    <t xml:space="preserve">11.3013381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1770572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.953351020813</t>
   </si>
   <si>
     <t xml:space="preserve">11.276481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6658964157104</t>
+    <t xml:space="preserve">11.6658973693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.1215982437134</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0967426300049</t>
+    <t xml:space="preserve">12.0967416763306</t>
   </si>
   <si>
     <t xml:space="preserve">12.0470285415649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.262451171875</t>
+    <t xml:space="preserve">12.2624502182007</t>
   </si>
   <si>
     <t xml:space="preserve">12.2210235595703</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">12.3453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2044525146484</t>
+    <t xml:space="preserve">12.2044515609741</t>
   </si>
   <si>
     <t xml:space="preserve">12.3121633529663</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">12.6684370040894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.809289932251</t>
+    <t xml:space="preserve">12.8092889785767</t>
   </si>
   <si>
     <t xml:space="preserve">12.6435804367065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6021528244019</t>
+    <t xml:space="preserve">12.6021537780762</t>
   </si>
   <si>
     <t xml:space="preserve">12.4944429397583</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">12.5938673019409</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6767225265503</t>
+    <t xml:space="preserve">12.676721572876</t>
   </si>
   <si>
     <t xml:space="preserve">12.7595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318468093872</t>
+    <t xml:space="preserve">13.2318458557129</t>
   </si>
   <si>
     <t xml:space="preserve">13.2484169006348</t>
@@ -641,46 +641,46 @@
     <t xml:space="preserve">13.3644142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4224109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466928482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3420944213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480840682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137897491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338088989258</t>
+    <t xml:space="preserve">13.4224128723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.706654548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480821609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137907028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338098526001</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698253631592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6709756851196</t>
+    <t xml:space="preserve">13.6709766387939</t>
   </si>
   <si>
     <t xml:space="preserve">13.7538290023804</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0935316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195384979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3255224227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.300669670105</t>
+    <t xml:space="preserve">14.0935335159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195365905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3255243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3006706237793</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
@@ -689,13 +689,13 @@
     <t xml:space="preserve">14.8640785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4580898284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8392219543457</t>
+    <t xml:space="preserve">14.4580917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.83922290802</t>
   </si>
   <si>
     <t xml:space="preserve">14.6817989349365</t>
@@ -704,49 +704,49 @@
     <t xml:space="preserve">14.62380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7895078659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937734603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766258239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.568341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.742335319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.883186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523439407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020599365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097679138184</t>
+    <t xml:space="preserve">14.7895097732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937696456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683393478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423362731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8831882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097707748413</t>
   </si>
   <si>
     <t xml:space="preserve">15.518627166748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7257661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872100830078</t>
+    <t xml:space="preserve">15.7257652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872110366821</t>
   </si>
   <si>
     <t xml:space="preserve">15.203782081604</t>
@@ -755,25 +755,25 @@
     <t xml:space="preserve">15.1371688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870416641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5784664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370872497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036966323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285898208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699689865112</t>
+    <t xml:space="preserve">15.2870435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.578465461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867074966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699670791626</t>
   </si>
   <si>
     <t xml:space="preserve">15.7949466705322</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">15.8615560531616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5201787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.420262336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366647720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782926559448</t>
+    <t xml:space="preserve">15.5201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451602935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285043716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202642440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954526901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782945632935</t>
   </si>
   <si>
     <t xml:space="preserve">15.486873626709</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">15.7283372879028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6783800125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.90318775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199243545532</t>
+    <t xml:space="preserve">15.6783781051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031887054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199272155762</t>
   </si>
   <si>
     <t xml:space="preserve">15.645073890686</t>
@@ -830,64 +830,64 @@
     <t xml:space="preserve">15.0289297103882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0539093017578</t>
+    <t xml:space="preserve">15.0539073944092</t>
   </si>
   <si>
     <t xml:space="preserve">15.0372562408447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4119396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951166152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618104934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284198760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448194503784</t>
+    <t xml:space="preserve">15.4119386672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701351165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618124008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448204040527</t>
   </si>
   <si>
     <t xml:space="preserve">15.6950330734253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7200126647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117668151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452457427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1121940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957916259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787170410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203506469727</t>
+    <t xml:space="preserve">15.7200088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452419281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1121921539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957935333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787179946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.320348739624</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120231628418</t>
@@ -896,94 +896,94 @@
     <t xml:space="preserve">14.9872980117798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1205205917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370027542114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538190841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785490036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368328094482</t>
+    <t xml:space="preserve">15.1205196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370008468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538228988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368318557739</t>
   </si>
   <si>
     <t xml:space="preserve">15.4702234268188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6034440994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.553484916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4036102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7033596038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869562149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6525554656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4943542480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026779174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110927581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.344482421875</t>
+    <t xml:space="preserve">15.6034421920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.503529548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4036111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7033567428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869571685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.652551651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4943580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026836395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110908508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3444805145264</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443950653076</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3028507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1446495056152</t>
+    <t xml:space="preserve">16.3028469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1446514129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.1529769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1030178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116851806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4618978500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616395950317</t>
+    <t xml:space="preserve">16.1030216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116832733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618940353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449077606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616415023804</t>
   </si>
   <si>
     <t xml:space="preserve">15.8532304763794</t>
@@ -992,49 +992,49 @@
     <t xml:space="preserve">15.9531450271606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0031051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530624389648</t>
+    <t xml:space="preserve">16.003101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530643463135</t>
   </si>
   <si>
     <t xml:space="preserve">15.9864530563354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8365783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367483139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6533994674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.78662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0697154998779</t>
+    <t xml:space="preserve">15.8365774154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367473602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6534004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7866201400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0697135925293</t>
   </si>
   <si>
     <t xml:space="preserve">16.386116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5443115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6025943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8190803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8607139587402</t>
+    <t xml:space="preserve">16.5443134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.602596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8190784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.860710144043</t>
   </si>
   <si>
     <t xml:space="preserve">16.7774486541748</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">16.694185256958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4693737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2029342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.369457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272350311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1104984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684432983398</t>
+    <t xml:space="preserve">16.4693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2029361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694591522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272369384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1104965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684452056885</t>
   </si>
   <si>
     <t xml:space="preserve">17.4019184112549</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3186550140381</t>
+    <t xml:space="preserve">17.3186569213867</t>
   </si>
   <si>
     <t xml:space="preserve">17.4435482025146</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9856052398682</t>
+    <t xml:space="preserve">16.9856071472168</t>
   </si>
   <si>
     <t xml:space="preserve">17.0688667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5193347930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1363258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1196727752686</t>
+    <t xml:space="preserve">16.5193309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1196708679199</t>
   </si>
   <si>
     <t xml:space="preserve">16.0197563171387</t>
@@ -1097,64 +1097,64 @@
     <t xml:space="preserve">16.4194183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2528953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861976623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364112854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2695465087891</t>
+    <t xml:space="preserve">16.2528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2695426940918</t>
   </si>
   <si>
     <t xml:space="preserve">15.0705623626709</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2703895568848</t>
+    <t xml:space="preserve">15.2703924179077</t>
   </si>
   <si>
     <t xml:space="preserve">15.4535694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6700534820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374271392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878904342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376796722412</t>
+    <t xml:space="preserve">15.67005443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878923416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376787185669</t>
   </si>
   <si>
     <t xml:space="preserve">14.3711547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380186080933</t>
+    <t xml:space="preserve">14.7708158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380176544189</t>
   </si>
   <si>
     <t xml:space="preserve">14.0714082717896</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">14.387806892395</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3211975097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7541646957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039510726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041181564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0206003189087</t>
+    <t xml:space="preserve">14.321195602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7541627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039520263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0206022262573</t>
   </si>
   <si>
     <t xml:space="preserve">15.9198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1038684844971</t>
+    <t xml:space="preserve">15.1038637161255</t>
   </si>
   <si>
     <t xml:space="preserve">15.0954971313477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0285549163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946723937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1457061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.229380607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101665496826</t>
+    <t xml:space="preserve">15.0285558700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946714401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1457071304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293825149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.8570652008057</t>
@@ -1211,55 +1211,55 @@
     <t xml:space="preserve">14.4093389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2252473831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3256616592407</t>
+    <t xml:space="preserve">14.2252464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3256635665894</t>
   </si>
   <si>
     <t xml:space="preserve">14.72731590271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6436376571655</t>
+    <t xml:space="preserve">14.6436367034912</t>
   </si>
   <si>
     <t xml:space="preserve">14.8444652557373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5264873504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5599594116211</t>
+    <t xml:space="preserve">14.5264883041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5599613189697</t>
   </si>
   <si>
     <t xml:space="preserve">14.6771097183228</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4762802124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3926048278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603746414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9616117477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118198394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7775211334229</t>
+    <t xml:space="preserve">14.4762811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3926038742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9616136550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118207931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7775230407715</t>
   </si>
   <si>
     <t xml:space="preserve">15.2126455307007</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2795886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791772842407</t>
+    <t xml:space="preserve">15.2795896530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791744232178</t>
   </si>
   <si>
     <t xml:space="preserve">14.9950847625732</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">15.0452909469604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.112232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3632688522339</t>
+    <t xml:space="preserve">15.1122341156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3632669448853</t>
   </si>
   <si>
     <t xml:space="preserve">15.2628545761108</t>
@@ -1280,61 +1280,61 @@
     <t xml:space="preserve">15.0620269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">15.329797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6143016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473585128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4636783599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983932495117</t>
+    <t xml:space="preserve">15.329794883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314510345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6812438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143007278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473604202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636793136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477708816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983913421631</t>
   </si>
   <si>
     <t xml:space="preserve">14.9114074707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5640964508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649221420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963256835938</t>
+    <t xml:space="preserve">15.5640935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.697979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971523284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649240493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963266372681</t>
   </si>
   <si>
     <t xml:space="preserve">15.3130598068237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8109912872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624402999878</t>
+    <t xml:space="preserve">14.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624383926392</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">14.593430519104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7942590713501</t>
+    <t xml:space="preserve">14.7942581176758</t>
   </si>
   <si>
     <t xml:space="preserve">14.8277292251587</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">14.6938438415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7399168014526</t>
+    <t xml:space="preserve">13.7399158477783</t>
   </si>
   <si>
     <t xml:space="preserve">13.7231798171997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6060314178467</t>
+    <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897096633911</t>
@@ -1370,19 +1370,19 @@
     <t xml:space="preserve">13.974214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0913648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064447402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2211112976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5892953872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047924041748</t>
+    <t xml:space="preserve">14.0913639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7064456939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2211132049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5892944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047914505005</t>
   </si>
   <si>
     <t xml:space="preserve">12.7023096084595</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">12.9533443450928</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9198722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0872278213501</t>
+    <t xml:space="preserve">12.9198713302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0872268676758</t>
   </si>
   <si>
     <t xml:space="preserve">13.1541700363159</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">12.8529300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8194599151611</t>
+    <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
     <t xml:space="preserve">12.6186323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5516901016235</t>
+    <t xml:space="preserve">12.5516891479492</t>
   </si>
   <si>
     <t xml:space="preserve">12.4512758255005</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">12.1835069656372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8320589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157361984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006563186646</t>
+    <t xml:space="preserve">11.8320579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006553649902</t>
   </si>
   <si>
     <t xml:space="preserve">12.3843336105347</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">11.3801984786987</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7168369293213</t>
+    <t xml:space="preserve">11.7168388366699</t>
   </si>
   <si>
     <t xml:space="preserve">12.2764472961426</t>
@@ -1466,34 +1466,34 @@
     <t xml:space="preserve">11.4894962310791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0316181182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7661066055298</t>
+    <t xml:space="preserve">12.0316190719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7661075592041</t>
   </si>
   <si>
     <t xml:space="preserve">12.1365451812744</t>
   </si>
   <si>
-    <t xml:space="preserve">11.979154586792</t>
+    <t xml:space="preserve">11.9791555404663</t>
   </si>
   <si>
     <t xml:space="preserve">11.891716003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.15403175354</t>
+    <t xml:space="preserve">12.1540327072144</t>
   </si>
   <si>
     <t xml:space="preserve">12.1715211868286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190567016602</t>
+    <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
     <t xml:space="preserve">11.5594472885132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8042774200439</t>
+    <t xml:space="preserve">11.8042764663696</t>
   </si>
   <si>
     <t xml:space="preserve">11.7518129348755</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">12.5212774276733</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5912275314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5037899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4688129425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6643753051758</t>
+    <t xml:space="preserve">12.5912284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5037889480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638887405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4688138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6643743515015</t>
   </si>
   <si>
     <t xml:space="preserve">11.7867889404297</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">11.9616670608521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8567409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8742275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7343244552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.699348449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0491075515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2589616775513</t>
+    <t xml:space="preserve">11.8567399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.874228477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7343254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6993503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0491046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966421127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
     <t xml:space="preserve">12.5562524795532</t>
@@ -1553,82 +1553,82 @@
     <t xml:space="preserve">12.8535451889038</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.69615650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087169647217</t>
+    <t xml:space="preserve">12.8360586166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6961555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.608715057373</t>
   </si>
   <si>
     <t xml:space="preserve">12.8185701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3988628387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1890077590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2939357757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.524471282959</t>
+    <t xml:space="preserve">12.3988618850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1890087127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2939367294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441785812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5244722366333</t>
   </si>
   <si>
     <t xml:space="preserve">11.419545173645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3845691680908</t>
+    <t xml:space="preserve">11.3845701217651</t>
   </si>
   <si>
     <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8074722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2446670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1572284698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1397390365601</t>
+    <t xml:space="preserve">10.8074703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446660995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1572275161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1397399902344</t>
   </si>
   <si>
     <t xml:space="preserve">11.2271795272827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2096910476685</t>
+    <t xml:space="preserve">11.2096900939941</t>
   </si>
   <si>
     <t xml:space="preserve">11.4720077514648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4545211791992</t>
+    <t xml:space="preserve">11.4545202255249</t>
   </si>
   <si>
     <t xml:space="preserve">11.1922025680542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4370336532593</t>
+    <t xml:space="preserve">11.437032699585</t>
   </si>
   <si>
     <t xml:space="preserve">11.6818618774414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0141305923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1015701293945</t>
+    <t xml:space="preserve">12.0141296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1015691757202</t>
   </si>
   <si>
     <t xml:space="preserve">12.0665941238403</t>
@@ -1637,34 +1637,34 @@
     <t xml:space="preserve">11.3321056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3146171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2621536254883</t>
+    <t xml:space="preserve">11.3146181106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2621545791626</t>
   </si>
   <si>
     <t xml:space="preserve">11.5419588088989</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0869455337524</t>
+    <t xml:space="preserve">11.0869445800781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4565095901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.650089263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8436727523804</t>
+    <t xml:space="preserve">11.4565105438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6500911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8436737060547</t>
   </si>
   <si>
     <t xml:space="preserve">11.861270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6324920654297</t>
+    <t xml:space="preserve">11.632493019104</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
@@ -1673,46 +1673,46 @@
     <t xml:space="preserve">11.2981243133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1573371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.174934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805261611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3509187698364</t>
+    <t xml:space="preserve">11.157338142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1749362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3509197235107</t>
   </si>
   <si>
     <t xml:space="preserve">11.386116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.421311378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0548524856567</t>
+    <t xml:space="preserve">11.4213123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0548534393311</t>
   </si>
   <si>
     <t xml:space="preserve">11.8964681625366</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7732782363892</t>
+    <t xml:space="preserve">11.7732791900635</t>
   </si>
   <si>
     <t xml:space="preserve">12.0020580291748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7908763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.438910484314</t>
+    <t xml:space="preserve">11.7908782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4389123916626</t>
   </si>
   <si>
     <t xml:space="preserve">11.5445013046265</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">11.5093050003052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5269041061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8084745407104</t>
+    <t xml:space="preserve">11.5269031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
     <t xml:space="preserve">11.7204847335815</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">12.0196561813354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2308340072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124092102051</t>
+    <t xml:space="preserve">12.2308359146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124082565308</t>
   </si>
   <si>
     <t xml:space="preserve">12.3716230392456</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">12.1604423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6707925796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7059888839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4948101043701</t>
+    <t xml:space="preserve">12.6707944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7059898376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4948110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6004009246826</t>
@@ -1766,25 +1766,25 @@
     <t xml:space="preserve">11.5796966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6148929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5620994567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4741077423096</t>
+    <t xml:space="preserve">11.6148948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5621004104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4741067886353</t>
   </si>
   <si>
     <t xml:space="preserve">11.7556810379028</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3333196640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4917058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132368087769</t>
+    <t xml:space="preserve">11.3333215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4917068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132377624512</t>
   </si>
   <si>
     <t xml:space="preserve">12.565203666687</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">12.1252450942993</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9668598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844598770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076469421387</t>
+    <t xml:space="preserve">11.9668607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.107647895813</t>
   </si>
   <si>
     <t xml:space="preserve">12.3188276290894</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">12.3364267349243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1780414581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2836313247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3892202377319</t>
+    <t xml:space="preserve">12.1780405044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2836303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3892211914062</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">13.3923254013062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4451198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635465621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3571281433105</t>
+    <t xml:space="preserve">13.4451208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635475158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3571290969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5507097244263</t>
+    <t xml:space="preserve">13.5507106781006</t>
   </si>
   <si>
     <t xml:space="preserve">13.4099235534668</t>
@@ -1853,34 +1853,34 @@
     <t xml:space="preserve">13.462718963623</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6387014389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3747262954712</t>
+    <t xml:space="preserve">13.6387023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3747272491455</t>
   </si>
   <si>
     <t xml:space="preserve">13.2867345809937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4275226593018</t>
+    <t xml:space="preserve">13.4275217056274</t>
   </si>
   <si>
     <t xml:space="preserve">13.3395299911499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5476055145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8115816116333</t>
+    <t xml:space="preserve">12.5476064682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.811580657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.3043336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5859069824219</t>
+    <t xml:space="preserve">13.5859060287476</t>
   </si>
   <si>
     <t xml:space="preserve">13.4803161621094</t>
@@ -1895,37 +1895,37 @@
     <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0579557418823</t>
+    <t xml:space="preserve">13.057957649231</t>
   </si>
   <si>
     <t xml:space="preserve">12.9171705245972</t>
   </si>
   <si>
-    <t xml:space="preserve">13.022759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8467769622803</t>
+    <t xml:space="preserve">13.0227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
     <t xml:space="preserve">12.9347686767578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8995704650879</t>
+    <t xml:space="preserve">12.8995714187622</t>
   </si>
   <si>
     <t xml:space="preserve">12.6355972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7587852478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7411851882935</t>
+    <t xml:space="preserve">12.7587862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7411870956421</t>
   </si>
   <si>
     <t xml:space="preserve">12.090048789978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012294769287</t>
+    <t xml:space="preserve">12.3012285232544</t>
   </si>
   <si>
     <t xml:space="preserve">12.0372543334961</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">10.1366357803345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0134468078613</t>
+    <t xml:space="preserve">10.0134477615356</t>
   </si>
   <si>
     <t xml:space="preserve">10.3126182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1894302368164</t>
+    <t xml:space="preserve">10.1894311904907</t>
   </si>
   <si>
     <t xml:space="preserve">9.94305419921875</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">9.20392417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45599460601807</t>
+    <t xml:space="preserve">8.45599365234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.03363513946533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95133876800537</t>
+    <t xml:space="preserve">7.94564294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
     <t xml:space="preserve">7.25050926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2009,25 +2009,25 @@
     <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97463083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24740505218506</t>
+    <t xml:space="preserve">5.97463178634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24740552902222</t>
   </si>
   <si>
     <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20340919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07142210006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73705387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05382347106934</t>
+    <t xml:space="preserve">6.20340967178345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0714225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73705339431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05382394790649</t>
   </si>
   <si>
     <t xml:space="preserve">6.01862716674805</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">6.04502439498901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98342990875244</t>
+    <t xml:space="preserve">5.9834303855896</t>
   </si>
   <si>
     <t xml:space="preserve">6.15941381454468</t>
@@ -2045,37 +2045,37 @@
     <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51137971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100782394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6873631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6345682144165</t>
+    <t xml:space="preserve">6.51138019561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100877761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68736362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63456869125366</t>
   </si>
   <si>
     <t xml:space="preserve">6.55537605285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59057188034058</t>
+    <t xml:space="preserve">6.59057235717773</t>
   </si>
   <si>
     <t xml:space="preserve">6.66096591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08332586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1537184715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2593092918396</t>
+    <t xml:space="preserve">7.08332538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06572675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15371894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25930833816528</t>
   </si>
   <si>
     <t xml:space="preserve">6.96893644332886</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">7.03932952880859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05692863464355</t>
+    <t xml:space="preserve">7.0569281578064</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614151000977</t>
@@ -2102,100 +2102,100 @@
     <t xml:space="preserve">6.62576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71376132965088</t>
+    <t xml:space="preserve">6.71376085281372</t>
   </si>
   <si>
     <t xml:space="preserve">6.69616270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8193507194519</t>
+    <t xml:space="preserve">6.81935119628906</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053045272827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18011665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43529176712036</t>
+    <t xml:space="preserve">7.18011617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43529224395752</t>
   </si>
   <si>
     <t xml:space="preserve">7.34730005264282</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32970190048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210374832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928762435913</t>
+    <t xml:space="preserve">7.32970237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210422515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928810119629</t>
   </si>
   <si>
     <t xml:space="preserve">7.99843788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21841716766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00723743438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204113006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725862503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489868164062</t>
+    <t xml:space="preserve">8.21841812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00723838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204256057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725910186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489820480347</t>
   </si>
   <si>
     <t xml:space="preserve">7.46168899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63767385482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40009546279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41769409179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62887334823608</t>
+    <t xml:space="preserve">7.63767337799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40009498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41769313812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6288743019104</t>
   </si>
   <si>
     <t xml:space="preserve">7.72566366195679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51448392868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924619674683</t>
+    <t xml:space="preserve">7.51448440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924667358398</t>
   </si>
   <si>
     <t xml:space="preserve">7.88404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74326181411743</t>
+    <t xml:space="preserve">7.74326324462891</t>
   </si>
   <si>
     <t xml:space="preserve">7.66407012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58487749099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60247755050659</t>
+    <t xml:space="preserve">7.58487796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60247659683228</t>
   </si>
   <si>
     <t xml:space="preserve">7.75206232070923</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52328443527222</t>
+    <t xml:space="preserve">7.5232834815979</t>
   </si>
   <si>
     <t xml:space="preserve">7.59367704391479</t>
@@ -2204,25 +2204,25 @@
     <t xml:space="preserve">7.21531248092651</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04812955856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0041332244873</t>
+    <t xml:space="preserve">7.04812860488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00413274765015</t>
   </si>
   <si>
     <t xml:space="preserve">7.28570604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26810789108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33850193023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10092401504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12732172012329</t>
+    <t xml:space="preserve">7.26810741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3385009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10092353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12732219696045</t>
   </si>
   <si>
     <t xml:space="preserve">7.14491939544678</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">6.92494106292725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79295349121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88094472885132</t>
+    <t xml:space="preserve">6.79295301437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88094520568848</t>
   </si>
   <si>
     <t xml:space="preserve">6.86334657669067</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">6.78415441513062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72255992889404</t>
+    <t xml:space="preserve">6.7225604057312</t>
   </si>
   <si>
     <t xml:space="preserve">6.7049617767334</t>
@@ -2252,16 +2252,16 @@
     <t xml:space="preserve">6.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59937143325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4321870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620460510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37059259414673</t>
+    <t xml:space="preserve">6.59937191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43218803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37059354782104</t>
   </si>
   <si>
     <t xml:space="preserve">6.28260183334351</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">6.26500368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19461011886597</t>
+    <t xml:space="preserve">6.19461059570312</t>
   </si>
   <si>
     <t xml:space="preserve">6.23860597610474</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">6.48498249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5025806427002</t>
+    <t xml:space="preserve">6.50258111953735</t>
   </si>
   <si>
     <t xml:space="preserve">6.47618389129639</t>
@@ -2294,22 +2294,22 @@
     <t xml:space="preserve">6.73135948181152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41458940505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60817050933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52897787094116</t>
+    <t xml:space="preserve">6.41458988189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60817098617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52897882461548</t>
   </si>
   <si>
     <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67856407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40579080581665</t>
+    <t xml:space="preserve">6.67856454849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40579032897949</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980690002441</t>
@@ -2318,109 +2318,109 @@
     <t xml:space="preserve">6.16821336746216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82504463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64026308059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41148471832275</t>
+    <t xml:space="preserve">5.82504558563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64026260375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41148519515991</t>
   </si>
   <si>
     <t xml:space="preserve">5.37628841400146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4290828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45548009872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67545938491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85144329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574890136719</t>
+    <t xml:space="preserve">5.42908334732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45548057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67545986175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85144281387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574842453003</t>
   </si>
   <si>
     <t xml:space="preserve">6.80175256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88974380493164</t>
+    <t xml:space="preserve">6.8897442817688</t>
   </si>
   <si>
     <t xml:space="preserve">7.90164709091187</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16562175750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96324157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125495910645</t>
+    <t xml:space="preserve">8.16562271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96324110031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125400543213</t>
   </si>
   <si>
     <t xml:space="preserve">7.82245540618896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70806550979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65527153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76086091995239</t>
+    <t xml:space="preserve">7.7080659866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65527009963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086044311523</t>
   </si>
   <si>
     <t xml:space="preserve">7.804856300354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64647102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53208351135254</t>
+    <t xml:space="preserve">7.64647150039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53208303451538</t>
   </si>
   <si>
     <t xml:space="preserve">7.48808717727661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87525033950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49688673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56728029251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69046688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89284944534302</t>
+    <t xml:space="preserve">7.87524938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49688625335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56727933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6904673576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284896850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.06883239746094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85765266418457</t>
+    <t xml:space="preserve">7.85765218734741</t>
   </si>
   <si>
     <t xml:space="preserve">7.76965951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91044664382935</t>
+    <t xml:space="preserve">7.91044616699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.08643054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33280754089355</t>
+    <t xml:space="preserve">8.10402774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.3416051864624</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">7.38249731063843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.444091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42649221420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6728687286377</t>
+    <t xml:space="preserve">7.44409084320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4264931678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67286920547485</t>
   </si>
   <si>
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682411193848</t>
+    <t xml:space="preserve">8.15682220458984</t>
   </si>
   <si>
     <t xml:space="preserve">8.22721672058105</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">8.19202041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42079734802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5087890625</t>
+    <t xml:space="preserve">8.42079830169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64957523345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678173065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50879001617432</t>
   </si>
   <si>
     <t xml:space="preserve">8.46479415893555</t>
@@ -2477,22 +2477,22 @@
     <t xml:space="preserve">8.43839645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47359275817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20081806182861</t>
+    <t xml:space="preserve">8.47359466552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35920429229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20081996917725</t>
   </si>
   <si>
     <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05123329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18322086334229</t>
+    <t xml:space="preserve">8.05123233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1832218170166</t>
   </si>
   <si>
     <t xml:space="preserve">8.49119091033936</t>
@@ -2501,25 +2501,25 @@
     <t xml:space="preserve">8.93994903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79916095733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81676006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71117115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78156280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51758861541748</t>
+    <t xml:space="preserve">8.79916286468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8167610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7111701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78156471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5175895690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.17442226409912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32400703430176</t>
+    <t xml:space="preserve">8.32400798797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.39440155029297</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88715553283691</t>
+    <t xml:space="preserve">8.8871545791626</t>
   </si>
   <si>
     <t xml:space="preserve">8.71996974945068</t>
@@ -2540,19 +2540,19 @@
     <t xml:space="preserve">8.42959785461426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73756790161133</t>
+    <t xml:space="preserve">8.73756885528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.79036331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64077663421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57038402557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6759729385376</t>
+    <t xml:space="preserve">8.64077758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57038497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67597484588623</t>
   </si>
   <si>
     <t xml:space="preserve">8.72876930236816</t>
@@ -2561,34 +2561,34 @@
     <t xml:space="preserve">8.60558032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35040473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36800384521484</t>
+    <t xml:space="preserve">8.35040378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36800289154053</t>
   </si>
   <si>
     <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74636650085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27431583404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3623104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1511287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13353061676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24035549163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06231307983398</t>
+    <t xml:space="preserve">8.74636745452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27431678771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36230850219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15112781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13353157043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2403564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0623140335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.99109745025635</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">10.1127586364746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661710739136</t>
+    <t xml:space="preserve">10.1661720275879</t>
   </si>
   <si>
     <t xml:space="preserve">10.2373876571655</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3086042404175</t>
+    <t xml:space="preserve">10.3086051940918</t>
   </si>
   <si>
     <t xml:space="preserve">10.3976249694824</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">10.3442125320435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3264083862305</t>
+    <t xml:space="preserve">10.3264093399048</t>
   </si>
   <si>
     <t xml:space="preserve">10.0949554443359</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">10.1483669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9703254699707</t>
+    <t xml:space="preserve">9.97032642364502</t>
   </si>
   <si>
     <t xml:space="preserve">9.91691398620605</t>
@@ -2645,19 +2645,19 @@
     <t xml:space="preserve">9.61424255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77447986602783</t>
+    <t xml:space="preserve">9.77447891235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.86350059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54302501678467</t>
+    <t xml:space="preserve">9.5430269241333</t>
   </si>
   <si>
     <t xml:space="preserve">9.45400524139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56082916259766</t>
+    <t xml:space="preserve">9.56083011627197</t>
   </si>
   <si>
     <t xml:space="preserve">9.68545913696289</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">9.63204669952393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43620109558105</t>
+    <t xml:space="preserve">9.43620204925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.11572647094727</t>
@@ -2678,19 +2678,19 @@
     <t xml:space="preserve">9.29376792907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3471794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31157112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09792137145996</t>
+    <t xml:space="preserve">9.34718132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31157207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09792232513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.91988086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97329330444336</t>
+    <t xml:space="preserve">8.97329235076904</t>
   </si>
   <si>
     <t xml:space="preserve">9.02670574188232</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40059185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52522087097168</t>
+    <t xml:space="preserve">9.40059375762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.525221824646</t>
   </si>
   <si>
     <t xml:space="preserve">9.8278923034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84569644927979</t>
+    <t xml:space="preserve">9.8456974029541</t>
   </si>
   <si>
     <t xml:space="preserve">9.93471717834473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41839694976807</t>
+    <t xml:space="preserve">9.41839599609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.47180938720703</t>
@@ -2729,34 +2729,34 @@
     <t xml:space="preserve">9.32937526702881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25816059112549</t>
+    <t xml:space="preserve">9.25815868377686</t>
   </si>
   <si>
     <t xml:space="preserve">9.70326328277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72106647491455</t>
+    <t xml:space="preserve">9.72106742858887</t>
   </si>
   <si>
     <t xml:space="preserve">9.04450988769531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95549011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85756587982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93768405914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81305599212646</t>
+    <t xml:space="preserve">8.95548915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85756492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93768501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81305503845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.63501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65281772613525</t>
+    <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
     <t xml:space="preserve">8.87537002563477</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">8.59940528869629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59050369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6973295211792</t>
+    <t xml:space="preserve">8.59050273895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69732856750488</t>
   </si>
   <si>
     <t xml:space="preserve">8.79525184631348</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">8.60830783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67062187194824</t>
+    <t xml:space="preserve">8.67062282562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.47477722167969</t>
@@ -2795,43 +2795,43 @@
     <t xml:space="preserve">8.62611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75074100494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76854610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83976173400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79228401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73887157440186</t>
+    <t xml:space="preserve">8.75074005126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76854515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83976268768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79228496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73887252807617</t>
   </si>
   <si>
     <t xml:space="preserve">9.88130474090576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53709030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51928615570068</t>
+    <t xml:space="preserve">8.53709125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.18990993499756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22551822662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712223052979</t>
+    <t xml:space="preserve">8.22551918029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712127685547</t>
   </si>
   <si>
     <t xml:space="preserve">7.70919799804688</t>
@@ -2840,16 +2840,16 @@
     <t xml:space="preserve">8.00296592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9050440788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83382654190063</t>
+    <t xml:space="preserve">7.90504312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83382749557495</t>
   </si>
   <si>
     <t xml:space="preserve">8.32344150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1721076965332</t>
+    <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.14539909362793</t>
@@ -2858,34 +2858,34 @@
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065237045288</t>
+    <t xml:space="preserve">7.94065141677856</t>
   </si>
   <si>
     <t xml:space="preserve">8.07418346405029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01186847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0563793182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28783416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3412446975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43916702270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842716217041</t>
+    <t xml:space="preserve">8.01186943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05637836456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28783321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34124565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43916797637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88427257537842</t>
   </si>
   <si>
     <t xml:space="preserve">8.78634929656982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7418384552002</t>
+    <t xml:space="preserve">8.74183940887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.43026638031006</t>
@@ -2900,10 +2900,10 @@
     <t xml:space="preserve">8.56379699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45697116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42136383056641</t>
+    <t xml:space="preserve">8.4569730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42136478424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.33234405517578</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">8.03857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89614152908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29673480987549</t>
+    <t xml:space="preserve">7.89614105224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2967357635498</t>
   </si>
   <si>
     <t xml:space="preserve">8.10089015960693</t>
@@ -2930,52 +2930,52 @@
     <t xml:space="preserve">8.31453990936279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12759494781494</t>
+    <t xml:space="preserve">8.12759590148926</t>
   </si>
   <si>
     <t xml:space="preserve">8.02077102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40356063842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2789306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36795234680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46587467193604</t>
+    <t xml:space="preserve">8.40355968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27893161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36795139312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46587371826172</t>
   </si>
   <si>
     <t xml:space="preserve">8.35014820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20771503448486</t>
+    <t xml:space="preserve">8.20771408081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27299642562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45993995666504</t>
+    <t xml:space="preserve">7.46884202957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2729959487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45993947982788</t>
   </si>
   <si>
     <t xml:space="preserve">7.69139432907104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88723945617676</t>
+    <t xml:space="preserve">7.8872389793396</t>
   </si>
   <si>
     <t xml:space="preserve">8.10979080200195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11869335174561</t>
+    <t xml:space="preserve">8.11869430541992</t>
   </si>
   <si>
     <t xml:space="preserve">7.97625970840454</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">8.13649845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90207576751709</t>
+    <t xml:space="preserve">8.90207672119141</t>
   </si>
   <si>
     <t xml:space="preserve">8.8219575881958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68842601776123</t>
+    <t xml:space="preserve">8.68842697143555</t>
   </si>
   <si>
     <t xml:space="preserve">8.75964260101318</t>
@@ -3005,25 +3005,25 @@
     <t xml:space="preserve">8.38575649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44807052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48367881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49258041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16320323944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35904979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91394567489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41246223449707</t>
+    <t xml:space="preserve">8.44806957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48367786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49258136749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16320419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35904884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9139461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41246128082275</t>
   </si>
   <si>
     <t xml:space="preserve">8.3744010925293</t>
@@ -3035,10 +3035,10 @@
     <t xml:space="preserve">8.2374153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53878307342529</t>
+    <t xml:space="preserve">8.44746017456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53878402709961</t>
   </si>
   <si>
     <t xml:space="preserve">8.62097454071045</t>
@@ -3047,31 +3047,31 @@
     <t xml:space="preserve">8.52051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40179824829102</t>
+    <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
     <t xml:space="preserve">8.45659160614014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42919445037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394485473633</t>
+    <t xml:space="preserve">8.42919540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394580841064</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686840057373</t>
+    <t xml:space="preserve">7.71686887741089</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63467693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62554502487183</t>
+    <t xml:space="preserve">7.63467741012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62554454803467</t>
   </si>
   <si>
     <t xml:space="preserve">7.57988309860229</t>
@@ -3083,25 +3083,25 @@
     <t xml:space="preserve">7.60728025436401</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61641263961792</t>
+    <t xml:space="preserve">7.61641216278076</t>
   </si>
   <si>
     <t xml:space="preserve">7.69860363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76253032684326</t>
+    <t xml:space="preserve">7.76253080368042</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58901643753052</t>
+    <t xml:space="preserve">7.58901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">7.48855876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57075071334839</t>
+    <t xml:space="preserve">7.57075023651123</t>
   </si>
   <si>
     <t xml:space="preserve">7.30591106414795</t>
@@ -3110,19 +3110,19 @@
     <t xml:space="preserve">7.32417631149292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42463207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56161832809448</t>
+    <t xml:space="preserve">7.42463254928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56161785125732</t>
   </si>
   <si>
     <t xml:space="preserve">7.5068244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49769115447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39723539352417</t>
+    <t xml:space="preserve">7.49769067764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39723587036133</t>
   </si>
   <si>
     <t xml:space="preserve">7.46116161346436</t>
@@ -3146,10 +3146,10 @@
     <t xml:space="preserve">7.72600078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59814786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53422117233276</t>
+    <t xml:space="preserve">7.59814739227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53422069549561</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">7.29677867889404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33330821990967</t>
+    <t xml:space="preserve">7.33330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">7.27851390838623</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">7.21458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10499906539917</t>
+    <t xml:space="preserve">7.10499858856201</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">6.98627758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80362939834595</t>
+    <t xml:space="preserve">6.80362987518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.67577648162842</t>
@@ -3215,25 +3215,25 @@
     <t xml:space="preserve">6.6483793258667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53879022598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58445262908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618738174438</t>
+    <t xml:space="preserve">6.53879070281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5844521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618785858154</t>
   </si>
   <si>
     <t xml:space="preserve">6.36527490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44746685028076</t>
+    <t xml:space="preserve">6.4474663734436</t>
   </si>
   <si>
     <t xml:space="preserve">6.49312829971313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47486400604248</t>
+    <t xml:space="preserve">6.47486352920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.41093683242798</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">6.08217096328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05477333068848</t>
+    <t xml:space="preserve">6.05477380752563</t>
   </si>
   <si>
     <t xml:space="preserve">6.12783288955688</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">6.10956811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3013482093811</t>
+    <t xml:space="preserve">6.04564142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30134868621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.57532024383545</t>
@@ -3293,13 +3293,13 @@
     <t xml:space="preserve">6.42006969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54792261123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395057678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317411422729</t>
+    <t xml:space="preserve">6.54792308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395105361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317363739014</t>
   </si>
   <si>
     <t xml:space="preserve">6.50226068496704</t>
@@ -3314,22 +3314,22 @@
     <t xml:space="preserve">6.38353967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19176006317139</t>
+    <t xml:space="preserve">6.19175958633423</t>
   </si>
   <si>
     <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24655437469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915721893311</t>
+    <t xml:space="preserve">6.24655389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915674209595</t>
   </si>
   <si>
     <t xml:space="preserve">6.37440729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23742198944092</t>
+    <t xml:space="preserve">6.23742151260376</t>
   </si>
   <si>
     <t xml:space="preserve">6.43833446502686</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">6.29221534729004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17349481582642</t>
+    <t xml:space="preserve">6.17349529266357</t>
   </si>
   <si>
     <t xml:space="preserve">6.32874536514282</t>
@@ -3347,19 +3347,19 @@
     <t xml:space="preserve">6.20089244842529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28308343887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870050430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460976600647</t>
+    <t xml:space="preserve">6.28308391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870098114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14609813690186</t>
   </si>
   <si>
     <t xml:space="preserve">6.25568675994873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51139307022095</t>
+    <t xml:space="preserve">6.51139354705811</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180492401123</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">6.9406156539917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97714519500732</t>
+    <t xml:space="preserve">6.97714567184448</t>
   </si>
   <si>
     <t xml:space="preserve">7.02280712127686</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">6.81276178359985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74883508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449701309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230602264404</t>
+    <t xml:space="preserve">6.74883556365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230554580688</t>
   </si>
   <si>
     <t xml:space="preserve">6.55705499649048</t>
@@ -3410,31 +3410,31 @@
     <t xml:space="preserve">6.8584246635437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86755657196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89495372772217</t>
+    <t xml:space="preserve">6.86755609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015893936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189464569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89495325088501</t>
   </si>
   <si>
     <t xml:space="preserve">6.83102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46573162078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31961345672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048011779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326383590698</t>
+    <t xml:space="preserve">6.46573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31961297988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048059463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326335906982</t>
   </si>
   <si>
     <t xml:space="preserve">6.60271739959717</t>
@@ -3446,16 +3446,16 @@
     <t xml:space="preserve">6.78536462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066188812256</t>
+    <t xml:space="preserve">6.92235040664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066236495972</t>
   </si>
   <si>
     <t xml:space="preserve">7.00706672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79360628128052</t>
+    <t xml:space="preserve">6.79360675811768</t>
   </si>
   <si>
     <t xml:space="preserve">7.10915613174438</t>
@@ -3479,16 +3479,16 @@
     <t xml:space="preserve">7.43398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35974025726318</t>
+    <t xml:space="preserve">7.35973978042603</t>
   </si>
   <si>
     <t xml:space="preserve">7.28549289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.239089012146</t>
+    <t xml:space="preserve">7.25765085220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23908853530884</t>
   </si>
   <si>
     <t xml:space="preserve">7.19268417358398</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">7.15556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36902093887329</t>
+    <t xml:space="preserve">7.36902141571045</t>
   </si>
   <si>
     <t xml:space="preserve">7.42470645904541</t>
@@ -3515,16 +3515,16 @@
     <t xml:space="preserve">7.27621221542358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693153381348</t>
+    <t xml:space="preserve">7.2483696937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693105697632</t>
   </si>
   <si>
     <t xml:space="preserve">7.18340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1648416519165</t>
+    <t xml:space="preserve">7.16484117507935</t>
   </si>
   <si>
     <t xml:space="preserve">6.9049768447876</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">7.06275177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0720329284668</t>
+    <t xml:space="preserve">7.07203245162964</t>
   </si>
   <si>
     <t xml:space="preserve">7.13699913024902</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">7.20196533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32261610031128</t>
+    <t xml:space="preserve">7.32261657714844</t>
   </si>
   <si>
     <t xml:space="preserve">7.41542482376099</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">7.40614461898804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68457126617432</t>
+    <t xml:space="preserve">7.68457078933716</t>
   </si>
   <si>
     <t xml:space="preserve">7.77737998962402</t>
@@ -3599,31 +3599,31 @@
     <t xml:space="preserve">7.48039197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234523773193</t>
+    <t xml:space="preserve">7.71241426467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234571456909</t>
   </si>
   <si>
     <t xml:space="preserve">7.76809883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65672826766968</t>
+    <t xml:space="preserve">7.65672874450684</t>
   </si>
   <si>
     <t xml:space="preserve">7.67529058456421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097562789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176301956177</t>
+    <t xml:space="preserve">7.79594135284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176206588745</t>
   </si>
   <si>
     <t xml:space="preserve">7.54535818099976</t>
@@ -3635,25 +3635,25 @@
     <t xml:space="preserve">7.09059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87713432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7750449180603</t>
+    <t xml:space="preserve">6.87713384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85857248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072996139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77504444122314</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001064300537</t>
+    <t xml:space="preserve">6.84001016616821</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3662,16 +3662,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785316467285</t>
+    <t xml:space="preserve">6.86785364151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65439319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6079888343811</t>
+    <t xml:space="preserve">6.6543927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60798835754395</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661779403687</t>
+    <t xml:space="preserve">6.49661827087402</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3704,22 +3704,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210052490234</t>
+    <t xml:space="preserve">6.94210004806519</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6381664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679586410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032342910767</t>
+    <t xml:space="preserve">7.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63816595077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032390594482</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3728,31 +3728,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98156023025513</t>
+    <t xml:space="preserve">7.89803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98155975341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580615997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88875007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083948135376</t>
+    <t xml:space="preserve">8.05580711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8887505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0465259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083995819092</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436847686768</t>
+    <t xml:space="preserve">8.07436752319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286224365234</t>
+    <t xml:space="preserve">8.22286128997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940227508545</t>
+    <t xml:space="preserve">8.00940132141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3779,13 +3779,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443559646606</t>
+    <t xml:space="preserve">7.94443607330322</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488452911377</t>
+    <t xml:space="preserve">8.45488357543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -4050,6 +4050,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72000026702881</t>
   </si>
 </sst>
 </file>
@@ -60447,7 +60450,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6493865741</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>106399</v>
@@ -60468,6 +60471,32 @@
         <v>1345</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6496180556</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>81342</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>8.61999988555908</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>8.82999992370605</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>8.72000026702881</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1356">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,52 +44,52 @@
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72928142547607</t>
+    <t xml:space="preserve">8.74573612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72105503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72927951812744</t>
   </si>
   <si>
     <t xml:space="preserve">8.79510021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77864646911621</t>
+    <t xml:space="preserve">8.77864456176758</t>
   </si>
   <si>
     <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52359485626221</t>
+    <t xml:space="preserve">8.52359580993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1451358795166</t>
+    <t xml:space="preserve">8.14513492584229</t>
   </si>
   <si>
     <t xml:space="preserve">8.1039981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60586833953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43309497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25209045410156</t>
+    <t xml:space="preserve">8.60586929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43309307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968284606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209140777588</t>
   </si>
   <si>
     <t xml:space="preserve">8.34259223937988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54004955291748</t>
+    <t xml:space="preserve">8.54005146026611</t>
   </si>
   <si>
     <t xml:space="preserve">8.46600246429443</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">8.32613658905029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63877868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068641662598</t>
+    <t xml:space="preserve">8.63877964019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068546295166</t>
   </si>
   <si>
     <t xml:space="preserve">8.56473255157471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6716890335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737464904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041721343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673873901367</t>
+    <t xml:space="preserve">8.67168807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737369537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041816711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673778533936</t>
   </si>
   <si>
     <t xml:space="preserve">8.98433113098145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81978416442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9102840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04192066192627</t>
+    <t xml:space="preserve">8.81978321075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028308868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192161560059</t>
   </si>
   <si>
     <t xml:space="preserve">8.96787643432617</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05014896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97610282897949</t>
+    <t xml:space="preserve">9.05014991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
     <t xml:space="preserve">9.07483196258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81155490875244</t>
+    <t xml:space="preserve">8.81155395507812</t>
   </si>
   <si>
     <t xml:space="preserve">8.86091995239258</t>
@@ -161,22 +161,22 @@
     <t xml:space="preserve">9.09951400756836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09128570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0666036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21469688415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46974754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52733993530273</t>
+    <t xml:space="preserve">9.09128665924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06660461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21469783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46974849700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52733898162842</t>
   </si>
   <si>
     <t xml:space="preserve">9.55202198028564</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">9.74947834014893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83998107910156</t>
+    <t xml:space="preserve">9.83998203277588</t>
   </si>
   <si>
     <t xml:space="preserve">9.7165699005127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87289237976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94693660736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088428497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466312408447</t>
+    <t xml:space="preserve">9.87288951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088523864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466407775879</t>
   </si>
   <si>
     <t xml:space="preserve">9.93048286437988</t>
@@ -212,58 +212,58 @@
     <t xml:space="preserve">9.83175373077393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95516586303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1114854812622</t>
+    <t xml:space="preserve">9.95516490936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1114845275879</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934516906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3994445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4652652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6133556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120876312256</t>
+    <t xml:space="preserve">10.3994455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4652643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.613356590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722208023071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5307931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2490863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2739458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3568000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4976511001587</t>
+    <t xml:space="preserve">10.5307941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2490873336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2739448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3567991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4976530075073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805053710938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4727945327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893665313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3982257843018</t>
+    <t xml:space="preserve">10.4727964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893655776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3982276916504</t>
   </si>
   <si>
     <t xml:space="preserve">10.4396524429321</t>
@@ -272,31 +272,31 @@
     <t xml:space="preserve">10.2905149459839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1910905838013</t>
+    <t xml:space="preserve">10.1910886764526</t>
   </si>
   <si>
     <t xml:space="preserve">10.0253820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98395538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252777099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85967254638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082353591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96738338470459</t>
+    <t xml:space="preserve">9.9839563369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252681732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85967350006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96738243103027</t>
   </si>
   <si>
     <t xml:space="preserve">10.0668087005615</t>
@@ -308,37 +308,37 @@
     <t xml:space="preserve">10.1165208816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579475402832</t>
+    <t xml:space="preserve">10.1579484939575</t>
   </si>
   <si>
     <t xml:space="preserve">10.3816556930542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.315372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5556497573853</t>
+    <t xml:space="preserve">10.3153715133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5556488037109</t>
   </si>
   <si>
     <t xml:space="preserve">10.5639362335205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722198486328</t>
+    <t xml:space="preserve">10.5722188949585</t>
   </si>
   <si>
     <t xml:space="preserve">10.4147987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.232518196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5887908935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.54736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142230987549</t>
+    <t xml:space="preserve">10.2325172424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.588791847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5473642349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142221450806</t>
   </si>
   <si>
     <t xml:space="preserve">10.4810800552368</t>
@@ -347,31 +347,31 @@
     <t xml:space="preserve">10.4645109176636</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1330919265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3485136032104</t>
+    <t xml:space="preserve">10.133092880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3485145568848</t>
   </si>
   <si>
     <t xml:space="preserve">10.365083694458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136484146118</t>
+    <t xml:space="preserve">10.6136474609375</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059375762939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4562244415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5390796661377</t>
+    <t xml:space="preserve">10.456223487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5390787124634</t>
   </si>
   <si>
     <t xml:space="preserve">10.2987995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2242336273193</t>
+    <t xml:space="preserve">10.224232673645</t>
   </si>
   <si>
     <t xml:space="preserve">10.1662349700928</t>
@@ -386,73 +386,73 @@
     <t xml:space="preserve">10.182804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6053628921509</t>
+    <t xml:space="preserve">10.6053619384766</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402280807495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5970754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6716461181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213592529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7544994354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7379293441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0610618591309</t>
+    <t xml:space="preserve">10.5970783233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6716451644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213582992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7545003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7379302978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0610609054565</t>
   </si>
   <si>
     <t xml:space="preserve">11.1107740402222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.127345085144</t>
+    <t xml:space="preserve">11.1273441314697</t>
   </si>
   <si>
     <t xml:space="preserve">11.2433423995972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3427658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4504776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5830450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5167617797852</t>
+    <t xml:space="preserve">11.3427667617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4504766464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.583044052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5167589187622</t>
   </si>
   <si>
     <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1853446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3096227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0196342468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9036388397217</t>
+    <t xml:space="preserve">11.1853427886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.309624671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0196352005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9036378860474</t>
   </si>
   <si>
     <t xml:space="preserve">10.8953533172607</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0776329040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870668411255</t>
+    <t xml:space="preserve">11.0776338577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870687484741</t>
   </si>
   <si>
     <t xml:space="preserve">10.771071434021</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">10.679931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6302175521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8622093200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8042116165161</t>
+    <t xml:space="preserve">10.6302194595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.862211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8042125701904</t>
   </si>
   <si>
     <t xml:space="preserve">10.6633605957031</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">10.7627859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8787822723389</t>
+    <t xml:space="preserve">10.7047863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8787813186646</t>
   </si>
   <si>
     <t xml:space="preserve">10.7959280014038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6965036392212</t>
+    <t xml:space="preserve">10.6965017318726</t>
   </si>
   <si>
     <t xml:space="preserve">10.9947776794434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3924798965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4339056015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3510503768921</t>
+    <t xml:space="preserve">11.3924789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4339065551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.351053237915</t>
   </si>
   <si>
     <t xml:space="preserve">11.1439161300659</t>
@@ -512,34 +512,34 @@
     <t xml:space="preserve">11.2599115371704</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2681970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0859184265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9450645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687707901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.135630607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359335899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847681045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4753341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4587621688843</t>
+    <t xml:space="preserve">11.2681980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859174728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9450654983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687717437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1356315612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847671508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4753332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587631225586</t>
   </si>
   <si>
     <t xml:space="preserve">11.226770401001</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">11.3013391494751</t>
   </si>
   <si>
-    <t xml:space="preserve">11.177059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9533519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6658983230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1215982437134</t>
+    <t xml:space="preserve">11.177056312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.953351020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764825820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1215972900391</t>
   </si>
   <si>
     <t xml:space="preserve">12.0967416763306</t>
@@ -584,169 +584,169 @@
     <t xml:space="preserve">12.0470285415649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2624502182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2210235595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3453044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044525146484</t>
+    <t xml:space="preserve">12.262451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2210216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453035354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044515609741</t>
   </si>
   <si>
     <t xml:space="preserve">12.312162399292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6352949142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6684379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8092880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6021537780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.494441986084</t>
+    <t xml:space="preserve">12.635293006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6684370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.809289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435794830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6021528244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4944438934326</t>
   </si>
   <si>
     <t xml:space="preserve">12.3370189666748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4695863723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.676721572876</t>
+    <t xml:space="preserve">12.4695854187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6767225265503</t>
   </si>
   <si>
     <t xml:space="preserve">12.7595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318468093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2484169006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3644142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4224119186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466938018799</t>
+    <t xml:space="preserve">13.2318477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2484159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3644151687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4224109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466928482056</t>
   </si>
   <si>
     <t xml:space="preserve">14.3420944213867</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480802536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137907028198</t>
+    <t xml:space="preserve">14.7066526412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.748083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137897491455</t>
   </si>
   <si>
     <t xml:space="preserve">14.3338088989258</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8698253631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538290023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935316085815</t>
+    <t xml:space="preserve">13.8698263168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935306549072</t>
   </si>
   <si>
     <t xml:space="preserve">13.9195375442505</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3255224227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.300669670105</t>
+    <t xml:space="preserve">14.3255233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3006687164307</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8640804290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580907821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8392219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817998886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6238012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315082550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683431625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180515289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8831882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097679138184</t>
+    <t xml:space="preserve">14.8640775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580898284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995174407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8392210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895107269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315111160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937734603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766248703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.568341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.742335319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8831901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523439407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.609769821167</t>
   </si>
   <si>
     <t xml:space="preserve">15.518627166748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7257633209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872119903564</t>
+    <t xml:space="preserve">15.7257652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872091293335</t>
   </si>
   <si>
     <t xml:space="preserve">15.203782081604</t>
@@ -755,64 +755,64 @@
     <t xml:space="preserve">15.1371688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.578465461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949447631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615579605103</t>
+    <t xml:space="preserve">15.2870416641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867074966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370872497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949476242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615560531616</t>
   </si>
   <si>
     <t xml:space="preserve">15.5201787948608</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5451583862305</t>
+    <t xml:space="preserve">15.5451574325562</t>
   </si>
   <si>
     <t xml:space="preserve">15.5285062789917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4202632904053</t>
+    <t xml:space="preserve">15.420262336731</t>
   </si>
   <si>
     <t xml:space="preserve">15.1954545974731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782926559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283372879028</t>
+    <t xml:space="preserve">15.7366647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868726730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283363342285</t>
   </si>
   <si>
     <t xml:space="preserve">15.6783781051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9031887054443</t>
+    <t xml:space="preserve">15.903190612793</t>
   </si>
   <si>
     <t xml:space="preserve">15.8199253082275</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">15.6450748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9040355682373</t>
+    <t xml:space="preserve">14.9040336608887</t>
   </si>
   <si>
     <t xml:space="preserve">15.2537393569946</t>
@@ -830,43 +830,43 @@
     <t xml:space="preserve">15.0289278030396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0539073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372562408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4119396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951147079468</t>
+    <t xml:space="preserve">15.0539083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.411940574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951156616211</t>
   </si>
   <si>
     <t xml:space="preserve">15.5618104934692</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6284227371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.695032119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.720009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7449884414673</t>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6950330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7200107574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117668151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449865341187</t>
   </si>
   <si>
     <t xml:space="preserve">15.6200942993164</t>
@@ -875,52 +875,52 @@
     <t xml:space="preserve">15.4452447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112193107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957925796509</t>
+    <t xml:space="preserve">15.2037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1121950149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957935333252</t>
   </si>
   <si>
     <t xml:space="preserve">15.2787179946899</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3203496932983</t>
+    <t xml:space="preserve">15.3203506469727</t>
   </si>
   <si>
     <t xml:space="preserve">15.3120231628418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9872970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538209915161</t>
+    <t xml:space="preserve">14.9872980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370008468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538200378418</t>
   </si>
   <si>
     <t xml:space="preserve">15.4785499572754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5368337631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702234268188</t>
+    <t xml:space="preserve">15.5368328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702215194702</t>
   </si>
   <si>
     <t xml:space="preserve">15.6034440994263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5035285949707</t>
+    <t xml:space="preserve">15.503529548645</t>
   </si>
   <si>
     <t xml:space="preserve">15.5118541717529</t>
@@ -935,22 +935,22 @@
     <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3869571685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619804382324</t>
+    <t xml:space="preserve">15.3869581222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619775772095</t>
   </si>
   <si>
     <t xml:space="preserve">16.6525535583496</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4943580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110927581787</t>
+    <t xml:space="preserve">16.4943561553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110908508301</t>
   </si>
   <si>
     <t xml:space="preserve">16.3444805145264</t>
@@ -959,22 +959,22 @@
     <t xml:space="preserve">16.4443969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">16.302848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1446475982666</t>
+    <t xml:space="preserve">16.3028507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1446514129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.1529769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1030216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116823196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.461895942688</t>
+    <t xml:space="preserve">16.1030197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618978500366</t>
   </si>
   <si>
     <t xml:space="preserve">15.9614725112915</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">15.8449039459229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7616395950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532285690308</t>
+    <t xml:space="preserve">15.7616405487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532295227051</t>
   </si>
   <si>
     <t xml:space="preserve">15.9531450271606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0031051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530605316162</t>
+    <t xml:space="preserve">16.0031032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530624389648</t>
   </si>
   <si>
     <t xml:space="preserve">15.9864511489868</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">15.8365793228149</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9281673431396</t>
+    <t xml:space="preserve">15.928168296814</t>
   </si>
   <si>
     <t xml:space="preserve">15.6367464065552</t>
@@ -1013,31 +1013,31 @@
     <t xml:space="preserve">15.6533985137939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7866220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0697154998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861141204834</t>
+    <t xml:space="preserve">15.7866201400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0697135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861122131348</t>
   </si>
   <si>
     <t xml:space="preserve">16.5443115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6025943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8190803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.860710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7774486541748</t>
+    <t xml:space="preserve">16.602596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8190784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8607120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7774467468262</t>
   </si>
   <si>
     <t xml:space="preserve">16.6941871643066</t>
@@ -1046,85 +1046,85 @@
     <t xml:space="preserve">16.4693756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2029342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694591522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272331237793</t>
+    <t xml:space="preserve">16.202938079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.369457244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353954315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272350311279</t>
   </si>
   <si>
     <t xml:space="preserve">17.1104984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5684452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019165039062</t>
+    <t xml:space="preserve">17.5684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019184112549</t>
   </si>
   <si>
     <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3186550140381</t>
+    <t xml:space="preserve">17.3186569213867</t>
   </si>
   <si>
     <t xml:space="preserve">17.4435482025146</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9856071472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5193328857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.136323928833</t>
+    <t xml:space="preserve">16.9856052398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5193309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1363220214844</t>
   </si>
   <si>
     <t xml:space="preserve">16.1196708679199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0197563171387</t>
+    <t xml:space="preserve">16.0197582244873</t>
   </si>
   <si>
     <t xml:space="preserve">16.4194183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2528915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861957550049</t>
+    <t xml:space="preserve">16.2528896331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861976623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.0364112854004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2695426940918</t>
+    <t xml:space="preserve">16.2695446014404</t>
   </si>
   <si>
     <t xml:space="preserve">15.0705614089966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2703914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535684585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.67005443573</t>
+    <t xml:space="preserve">15.2703905105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700525283813</t>
   </si>
   <si>
     <t xml:space="preserve">14.6708993911743</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8374261856079</t>
+    <t xml:space="preserve">14.8374271392822</t>
   </si>
   <si>
     <t xml:space="preserve">14.6542472839355</t>
@@ -1136,40 +1136,40 @@
     <t xml:space="preserve">14.2878913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5543327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376796722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3711547851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708148956299</t>
+    <t xml:space="preserve">14.5543336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376787185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3711538314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708158493042</t>
   </si>
   <si>
     <t xml:space="preserve">14.4877223968506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2212810516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380176544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714073181152</t>
+    <t xml:space="preserve">14.2212800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380195617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714082717896</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3878087997437</t>
+    <t xml:space="preserve">14.3878078460693</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211975097656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7541618347168</t>
+    <t xml:space="preserve">14.7541627883911</t>
   </si>
   <si>
     <t xml:space="preserve">15.0039510726929</t>
@@ -1178,19 +1178,19 @@
     <t xml:space="preserve">14.8041200637817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.020601272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038656234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954961776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285549163818</t>
+    <t xml:space="preserve">15.0206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198427200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285558700562</t>
   </si>
   <si>
     <t xml:space="preserve">14.8946723937988</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">15.229380607605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6101665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.85706615448</t>
+    <t xml:space="preserve">14.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8570652008057</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093389511108</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">14.6436367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.844464302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5264873504639</t>
+    <t xml:space="preserve">14.8444652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
     <t xml:space="preserve">14.5599603652954</t>
@@ -1238,43 +1238,43 @@
     <t xml:space="preserve">14.4762802124023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3926057815552</t>
+    <t xml:space="preserve">14.3926048278809</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603736877441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9616136550903</t>
+    <t xml:space="preserve">14.9616146087646</t>
   </si>
   <si>
     <t xml:space="preserve">15.0118207931519</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7775220870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2126455307007</t>
+    <t xml:space="preserve">14.7775230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.212646484375</t>
   </si>
   <si>
     <t xml:space="preserve">15.2795886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1791763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950857162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1122341156006</t>
+    <t xml:space="preserve">15.1791753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950847625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452890396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112232208252</t>
   </si>
   <si>
     <t xml:space="preserve">15.3632659912109</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2628526687622</t>
+    <t xml:space="preserve">15.2628536224365</t>
   </si>
   <si>
     <t xml:space="preserve">15.0620260238647</t>
@@ -1286,82 +1286,82 @@
     <t xml:space="preserve">15.7314491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6143026351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473604202271</t>
+    <t xml:space="preserve">15.6812448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473585128784</t>
   </si>
   <si>
     <t xml:space="preserve">15.4636793136597</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477737426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983922958374</t>
+    <t xml:space="preserve">15.5306215286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983932495117</t>
   </si>
   <si>
     <t xml:space="preserve">14.9114084243774</t>
   </si>
   <si>
-    <t xml:space="preserve">15.564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649230957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963237762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.313060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109922409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624393463135</t>
+    <t xml:space="preserve">15.5640935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6979780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649240493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3130617141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624383926392</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5934314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8277282714844</t>
+    <t xml:space="preserve">14.5432233810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5934324264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8277292251587</t>
   </si>
   <si>
     <t xml:space="preserve">14.6938447952271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7399168014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7231798171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.606029510498</t>
+    <t xml:space="preserve">13.7399158477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.723180770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897096633911</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">13.7064447402954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2211122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5892944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047914505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023096084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533433914185</t>
+    <t xml:space="preserve">13.2211112976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5892953872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533424377441</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198722839355</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">12.8529300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8194599151611</t>
+    <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
     <t xml:space="preserve">12.6186323165894</t>
@@ -1415,34 +1415,34 @@
     <t xml:space="preserve">12.5516901016235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4512748718262</t>
+    <t xml:space="preserve">12.4512767791748</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965211868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7818508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1835069656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157371520996</t>
+    <t xml:space="preserve">11.2965202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818517684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1835060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320598602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157361984253</t>
   </si>
   <si>
     <t xml:space="preserve">12.3006553649902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3843336105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5349540710449</t>
+    <t xml:space="preserve">12.384334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5349531173706</t>
   </si>
   <si>
     <t xml:space="preserve">11.3801984786987</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">11.7168369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2764472961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2239847183228</t>
+    <t xml:space="preserve">12.2764482498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2239837646484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8392524719238</t>
@@ -1478,58 +1478,58 @@
     <t xml:space="preserve">11.979154586792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917169570923</t>
+    <t xml:space="preserve">11.891716003418</t>
   </si>
   <si>
     <t xml:space="preserve">12.1540327072144</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1715202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1190576553345</t>
+    <t xml:space="preserve">12.1715211868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1190567016602</t>
   </si>
   <si>
     <t xml:space="preserve">11.5594472885132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8042774200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518129348755</t>
+    <t xml:space="preserve">11.8042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163503646851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5212774276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5912284851074</t>
+    <t xml:space="preserve">12.5212783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5912265777588</t>
   </si>
   <si>
     <t xml:space="preserve">12.5037899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4688138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6643743515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7867879867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616680145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8567409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.874228477478</t>
+    <t xml:space="preserve">12.3638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4688129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6643753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7867889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616670608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8567399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8742275238037</t>
   </si>
   <si>
     <t xml:space="preserve">11.7343244552612</t>
@@ -1553,16 +1553,16 @@
     <t xml:space="preserve">12.8535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8360576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6961574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087160110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8185701370239</t>
+    <t xml:space="preserve">12.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6961555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8185682296753</t>
   </si>
   <si>
     <t xml:space="preserve">12.3988628387451</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">12.2939367294312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9441785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5244722366333</t>
+    <t xml:space="preserve">11.9441795349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.524471282959</t>
   </si>
   <si>
     <t xml:space="preserve">11.419545173645</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">11.3845691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9298858642578</t>
+    <t xml:space="preserve">10.9298868179321</t>
   </si>
   <si>
     <t xml:space="preserve">10.8074722290039</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">11.1397399902344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2271795272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2096900939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4720077514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4545202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1922025680542</t>
+    <t xml:space="preserve">11.2271785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2096910476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4720087051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4545211791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1922035217285</t>
   </si>
   <si>
     <t xml:space="preserve">11.4370336532593</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">11.6818618774414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0141296386719</t>
+    <t xml:space="preserve">12.0141305923462</t>
   </si>
   <si>
     <t xml:space="preserve">12.1015701293945</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">11.3146181106567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621545791626</t>
+    <t xml:space="preserve">11.2621536254883</t>
   </si>
   <si>
     <t xml:space="preserve">11.5419588088989</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">11.0869445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3685178756714</t>
+    <t xml:space="preserve">11.3685169219971</t>
   </si>
   <si>
     <t xml:space="preserve">11.4565095901489</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6500902175903</t>
+    <t xml:space="preserve">11.650089263916</t>
   </si>
   <si>
     <t xml:space="preserve">11.8436727523804</t>
@@ -1664,25 +1664,25 @@
     <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6324920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1925344467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2981233596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.157338142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.174934387207</t>
+    <t xml:space="preserve">11.632493019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1925354003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2981243133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1573371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1749353408813</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805261611938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3509187698364</t>
+    <t xml:space="preserve">11.3509197235107</t>
   </si>
   <si>
     <t xml:space="preserve">11.386116027832</t>
@@ -1691,16 +1691,16 @@
     <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028856277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380838394165</t>
+    <t xml:space="preserve">11.7028865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380828857422</t>
   </si>
   <si>
     <t xml:space="preserve">12.0548524856567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8964672088623</t>
+    <t xml:space="preserve">11.8964681625366</t>
   </si>
   <si>
     <t xml:space="preserve">11.7732782363892</t>
@@ -1715,28 +1715,28 @@
     <t xml:space="preserve">11.438910484314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5445003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5093059539795</t>
+    <t xml:space="preserve">11.5445013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093050003052</t>
   </si>
   <si>
     <t xml:space="preserve">11.5269031524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8084754943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7204847335815</t>
+    <t xml:space="preserve">11.8084745407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7204837799072</t>
   </si>
   <si>
     <t xml:space="preserve">12.0196552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2308349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428451538086</t>
+    <t xml:space="preserve">12.2308340072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428442001343</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124082565308</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">12.3716230392456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0724506378174</t>
+    <t xml:space="preserve">12.0724496841431</t>
   </si>
   <si>
     <t xml:space="preserve">12.1604423522949</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">12.6707925796509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059888839722</t>
+    <t xml:space="preserve">12.7059898376465</t>
   </si>
   <si>
     <t xml:space="preserve">12.4948101043701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6003999710083</t>
+    <t xml:space="preserve">12.6004009246826</t>
   </si>
   <si>
     <t xml:space="preserve">11.5796966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6148948669434</t>
+    <t xml:space="preserve">11.6148929595947</t>
   </si>
   <si>
     <t xml:space="preserve">11.5620994567871</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">11.4741077423096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556800842285</t>
+    <t xml:space="preserve">11.7556810379028</t>
   </si>
   <si>
     <t xml:space="preserve">11.3333206176758</t>
@@ -1784,10 +1784,10 @@
     <t xml:space="preserve">11.4917058944702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2132358551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5652027130127</t>
+    <t xml:space="preserve">12.2132368087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
     <t xml:space="preserve">12.4772119522095</t>
@@ -1802,19 +1802,19 @@
     <t xml:space="preserve">12.1252460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9668617248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844579696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076459884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3188285827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33642578125</t>
+    <t xml:space="preserve">11.9668607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076469421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.318826675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3364267349243</t>
   </si>
   <si>
     <t xml:space="preserve">12.1780414581299</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451208114624</t>
+    <t xml:space="preserve">13.3923263549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451198577881</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635465621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3571290969849</t>
+    <t xml:space="preserve">13.3571281433105</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515392303467</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099225997925</t>
+    <t xml:space="preserve">13.4099235534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.462718963623</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">13.3395299911499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5476064682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068183898926</t>
+    <t xml:space="preserve">12.5476055145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068193435669</t>
   </si>
   <si>
     <t xml:space="preserve">12.811580657959</t>
@@ -1880,34 +1880,34 @@
     <t xml:space="preserve">13.3043327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5859069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4803161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283512115479</t>
+    <t xml:space="preserve">13.5859060287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283502578735</t>
   </si>
   <si>
     <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0579557418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9171695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.022759437561</t>
+    <t xml:space="preserve">13.0579566955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9171714782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0227603912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8467769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347686767578</t>
+    <t xml:space="preserve">12.9347677230835</t>
   </si>
   <si>
     <t xml:space="preserve">12.8995714187622</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">12.0372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6676893234253</t>
+    <t xml:space="preserve">11.6676902770996</t>
   </si>
   <si>
     <t xml:space="preserve">11.6852874755859</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">11.4037141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277317047119</t>
+    <t xml:space="preserve">11.2277307510376</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693464279175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.210132598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366348266602</t>
+    <t xml:space="preserve">11.2101335525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366357803345</t>
   </si>
   <si>
     <t xml:space="preserve">10.0134468078613</t>
@@ -1967,40 +1967,40 @@
     <t xml:space="preserve">10.1894302368164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94305419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57348823547363</t>
+    <t xml:space="preserve">9.94305515289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57348918914795</t>
   </si>
   <si>
     <t xml:space="preserve">9.46789836883545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32711219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30951499938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20392322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45599365234375</t>
+    <t xml:space="preserve">9.32711315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30951309204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20392417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45599555969238</t>
   </si>
   <si>
     <t xml:space="preserve">8.03363513946533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564390182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95133829116821</t>
+    <t xml:space="preserve">7.94564342498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95133876800537</t>
   </si>
   <si>
     <t xml:space="preserve">7.25050926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">6.96013641357422</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697053909302</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97463130950928</t>
+    <t xml:space="preserve">5.97463083267212</t>
   </si>
   <si>
     <t xml:space="preserve">6.24740505218506</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20340919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0714225769043</t>
+    <t xml:space="preserve">6.20340967178345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07142210006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.73705387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05382299423218</t>
+    <t xml:space="preserve">6.05382347106934</t>
   </si>
   <si>
     <t xml:space="preserve">6.01862716674805</t>
@@ -2036,16 +2036,16 @@
     <t xml:space="preserve">6.04502439498901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98343086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15941429138184</t>
+    <t xml:space="preserve">5.9834303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15941333770752</t>
   </si>
   <si>
     <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51137971878052</t>
+    <t xml:space="preserve">6.51138019561768</t>
   </si>
   <si>
     <t xml:space="preserve">6.22100782394409</t>
@@ -2054,22 +2054,22 @@
     <t xml:space="preserve">6.6873631477356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6345682144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55537557601929</t>
+    <t xml:space="preserve">6.63456869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55537605285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.59057235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66096544265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06572675704956</t>
+    <t xml:space="preserve">6.66096591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332586288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06572723388672</t>
   </si>
   <si>
     <t xml:space="preserve">7.15371894836426</t>
@@ -2081,22 +2081,22 @@
     <t xml:space="preserve">6.96893644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29450511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03933000564575</t>
+    <t xml:space="preserve">7.29450559616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03932952880859</t>
   </si>
   <si>
     <t xml:space="preserve">7.05692863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91614103317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49378204345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45858478546143</t>
+    <t xml:space="preserve">6.91614151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49378252029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45858573913574</t>
   </si>
   <si>
     <t xml:space="preserve">6.62576961517334</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">6.71376085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69616270065308</t>
+    <t xml:space="preserve">6.69616317749023</t>
   </si>
   <si>
     <t xml:space="preserve">6.8193507194519</t>
@@ -2117,19 +2117,19 @@
     <t xml:space="preserve">7.18011617660522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43529176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34730005264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970190048218</t>
+    <t xml:space="preserve">7.43529224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34729957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970142364502</t>
   </si>
   <si>
     <t xml:space="preserve">7.31210374832153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47928810119629</t>
+    <t xml:space="preserve">7.47928762435913</t>
   </si>
   <si>
     <t xml:space="preserve">7.99843788146973</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">7.97204160690308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78725814819336</t>
+    <t xml:space="preserve">7.78725862503052</t>
   </si>
   <si>
     <t xml:space="preserve">7.36489868164062</t>
@@ -2162,22 +2162,22 @@
     <t xml:space="preserve">7.41769409179688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54968118667603</t>
+    <t xml:space="preserve">7.54968070983887</t>
   </si>
   <si>
     <t xml:space="preserve">7.62887334823608</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72566318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88404941558838</t>
+    <t xml:space="preserve">7.72566413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448392868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404846191406</t>
   </si>
   <si>
     <t xml:space="preserve">7.74326229095459</t>
@@ -2198,64 +2198,64 @@
     <t xml:space="preserve">7.52328443527222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59367704391479</t>
+    <t xml:space="preserve">7.59367656707764</t>
   </si>
   <si>
     <t xml:space="preserve">7.21531248092651</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04812908172607</t>
+    <t xml:space="preserve">7.04812955856323</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570652008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26810741424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33850145339966</t>
+    <t xml:space="preserve">7.28570604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26810789108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33850193023682</t>
   </si>
   <si>
     <t xml:space="preserve">7.10092353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12732219696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14491987228394</t>
+    <t xml:space="preserve">7.12732172012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14491939544678</t>
   </si>
   <si>
     <t xml:space="preserve">6.92494106292725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79295349121094</t>
+    <t xml:space="preserve">6.79295301437378</t>
   </si>
   <si>
     <t xml:space="preserve">6.88094520568848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86334609985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78415441513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7225604057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70496129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59937143325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43218755722046</t>
+    <t xml:space="preserve">6.86334657669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78415393829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72255992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7049617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59937191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4321870803833</t>
   </si>
   <si>
     <t xml:space="preserve">6.25620412826538</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">6.37059307098389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28260135650635</t>
+    <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.26500368118286</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">6.48498249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50258111953735</t>
+    <t xml:space="preserve">6.5025806427002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47618389129639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54657697677612</t>
+    <t xml:space="preserve">6.54657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">6.66976499557495</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60817098617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52897787094116</t>
+    <t xml:space="preserve">6.60817050933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52897834777832</t>
   </si>
   <si>
     <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67856454849243</t>
+    <t xml:space="preserve">6.67856407165527</t>
   </si>
   <si>
     <t xml:space="preserve">6.40579032897949</t>
@@ -2315,10 +2315,10 @@
     <t xml:space="preserve">6.22980690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.168212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82504510879517</t>
+    <t xml:space="preserve">6.16821336746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82504463195801</t>
   </si>
   <si>
     <t xml:space="preserve">5.64026308059692</t>
@@ -2327,25 +2327,25 @@
     <t xml:space="preserve">5.41148471832275</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37628841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4290828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45548057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67545938491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85144281387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8017520904541</t>
+    <t xml:space="preserve">5.37628793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42908334732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45548009872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67545986175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85144329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574937820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80175256729126</t>
   </si>
   <si>
     <t xml:space="preserve">6.88974380493164</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">7.90164709091187</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16562175750732</t>
+    <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
     <t xml:space="preserve">7.9632420539856</t>
@@ -2363,28 +2363,28 @@
     <t xml:space="preserve">7.83125495910645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82245445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7080659866333</t>
+    <t xml:space="preserve">7.82245492935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70806550979614</t>
   </si>
   <si>
     <t xml:space="preserve">7.65527153015137</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76086091995239</t>
+    <t xml:space="preserve">7.76086139678955</t>
   </si>
   <si>
     <t xml:space="preserve">7.804856300354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64647150039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53208351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48808765411377</t>
+    <t xml:space="preserve">7.64647102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53208303451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48808670043945</t>
   </si>
   <si>
     <t xml:space="preserve">7.8752498626709</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">7.49688625335693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56727933883667</t>
+    <t xml:space="preserve">7.56727981567383</t>
   </si>
   <si>
     <t xml:space="preserve">7.6904673576355</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">7.89284944534302</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06883239746094</t>
+    <t xml:space="preserve">8.06883144378662</t>
   </si>
   <si>
     <t xml:space="preserve">7.85765266418457</t>
@@ -2411,34 +2411,34 @@
     <t xml:space="preserve">7.76965951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91044616699219</t>
+    <t xml:space="preserve">7.91044664382935</t>
   </si>
   <si>
     <t xml:space="preserve">8.08643054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33280658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34160423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06003379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01603603363037</t>
+    <t xml:space="preserve">8.10402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33280754089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3416051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06003284454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01603698730469</t>
   </si>
   <si>
     <t xml:space="preserve">7.38249731063843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44409132003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42649269104004</t>
+    <t xml:space="preserve">7.444091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42649221420288</t>
   </si>
   <si>
     <t xml:space="preserve">7.6728687286377</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">8.15682411193848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22721576690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19202136993408</t>
+    <t xml:space="preserve">8.22721672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19202041625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.42079734802246</t>
@@ -2462,13 +2462,13 @@
     <t xml:space="preserve">8.64957618713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59678173065186</t>
+    <t xml:space="preserve">8.59678268432617</t>
   </si>
   <si>
     <t xml:space="preserve">8.50879001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46479511260986</t>
+    <t xml:space="preserve">8.46479415893555</t>
   </si>
   <si>
     <t xml:space="preserve">8.55278587341309</t>
@@ -2477,25 +2477,25 @@
     <t xml:space="preserve">8.43839645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47359371185303</t>
+    <t xml:space="preserve">8.47359275817871</t>
   </si>
   <si>
     <t xml:space="preserve">8.35920333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20081901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24481391906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05123233795166</t>
+    <t xml:space="preserve">8.20081806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2448148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05123329162598</t>
   </si>
   <si>
     <t xml:space="preserve">8.18322086334229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49119186401367</t>
+    <t xml:space="preserve">8.49119091033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.93994903564453</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">8.79916191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8167610168457</t>
+    <t xml:space="preserve">8.81676006317139</t>
   </si>
   <si>
     <t xml:space="preserve">8.71117115020752</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">8.7815637588501</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51758861541748</t>
+    <t xml:space="preserve">8.5175895690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.17442321777344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32400703430176</t>
+    <t xml:space="preserve">8.32400608062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.39440059661865</t>
@@ -2534,10 +2534,10 @@
     <t xml:space="preserve">8.8871545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71996879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42959690093994</t>
+    <t xml:space="preserve">8.71996974945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42959785461426</t>
   </si>
   <si>
     <t xml:space="preserve">8.73756790161133</t>
@@ -2549,16 +2549,16 @@
     <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57038402557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67597389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72877025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60558032989502</t>
+    <t xml:space="preserve">8.57038307189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6759729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72876930236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6055793762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.35040473937988</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74636554718018</t>
+    <t xml:space="preserve">8.74636650085449</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431678771973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36230945587158</t>
+    <t xml:space="preserve">9.3623104095459</t>
   </si>
   <si>
     <t xml:space="preserve">9.1511287689209</t>
@@ -4077,6 +4077,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.39999961853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4399995803833</t>
   </si>
 </sst>
 </file>
@@ -60786,7 +60789,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6493865741</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>50779</v>
@@ -60807,6 +60810,32 @@
         <v>1354</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6494791667</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>27425</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>8.48999977111816</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>8.40999984741211</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>8.46000003814697</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>8.4399995803833</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1357">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,121 +38,121 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8033275604248</t>
+    <t xml:space="preserve">8.80332851409912</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573612213135</t>
+    <t xml:space="preserve">8.74573516845703</t>
   </si>
   <si>
     <t xml:space="preserve">8.72105312347412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72927951812744</t>
+    <t xml:space="preserve">8.72928237915039</t>
   </si>
   <si>
     <t xml:space="preserve">8.79510021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77864456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5482759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359390258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59764099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14513397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10399723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60586833953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43309593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2520923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259414672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004955291748</t>
+    <t xml:space="preserve">8.77864360809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59764194488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1451358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10399627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60586929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43309497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34259223937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5400505065918</t>
   </si>
   <si>
     <t xml:space="preserve">8.46600341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22741031646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613849639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6387767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473159790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67168712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737369537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98432922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9102840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04192161560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787643432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89382934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05014896392822</t>
+    <t xml:space="preserve">8.22740936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613754272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877964019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6716890335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978130340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028499603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192352294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787548065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89382839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05015087127686</t>
   </si>
   <si>
     <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07483196258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81155490875244</t>
+    <t xml:space="preserve">9.07483100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81155586242676</t>
   </si>
   <si>
     <t xml:space="preserve">8.86091804504395</t>
@@ -161,43 +161,43 @@
     <t xml:space="preserve">9.09951400756836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09128665924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0666036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21469688415527</t>
+    <t xml:space="preserve">9.09128570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06660461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21469783782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54379367828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52733993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74948024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83998107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7165699005127</t>
+    <t xml:space="preserve">9.54379463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5273380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202293395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74947929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83998012542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71657085418701</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94693756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088523864746</t>
+    <t xml:space="preserve">9.94693660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088428497314</t>
   </si>
   <si>
     <t xml:space="preserve">9.86466312408447</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">9.77416133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83175468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95516681671143</t>
+    <t xml:space="preserve">9.83175373077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
     <t xml:space="preserve">10.1114845275879</t>
@@ -224,16 +224,16 @@
     <t xml:space="preserve">10.3994445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652643203735</t>
+    <t xml:space="preserve">10.4652652740479</t>
   </si>
   <si>
     <t xml:space="preserve">10.4488096237183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120866775513</t>
+    <t xml:space="preserve">10.613356590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120885848999</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722198486328</t>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">10.5307941436768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2490882873535</t>
+    <t xml:space="preserve">10.2490873336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.2739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3568000793457</t>
+    <t xml:space="preserve">10.35680103302</t>
   </si>
   <si>
     <t xml:space="preserve">10.4976511001587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805063247681</t>
+    <t xml:space="preserve">10.5805053710938</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727945327759</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3982276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396562576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905149459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1910905838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253829956055</t>
+    <t xml:space="preserve">10.3982267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396533966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.191089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253820419312</t>
   </si>
   <si>
     <t xml:space="preserve">9.98395442962646</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">9.94252777099609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85967350006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230842590332</t>
+    <t xml:space="preserve">9.85967254638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230823516846</t>
   </si>
   <si>
     <t xml:space="preserve">9.95909786224365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96738338470459</t>
+    <t xml:space="preserve">9.96738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0668077468872</t>
@@ -305,37 +305,34 @@
     <t xml:space="preserve">10.5225076675415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1165199279785</t>
+    <t xml:space="preserve">10.1165208816528</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579484939575</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3816566467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5556497573853</t>
+    <t xml:space="preserve">10.3816547393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.315372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5556488037109</t>
   </si>
   <si>
     <t xml:space="preserve">10.5639362335205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722208023071</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.4147987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2325191497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5887928009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473642349243</t>
+    <t xml:space="preserve">10.2325162887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.588791847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.54736328125</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142221450806</t>
@@ -350,19 +347,19 @@
     <t xml:space="preserve">10.1330919265747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3485136032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3650846481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6136493682861</t>
+    <t xml:space="preserve">10.3485145568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.365083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059375762939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4562244415283</t>
+    <t xml:space="preserve">10.4562253952026</t>
   </si>
   <si>
     <t xml:space="preserve">10.5390796661377</t>
@@ -374,16 +371,16 @@
     <t xml:space="preserve">10.224232673645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1662349700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248064041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236570358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.182804107666</t>
+    <t xml:space="preserve">10.1662340164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248073577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1828060150146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6053628921509</t>
@@ -419,13 +416,13 @@
     <t xml:space="preserve">11.2433423995972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3427658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4504776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.583044052124</t>
+    <t xml:space="preserve">11.3427677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4504766464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5830450057983</t>
   </si>
   <si>
     <t xml:space="preserve">11.5167608261108</t>
@@ -434,7 +431,7 @@
     <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
-    <t xml:space="preserve">11.185341835022</t>
+    <t xml:space="preserve">11.1853446960449</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096237182617</t>
@@ -443,157 +440,157 @@
     <t xml:space="preserve">11.0196342468262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9036388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953523635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776338577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.771071434021</t>
+    <t xml:space="preserve">10.903636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776329040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7710704803467</t>
   </si>
   <si>
     <t xml:space="preserve">10.679931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6302194595337</t>
+    <t xml:space="preserve">10.6302185058594</t>
   </si>
   <si>
     <t xml:space="preserve">10.8622102737427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8042135238647</t>
+    <t xml:space="preserve">10.8042106628418</t>
   </si>
   <si>
     <t xml:space="preserve">10.6633605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7462139129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627859115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047863006592</t>
+    <t xml:space="preserve">10.7462129592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047882080078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8787813186646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7959280014038</t>
+    <t xml:space="preserve">10.7959270477295</t>
   </si>
   <si>
     <t xml:space="preserve">10.6965017318726</t>
   </si>
   <si>
-    <t xml:space="preserve">10.994776725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924789428711</t>
+    <t xml:space="preserve">10.9947786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924798965454</t>
   </si>
   <si>
     <t xml:space="preserve">11.4339056015015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3510513305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1439151763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024875640869</t>
+    <t xml:space="preserve">11.3510503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1439170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">11.2599124908447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2681980133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0859174728394</t>
+    <t xml:space="preserve">11.268196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859184265137</t>
   </si>
   <si>
     <t xml:space="preserve">10.9450645446777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1687707901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1356315612793</t>
+    <t xml:space="preserve">11.168773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.135630607605</t>
   </si>
   <si>
     <t xml:space="preserve">11.2516260147095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.359335899353</t>
+    <t xml:space="preserve">11.359338760376</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847690582275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4753341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4587621688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2267694473267</t>
+    <t xml:space="preserve">11.4753332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2267713546753</t>
   </si>
   <si>
     <t xml:space="preserve">11.0942029953003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9782056808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344802856445</t>
+    <t xml:space="preserve">10.9782047271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344812393188</t>
   </si>
   <si>
     <t xml:space="preserve">11.3841934204102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3013381958008</t>
+    <t xml:space="preserve">11.3013401031494</t>
   </si>
   <si>
     <t xml:space="preserve">11.1770572662354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9533500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764835357666</t>
+    <t xml:space="preserve">10.9533519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764825820923</t>
   </si>
   <si>
     <t xml:space="preserve">11.6658983230591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1215982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0967426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0470285415649</t>
+    <t xml:space="preserve">12.1215972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0967416763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0470294952393</t>
   </si>
   <si>
     <t xml:space="preserve">12.2624502182007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2210216522217</t>
+    <t xml:space="preserve">12.221022605896</t>
   </si>
   <si>
     <t xml:space="preserve">12.3453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2044515609741</t>
+    <t xml:space="preserve">12.2044525146484</t>
   </si>
   <si>
     <t xml:space="preserve">12.3121633529663</t>
@@ -605,7 +602,7 @@
     <t xml:space="preserve">12.6684379577637</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8092889785767</t>
+    <t xml:space="preserve">12.8092880249023</t>
   </si>
   <si>
     <t xml:space="preserve">12.6435804367065</t>
@@ -617,64 +614,64 @@
     <t xml:space="preserve">12.4944438934326</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3370199203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695854187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938682556152</t>
+    <t xml:space="preserve">12.3370170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938673019409</t>
   </si>
   <si>
     <t xml:space="preserve">12.676721572876</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7595767974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2318468093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2484169006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3644132614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4224109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466938018799</t>
+    <t xml:space="preserve">12.759575843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2318458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2484178543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3644142150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4224128723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466928482056</t>
   </si>
   <si>
     <t xml:space="preserve">14.3420934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137897491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338098526001</t>
+    <t xml:space="preserve">14.7066526412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480821609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137916564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338117599487</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698253631592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6709747314453</t>
+    <t xml:space="preserve">13.6709766387939</t>
   </si>
   <si>
     <t xml:space="preserve">13.7538290023804</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0935306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195375442505</t>
+    <t xml:space="preserve">14.0935316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195384979248</t>
   </si>
   <si>
     <t xml:space="preserve">14.3255233764648</t>
@@ -686,25 +683,25 @@
     <t xml:space="preserve">14.2923822402954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8640794754028</t>
+    <t xml:space="preserve">14.8640775680542</t>
   </si>
   <si>
     <t xml:space="preserve">14.4580926895142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4995174407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.83922290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6238021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895088195801</t>
+    <t xml:space="preserve">14.4995183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8392219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817979812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6237993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895069122314</t>
   </si>
   <si>
     <t xml:space="preserve">14.7315120697021</t>
@@ -713,127 +710,127 @@
     <t xml:space="preserve">15.4937715530396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.568341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.618052482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8831882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523439407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097688674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.518627166748</t>
+    <t xml:space="preserve">15.5766277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180543899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423362731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.883186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020599365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097679138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186262130737</t>
   </si>
   <si>
     <t xml:space="preserve">15.7257661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440603256226</t>
+    <t xml:space="preserve">15.4440584182739</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872110366821</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1371698379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870464324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.578465461731</t>
+    <t xml:space="preserve">15.2037830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.137170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.578462600708</t>
   </si>
   <si>
     <t xml:space="preserve">15.6867065429688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2370862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036966323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699689865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201807022095</t>
+    <t xml:space="preserve">15.2370853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949476242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.861554145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201787948608</t>
   </si>
   <si>
     <t xml:space="preserve">15.5451593399048</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5285053253174</t>
+    <t xml:space="preserve">15.5285062789917</t>
   </si>
   <si>
     <t xml:space="preserve">15.4202642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1954536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366647720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782945632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283344268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783809661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.90318775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040374755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372552871704</t>
+    <t xml:space="preserve">15.1954526901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366628646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283372879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783771514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199272155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6450729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289287567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539064407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372543334961</t>
   </si>
   <si>
     <t xml:space="preserve">15.4119396209717</t>
@@ -842,31 +839,31 @@
     <t xml:space="preserve">15.5701370239258</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5951156616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618095397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284208297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950302124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200126647949</t>
+    <t xml:space="preserve">15.5951137542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533168792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695032119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.720009803772</t>
   </si>
   <si>
     <t xml:space="preserve">15.6117687225342</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7449903488159</t>
+    <t xml:space="preserve">15.7449913024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.620096206665</t>
@@ -875,52 +872,55 @@
     <t xml:space="preserve">15.4452428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1121950149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957925796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787160873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203496932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370008468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703079223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538228988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368337631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6034440994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118541717529</t>
+    <t xml:space="preserve">15.2037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112193107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787170410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.320348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872961044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.370306968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538248062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785490036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368318557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702196121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6034450531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5035266876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118551254272</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534868240356</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">15.4036111831665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7033586502075</t>
+    <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3869581222534</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3619804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6525554656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4943561553955</t>
+    <t xml:space="preserve">15.3619813919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.652551651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4943542480469</t>
   </si>
   <si>
     <t xml:space="preserve">16.5026817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4110927581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.344482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3028507232666</t>
+    <t xml:space="preserve">16.4110908508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3444805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.302848815918</t>
   </si>
   <si>
     <t xml:space="preserve">16.1446514129639</t>
@@ -968,49 +968,49 @@
     <t xml:space="preserve">16.1030216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7116842269897</t>
+    <t xml:space="preserve">15.7116823196411</t>
   </si>
   <si>
     <t xml:space="preserve">15.461895942688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9614725112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532295227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9531450271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0031032562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530605316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367502212524</t>
+    <t xml:space="preserve">15.9614715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532304763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9531478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0031051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530624389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864540100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367473602295</t>
   </si>
   <si>
     <t xml:space="preserve">15.6534004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7866230010986</t>
+    <t xml:space="preserve">15.7866201400757</t>
   </si>
   <si>
     <t xml:space="preserve">16.0280838012695</t>
@@ -1022,43 +1022,43 @@
     <t xml:space="preserve">16.3861141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5443134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6025981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8190803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8607120513916</t>
+    <t xml:space="preserve">16.5443115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6025924682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8190784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.860710144043</t>
   </si>
   <si>
     <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6941871643066</t>
+    <t xml:space="preserve">16.6941833496094</t>
   </si>
   <si>
     <t xml:space="preserve">16.4693756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2029342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694591522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272350311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1105003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684452056885</t>
+    <t xml:space="preserve">16.2029323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694610595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272369384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1104984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684432983398</t>
   </si>
   <si>
     <t xml:space="preserve">17.4019184112549</t>
@@ -1067,16 +1067,16 @@
     <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3186550140381</t>
+    <t xml:space="preserve">17.3186569213867</t>
   </si>
   <si>
     <t xml:space="preserve">17.4435482025146</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9856052398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.068868637085</t>
+    <t xml:space="preserve">16.9856071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688667297363</t>
   </si>
   <si>
     <t xml:space="preserve">16.5193328857422</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">16.1363258361816</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1196708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0197563171387</t>
+    <t xml:space="preserve">16.1196727752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0197582244873</t>
   </si>
   <si>
     <t xml:space="preserve">16.4194183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.252893447876</t>
+    <t xml:space="preserve">16.2528915405273</t>
   </si>
   <si>
     <t xml:space="preserve">16.2861976623535</t>
@@ -1106,31 +1106,31 @@
     <t xml:space="preserve">16.2695465087891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0705604553223</t>
+    <t xml:space="preserve">15.0705614089966</t>
   </si>
   <si>
     <t xml:space="preserve">15.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4535694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.67005443573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6708993911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374261856079</t>
+    <t xml:space="preserve">15.4535703659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709012985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.837423324585</t>
   </si>
   <si>
     <t xml:space="preserve">14.6542463302612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4044589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878923416138</t>
+    <t xml:space="preserve">14.4044580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878913879395</t>
   </si>
   <si>
     <t xml:space="preserve">14.5543308258057</t>
@@ -1142,157 +1142,157 @@
     <t xml:space="preserve">14.3711547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212810516357</t>
+    <t xml:space="preserve">14.7708148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877214431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212820053101</t>
   </si>
   <si>
     <t xml:space="preserve">14.1380176544189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0714073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3878087997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3211965560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7541608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039501190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041200637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.020601272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954961776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1457052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293825149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.610164642334</t>
+    <t xml:space="preserve">14.0714082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1213655471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.387806892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.321195602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7541627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039510726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041181564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038656234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285558700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946714401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1457061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101665496826</t>
   </si>
   <si>
     <t xml:space="preserve">13.8570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4093399047852</t>
+    <t xml:space="preserve">14.4093379974365</t>
   </si>
   <si>
     <t xml:space="preserve">14.2252473831177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3256635665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7273149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6436357498169</t>
+    <t xml:space="preserve">14.325662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.72731590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6436367034912</t>
   </si>
   <si>
     <t xml:space="preserve">14.8444652557373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5264873504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5599603652954</t>
+    <t xml:space="preserve">14.5264883041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5599613189697</t>
   </si>
   <si>
     <t xml:space="preserve">14.6771078109741</t>
   </si>
   <si>
-    <t xml:space="preserve">14.476282119751</t>
+    <t xml:space="preserve">14.4762811660767</t>
   </si>
   <si>
     <t xml:space="preserve">14.3926048278809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603727340698</t>
+    <t xml:space="preserve">14.6603746414185</t>
   </si>
   <si>
     <t xml:space="preserve">14.9616136550903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0118217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7775211334229</t>
+    <t xml:space="preserve">15.0118207931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7775230407715</t>
   </si>
   <si>
     <t xml:space="preserve">15.212646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2795886993408</t>
+    <t xml:space="preserve">15.2795906066895</t>
   </si>
   <si>
     <t xml:space="preserve">15.1791753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9950838088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452899932861</t>
+    <t xml:space="preserve">14.9950866699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452909469604</t>
   </si>
   <si>
     <t xml:space="preserve">15.1122331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3632698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2628555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0620260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3297986984253</t>
+    <t xml:space="preserve">15.3632669448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2628564834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0620269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.329794883728</t>
   </si>
   <si>
     <t xml:space="preserve">15.7314510345459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6143026351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.463680267334</t>
+    <t xml:space="preserve">15.6812467575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143007278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473585128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636812210083</t>
   </si>
   <si>
     <t xml:space="preserve">15.5306234359741</t>
@@ -1301,34 +1301,34 @@
     <t xml:space="preserve">15.6477727890015</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7983951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114084243774</t>
+    <t xml:space="preserve">15.7983913421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114055633545</t>
   </si>
   <si>
     <t xml:space="preserve">15.5640954971313</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6979808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971523284912</t>
+    <t xml:space="preserve">15.697979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971532821655</t>
   </si>
   <si>
     <t xml:space="preserve">15.7649230957031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963266372681</t>
+    <t xml:space="preserve">15.4804182052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963256835938</t>
   </si>
   <si>
     <t xml:space="preserve">15.313060760498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8109922409058</t>
+    <t xml:space="preserve">14.8109941482544</t>
   </si>
   <si>
     <t xml:space="preserve">15.1624393463135</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">14.2921905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432224273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.593430519104</t>
+    <t xml:space="preserve">14.5432252883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5934314727783</t>
   </si>
   <si>
     <t xml:space="preserve">14.7942581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8277273178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6938419342041</t>
+    <t xml:space="preserve">14.827730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6938428878784</t>
   </si>
   <si>
     <t xml:space="preserve">13.7399158477783</t>
@@ -1358,58 +1358,58 @@
     <t xml:space="preserve">13.7231798171997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6060304641724</t>
+    <t xml:space="preserve">13.6060314178467</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9742136001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0913648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064447402954</t>
+    <t xml:space="preserve">13.974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0913639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.706446647644</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211132049561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023096084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198713302612</t>
+    <t xml:space="preserve">13.5892953872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533433914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198722839355</t>
   </si>
   <si>
     <t xml:space="preserve">13.0872278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1541700363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0537586212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8529300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194589614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6186332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516891479492</t>
+    <t xml:space="preserve">13.1541709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8529291152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194599151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6186323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516901016235</t>
   </si>
   <si>
     <t xml:space="preserve">12.4512758255005</t>
@@ -1418,28 +1418,28 @@
     <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.29651927948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.781852722168</t>
+    <t xml:space="preserve">11.2965202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818517684937</t>
   </si>
   <si>
     <t xml:space="preserve">12.1835069656372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8320589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006553649902</t>
+    <t xml:space="preserve">11.8320579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157361984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006544113159</t>
   </si>
   <si>
     <t xml:space="preserve">12.3843336105347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349531173706</t>
+    <t xml:space="preserve">12.5349540710449</t>
   </si>
   <si>
     <t xml:space="preserve">11.3801984786987</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">11.7168378829956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2764482498169</t>
+    <t xml:space="preserve">12.2764472961426</t>
   </si>
   <si>
     <t xml:space="preserve">12.2239847183228</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8392534255981</t>
+    <t xml:space="preserve">11.8392524719238</t>
   </si>
   <si>
     <t xml:space="preserve">11.9266920089722</t>
@@ -1475,40 +1475,40 @@
     <t xml:space="preserve">11.9791555404663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917169570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1540327072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1715221405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1190567016602</t>
+    <t xml:space="preserve">11.891716003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1540336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1715211868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
     <t xml:space="preserve">11.5594482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8042755126953</t>
+    <t xml:space="preserve">11.8042764663696</t>
   </si>
   <si>
     <t xml:space="preserve">11.7518119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4163494110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.521276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5912275314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5037899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638868331909</t>
+    <t xml:space="preserve">12.4163503646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5212774276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5912294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5037889480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638877868652</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
@@ -1520,13 +1520,13 @@
     <t xml:space="preserve">11.7867879867554</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9616670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8567399978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8742275238037</t>
+    <t xml:space="preserve">11.9616680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8567419052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.874228477478</t>
   </si>
   <si>
     <t xml:space="preserve">11.7343254089355</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">11.6993503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0491056442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966440200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2589597702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5562515258789</t>
+    <t xml:space="preserve">12.0491046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.258960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5562524795532</t>
   </si>
   <si>
     <t xml:space="preserve">12.8535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8360576629639</t>
+    <t xml:space="preserve">12.8360586166382</t>
   </si>
   <si>
     <t xml:space="preserve">12.6961555480957</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">12.6087169647217</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8185701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3988618850708</t>
+    <t xml:space="preserve">12.8185691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3988628387451</t>
   </si>
   <si>
     <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2939367294312</t>
+    <t xml:space="preserve">12.2939357757568</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441795349121</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">11.3845701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9298868179321</t>
+    <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
     <t xml:space="preserve">10.8074712753296</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">11.2446660995483</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1572284698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1397390365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271785736084</t>
+    <t xml:space="preserve">11.1572265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1397399902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271795272827</t>
   </si>
   <si>
     <t xml:space="preserve">11.2096910476685</t>
@@ -1610,25 +1610,25 @@
     <t xml:space="preserve">11.4720077514648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4545211791992</t>
+    <t xml:space="preserve">11.4545202255249</t>
   </si>
   <si>
     <t xml:space="preserve">11.1922035217285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4370336532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6818628311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141305923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1015691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0665941238403</t>
+    <t xml:space="preserve">11.437032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6818618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1015710830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.066593170166</t>
   </si>
   <si>
     <t xml:space="preserve">11.3321056365967</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">11.3146171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621536254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5419597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685169219971</t>
+    <t xml:space="preserve">11.2621555328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5419588088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869436264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685178756714</t>
   </si>
   <si>
     <t xml:space="preserve">11.4565095901489</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">11.8436727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8612699508667</t>
+    <t xml:space="preserve">11.861270904541</t>
   </si>
   <si>
     <t xml:space="preserve">11.632493019104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1925354003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2981233596802</t>
+    <t xml:space="preserve">11.1925344467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2981243133545</t>
   </si>
   <si>
     <t xml:space="preserve">11.1573371887207</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">11.1749353408813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2805261611938</t>
+    <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.386116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4213123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028865814209</t>
+    <t xml:space="preserve">11.3861150741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.421311378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028856277466</t>
   </si>
   <si>
     <t xml:space="preserve">11.7380828857422</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">12.0548524856567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8964681625366</t>
+    <t xml:space="preserve">11.896466255188</t>
   </si>
   <si>
     <t xml:space="preserve">11.7732791900635</t>
@@ -1706,31 +1706,31 @@
     <t xml:space="preserve">12.0020570755005</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7908763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.438910484314</t>
+    <t xml:space="preserve">11.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4389123916626</t>
   </si>
   <si>
     <t xml:space="preserve">11.5445003509521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5093050003052</t>
+    <t xml:space="preserve">11.5093040466309</t>
   </si>
   <si>
     <t xml:space="preserve">11.5269031524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8084745407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7204837799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2308349609375</t>
+    <t xml:space="preserve">11.8084754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7204847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0196561813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2308359146118</t>
   </si>
   <si>
     <t xml:space="preserve">12.1428442001343</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">12.3716230392456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0724496841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1604423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6707925796509</t>
+    <t xml:space="preserve">12.0724506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1604413986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6707944869995</t>
   </si>
   <si>
     <t xml:space="preserve">12.7059898376465</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">11.4741077423096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333206176758</t>
+    <t xml:space="preserve">11.7556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333215713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917058944702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2132358551025</t>
+    <t xml:space="preserve">12.2132377624512</t>
   </si>
   <si>
     <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4772129058838</t>
+    <t xml:space="preserve">12.4772119522095</t>
   </si>
   <si>
     <t xml:space="preserve">12.5828018188477</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">12.4596138000488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1252460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668617248535</t>
+    <t xml:space="preserve">12.1252450942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668607711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.9844589233398</t>
@@ -1808,28 +1808,28 @@
     <t xml:space="preserve">12.1076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3188276290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33642578125</t>
+    <t xml:space="preserve">12.318826675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3364267349243</t>
   </si>
   <si>
     <t xml:space="preserve">12.1780414581299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2836313247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3892202377319</t>
+    <t xml:space="preserve">12.2836294174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3892192840576</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923263549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451198577881</t>
+    <t xml:space="preserve">13.3923244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451208114624</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635465621948</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">13.3571281433105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2515392303467</t>
+    <t xml:space="preserve">13.251540184021</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
@@ -1847,79 +1847,79 @@
     <t xml:space="preserve">13.4099235534668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.462718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6387004852295</t>
+    <t xml:space="preserve">13.4627180099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6387014389038</t>
   </si>
   <si>
     <t xml:space="preserve">13.3747262954712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2867345809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4275217056274</t>
+    <t xml:space="preserve">13.286735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4275207519531</t>
   </si>
   <si>
     <t xml:space="preserve">13.3395299911499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5476064682007</t>
+    <t xml:space="preserve">12.5476055145264</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068183898926</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8115816116333</t>
+    <t xml:space="preserve">12.811580657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.3043327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5859069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283512115479</t>
+    <t xml:space="preserve">13.5859060287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4803161621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283493041992</t>
   </si>
   <si>
     <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0579557418823</t>
+    <t xml:space="preserve">13.0579566955566</t>
   </si>
   <si>
     <t xml:space="preserve">12.9171705245972</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8467769622803</t>
+    <t xml:space="preserve">13.022759437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
     <t xml:space="preserve">12.9347686767578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8995714187622</t>
+    <t xml:space="preserve">12.8995704650879</t>
   </si>
   <si>
     <t xml:space="preserve">12.6355972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7411861419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.090048789978</t>
+    <t xml:space="preserve">12.7587852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7411870956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0900478363037</t>
   </si>
   <si>
     <t xml:space="preserve">12.3012285232544</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">12.0372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6676893234253</t>
+    <t xml:space="preserve">11.667688369751</t>
   </si>
   <si>
     <t xml:space="preserve">11.6852874755859</t>
@@ -1943,31 +1943,31 @@
     <t xml:space="preserve">11.4037141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277307510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693473815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.210132598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366357803345</t>
+    <t xml:space="preserve">11.2277317047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693464279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2101335525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366348266602</t>
   </si>
   <si>
     <t xml:space="preserve">10.0134477615356</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126173019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1894292831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94305515289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57348918914795</t>
+    <t xml:space="preserve">10.3126182556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1894302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94305324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57348823547363</t>
   </si>
   <si>
     <t xml:space="preserve">9.46789836883545</t>
@@ -1979,25 +1979,25 @@
     <t xml:space="preserve">9.30951404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20392322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45599460601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03363609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564342498779</t>
+    <t xml:space="preserve">9.20392417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03363418579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564294815063</t>
   </si>
   <si>
     <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25050926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">7.25050973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97463083267212</t>
+    <t xml:space="preserve">5.97463130950928</t>
   </si>
   <si>
     <t xml:space="preserve">6.24740505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34419631958008</t>
+    <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
     <t xml:space="preserve">6.20340919494629</t>
@@ -2030,37 +2030,37 @@
     <t xml:space="preserve">6.01862716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04502439498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98343086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15941381454468</t>
+    <t xml:space="preserve">6.04502391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9834303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15941333770752</t>
   </si>
   <si>
     <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51138019561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100782394409</t>
+    <t xml:space="preserve">6.51137971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100830078125</t>
   </si>
   <si>
     <t xml:space="preserve">6.6873631477356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63456869125366</t>
+    <t xml:space="preserve">6.6345682144165</t>
   </si>
   <si>
     <t xml:space="preserve">6.55537557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59057235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66096544265747</t>
+    <t xml:space="preserve">6.59057283401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66096591949463</t>
   </si>
   <si>
     <t xml:space="preserve">7.08332586288452</t>
@@ -2069,85 +2069,85 @@
     <t xml:space="preserve">7.06572675704956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15371942520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2593092918396</t>
+    <t xml:space="preserve">7.15371894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25930881500244</t>
   </si>
   <si>
     <t xml:space="preserve">6.96893644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29450511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03933000564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05692911148071</t>
+    <t xml:space="preserve">7.29450559616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03932952880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0569281578064</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378204345703</t>
+    <t xml:space="preserve">6.49378156661987</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858526229858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62576961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71376085281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69616317749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81935024261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03053045272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18011569976807</t>
+    <t xml:space="preserve">6.6257700920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71376037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69616222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8193507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03053092956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18011617660522</t>
   </si>
   <si>
     <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34730005264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970190048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21841812133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00723838806152</t>
+    <t xml:space="preserve">7.34730052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210470199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928762435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99843883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21841716766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00723934173584</t>
   </si>
   <si>
     <t xml:space="preserve">7.97204160690308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78725814819336</t>
+    <t xml:space="preserve">7.78725957870483</t>
   </si>
   <si>
     <t xml:space="preserve">7.36489868164062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46168899536133</t>
+    <t xml:space="preserve">7.46168851852417</t>
   </si>
   <si>
     <t xml:space="preserve">7.63767337799072</t>
@@ -2156,34 +2156,34 @@
     <t xml:space="preserve">7.40009546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41769409179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968118667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62887287139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72566366195679</t>
+    <t xml:space="preserve">7.41769361495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62887382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72566318511963</t>
   </si>
   <si>
     <t xml:space="preserve">7.51448488235474</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91924667358398</t>
+    <t xml:space="preserve">7.91924476623535</t>
   </si>
   <si>
     <t xml:space="preserve">7.88404893875122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74326229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66406965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58487749099731</t>
+    <t xml:space="preserve">7.74326324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66407012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58487844467163</t>
   </si>
   <si>
     <t xml:space="preserve">7.60247659683228</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">7.75206279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52328443527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59367656707764</t>
+    <t xml:space="preserve">7.5232834815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59367704391479</t>
   </si>
   <si>
     <t xml:space="preserve">7.21531295776367</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">7.04812908172607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0041332244873</t>
+    <t xml:space="preserve">7.00413274765015</t>
   </si>
   <si>
     <t xml:space="preserve">7.28570652008057</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">7.14491939544678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92494106292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79295349121094</t>
+    <t xml:space="preserve">6.92494058609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79295301437378</t>
   </si>
   <si>
     <t xml:space="preserve">6.88094520568848</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">6.78415393829346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72255992889404</t>
+    <t xml:space="preserve">6.7225604057312</t>
   </si>
   <si>
     <t xml:space="preserve">6.7049617767334</t>
@@ -2249,79 +2249,79 @@
     <t xml:space="preserve">6.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59937191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4321870803833</t>
+    <t xml:space="preserve">6.59937143325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43218755722046</t>
   </si>
   <si>
     <t xml:space="preserve">6.25620412826538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37059307098389</t>
+    <t xml:space="preserve">6.37059354782104</t>
   </si>
   <si>
     <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2650032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19461011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23860645294189</t>
+    <t xml:space="preserve">6.26500368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19460964202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23860597610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.48498249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50258111953735</t>
+    <t xml:space="preserve">6.5025806427002</t>
   </si>
   <si>
     <t xml:space="preserve">6.47618389129639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54657697677612</t>
+    <t xml:space="preserve">6.54657602310181</t>
   </si>
   <si>
     <t xml:space="preserve">6.66976499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73135948181152</t>
+    <t xml:space="preserve">6.73135900497437</t>
   </si>
   <si>
     <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60817098617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52897787094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82815027236938</t>
+    <t xml:space="preserve">6.6081714630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52897834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82815074920654</t>
   </si>
   <si>
     <t xml:space="preserve">6.67856407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40579080581665</t>
+    <t xml:space="preserve">6.40579032897949</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.168212890625</t>
+    <t xml:space="preserve">6.16821336746216</t>
   </si>
   <si>
     <t xml:space="preserve">5.82504510879517</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64026308059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41148471832275</t>
+    <t xml:space="preserve">5.64026260375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41148519515991</t>
   </si>
   <si>
     <t xml:space="preserve">5.37628841400146</t>
@@ -2336,22 +2336,22 @@
     <t xml:space="preserve">5.67545938491821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80175256729126</t>
+    <t xml:space="preserve">5.85144281387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8017520904541</t>
   </si>
   <si>
     <t xml:space="preserve">6.88974380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90164709091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16562175750732</t>
+    <t xml:space="preserve">7.90164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
     <t xml:space="preserve">7.9632420539856</t>
@@ -2360,43 +2360,43 @@
     <t xml:space="preserve">7.83125448226929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82245445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7080659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65527153015137</t>
+    <t xml:space="preserve">7.82245588302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70806646347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65527009963989</t>
   </si>
   <si>
     <t xml:space="preserve">7.76086091995239</t>
   </si>
   <si>
-    <t xml:space="preserve">7.804856300354</t>
+    <t xml:space="preserve">7.80485677719116</t>
   </si>
   <si>
     <t xml:space="preserve">7.64647150039673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53208303451538</t>
+    <t xml:space="preserve">7.5320839881897</t>
   </si>
   <si>
     <t xml:space="preserve">7.48808717727661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8752498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49688625335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56727933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6904673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89284896850586</t>
+    <t xml:space="preserve">7.87524938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49688720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56728029251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69046688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284944534302</t>
   </si>
   <si>
     <t xml:space="preserve">8.06883144378662</t>
@@ -2405,25 +2405,25 @@
     <t xml:space="preserve">7.85765266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76965951919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91044664382935</t>
+    <t xml:space="preserve">7.76965999603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044616699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.08643054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402870178223</t>
+    <t xml:space="preserve">8.10402774810791</t>
   </si>
   <si>
     <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34160423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06003379821777</t>
+    <t xml:space="preserve">8.3416051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06003284454346</t>
   </si>
   <si>
     <t xml:space="preserve">8.01603698730469</t>
@@ -2432,19 +2432,19 @@
     <t xml:space="preserve">7.38249731063843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.444091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42649221420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67286920547485</t>
+    <t xml:space="preserve">7.44409084320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4264931678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67286968231201</t>
   </si>
   <si>
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682506561279</t>
+    <t xml:space="preserve">8.15682315826416</t>
   </si>
   <si>
     <t xml:space="preserve">8.22721672058105</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">8.42079734802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678173065186</t>
+    <t xml:space="preserve">8.64957523345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678268432617</t>
   </si>
   <si>
     <t xml:space="preserve">8.50879001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46479415893555</t>
+    <t xml:space="preserve">8.46479320526123</t>
   </si>
   <si>
     <t xml:space="preserve">8.55278587341309</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05123233795166</t>
+    <t xml:space="preserve">8.05123329162598</t>
   </si>
   <si>
     <t xml:space="preserve">8.18322086334229</t>
@@ -2495,25 +2495,25 @@
     <t xml:space="preserve">8.49119186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93994903564453</t>
+    <t xml:space="preserve">8.93994808197021</t>
   </si>
   <si>
     <t xml:space="preserve">8.79916191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81676006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71117115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7815637588501</t>
+    <t xml:space="preserve">8.81676197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7111701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78156471252441</t>
   </si>
   <si>
     <t xml:space="preserve">8.5175895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17442321777344</t>
+    <t xml:space="preserve">8.1744213104248</t>
   </si>
   <si>
     <t xml:space="preserve">8.32400703430176</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">9.06313705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88715362548828</t>
+    <t xml:space="preserve">8.92234992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8871545791626</t>
   </si>
   <si>
     <t xml:space="preserve">8.71996879577637</t>
@@ -2543,40 +2543,40 @@
     <t xml:space="preserve">8.79036331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64077758789062</t>
+    <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
     <t xml:space="preserve">8.57038402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6759729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72877025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6055793762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3504056930542</t>
+    <t xml:space="preserve">8.67597389221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72876930236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60558032989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35040378570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.36800384521484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57918357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74636554718018</t>
+    <t xml:space="preserve">8.57918262481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74636745452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431678771973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3623104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1511287689209</t>
+    <t xml:space="preserve">9.36230850219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15112781524658</t>
   </si>
   <si>
     <t xml:space="preserve">9.13353061676025</t>
@@ -2585,28 +2585,28 @@
     <t xml:space="preserve">9.24035549163818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0623140335083</t>
+    <t xml:space="preserve">9.06231307983398</t>
   </si>
   <si>
     <t xml:space="preserve">8.99109745025635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20474624633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64985179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81008815765381</t>
+    <t xml:space="preserve">9.20474720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64985084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81008720397949</t>
   </si>
   <si>
     <t xml:space="preserve">10.1127586364746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2373886108398</t>
+    <t xml:space="preserve">10.1661720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373876571655</t>
   </si>
   <si>
     <t xml:space="preserve">10.3086042404175</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">10.3976249694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3442125320435</t>
+    <t xml:space="preserve">10.3442134857178</t>
   </si>
   <si>
     <t xml:space="preserve">10.3264093399048</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">10.0949554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1305627822876</t>
+    <t xml:space="preserve">10.1305637359619</t>
   </si>
   <si>
     <t xml:space="preserve">10.1483669281006</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">9.9703254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91691398620605</t>
+    <t xml:space="preserve">9.91691303253174</t>
   </si>
   <si>
     <t xml:space="preserve">9.75667572021484</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">9.61424255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77447986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86350059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54302501678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45400524139404</t>
+    <t xml:space="preserve">9.77447891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86350154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54302597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45400428771973</t>
   </si>
   <si>
     <t xml:space="preserve">9.56082916259766</t>
@@ -2666,34 +2666,34 @@
     <t xml:space="preserve">9.43620109558105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11572551727295</t>
+    <t xml:space="preserve">9.11572647094727</t>
   </si>
   <si>
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376792907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3471794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31157112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91988086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97329330444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02670574188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48961353302002</t>
+    <t xml:space="preserve">9.29376697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34718132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31157207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09792232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91988182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97329235076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02670478820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4896125793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.57863426208496</t>
@@ -2705,37 +2705,37 @@
     <t xml:space="preserve">9.52522087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8278923034668</t>
+    <t xml:space="preserve">9.82789325714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.84569644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93471622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41839790344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47181034088135</t>
+    <t xml:space="preserve">9.93471717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41839694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47180938720703</t>
   </si>
   <si>
     <t xml:space="preserve">9.3649845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32937526702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25815963745117</t>
+    <t xml:space="preserve">9.32937622070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25815868377686</t>
   </si>
   <si>
     <t xml:space="preserve">9.70326328277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72106647491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04450988769531</t>
+    <t xml:space="preserve">9.72106742858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.044508934021</t>
   </si>
   <si>
     <t xml:space="preserve">8.95548915863037</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">8.93768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81305599212646</t>
+    <t xml:space="preserve">8.81305503845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.63501358032227</t>
@@ -2756,19 +2756,19 @@
     <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87537097930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59940624237061</t>
+    <t xml:space="preserve">8.87537002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59940528869629</t>
   </si>
   <si>
     <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69732856750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525184631348</t>
+    <t xml:space="preserve">8.6973295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525089263916</t>
   </si>
   <si>
     <t xml:space="preserve">8.64391613006592</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">8.62611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75074100494385</t>
+    <t xml:space="preserve">8.75074005126953</t>
   </si>
   <si>
     <t xml:space="preserve">8.76854610443115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83976173400879</t>
+    <t xml:space="preserve">8.83976268768311</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">9.73887157440186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88130569458008</t>
+    <t xml:space="preserve">9.88130474090576</t>
   </si>
   <si>
     <t xml:space="preserve">8.53709125518799</t>
@@ -2822,16 +2822,16 @@
     <t xml:space="preserve">8.22551822662354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480676651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712175369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70919847488403</t>
+    <t xml:space="preserve">8.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70919799804688</t>
   </si>
   <si>
     <t xml:space="preserve">8.00296592712402</t>
@@ -2840,43 +2840,43 @@
     <t xml:space="preserve">7.9050440788269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83382654190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32344055175781</t>
+    <t xml:space="preserve">7.83382749557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32344150543213</t>
   </si>
   <si>
     <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14539909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04747676849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94065189361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418441772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01186943054199</t>
+    <t xml:space="preserve">8.14540004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04747581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94065141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01186752319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.0563793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28783416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3412446975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43916702270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842716217041</t>
+    <t xml:space="preserve">8.28783321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34124565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43916797637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88427257537842</t>
   </si>
   <si>
     <t xml:space="preserve">8.78634834289551</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">8.50148296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67952442169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56379795074463</t>
+    <t xml:space="preserve">8.67952346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.563796043396</t>
   </si>
   <si>
     <t xml:space="preserve">8.45697212219238</t>
@@ -2906,31 +2906,31 @@
     <t xml:space="preserve">8.33234405517578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30563735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89614105224609</t>
+    <t xml:space="preserve">8.30563640594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89614152908325</t>
   </si>
   <si>
     <t xml:space="preserve">8.29673480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10089015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23442077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12759590148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077102661133</t>
+    <t xml:space="preserve">8.10089111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23441982269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453895568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12759494781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077198028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.40355968475342</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">8.2789306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36795234680176</t>
+    <t xml:space="preserve">8.36795139312744</t>
   </si>
   <si>
     <t xml:space="preserve">8.46587467193604</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">8.35014820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20771408081055</t>
+    <t xml:space="preserve">8.20771503448486</t>
   </si>
   <si>
     <t xml:space="preserve">8.08308506011963</t>
@@ -2960,28 +2960,28 @@
     <t xml:space="preserve">7.27299642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4599404335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6913948059082</t>
+    <t xml:space="preserve">7.45993995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69139432907104</t>
   </si>
   <si>
     <t xml:space="preserve">7.88723945617676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10979080200195</t>
+    <t xml:space="preserve">8.10979175567627</t>
   </si>
   <si>
     <t xml:space="preserve">8.11869335174561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9762601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02967262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13649749755859</t>
+    <t xml:space="preserve">7.97625970840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02967357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13649940490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.90207576751709</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">8.75964260101318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73293685913086</t>
+    <t xml:space="preserve">8.73293781280518</t>
   </si>
   <si>
     <t xml:space="preserve">8.38575553894043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44807052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48367881774902</t>
+    <t xml:space="preserve">8.44806957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48367786407471</t>
   </si>
   <si>
     <t xml:space="preserve">8.49258041381836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16320419311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35904979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91394519805908</t>
+    <t xml:space="preserve">8.16320323944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35905075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91394662857056</t>
   </si>
   <si>
     <t xml:space="preserve">8.41246223449707</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">8.2374153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44746017456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53878402709961</t>
+    <t xml:space="preserve">8.44745922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53878307342529</t>
   </si>
   <si>
     <t xml:space="preserve">8.62097454071045</t>
@@ -3044,31 +3044,31 @@
     <t xml:space="preserve">8.52051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4017972946167</t>
+    <t xml:space="preserve">8.40179824829102</t>
   </si>
   <si>
     <t xml:space="preserve">8.45659160614014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42919540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394580841064</t>
+    <t xml:space="preserve">8.42919445037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394485473633</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686887741089</t>
+    <t xml:space="preserve">7.71686840057373</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63467741012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62554454803467</t>
+    <t xml:space="preserve">7.63467693328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62554502487183</t>
   </si>
   <si>
     <t xml:space="preserve">7.57988309860229</t>
@@ -3080,25 +3080,25 @@
     <t xml:space="preserve">7.60728025436401</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61641216278076</t>
+    <t xml:space="preserve">7.61641263961792</t>
   </si>
   <si>
     <t xml:space="preserve">7.69860363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76253080368042</t>
+    <t xml:space="preserve">7.76253032684326</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58901596069336</t>
+    <t xml:space="preserve">7.58901643753052</t>
   </si>
   <si>
     <t xml:space="preserve">7.48855876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57075023651123</t>
+    <t xml:space="preserve">7.57075071334839</t>
   </si>
   <si>
     <t xml:space="preserve">7.30591106414795</t>
@@ -3107,19 +3107,19 @@
     <t xml:space="preserve">7.32417631149292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42463254928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56161785125732</t>
+    <t xml:space="preserve">7.42463207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56161832809448</t>
   </si>
   <si>
     <t xml:space="preserve">7.5068244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49769067764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39723587036133</t>
+    <t xml:space="preserve">7.49769115447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39723539352417</t>
   </si>
   <si>
     <t xml:space="preserve">7.46116161346436</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">7.72600078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59814739227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53422069549561</t>
+    <t xml:space="preserve">7.59814786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53422117233276</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">7.29677867889404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33330774307251</t>
+    <t xml:space="preserve">7.33330821990967</t>
   </si>
   <si>
     <t xml:space="preserve">7.27851390838623</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">7.21458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10499858856201</t>
+    <t xml:space="preserve">7.10499906539917</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">6.98627758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80362987518311</t>
+    <t xml:space="preserve">6.80362939834595</t>
   </si>
   <si>
     <t xml:space="preserve">6.67577648162842</t>
@@ -3212,25 +3212,25 @@
     <t xml:space="preserve">6.6483793258667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53879070281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5844521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618785858154</t>
+    <t xml:space="preserve">6.53879022598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58445262908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618738174438</t>
   </si>
   <si>
     <t xml:space="preserve">6.36527490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4474663734436</t>
+    <t xml:space="preserve">6.44746685028076</t>
   </si>
   <si>
     <t xml:space="preserve">6.49312829971313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47486352920532</t>
+    <t xml:space="preserve">6.47486400604248</t>
   </si>
   <si>
     <t xml:space="preserve">6.41093683242798</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">6.08217096328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05477380752563</t>
+    <t xml:space="preserve">6.05477333068848</t>
   </si>
   <si>
     <t xml:space="preserve">6.12783288955688</t>
@@ -3278,10 +3278,10 @@
     <t xml:space="preserve">6.10956811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04564142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30134868621826</t>
+    <t xml:space="preserve">6.04564094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3013482093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.57532024383545</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">6.42006969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54792308807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395105361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317363739014</t>
+    <t xml:space="preserve">6.54792261123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317411422729</t>
   </si>
   <si>
     <t xml:space="preserve">6.50226068496704</t>
@@ -3311,22 +3311,22 @@
     <t xml:space="preserve">6.38353967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19175958633423</t>
+    <t xml:space="preserve">6.19176006317139</t>
   </si>
   <si>
     <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24655389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915674209595</t>
+    <t xml:space="preserve">6.24655437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915721893311</t>
   </si>
   <si>
     <t xml:space="preserve">6.37440729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23742151260376</t>
+    <t xml:space="preserve">6.23742198944092</t>
   </si>
   <si>
     <t xml:space="preserve">6.43833446502686</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">6.29221534729004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17349529266357</t>
+    <t xml:space="preserve">6.17349481582642</t>
   </si>
   <si>
     <t xml:space="preserve">6.32874536514282</t>
@@ -3344,19 +3344,19 @@
     <t xml:space="preserve">6.20089244842529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28308391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870098114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14609813690186</t>
+    <t xml:space="preserve">6.28308343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460976600647</t>
   </si>
   <si>
     <t xml:space="preserve">6.25568675994873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51139354705811</t>
+    <t xml:space="preserve">6.51139307022095</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180492401123</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">6.9406156539917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97714567184448</t>
+    <t xml:space="preserve">6.97714519500732</t>
   </si>
   <si>
     <t xml:space="preserve">7.02280712127686</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">6.81276178359985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74883556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230554580688</t>
+    <t xml:space="preserve">6.74883508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449701309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230602264404</t>
   </si>
   <si>
     <t xml:space="preserve">6.55705499649048</t>
@@ -3407,31 +3407,31 @@
     <t xml:space="preserve">6.8584246635437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86755609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015893936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189464569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89495325088501</t>
+    <t xml:space="preserve">6.86755657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89495372772217</t>
   </si>
   <si>
     <t xml:space="preserve">6.83102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46573114395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31961297988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326335906982</t>
+    <t xml:space="preserve">6.46573162078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31961345672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048011779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326383590698</t>
   </si>
   <si>
     <t xml:space="preserve">6.60271739959717</t>
@@ -3443,16 +3443,16 @@
     <t xml:space="preserve">6.78536462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92235040664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066236495972</t>
+    <t xml:space="preserve">6.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066188812256</t>
   </si>
   <si>
     <t xml:space="preserve">7.00706672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79360675811768</t>
+    <t xml:space="preserve">6.79360628128052</t>
   </si>
   <si>
     <t xml:space="preserve">7.10915613174438</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">7.43398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35973978042603</t>
+    <t xml:space="preserve">7.35974025726318</t>
   </si>
   <si>
     <t xml:space="preserve">7.28549289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25765085220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23908853530884</t>
+    <t xml:space="preserve">7.25765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.239089012146</t>
   </si>
   <si>
     <t xml:space="preserve">7.19268417358398</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">7.15556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36902141571045</t>
+    <t xml:space="preserve">7.36902093887329</t>
   </si>
   <si>
     <t xml:space="preserve">7.42470645904541</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">7.27621221542358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2483696937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693105697632</t>
+    <t xml:space="preserve">7.24836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693153381348</t>
   </si>
   <si>
     <t xml:space="preserve">7.18340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16484117507935</t>
+    <t xml:space="preserve">7.1648416519165</t>
   </si>
   <si>
     <t xml:space="preserve">6.9049768447876</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">7.06275177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07203245162964</t>
+    <t xml:space="preserve">7.0720329284668</t>
   </si>
   <si>
     <t xml:space="preserve">7.13699913024902</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">7.20196533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32261657714844</t>
+    <t xml:space="preserve">7.32261610031128</t>
   </si>
   <si>
     <t xml:space="preserve">7.41542482376099</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">7.40614461898804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68457078933716</t>
+    <t xml:space="preserve">7.68457126617432</t>
   </si>
   <si>
     <t xml:space="preserve">7.77737998962402</t>
@@ -3596,31 +3596,31 @@
     <t xml:space="preserve">7.48039197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71241426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234571456909</t>
+    <t xml:space="preserve">7.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234523773193</t>
   </si>
   <si>
     <t xml:space="preserve">7.76809883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65672874450684</t>
+    <t xml:space="preserve">7.65672826766968</t>
   </si>
   <si>
     <t xml:space="preserve">7.67529058456421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79594135284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097515106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176206588745</t>
+    <t xml:space="preserve">7.79594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176301956177</t>
   </si>
   <si>
     <t xml:space="preserve">7.54535818099976</t>
@@ -3632,25 +3632,25 @@
     <t xml:space="preserve">7.09059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87713384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072996139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77504444122314</t>
+    <t xml:space="preserve">6.87713432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85857200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7750449180603</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001016616821</t>
+    <t xml:space="preserve">6.84001064300537</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785364151001</t>
+    <t xml:space="preserve">6.86785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6543927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60798835754395</t>
+    <t xml:space="preserve">6.65439319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6079888343811</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661827087402</t>
+    <t xml:space="preserve">6.49661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3701,22 +3701,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210004806519</t>
+    <t xml:space="preserve">6.94210052490234</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980737686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63816595077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032390594482</t>
+    <t xml:space="preserve">7.22980785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6381664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679586410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3725,31 +3725,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98155975341797</t>
+    <t xml:space="preserve">7.89803123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98156023025513</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8887505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0465259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083995819092</t>
+    <t xml:space="preserve">8.05580615997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88875007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083948135376</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436752319336</t>
+    <t xml:space="preserve">8.07436847686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286128997803</t>
+    <t xml:space="preserve">8.22286224365234</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940132141113</t>
+    <t xml:space="preserve">8.00940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3776,13 +3776,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443607330322</t>
+    <t xml:space="preserve">7.94443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488357543945</t>
+    <t xml:space="preserve">8.45488452911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -4080,6 +4080,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.6899995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67000007629395</t>
   </si>
 </sst>
 </file>
@@ -8053,7 +8056,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G140" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8157,7 +8160,7 @@
         <v>12.0293064117432</v>
       </c>
       <c r="G144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8183,7 +8186,7 @@
         <v>11.8187694549561</v>
       </c>
       <c r="G145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8235,7 +8238,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8261,7 +8264,7 @@
         <v>12.1824235916138</v>
       </c>
       <c r="G148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8287,7 +8290,7 @@
         <v>12.1441440582275</v>
       </c>
       <c r="G149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8313,7 +8316,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8339,7 +8342,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8365,7 +8368,7 @@
         <v>11.7039308547974</v>
       </c>
       <c r="G152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8391,7 +8394,7 @@
         <v>11.9527473449707</v>
       </c>
       <c r="G153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8443,7 +8446,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8469,7 +8472,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G156" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8547,7 +8550,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8573,7 +8576,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8599,7 +8602,7 @@
         <v>12.1345748901367</v>
       </c>
       <c r="G161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8625,7 +8628,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8651,7 +8654,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8677,7 +8680,7 @@
         <v>12.1728544235229</v>
       </c>
       <c r="G164" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8729,7 +8732,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8755,7 +8758,7 @@
         <v>11.8953275680542</v>
       </c>
       <c r="G167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8781,7 +8784,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G168" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8807,7 +8810,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8859,7 +8862,7 @@
         <v>11.7422113418579</v>
       </c>
       <c r="G171" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8885,7 +8888,7 @@
         <v>11.6943607330322</v>
       </c>
       <c r="G172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8937,7 +8940,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8963,7 +8966,7 @@
         <v>11.9240379333496</v>
       </c>
       <c r="G175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8989,7 +8992,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G176" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9119,7 +9122,7 @@
         <v>11.7613496780396</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9171,7 +9174,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G183" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9197,7 +9200,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9223,7 +9226,7 @@
         <v>11.9431781768799</v>
       </c>
       <c r="G185" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9275,7 +9278,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9301,7 +9304,7 @@
         <v>12.2398433685303</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9327,7 +9330,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G189" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9379,7 +9382,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9405,7 +9408,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G192" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9431,7 +9434,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G193" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9457,7 +9460,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G194" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9483,7 +9486,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G195" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9509,7 +9512,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G196" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9535,7 +9538,7 @@
         <v>12.402530670166</v>
       </c>
       <c r="G197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9561,7 +9564,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9587,7 +9590,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G199" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9613,7 +9616,7 @@
         <v>12.8331737518311</v>
       </c>
       <c r="G200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9639,7 +9642,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9665,7 +9668,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G202" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9691,7 +9694,7 @@
         <v>13.1011295318604</v>
       </c>
       <c r="G203" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9717,7 +9720,7 @@
         <v>13.2255382537842</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9743,7 +9746,7 @@
         <v>13.3786563873291</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9769,7 +9772,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9795,7 +9798,7 @@
         <v>13.3977947235107</v>
       </c>
       <c r="G207" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9821,7 +9824,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G208" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9847,7 +9850,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G209" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9873,7 +9876,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G210" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9899,7 +9902,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G211" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9925,7 +9928,7 @@
         <v>12.5939283370972</v>
       </c>
       <c r="G212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9951,7 +9954,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G213" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9977,7 +9980,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G214" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10003,7 +10006,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10029,7 +10032,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10055,7 +10058,7 @@
         <v>12.5747880935669</v>
       </c>
       <c r="G217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10081,7 +10084,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G218" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10185,7 +10188,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G222" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10211,7 +10214,7 @@
         <v>12.3355417251587</v>
       </c>
       <c r="G223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10237,7 +10240,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10263,7 +10266,7 @@
         <v>12.2781219482422</v>
       </c>
       <c r="G225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10289,7 +10292,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10315,7 +10318,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G227" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10341,7 +10344,7 @@
         <v>12.5460777282715</v>
       </c>
       <c r="G228" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10367,7 +10370,7 @@
         <v>12.4790887832642</v>
       </c>
       <c r="G229" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10393,7 +10396,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10419,7 +10422,7 @@
         <v>12.4120998382568</v>
       </c>
       <c r="G231" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10445,7 +10448,7 @@
         <v>12.4312400817871</v>
       </c>
       <c r="G232" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10471,7 +10474,7 @@
         <v>12.3642511367798</v>
       </c>
       <c r="G233" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10497,7 +10500,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G234" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10523,7 +10526,7 @@
         <v>12.5652179718018</v>
       </c>
       <c r="G235" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10549,7 +10552,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G236" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10575,7 +10578,7 @@
         <v>12.4695196151733</v>
       </c>
       <c r="G237" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10601,7 +10604,7 @@
         <v>12.3546810150146</v>
       </c>
       <c r="G238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10627,7 +10630,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G239" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10653,7 +10656,7 @@
         <v>12.6991958618164</v>
       </c>
       <c r="G240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10679,7 +10682,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G241" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10705,7 +10708,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G242" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10731,7 +10734,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G243" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10757,7 +10760,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10783,7 +10786,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G245" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10809,7 +10812,7 @@
         <v>12.8714532852173</v>
       </c>
       <c r="G246" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10835,7 +10838,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G247" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10861,7 +10864,7 @@
         <v>13.0054311752319</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10887,7 +10890,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G249" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10913,7 +10916,7 @@
         <v>12.80446434021</v>
       </c>
       <c r="G250" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10939,7 +10942,7 @@
         <v>12.6417770385742</v>
       </c>
       <c r="G251" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10965,7 +10968,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G252" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10991,7 +10994,7 @@
         <v>12.9001626968384</v>
       </c>
       <c r="G253" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11017,7 +11020,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G254" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11043,7 +11046,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G255" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11069,7 +11072,7 @@
         <v>12.8618841171265</v>
       </c>
       <c r="G256" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11095,7 +11098,7 @@
         <v>12.9958610534668</v>
       </c>
       <c r="G257" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11121,7 +11124,7 @@
         <v>13.1202697753906</v>
       </c>
       <c r="G258" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11147,7 +11150,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G259" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11173,7 +11176,7 @@
         <v>13.034140586853</v>
       </c>
       <c r="G260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11199,7 +11202,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G261" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11225,7 +11228,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G262" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11251,7 +11254,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G263" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11277,7 +11280,7 @@
         <v>13.2351083755493</v>
       </c>
       <c r="G264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11303,7 +11306,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11329,7 +11332,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G266" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11355,7 +11358,7 @@
         <v>12.8140344619751</v>
       </c>
       <c r="G267" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11381,7 +11384,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G268" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11407,7 +11410,7 @@
         <v>12.6800556182861</v>
       </c>
       <c r="G269" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11433,7 +11436,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G270" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11459,7 +11462,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G271" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11485,7 +11488,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G272" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11511,7 +11514,7 @@
         <v>13.0915603637695</v>
       </c>
       <c r="G273" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11537,7 +11540,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G274" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11563,7 +11566,7 @@
         <v>13.1489791870117</v>
       </c>
       <c r="G275" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11589,7 +11592,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11615,7 +11618,7 @@
         <v>13.0532808303833</v>
       </c>
       <c r="G277" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11641,7 +11644,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G278" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11667,7 +11670,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G279" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11693,7 +11696,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G280" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11719,7 +11722,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G281" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11745,7 +11748,7 @@
         <v>12.6513471603394</v>
       </c>
       <c r="G282" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11771,7 +11774,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G283" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11797,7 +11800,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G284" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11823,7 +11826,7 @@
         <v>13.0245714187622</v>
       </c>
       <c r="G285" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11849,7 +11852,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G286" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11875,7 +11878,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G287" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11901,7 +11904,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G288" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11927,7 +11930,7 @@
         <v>13.4743537902832</v>
       </c>
       <c r="G289" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11953,7 +11956,7 @@
         <v>14.000696182251</v>
       </c>
       <c r="G290" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11979,7 +11982,7 @@
         <v>13.9719867706299</v>
       </c>
       <c r="G291" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12005,7 +12008,7 @@
         <v>13.9145669937134</v>
       </c>
       <c r="G292" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12031,7 +12034,7 @@
         <v>14.163384437561</v>
       </c>
       <c r="G293" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12057,7 +12060,7 @@
         <v>14.1155338287354</v>
       </c>
       <c r="G294" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12083,7 +12086,7 @@
         <v>14.2590818405151</v>
       </c>
       <c r="G295" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12109,7 +12112,7 @@
         <v>14.0963945388794</v>
       </c>
       <c r="G296" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12135,7 +12138,7 @@
         <v>14.2208032608032</v>
       </c>
       <c r="G297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12161,7 +12164,7 @@
         <v>14.5940265655518</v>
       </c>
       <c r="G298" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12187,7 +12190,7 @@
         <v>14.6323070526123</v>
       </c>
       <c r="G299" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12213,7 +12216,7 @@
         <v>14.794994354248</v>
       </c>
       <c r="G300" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12239,7 +12242,7 @@
         <v>14.6035966873169</v>
       </c>
       <c r="G301" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12265,7 +12268,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G302" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12291,7 +12294,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G303" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12317,7 +12320,7 @@
         <v>14.24951171875</v>
       </c>
       <c r="G304" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12343,7 +12346,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G305" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12369,7 +12372,7 @@
         <v>14.4026298522949</v>
       </c>
       <c r="G306" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12395,7 +12398,7 @@
         <v>14.5461778640747</v>
       </c>
       <c r="G307" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12421,7 +12424,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G308" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12447,7 +12450,7 @@
         <v>14.6418762207031</v>
       </c>
       <c r="G309" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12473,7 +12476,7 @@
         <v>14.7375745773315</v>
       </c>
       <c r="G310" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12499,7 +12502,7 @@
         <v>15.2830572128296</v>
       </c>
       <c r="G311" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12525,7 +12528,7 @@
         <v>15.3021955490112</v>
       </c>
       <c r="G312" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12551,7 +12554,7 @@
         <v>15.4361743927002</v>
       </c>
       <c r="G313" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12577,7 +12580,7 @@
         <v>15.5031633377075</v>
       </c>
       <c r="G314" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12603,7 +12606,7 @@
         <v>15.6467113494873</v>
       </c>
       <c r="G315" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12629,7 +12632,7 @@
         <v>16.5654163360596</v>
       </c>
       <c r="G316" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12655,7 +12658,7 @@
         <v>16.9864902496338</v>
       </c>
       <c r="G317" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12681,7 +12684,7 @@
         <v>17.0343399047852</v>
       </c>
       <c r="G318" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12707,7 +12710,7 @@
         <v>17.225736618042</v>
       </c>
       <c r="G319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12733,7 +12736,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G320" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12759,7 +12762,7 @@
         <v>16.0199356079102</v>
       </c>
       <c r="G321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12785,7 +12788,7 @@
         <v>15.7902593612671</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12811,7 +12814,7 @@
         <v>15.8859567642212</v>
       </c>
       <c r="G323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12837,7 +12840,7 @@
         <v>16.2783203125</v>
       </c>
       <c r="G324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12863,7 +12866,7 @@
         <v>16.0773544311523</v>
       </c>
       <c r="G325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12889,7 +12892,7 @@
         <v>16.5462760925293</v>
       </c>
       <c r="G326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12915,7 +12918,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G327" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12941,7 +12944,7 @@
         <v>16.5175685882568</v>
       </c>
       <c r="G328" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12967,7 +12970,7 @@
         <v>16.5079975128174</v>
       </c>
       <c r="G329" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12993,7 +12996,7 @@
         <v>17.1683177947998</v>
       </c>
       <c r="G330" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13019,7 +13022,7 @@
         <v>16.6993942260742</v>
       </c>
       <c r="G331" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13045,7 +13048,7 @@
         <v>16.7472438812256</v>
       </c>
       <c r="G332" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13071,7 +13074,7 @@
         <v>17.1396083831787</v>
       </c>
       <c r="G333" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13097,7 +13100,7 @@
         <v>16.9577808380127</v>
       </c>
       <c r="G334" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13123,7 +13126,7 @@
         <v>16.8907928466797</v>
       </c>
       <c r="G335" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13149,7 +13152,7 @@
         <v>17.0821895599365</v>
       </c>
       <c r="G336" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13175,7 +13178,7 @@
         <v>17.0151996612549</v>
       </c>
       <c r="G337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13201,7 +13204,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13227,7 +13230,7 @@
         <v>17.991325378418</v>
       </c>
       <c r="G339" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13253,7 +13256,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G340" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13279,7 +13282,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13305,7 +13308,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G342" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13331,7 +13334,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13357,7 +13360,7 @@
         <v>18.3454093933105</v>
       </c>
       <c r="G344" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13383,7 +13386,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G345" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13409,7 +13412,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13435,7 +13438,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G347" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13461,7 +13464,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G348" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13487,7 +13490,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G349" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13513,7 +13516,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G350" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13539,7 +13542,7 @@
         <v>18.1635837554932</v>
       </c>
       <c r="G351" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13565,7 +13568,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G352" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13591,7 +13594,7 @@
         <v>17.5415420532227</v>
       </c>
       <c r="G353" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13617,7 +13620,7 @@
         <v>17.5606822967529</v>
       </c>
       <c r="G354" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13643,7 +13646,7 @@
         <v>17.3979930877686</v>
       </c>
       <c r="G355" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13669,7 +13672,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G356" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13695,7 +13698,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G357" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13721,7 +13724,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G358" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13747,7 +13750,7 @@
         <v>17.5128326416016</v>
       </c>
       <c r="G359" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13773,7 +13776,7 @@
         <v>17.589391708374</v>
       </c>
       <c r="G360" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13799,7 +13802,7 @@
         <v>17.7329387664795</v>
       </c>
       <c r="G361" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13825,7 +13828,7 @@
         <v>18.1253032684326</v>
       </c>
       <c r="G362" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13851,7 +13854,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G363" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13877,7 +13880,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G364" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13903,7 +13906,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G365" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13929,7 +13932,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G366" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13955,7 +13958,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G367" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13981,7 +13984,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G368" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14007,7 +14010,7 @@
         <v>17.7233695983887</v>
       </c>
       <c r="G369" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14033,7 +14036,7 @@
         <v>17.4649829864502</v>
       </c>
       <c r="G370" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14059,7 +14062,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G371" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14085,7 +14088,7 @@
         <v>18.1348724365234</v>
       </c>
       <c r="G372" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14111,7 +14114,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G373" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14137,7 +14140,7 @@
         <v>18.0774536132812</v>
       </c>
       <c r="G374" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14163,7 +14166,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G375" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14189,7 +14192,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G376" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14215,7 +14218,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G377" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14241,7 +14244,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G378" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14267,7 +14270,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G379" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14293,7 +14296,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G380" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14319,7 +14322,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G381" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14345,7 +14348,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14371,7 +14374,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G383" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14397,7 +14400,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G384" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14423,7 +14426,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G385" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14449,7 +14452,7 @@
         <v>17.2735862731934</v>
       </c>
       <c r="G386" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14475,7 +14478,7 @@
         <v>17.3022956848145</v>
       </c>
       <c r="G387" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14501,7 +14504,7 @@
         <v>17.2831554412842</v>
       </c>
       <c r="G388" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14527,7 +14530,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14553,7 +14556,7 @@
         <v>17.7138004302979</v>
       </c>
       <c r="G390" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14579,7 +14582,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G391" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14605,7 +14608,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G392" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14631,7 +14634,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14657,7 +14660,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14683,7 +14686,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G395" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14709,7 +14712,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G396" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14735,7 +14738,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G397" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14761,7 +14764,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G398" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14787,7 +14790,7 @@
         <v>17.9626159667969</v>
       </c>
       <c r="G399" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14813,7 +14816,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G400" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14839,7 +14842,7 @@
         <v>18.3262691497803</v>
       </c>
       <c r="G401" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14865,7 +14868,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G402" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14891,7 +14894,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G403" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14917,7 +14920,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G404" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14943,7 +14946,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G405" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14969,7 +14972,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G406" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14995,7 +14998,7 @@
         <v>18.0965938568115</v>
       </c>
       <c r="G407" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15021,7 +15024,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G408" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15047,7 +15050,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G409" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15073,7 +15076,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G410" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15099,7 +15102,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G411" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15125,7 +15128,7 @@
         <v>17.474552154541</v>
       </c>
       <c r="G412" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15567,7 +15570,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G429" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15593,7 +15596,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G430" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15697,7 +15700,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G434" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15723,7 +15726,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G435" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15853,7 +15856,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G440" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15879,7 +15882,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G441" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15905,7 +15908,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G442" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15957,7 +15960,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G444" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15983,7 +15986,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G445" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16035,7 +16038,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G447" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16139,7 +16142,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G451" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16477,7 +16480,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G464" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16555,7 +16558,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G467" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16581,7 +16584,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G468" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16607,7 +16610,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G469" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16737,7 +16740,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G474" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16763,7 +16766,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G475" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16841,7 +16844,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G478" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16867,7 +16870,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G479" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16971,7 +16974,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G483" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16997,7 +17000,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G484" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17023,7 +17026,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G485" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17049,7 +17052,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17231,7 +17234,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G493" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17257,7 +17260,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G494" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17283,7 +17286,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G495" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17309,7 +17312,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G496" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17387,7 +17390,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G499" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17465,7 +17468,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G502" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17543,7 +17546,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G505" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17595,7 +17598,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G507" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G539" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18479,7 +18482,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G541" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18505,7 +18508,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G542" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18531,7 +18534,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G543" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18609,7 +18612,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G546" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18635,7 +18638,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G547" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18947,7 +18950,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G559" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18973,7 +18976,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G560" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19025,7 +19028,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G562" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19051,7 +19054,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G563" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19883,7 +19886,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G595" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19935,7 +19938,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G597" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19987,7 +19990,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G599" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20117,7 +20120,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G604" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -60867,7 +60870,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6493287037</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>51133</v>
@@ -60888,6 +60891,32 @@
         <v>1355</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6494097222</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>23698</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>8.72000026702881</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>8.64000034332275</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>8.71000003814697</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>8.67000007629395</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.8033275604248</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.74573612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72105312347412</t>
+    <t xml:space="preserve">8.72105407714844</t>
   </si>
   <si>
     <t xml:space="preserve">8.72928142547607</t>
@@ -56,37 +56,37 @@
     <t xml:space="preserve">8.79510021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77864456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54827880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359485626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59764289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1451358795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10399627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60587024688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43309593200684</t>
+    <t xml:space="preserve">8.77864646911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827785491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359580993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59764099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14513492584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10399723052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60586929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43309307098389</t>
   </si>
   <si>
     <t xml:space="preserve">8.30968284606934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25209045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259223937988</t>
+    <t xml:space="preserve">8.2520923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34259128570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.5400505065918</t>
@@ -95,34 +95,34 @@
     <t xml:space="preserve">8.46600341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22740936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613658905029</t>
+    <t xml:space="preserve">8.22740840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613754272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.63877773284912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49068546295166</t>
+    <t xml:space="preserve">8.49068450927734</t>
   </si>
   <si>
     <t xml:space="preserve">8.56473255157471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67169094085693</t>
+    <t xml:space="preserve">8.6716890335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.87737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77041816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673778533936</t>
+    <t xml:space="preserve">8.77041721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9185094833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673683166504</t>
   </si>
   <si>
     <t xml:space="preserve">8.98433017730713</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">8.81978321075439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91028308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0419225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787643432617</t>
+    <t xml:space="preserve">8.9102840423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787738800049</t>
   </si>
   <si>
     <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05014991760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97610282897949</t>
+    <t xml:space="preserve">9.05014896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
     <t xml:space="preserve">9.07483196258545</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">8.81155490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86091899871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09951305389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09128570556641</t>
+    <t xml:space="preserve">8.86091804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09951400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09128665924072</t>
   </si>
   <si>
     <t xml:space="preserve">9.06660461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21469688415527</t>
+    <t xml:space="preserve">9.21469783782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974754333496</t>
@@ -176,19 +176,19 @@
     <t xml:space="preserve">9.54379367828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52733993530273</t>
+    <t xml:space="preserve">9.52733898162842</t>
   </si>
   <si>
     <t xml:space="preserve">9.55202198028564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74948024749756</t>
+    <t xml:space="preserve">9.74947834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.83998203277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71656894683838</t>
+    <t xml:space="preserve">9.7165699005127</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289047241211</t>
@@ -200,22 +200,22 @@
     <t xml:space="preserve">9.51088428497314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86466407775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93048191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77416038513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83175373077393</t>
+    <t xml:space="preserve">9.86466503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9304838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77416229248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.95516586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114864349365</t>
+    <t xml:space="preserve">10.1114845275879</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934516906738</t>
@@ -224,76 +224,76 @@
     <t xml:space="preserve">10.3994455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652633666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.613356590271</t>
+    <t xml:space="preserve">10.4652652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133556365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5307931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2490873336792</t>
+    <t xml:space="preserve">10.5722188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5307941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2490892410278</t>
   </si>
   <si>
     <t xml:space="preserve">10.2739458084106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3567991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4976511001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805044174194</t>
+    <t xml:space="preserve">10.3567981719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.497652053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805053710938</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727954864502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4893655776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3982276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253820419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9839563369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252777099609</t>
+    <t xml:space="preserve">10.4893665313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3982267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396543502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910905838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253829956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98395442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
     <t xml:space="preserve">9.85967254638672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1082363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909690856934</t>
+    <t xml:space="preserve">10.1082353591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909786224365</t>
   </si>
   <si>
     <t xml:space="preserve">9.96738338470459</t>
@@ -308,49 +308,49 @@
     <t xml:space="preserve">10.1165199279785</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1579484939575</t>
+    <t xml:space="preserve">10.1579494476318</t>
   </si>
   <si>
     <t xml:space="preserve">10.3816547393799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.315372467041</t>
+    <t xml:space="preserve">10.3153696060181</t>
   </si>
   <si>
     <t xml:space="preserve">10.5556497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5639352798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722208023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4147968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2325172424316</t>
+    <t xml:space="preserve">10.5639362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4147977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232518196106</t>
   </si>
   <si>
     <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5473651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142211914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4810800552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645099639893</t>
+    <t xml:space="preserve">10.5473642349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142221450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4810810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645109176636</t>
   </si>
   <si>
     <t xml:space="preserve">10.1330919265747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3485145568848</t>
+    <t xml:space="preserve">10.3485136032104</t>
   </si>
   <si>
     <t xml:space="preserve">10.3650827407837</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">10.6136474609375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5059375762939</t>
+    <t xml:space="preserve">10.5059385299683</t>
   </si>
   <si>
     <t xml:space="preserve">10.456223487854</t>
@@ -368,58 +368,58 @@
     <t xml:space="preserve">10.5390796661377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2988004684448</t>
+    <t xml:space="preserve">10.2987995147705</t>
   </si>
   <si>
     <t xml:space="preserve">10.224232673645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1662340164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.323657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1828050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6053628921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970773696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6716461181641</t>
+    <t xml:space="preserve">10.1662349700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.182804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6053619384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402280807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970764160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6716451644897</t>
   </si>
   <si>
     <t xml:space="preserve">10.7213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7544994354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7379293441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0610609054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1107730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.127345085144</t>
+    <t xml:space="preserve">10.7545003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7379302978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0610618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1273460388184</t>
   </si>
   <si>
     <t xml:space="preserve">11.2433423995972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3427658081055</t>
+    <t xml:space="preserve">11.3427667617798</t>
   </si>
   <si>
     <t xml:space="preserve">11.4504766464233</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">11.5830450057983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5167608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996131896973</t>
+    <t xml:space="preserve">11.5167598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996150970459</t>
   </si>
   <si>
     <t xml:space="preserve">11.1853427886963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3096237182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0196352005005</t>
+    <t xml:space="preserve">11.3096256256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0196342468262</t>
   </si>
   <si>
     <t xml:space="preserve">10.9036378860474</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">10.8953533172607</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0776338577271</t>
+    <t xml:space="preserve">11.0776319503784</t>
   </si>
   <si>
     <t xml:space="preserve">10.8870668411255</t>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">10.679931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6302185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8622102737427</t>
+    <t xml:space="preserve">10.6302175521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622093200684</t>
   </si>
   <si>
     <t xml:space="preserve">10.8042125701904</t>
@@ -473,25 +473,25 @@
     <t xml:space="preserve">10.6633596420288</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7462148666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627859115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8787832260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6965007781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947786331177</t>
+    <t xml:space="preserve">10.7462158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7959270477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6965017318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947776794434</t>
   </si>
   <si>
     <t xml:space="preserve">11.3924789428711</t>
@@ -500,82 +500,82 @@
     <t xml:space="preserve">11.4339065551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3510513305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1439161300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599105834961</t>
+    <t xml:space="preserve">11.3510522842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1439142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024885177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2599115371704</t>
   </si>
   <si>
     <t xml:space="preserve">11.2681970596313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0859174728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687726974487</t>
+    <t xml:space="preserve">11.085919380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9450645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687707901001</t>
   </si>
   <si>
     <t xml:space="preserve">11.1356325149536</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2516269683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3593378067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4753351211548</t>
+    <t xml:space="preserve">11.2516260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847671508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4753332138062</t>
   </si>
   <si>
     <t xml:space="preserve">11.4587631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2267694473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782056808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344812393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841924667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3013401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1770572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9533519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764825820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6658983230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1215982437134</t>
+    <t xml:space="preserve">11.226770401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942049026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344821929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841934204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3013391494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.177056312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.953351020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.276481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1215972900391</t>
   </si>
   <si>
     <t xml:space="preserve">12.0967416763306</t>
@@ -587,28 +587,28 @@
     <t xml:space="preserve">12.2624502182007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.221022605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3453044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044515609741</t>
+    <t xml:space="preserve">12.2210235595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453035354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044534683228</t>
   </si>
   <si>
     <t xml:space="preserve">12.312162399292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6352958679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6684370040894</t>
+    <t xml:space="preserve">12.6352939605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.668436050415</t>
   </si>
   <si>
     <t xml:space="preserve">12.809289932251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6435804367065</t>
+    <t xml:space="preserve">12.6435813903809</t>
   </si>
   <si>
     <t xml:space="preserve">12.6021528244019</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">12.4944429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3370180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695844650269</t>
+    <t xml:space="preserve">12.3370189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695854187012</t>
   </si>
   <si>
     <t xml:space="preserve">12.5938673019409</t>
@@ -632,40 +632,40 @@
     <t xml:space="preserve">12.7595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318468093872</t>
+    <t xml:space="preserve">13.2318458557129</t>
   </si>
   <si>
     <t xml:space="preserve">13.2484169006348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3644142150879</t>
+    <t xml:space="preserve">13.3644151687622</t>
   </si>
   <si>
     <t xml:space="preserve">13.4224119186401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5466928482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3420944213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7480821609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709766387939</t>
+    <t xml:space="preserve">13.5466918945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7066526412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.748083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137897491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338079452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698263168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709747314453</t>
   </si>
   <si>
     <t xml:space="preserve">13.7538290023804</t>
@@ -674,34 +674,34 @@
     <t xml:space="preserve">14.0935316085815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9195375442505</t>
+    <t xml:space="preserve">13.9195365905762</t>
   </si>
   <si>
     <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">14.300669670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2923822402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8640785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995183944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.83922290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.62380027771</t>
+    <t xml:space="preserve">14.3006706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2923812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8640794754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8392219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817979812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6238012313843</t>
   </si>
   <si>
     <t xml:space="preserve">14.7895088195801</t>
@@ -710,49 +710,49 @@
     <t xml:space="preserve">14.7315111160278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4937734603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683403015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.883186340332</t>
+    <t xml:space="preserve">15.4937725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766248703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.568341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180562973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.883189201355</t>
   </si>
   <si>
     <t xml:space="preserve">15.4523448944092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5020599365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097707748413</t>
+    <t xml:space="preserve">15.5020570755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097679138184</t>
   </si>
   <si>
     <t xml:space="preserve">15.5186262130737</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7257652282715</t>
+    <t xml:space="preserve">15.7257661819458</t>
   </si>
   <si>
     <t xml:space="preserve">15.4440593719482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1872100830078</t>
+    <t xml:space="preserve">15.1872110366821</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037811279297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.137170791626</t>
+    <t xml:space="preserve">15.1371688842773</t>
   </si>
   <si>
     <t xml:space="preserve">15.2870435714722</t>
@@ -761,25 +761,25 @@
     <t xml:space="preserve">15.5784645080566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6867055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370853424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285888671875</t>
+    <t xml:space="preserve">15.6867046356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036966323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285907745361</t>
   </si>
   <si>
     <t xml:space="preserve">15.7699670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949438095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615560531616</t>
+    <t xml:space="preserve">15.7949466705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615589141846</t>
   </si>
   <si>
     <t xml:space="preserve">15.5201807022095</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">15.5285062789917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4202642440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954536437988</t>
+    <t xml:space="preserve">15.4202632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954555511475</t>
   </si>
   <si>
     <t xml:space="preserve">15.7366628646851</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">15.7283372879028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6783790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.903190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040355682373</t>
+    <t xml:space="preserve">15.6783800125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.90318775177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199243545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6450757980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.904034614563</t>
   </si>
   <si>
     <t xml:space="preserve">15.2537393569946</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0289306640625</t>
+    <t xml:space="preserve">15.0289287567139</t>
   </si>
   <si>
     <t xml:space="preserve">15.0539083480835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0372543334961</t>
+    <t xml:space="preserve">15.037257194519</t>
   </si>
   <si>
     <t xml:space="preserve">15.4119386672974</t>
@@ -842,55 +842,55 @@
     <t xml:space="preserve">15.5701379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5951166152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618124008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284227371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200107574463</t>
+    <t xml:space="preserve">15.5951147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533178329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6950340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7200126647949</t>
   </si>
   <si>
     <t xml:space="preserve">15.6117677688599</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7449913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200971603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1121940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957954406738</t>
+    <t xml:space="preserve">15.7449903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037801742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1121950149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957916259766</t>
   </si>
   <si>
     <t xml:space="preserve">15.2787170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3203496932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120193481445</t>
+    <t xml:space="preserve">15.3203506469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120231628418</t>
   </si>
   <si>
     <t xml:space="preserve">14.9872980117798</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">15.1205186843872</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3370018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703079223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538209915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368337631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702224731445</t>
+    <t xml:space="preserve">15.3370008468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.370306968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702234268188</t>
   </si>
   <si>
     <t xml:space="preserve">15.6034450531006</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">15.5035285949707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5118541717529</t>
+    <t xml:space="preserve">15.5118522644043</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534858703613</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4036102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7033567428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869590759277</t>
+    <t xml:space="preserve">15.4036111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7033557891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869562149048</t>
   </si>
   <si>
     <t xml:space="preserve">15.3619794845581</t>
@@ -944,121 +944,121 @@
     <t xml:space="preserve">16.652551651001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4943542480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026779174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3444805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3028507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1446514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1529769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116851806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4618940353394</t>
+    <t xml:space="preserve">16.4943561553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110927581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.344482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1446495056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116823196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.461895942688</t>
   </si>
   <si>
     <t xml:space="preserve">15.9614725112915</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616395950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532295227051</t>
+    <t xml:space="preserve">15.8449048995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616386413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532314300537</t>
   </si>
   <si>
     <t xml:space="preserve">15.9531450271606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.003101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530624389648</t>
+    <t xml:space="preserve">16.0031051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530605316162</t>
   </si>
   <si>
     <t xml:space="preserve">15.9864511489868</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8365774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.928168296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367473602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6533994674683</t>
+    <t xml:space="preserve">15.8365783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6533975601196</t>
   </si>
   <si>
     <t xml:space="preserve">15.78662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0280838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0697116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.386116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5443134307861</t>
+    <t xml:space="preserve">16.0280799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0697174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861122131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5443115234375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6025943756104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8190784454346</t>
+    <t xml:space="preserve">16.8190803527832</t>
   </si>
   <si>
     <t xml:space="preserve">16.860710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7774467468262</t>
+    <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.694185256958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4693737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.202938079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694610595703</t>
+    <t xml:space="preserve">16.4693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2029323577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694591522217</t>
   </si>
   <si>
     <t xml:space="preserve">17.2353935241699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272369384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1104965209961</t>
+    <t xml:space="preserve">17.0272350311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1104984283447</t>
   </si>
   <si>
     <t xml:space="preserve">17.5684432983398</t>
@@ -1073,97 +1073,97 @@
     <t xml:space="preserve">17.3186550140381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4435482025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9856052398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5193290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1363220214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1196727752686</t>
+    <t xml:space="preserve">17.443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9856071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5193309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1363258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1196708679199</t>
   </si>
   <si>
     <t xml:space="preserve">16.0197582244873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4194183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2528915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861957550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2695484161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0705642700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703895568848</t>
+    <t xml:space="preserve">16.4194202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2528896331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364112854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2695446014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0705604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703905105591</t>
   </si>
   <si>
     <t xml:space="preserve">15.4535684585571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6700534820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709012985229</t>
+    <t xml:space="preserve">15.6700525283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6708984375</t>
   </si>
   <si>
     <t xml:space="preserve">14.8374252319336</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878923416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376787185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3711538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708177566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212810516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1213655471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3878059387207</t>
+    <t xml:space="preserve">14.6542463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044570922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376806259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3711547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877214431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714073181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1213645935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3878087997437</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211965560913</t>
@@ -1172,118 +1172,118 @@
     <t xml:space="preserve">14.7541618347168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0039501190186</t>
+    <t xml:space="preserve">15.0039510726929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8041191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0206022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198408126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038665771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954971313477</t>
+    <t xml:space="preserve">15.0206031799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038637161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.095498085022</t>
   </si>
   <si>
     <t xml:space="preserve">15.0285558700562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8946704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1457061767578</t>
+    <t xml:space="preserve">14.8946723937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1457052230835</t>
   </si>
   <si>
     <t xml:space="preserve">15.2293815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8570652008057</t>
+    <t xml:space="preserve">14.6101675033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8570642471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2252473831177</t>
+    <t xml:space="preserve">14.225248336792</t>
   </si>
   <si>
     <t xml:space="preserve">14.325662612915</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7273168563843</t>
+    <t xml:space="preserve">14.7273149490356</t>
   </si>
   <si>
     <t xml:space="preserve">14.6436376571655</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8444671630859</t>
+    <t xml:space="preserve">14.8444652557373</t>
   </si>
   <si>
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771097183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4762811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3926038742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603746414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.961612701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118207931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7775230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.212646484375</t>
+    <t xml:space="preserve">14.5599594116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771087646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4762802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3926048278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603727340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9616146087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7775220870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2126455307007</t>
   </si>
   <si>
     <t xml:space="preserve">15.2795886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1791753768921</t>
+    <t xml:space="preserve">15.1791744232178</t>
   </si>
   <si>
     <t xml:space="preserve">14.9950847625732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0452899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3632678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2628555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0620260238647</t>
+    <t xml:space="preserve">15.0452909469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1122350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3632669448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2628536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0620269775391</t>
   </si>
   <si>
     <t xml:space="preserve">15.3297967910767</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7314491271973</t>
+    <t xml:space="preserve">15.7314481735229</t>
   </si>
   <si>
     <t xml:space="preserve">15.6812467575073</t>
@@ -1292,43 +1292,43 @@
     <t xml:space="preserve">15.6143016815186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5473585128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4636793136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306234359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477727890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114065170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.56409740448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.697979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649221420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963266372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3130598068237</t>
+    <t xml:space="preserve">15.5473604202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636783599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6979789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649211883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963237762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.313060760498</t>
   </si>
   <si>
     <t xml:space="preserve">14.8109941482544</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">15.1624402999878</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2921905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5432262420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5934314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8277292251587</t>
+    <t xml:space="preserve">14.2921895980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5432224273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.593430519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8277282714844</t>
   </si>
   <si>
     <t xml:space="preserve">14.6938438415527</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">13.7399168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.723180770874</t>
+    <t xml:space="preserve">13.7231798171997</t>
   </si>
   <si>
     <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6897106170654</t>
+    <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
     <t xml:space="preserve">13.974214553833</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">14.0913648605347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7064456939697</t>
+    <t xml:space="preserve">13.7064437866211</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211122512817</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">13.5892953872681</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3047924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023086547852</t>
+    <t xml:space="preserve">13.3047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023096084595</t>
   </si>
   <si>
     <t xml:space="preserve">12.9533433914185</t>
@@ -1394,31 +1394,31 @@
     <t xml:space="preserve">12.9198722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0872287750244</t>
+    <t xml:space="preserve">13.0872268676758</t>
   </si>
   <si>
     <t xml:space="preserve">13.1541700363159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0537567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.852931022644</t>
+    <t xml:space="preserve">13.0537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8529300689697</t>
   </si>
   <si>
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6186323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516891479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0496215820312</t>
+    <t xml:space="preserve">12.618631362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516901016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512758255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0496225357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.29651927948</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">11.7818517684937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1835069656372</t>
+    <t xml:space="preserve">12.1835060119629</t>
   </si>
   <si>
     <t xml:space="preserve">11.8320598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157361984253</t>
+    <t xml:space="preserve">11.9157371520996</t>
   </si>
   <si>
     <t xml:space="preserve">12.3006553649902</t>
@@ -1448,25 +1448,25 @@
     <t xml:space="preserve">11.3801984786987</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7168378829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2764472961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2239847183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8392534255981</t>
+    <t xml:space="preserve">11.7168369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2764482498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2239837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8392524719238</t>
   </si>
   <si>
     <t xml:space="preserve">11.9266920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4894971847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0316181182861</t>
+    <t xml:space="preserve">11.4894962310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0316171646118</t>
   </si>
   <si>
     <t xml:space="preserve">12.7661075592041</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">12.1365451812744</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9791555404663</t>
+    <t xml:space="preserve">11.979154586792</t>
   </si>
   <si>
     <t xml:space="preserve">11.891716003418</t>
@@ -1484,49 +1484,49 @@
     <t xml:space="preserve">12.1540327072144</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1715221405029</t>
+    <t xml:space="preserve">12.1715202331543</t>
   </si>
   <si>
     <t xml:space="preserve">12.1190567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8042764663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.521276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5912284851074</t>
+    <t xml:space="preserve">11.5594472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8042774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163494110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5212774276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5912275314331</t>
   </si>
   <si>
     <t xml:space="preserve">12.5037899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4688129425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6643743515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7867889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8567399978638</t>
+    <t xml:space="preserve">12.3638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4688138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6643753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7867879867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8567409515381</t>
   </si>
   <si>
     <t xml:space="preserve">11.8742275238037</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">11.6993494033813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0491065979004</t>
+    <t xml:space="preserve">12.0491075515747</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966430664062</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562534332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8535442352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8360595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6961545944214</t>
+    <t xml:space="preserve">12.5562524795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8535451889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8360586166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.69615650177</t>
   </si>
   <si>
     <t xml:space="preserve">12.6087169647217</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8185691833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3988628387451</t>
+    <t xml:space="preserve">12.8185701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3988637924194</t>
   </si>
   <si>
     <t xml:space="preserve">12.1890087127686</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">12.2939357757568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9441804885864</t>
+    <t xml:space="preserve">11.9441795349121</t>
   </si>
   <si>
     <t xml:space="preserve">11.524471282959</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">11.419545173645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3845701217651</t>
+    <t xml:space="preserve">11.3845691680908</t>
   </si>
   <si>
     <t xml:space="preserve">10.9298858642578</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">10.8074712753296</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0173244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2446660995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1572284698486</t>
+    <t xml:space="preserve">11.0173263549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
     <t xml:space="preserve">11.1397399902344</t>
@@ -1610,16 +1610,16 @@
     <t xml:space="preserve">11.2096900939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4720087051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4545202255249</t>
+    <t xml:space="preserve">11.4720077514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4545211791992</t>
   </si>
   <si>
     <t xml:space="preserve">11.1922035217285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.437032699585</t>
+    <t xml:space="preserve">11.4370336532593</t>
   </si>
   <si>
     <t xml:space="preserve">11.6818609237671</t>
@@ -1631,31 +1631,31 @@
     <t xml:space="preserve">12.1015701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3321056365967</t>
+    <t xml:space="preserve">12.0665950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.332106590271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621555328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5419588088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685169219971</t>
+    <t xml:space="preserve">11.262152671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5419597625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685178756714</t>
   </si>
   <si>
     <t xml:space="preserve">11.4565095901489</t>
   </si>
   <si>
-    <t xml:space="preserve">11.650089263916</t>
+    <t xml:space="preserve">11.6500902175903</t>
   </si>
   <si>
     <t xml:space="preserve">11.8436727523804</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6324939727783</t>
+    <t xml:space="preserve">11.6324920654297</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">11.2981243133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1573371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1749362945557</t>
+    <t xml:space="preserve">11.157338142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1749353408813</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805252075195</t>
@@ -1691,22 +1691,22 @@
     <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380819320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0548534393311</t>
+    <t xml:space="preserve">11.7028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0548515319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.8964672088623</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7732782363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0020570755005</t>
+    <t xml:space="preserve">11.7732791900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0020580291748</t>
   </si>
   <si>
     <t xml:space="preserve">11.7908773422241</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">12.1428442001343</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124082565308</t>
+    <t xml:space="preserve">12.5124092102051</t>
   </si>
   <si>
     <t xml:space="preserve">12.3716230392456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0724496841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1604413986206</t>
+    <t xml:space="preserve">12.0724506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1604423522949</t>
   </si>
   <si>
     <t xml:space="preserve">12.6707935333252</t>
@@ -1757,64 +1757,64 @@
     <t xml:space="preserve">12.7059898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4948101043701</t>
+    <t xml:space="preserve">12.4948110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5796966552734</t>
+    <t xml:space="preserve">11.5796976089478</t>
   </si>
   <si>
     <t xml:space="preserve">11.6148929595947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5621004104614</t>
+    <t xml:space="preserve">11.5620994567871</t>
   </si>
   <si>
     <t xml:space="preserve">11.4741077423096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556810379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333215713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4917058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132377624512</t>
+    <t xml:space="preserve">11.7556800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4917068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132368087769</t>
   </si>
   <si>
     <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4772109985352</t>
+    <t xml:space="preserve">12.4772129058838</t>
   </si>
   <si>
     <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4596138000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1252450942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668607711792</t>
+    <t xml:space="preserve">12.4596147537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1252470016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668598175049</t>
   </si>
   <si>
     <t xml:space="preserve">11.9844589233398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1076469421387</t>
+    <t xml:space="preserve">12.107647895813</t>
   </si>
   <si>
     <t xml:space="preserve">12.318826675415</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3364267349243</t>
+    <t xml:space="preserve">12.33642578125</t>
   </si>
   <si>
     <t xml:space="preserve">12.1780414581299</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923254013062</t>
+    <t xml:space="preserve">13.3923263549805</t>
   </si>
   <si>
     <t xml:space="preserve">13.4451198577881</t>
@@ -1841,64 +1841,64 @@
     <t xml:space="preserve">13.3571281433105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2515392303467</t>
+    <t xml:space="preserve">13.2515382766724</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.462718963623</t>
+    <t xml:space="preserve">13.4099225997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4627180099487</t>
   </si>
   <si>
     <t xml:space="preserve">13.6387014389038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3747262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2867345809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4275207519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3395309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5476055145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068202972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8115797042847</t>
+    <t xml:space="preserve">13.3747272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4275217056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3395290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5476045608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8115816116333</t>
   </si>
   <si>
     <t xml:space="preserve">13.3043327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5859060287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4803161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283502578735</t>
+    <t xml:space="preserve">13.5859069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219308853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283512115479</t>
   </si>
   <si>
     <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0579566955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9171714782715</t>
+    <t xml:space="preserve">13.0579557418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9171705245972</t>
   </si>
   <si>
     <t xml:space="preserve">13.0227603912354</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347677230835</t>
+    <t xml:space="preserve">12.9347686767578</t>
   </si>
   <si>
     <t xml:space="preserve">12.8995714187622</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6355972290039</t>
+    <t xml:space="preserve">12.6355962753296</t>
   </si>
   <si>
     <t xml:space="preserve">12.7587862014771</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">12.7411861419678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.090048789978</t>
+    <t xml:space="preserve">12.0900478363037</t>
   </si>
   <si>
     <t xml:space="preserve">12.3012285232544</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">12.0372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6676893234253</t>
+    <t xml:space="preserve">11.6676902770996</t>
   </si>
   <si>
     <t xml:space="preserve">11.6852874755859</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">11.3157224655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2629280090332</t>
+    <t xml:space="preserve">11.2629270553589</t>
   </si>
   <si>
     <t xml:space="preserve">11.4037141799927</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">11.0693454742432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2101335525513</t>
+    <t xml:space="preserve">11.210132598877</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366357803345</t>
@@ -1961,37 +1961,37 @@
     <t xml:space="preserve">10.0134468078613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126182556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1894302368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94305515289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57348918914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46789741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32711315155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30951309204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20392513275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45599555969238</t>
+    <t xml:space="preserve">10.3126192092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1894292831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94305419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57348823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46789836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32711219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30951499938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20392417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45599460601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.03363513946533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564342498779</t>
+    <t xml:space="preserve">7.94564247131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.95133829116821</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">7.25050973892212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">5.97463083267212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24740505218506</t>
+    <t xml:space="preserve">6.24740552902222</t>
   </si>
   <si>
     <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20341014862061</t>
+    <t xml:space="preserve">6.20340967178345</t>
   </si>
   <si>
     <t xml:space="preserve">6.07142210006714</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">5.73705387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05382347106934</t>
+    <t xml:space="preserve">6.05382394790649</t>
   </si>
   <si>
     <t xml:space="preserve">6.01862716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04502439498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9834303855896</t>
+    <t xml:space="preserve">6.04502391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98342990875244</t>
   </si>
   <si>
     <t xml:space="preserve">6.15941333770752</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">6.22100782394409</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6873631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63456869125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55537605285645</t>
+    <t xml:space="preserve">6.68736362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6345682144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55537557601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.59057235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332586288452</t>
+    <t xml:space="preserve">6.66096544265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332633972168</t>
   </si>
   <si>
     <t xml:space="preserve">7.06572675704956</t>
@@ -2093,19 +2093,19 @@
     <t xml:space="preserve">6.91614198684692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378252029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45858573913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62576961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71376037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69616270065308</t>
+    <t xml:space="preserve">6.49378156661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45858526229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62576913833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71376085281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69616317749023</t>
   </si>
   <si>
     <t xml:space="preserve">6.8193507194519</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">7.18011617660522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43529224395752</t>
+    <t xml:space="preserve">7.43529272079468</t>
   </si>
   <si>
     <t xml:space="preserve">7.34729957580566</t>
@@ -2126,55 +2126,55 @@
     <t xml:space="preserve">7.32970190048218</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31210422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928762435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21841716766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00723838806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204160690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725957870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489868164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63767290115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40009546279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41769409179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968166351318</t>
+    <t xml:space="preserve">7.31210374832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9984393119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21841812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00723743438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725862503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489915847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168994903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63767337799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40009498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41769456863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968118667603</t>
   </si>
   <si>
     <t xml:space="preserve">7.6288743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72566413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448392868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924571990967</t>
+    <t xml:space="preserve">7.72566366195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924667358398</t>
   </si>
   <si>
     <t xml:space="preserve">7.88404846191406</t>
@@ -2183,22 +2183,22 @@
     <t xml:space="preserve">7.74326276779175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66407108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58487844467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60247659683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75206279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5232834815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59367656707764</t>
+    <t xml:space="preserve">7.66406965255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58487796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60247707366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75206184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52328443527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59367704391479</t>
   </si>
   <si>
     <t xml:space="preserve">7.21531248092651</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">7.0041332244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570604324341</t>
+    <t xml:space="preserve">7.28570652008057</t>
   </si>
   <si>
     <t xml:space="preserve">7.26810789108276</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">7.33850145339966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10092353820801</t>
+    <t xml:space="preserve">7.10092401504517</t>
   </si>
   <si>
     <t xml:space="preserve">7.12732172012329</t>
@@ -2228,28 +2228,28 @@
     <t xml:space="preserve">7.14491939544678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92494058609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79295301437378</t>
+    <t xml:space="preserve">6.92494106292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79295349121094</t>
   </si>
   <si>
     <t xml:space="preserve">6.88094520568848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86334657669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78415393829346</t>
+    <t xml:space="preserve">6.86334705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78415441513062</t>
   </si>
   <si>
     <t xml:space="preserve">6.72255992889404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7049617767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738386154175</t>
+    <t xml:space="preserve">6.70496129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">6.59937191009521</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">6.43218755722046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25620412826538</t>
+    <t xml:space="preserve">6.25620460510254</t>
   </si>
   <si>
     <t xml:space="preserve">6.37059307098389</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26500368118286</t>
+    <t xml:space="preserve">6.2650032043457</t>
   </si>
   <si>
     <t xml:space="preserve">6.19461011886597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23860549926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48498249053955</t>
+    <t xml:space="preserve">6.23860645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48498201370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.5025806427002</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">6.47618389129639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54657649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66976547241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73135948181152</t>
+    <t xml:space="preserve">6.54657697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66976451873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73135900497437</t>
   </si>
   <si>
     <t xml:space="preserve">6.41458940505981</t>
@@ -2300,25 +2300,25 @@
     <t xml:space="preserve">6.60817098617554</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52897834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82815027236938</t>
+    <t xml:space="preserve">6.52897787094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82814979553223</t>
   </si>
   <si>
     <t xml:space="preserve">6.67856407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40578985214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22980690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16821336746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82504463195801</t>
+    <t xml:space="preserve">6.40579080581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82504510879517</t>
   </si>
   <si>
     <t xml:space="preserve">5.64026260375977</t>
@@ -2327,55 +2327,55 @@
     <t xml:space="preserve">5.41148471832275</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37628793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42908382415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45548009872437</t>
+    <t xml:space="preserve">5.37628889083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42908334732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45548057556152</t>
   </si>
   <si>
     <t xml:space="preserve">5.67545986175537</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574890136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80175256729126</t>
+    <t xml:space="preserve">5.85144281387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574794769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8017520904541</t>
   </si>
   <si>
     <t xml:space="preserve">6.88974380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90164709091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16562271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9632420539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125495910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82245588302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70806646347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65527057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76086044311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.804856300354</t>
+    <t xml:space="preserve">7.90164852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16562175750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96324253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82245492935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70806550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65527153015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086139678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80485677719116</t>
   </si>
   <si>
     <t xml:space="preserve">7.64647102355957</t>
@@ -2384,40 +2384,40 @@
     <t xml:space="preserve">7.53208303451538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8752498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49688625335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56727981567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6904673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89284944534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06883144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85765266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76965951919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91044664382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0864315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402870178223</t>
+    <t xml:space="preserve">7.48808717727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49688720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56727933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69046688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06883239746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85765218734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76966047286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08642959594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402774810791</t>
   </si>
   <si>
     <t xml:space="preserve">8.33280754089355</t>
@@ -2426,19 +2426,19 @@
     <t xml:space="preserve">8.3416051864624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06003189086914</t>
+    <t xml:space="preserve">8.06003284454346</t>
   </si>
   <si>
     <t xml:space="preserve">8.01603698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38249731063843</t>
+    <t xml:space="preserve">7.38249826431274</t>
   </si>
   <si>
     <t xml:space="preserve">7.444091796875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4264931678772</t>
+    <t xml:space="preserve">7.42649173736572</t>
   </si>
   <si>
     <t xml:space="preserve">7.67286968231201</t>
@@ -2447,34 +2447,34 @@
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682315826416</t>
+    <t xml:space="preserve">8.15682411193848</t>
   </si>
   <si>
     <t xml:space="preserve">8.22721672058105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19201946258545</t>
+    <t xml:space="preserve">8.19202041625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.42079830169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678268432617</t>
+    <t xml:space="preserve">8.64957714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678173065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.50879001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46479320526123</t>
+    <t xml:space="preserve">8.46479415893555</t>
   </si>
   <si>
     <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43839740753174</t>
+    <t xml:space="preserve">8.43839645385742</t>
   </si>
   <si>
     <t xml:space="preserve">8.47359275817871</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">8.35920429229736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20081901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24481582641602</t>
+    <t xml:space="preserve">8.20081806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
     <t xml:space="preserve">8.05123329162598</t>
@@ -2501,34 +2501,34 @@
     <t xml:space="preserve">8.93994903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79916191101074</t>
+    <t xml:space="preserve">8.79916095733643</t>
   </si>
   <si>
     <t xml:space="preserve">8.8167610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7111701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7815637588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17442226409912</t>
+    <t xml:space="preserve">8.71117115020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78156185150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51758861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1744213104248</t>
   </si>
   <si>
     <t xml:space="preserve">8.32400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39440059661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06313705444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92234992980957</t>
+    <t xml:space="preserve">8.39440155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06313800811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
     <t xml:space="preserve">8.88715362548828</t>
@@ -2537,37 +2537,37 @@
     <t xml:space="preserve">8.71996974945068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42959785461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73756885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79036426544189</t>
+    <t xml:space="preserve">8.42959690093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73756790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79036331176758</t>
   </si>
   <si>
     <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57038307189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6759729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72876834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6055793762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35040378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36800384521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57918357849121</t>
+    <t xml:space="preserve">8.57038402557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67597389221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72877025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60558032989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3504056930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36800289154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57918262481689</t>
   </si>
   <si>
     <t xml:space="preserve">8.74636745452881</t>
@@ -2576,31 +2576,31 @@
     <t xml:space="preserve">9.27431678771973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3623104095459</t>
+    <t xml:space="preserve">9.36230850219727</t>
   </si>
   <si>
     <t xml:space="preserve">9.1511287689209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13353061676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24035549163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06231498718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99109649658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20474624633789</t>
+    <t xml:space="preserve">9.13352966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24035453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0623140335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99109745025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20474720001221</t>
   </si>
   <si>
     <t xml:space="preserve">9.64985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81008815765381</t>
+    <t xml:space="preserve">9.81008911132812</t>
   </si>
   <si>
     <t xml:space="preserve">10.1127586364746</t>
@@ -2609,43 +2609,43 @@
     <t xml:space="preserve">10.1661710739136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373876571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3086042404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976249694824</t>
+    <t xml:space="preserve">10.2373886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3086032867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976259231567</t>
   </si>
   <si>
     <t xml:space="preserve">10.3442125320435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3264093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0949554443359</t>
+    <t xml:space="preserve">10.3264083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0949544906616</t>
   </si>
   <si>
     <t xml:space="preserve">10.1305627822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1483669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97032642364502</t>
+    <t xml:space="preserve">10.1483659744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97032451629639</t>
   </si>
   <si>
     <t xml:space="preserve">9.91691303253174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75667572021484</t>
+    <t xml:space="preserve">9.75667667388916</t>
   </si>
   <si>
     <t xml:space="preserve">9.61424255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77447986602783</t>
+    <t xml:space="preserve">9.77447891235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.86350059509277</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">9.54302597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45400428771973</t>
+    <t xml:space="preserve">9.45400524139404</t>
   </si>
   <si>
     <t xml:space="preserve">9.56083011627197</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">9.43620109558105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11572551727295</t>
+    <t xml:space="preserve">9.11572647094727</t>
   </si>
   <si>
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376792907715</t>
+    <t xml:space="preserve">9.29376697540283</t>
   </si>
   <si>
     <t xml:space="preserve">9.34718036651611</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">9.09792232513428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91988182067871</t>
+    <t xml:space="preserve">8.91988086700439</t>
   </si>
   <si>
     <t xml:space="preserve">8.97329330444336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02670478820801</t>
+    <t xml:space="preserve">9.02670669555664</t>
   </si>
   <si>
     <t xml:space="preserve">9.4896125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57863330841064</t>
+    <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
     <t xml:space="preserve">9.40059280395508</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">9.41839694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47181034088135</t>
+    <t xml:space="preserve">9.47180938720703</t>
   </si>
   <si>
     <t xml:space="preserve">9.3649845123291</t>
@@ -2729,28 +2729,28 @@
     <t xml:space="preserve">9.32937526702881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25815868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70326328277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72106742858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04450988769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95548820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85756587982178</t>
+    <t xml:space="preserve">9.25815963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70326232910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72106647491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.044508934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95548915863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85756492614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.93768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81305503845215</t>
+    <t xml:space="preserve">8.81305599212646</t>
   </si>
   <si>
     <t xml:space="preserve">8.63501358032227</t>
@@ -2759,25 +2759,25 @@
     <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87537002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59940624237061</t>
+    <t xml:space="preserve">8.87537097930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59940528869629</t>
   </si>
   <si>
     <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69732856750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525089263916</t>
+    <t xml:space="preserve">8.6973295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525184631348</t>
   </si>
   <si>
     <t xml:space="preserve">8.64391613006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80415439605713</t>
+    <t xml:space="preserve">8.80415344238281</t>
   </si>
   <si>
     <t xml:space="preserve">8.54599380493164</t>
@@ -2786,70 +2786,70 @@
     <t xml:space="preserve">8.60830783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67062187194824</t>
+    <t xml:space="preserve">8.67062282562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.47477722167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62611198425293</t>
+    <t xml:space="preserve">8.62611103057861</t>
   </si>
   <si>
     <t xml:space="preserve">8.75074100494385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76854705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83976268768311</t>
+    <t xml:space="preserve">8.76854515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83976173400879</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73887157440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88130569458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5370922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18990993499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22551918029785</t>
+    <t xml:space="preserve">9.73887062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88130474090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53709125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51928615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18991088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22551822662354</t>
   </si>
   <si>
     <t xml:space="preserve">8.2166166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74480581283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70919847488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00296592712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9050440788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83382749557495</t>
+    <t xml:space="preserve">7.74480628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70919799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00296688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90504360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83382701873779</t>
   </si>
   <si>
     <t xml:space="preserve">8.32344055175781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17210578918457</t>
+    <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.14539909362793</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418346405029</t>
+    <t xml:space="preserve">7.94065189361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418251037598</t>
   </si>
   <si>
     <t xml:space="preserve">8.01186943054199</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">8.0563793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28783321380615</t>
+    <t xml:space="preserve">8.28783416748047</t>
   </si>
   <si>
     <t xml:space="preserve">8.34124565124512</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">8.43916702270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88427257537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78634834289551</t>
+    <t xml:space="preserve">8.88427066802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78634929656982</t>
   </si>
   <si>
     <t xml:space="preserve">8.7418384552002</t>
@@ -2894,13 +2894,13 @@
     <t xml:space="preserve">8.50148296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67952442169189</t>
+    <t xml:space="preserve">8.67952346801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.56379699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4569730758667</t>
+    <t xml:space="preserve">8.45697212219238</t>
   </si>
   <si>
     <t xml:space="preserve">8.42136478424072</t>
@@ -2909,31 +2909,31 @@
     <t xml:space="preserve">8.33234405517578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30563831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03857517242432</t>
+    <t xml:space="preserve">8.30563735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03857421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.89614105224609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29673480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10089015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23441982269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453895568848</t>
+    <t xml:space="preserve">8.29673385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10088920593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23442077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453990936279</t>
   </si>
   <si>
     <t xml:space="preserve">8.12759590148926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02077102661133</t>
+    <t xml:space="preserve">8.02077007293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.4035587310791</t>
@@ -2942,76 +2942,76 @@
     <t xml:space="preserve">8.2789306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36795139312744</t>
+    <t xml:space="preserve">8.36795234680176</t>
   </si>
   <si>
     <t xml:space="preserve">8.46587467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014820098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20771408081055</t>
+    <t xml:space="preserve">8.35014724731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20771503448486</t>
   </si>
   <si>
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884202957153</t>
+    <t xml:space="preserve">7.46884298324585</t>
   </si>
   <si>
     <t xml:space="preserve">7.27299642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4599404335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69139432907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88723945617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11869335174561</t>
+    <t xml:space="preserve">7.45993947982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69139528274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88723993301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10979175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11869239807129</t>
   </si>
   <si>
     <t xml:space="preserve">7.9762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02967262268066</t>
+    <t xml:space="preserve">8.02967357635498</t>
   </si>
   <si>
     <t xml:space="preserve">8.13649845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90207576751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82195663452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68842697143555</t>
+    <t xml:space="preserve">8.90207672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8219575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68842601776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.75964260101318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73293685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38575553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44806957244873</t>
+    <t xml:space="preserve">8.73293781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38575649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44807052612305</t>
   </si>
   <si>
     <t xml:space="preserve">8.48367786407471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49258041381836</t>
+    <t xml:space="preserve">8.49258136749268</t>
   </si>
   <si>
     <t xml:space="preserve">8.16320419311523</t>
@@ -3020,19 +3020,19 @@
     <t xml:space="preserve">8.35904979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9139461517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41246223449707</t>
+    <t xml:space="preserve">7.91394662857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41246318817139</t>
   </si>
   <si>
     <t xml:space="preserve">8.3744010925293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26481151580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2374153137207</t>
+    <t xml:space="preserve">8.26481246948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23741436004639</t>
   </si>
   <si>
     <t xml:space="preserve">8.44746017456055</t>
@@ -3044,40 +3044,40 @@
     <t xml:space="preserve">8.62097454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52051830291748</t>
+    <t xml:space="preserve">8.5205192565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45659160614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42919540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394580841064</t>
+    <t xml:space="preserve">8.45659255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4291934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394485473633</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686887741089</t>
+    <t xml:space="preserve">7.71686792373657</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63467741012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62554454803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57988309860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75339794158936</t>
+    <t xml:space="preserve">7.63467693328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62554502487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57988262176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75339841842651</t>
   </si>
   <si>
     <t xml:space="preserve">7.60728025436401</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">7.61641216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69860363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76253080368042</t>
+    <t xml:space="preserve">7.69860458374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76253032684326</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58901596069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48855876922607</t>
+    <t xml:space="preserve">7.5890154838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48855829238892</t>
   </si>
   <si>
     <t xml:space="preserve">7.57075023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30591106414795</t>
+    <t xml:space="preserve">7.30591154098511</t>
   </si>
   <si>
     <t xml:space="preserve">7.32417631149292</t>
@@ -3113,37 +3113,37 @@
     <t xml:space="preserve">7.42463254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56161785125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5068244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49769067764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39723587036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46116161346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47942638397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31504344940186</t>
+    <t xml:space="preserve">7.56161832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50682401657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49769163131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39723491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46116209030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47942590713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31504392623901</t>
   </si>
   <si>
     <t xml:space="preserve">7.2328519821167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24198436737061</t>
+    <t xml:space="preserve">7.24198484420776</t>
   </si>
   <si>
     <t xml:space="preserve">7.51595592498779</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72600078582764</t>
+    <t xml:space="preserve">7.72600126266479</t>
   </si>
   <si>
     <t xml:space="preserve">7.59814739227295</t>
@@ -3155,10 +3155,10 @@
     <t xml:space="preserve">7.64380931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34244108200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29677867889404</t>
+    <t xml:space="preserve">7.34244060516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29677820205688</t>
   </si>
   <si>
     <t xml:space="preserve">7.33330774307251</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">7.27851390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21458721160889</t>
+    <t xml:space="preserve">7.21458768844604</t>
   </si>
   <si>
     <t xml:space="preserve">7.10499858856201</t>
@@ -3176,484 +3176,487 @@
     <t xml:space="preserve">6.90408611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99540948867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87668943405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93148326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72143840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7305703163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75796794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66664409637451</t>
+    <t xml:space="preserve">6.99540996551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87668895721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93148374557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72143793106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73057079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75796747207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66664457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84929132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98627758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80362939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67577600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6483793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53879022598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5844521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618785858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36527442932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44746685028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49312829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47486400604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41093683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52965831756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48399591445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3561429977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16436243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09130382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02737712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0821704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05477380752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13696527481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96345043182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94518518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03650903701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10956811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04564142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3013482093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57532024383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42006969451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54792308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317363739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5022611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39267206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38353967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19176006317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22828912734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24655437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37440776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23742151260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43833446502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2922158241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17349481582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32874536514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20089197158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28308391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460976600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25568628311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51139354705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40180492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73970317840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94061517715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97714519500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02280712127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81276226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74883508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230602264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63924694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61184930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91321802139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88582134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95888042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8584246635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86755657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189464569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89495372772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31961297988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048107147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326383590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60271739959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5935845375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78536462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79360628128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10915613174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3318977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31333589553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30405473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34117794036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45254850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43398761749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35974025726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28549289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.239089012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19268417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15556049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36902093887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42470645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29477405548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39686346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35045909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27621221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18340301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1648416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9049768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92353868484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93281936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06275177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0720329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13699913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17412233352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11843729019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01634740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20196533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32261610031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41542482376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49895334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51751518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44326829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40614461898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68457126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77737998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7216944694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56391906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47111082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57320022583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48967218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48039197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76809883117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65672826766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67529058456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176301956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54535818099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09059429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87713432312012</t>
   </si>
   <si>
     <t xml:space="preserve">6.84929180145264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98627758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80362987518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67577648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62098217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6483793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53879070281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5844521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36527490615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4474663734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49312829971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47486352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41093683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52965784072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48399639129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3561429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16436243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09130334854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02737665176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08217096328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05477380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12783288955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13696527481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96345043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94518566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03650903701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10956811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04564142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30134868621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57532024383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42006969451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54792308807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395105361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317363739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50226068496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39267206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33787822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38353967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19175958633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24655389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37440729141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23742151260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43833446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29221534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17349529266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32874536514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20089244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28308391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870098114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14609813690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25568675994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51139354705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40180492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73970317840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9406156539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97714567184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02280712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81276178359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74883556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230554580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55705499649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63924694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61184930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88582134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95888042449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8584246635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86755609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015893936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189464569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89495325088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46573114395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31961297988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60271739959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5935845375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78536462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92235040664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79360675811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10915613174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3318977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31333589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30405473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34117794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45254850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35973978042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28549289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25765085220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23908853530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19268417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15556049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36902141571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42470645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29477405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39686346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35045909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27621221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2483696937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693105697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18340301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16484117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9049768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92353868484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93281936645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06275177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07203245162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13699913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17412233352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11843729019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01634740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20196533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32261657714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49895334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51751518249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44326829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40614461898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68457078933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77737998962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7216944694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56391906738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47111082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57320022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48967218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48039197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71241426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234571456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76809883117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65672874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67529058456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79594135284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097515106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176206588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54535818099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55463886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87713384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072996139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77504444122314</t>
+    <t xml:space="preserve">6.85857200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7750449180603</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001016616821</t>
+    <t xml:space="preserve">6.84001064300537</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3662,16 +3665,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785364151001</t>
+    <t xml:space="preserve">6.86785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6543927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60798835754395</t>
+    <t xml:space="preserve">6.65439319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6079888343811</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3680,7 +3683,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661827087402</t>
+    <t xml:space="preserve">6.49661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3704,22 +3707,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210004806519</t>
+    <t xml:space="preserve">6.94210052490234</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980737686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63816595077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032390594482</t>
+    <t xml:space="preserve">7.22980785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6381664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679586410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3728,31 +3731,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98155975341797</t>
+    <t xml:space="preserve">7.89803123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98156023025513</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8887505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0465259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083995819092</t>
+    <t xml:space="preserve">8.05580615997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88875007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083948135376</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436752319336</t>
+    <t xml:space="preserve">8.07436847686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3761,7 +3764,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286128997803</t>
+    <t xml:space="preserve">8.22286224365234</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3770,7 +3773,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940132141113</t>
+    <t xml:space="preserve">8.00940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3779,13 +3782,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443607330322</t>
+    <t xml:space="preserve">7.94443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488357543945</t>
+    <t xml:space="preserve">8.45488452911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -55642,7 +55645,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>1061</v>
+        <v>1208</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55668,7 +55671,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1971" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55694,7 +55697,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1972" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55720,7 +55723,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1973" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55746,7 +55749,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1974" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55772,7 +55775,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55798,7 +55801,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1976" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55824,7 +55827,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55850,7 +55853,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1978" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55876,7 +55879,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1979" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55902,7 +55905,7 @@
         <v>7.25</v>
       </c>
       <c r="G1980" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55928,7 +55931,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55954,7 +55957,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55980,7 +55983,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56006,7 +56009,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1984" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56032,7 +56035,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56058,7 +56061,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1986" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56084,7 +56087,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1987" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56110,7 +56113,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56136,7 +56139,7 @@
         <v>7</v>
       </c>
       <c r="G1989" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56162,7 +56165,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56188,7 +56191,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1991" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56214,7 +56217,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56240,7 +56243,7 @@
         <v>7</v>
       </c>
       <c r="G1993" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56266,7 +56269,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56292,7 +56295,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1995" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56318,7 +56321,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1996" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56344,7 +56347,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56370,7 +56373,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1998" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56396,7 +56399,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1999" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56422,7 +56425,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G2000" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56448,7 +56451,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56526,7 +56529,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56552,7 +56555,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56656,7 +56659,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2009" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56812,7 +56815,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2015" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56890,7 +56893,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2018" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56916,7 +56919,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56942,7 +56945,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2020" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56968,7 +56971,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2021" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56994,7 +56997,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2022" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57020,7 +57023,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2023" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57046,7 +57049,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2024" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57072,7 +57075,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2025" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57098,7 +57101,7 @@
         <v>8.5</v>
       </c>
       <c r="G2026" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57124,7 +57127,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57150,7 +57153,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57176,7 +57179,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2029" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57202,7 +57205,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2030" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57228,7 +57231,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2031" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57254,7 +57257,7 @@
         <v>8.75</v>
       </c>
       <c r="G2032" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57280,7 +57283,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2033" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57306,7 +57309,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2034" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57332,7 +57335,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57358,7 +57361,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2036" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57384,7 +57387,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2037" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57410,7 +57413,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57436,7 +57439,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57462,7 +57465,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2040" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57488,7 +57491,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2041" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57514,7 +57517,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57540,7 +57543,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2043" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57566,7 +57569,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2044" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57592,7 +57595,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2045" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57618,7 +57621,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57644,7 +57647,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G2047" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57670,7 +57673,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57696,7 +57699,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2049" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57722,7 +57725,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57748,7 +57751,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2051" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57774,7 +57777,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G2052" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57800,7 +57803,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2053" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57826,7 +57829,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57852,7 +57855,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57878,7 +57881,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2056" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57904,7 +57907,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2057" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57930,7 +57933,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2058" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57956,7 +57959,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2059" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57982,7 +57985,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2060" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58008,7 +58011,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2061" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58034,7 +58037,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2062" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58060,7 +58063,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58086,7 +58089,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2064" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58112,7 +58115,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2065" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58138,7 +58141,7 @@
         <v>8.5</v>
       </c>
       <c r="G2066" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58164,7 +58167,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2067" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58190,7 +58193,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2068" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58216,7 +58219,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2069" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58242,7 +58245,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2070" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58268,7 +58271,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2071" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58294,7 +58297,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2072" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58320,7 +58323,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58346,7 +58349,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2074" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58372,7 +58375,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2075" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58398,7 +58401,7 @@
         <v>8.75</v>
       </c>
       <c r="G2076" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58424,7 +58427,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2077" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58450,7 +58453,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2078" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58476,7 +58479,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58502,7 +58505,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58528,7 +58531,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58554,7 +58557,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2082" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58580,7 +58583,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2083" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58606,7 +58609,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2084" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58632,7 +58635,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2085" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58658,7 +58661,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58684,7 +58687,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2087" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58710,7 +58713,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2088" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58736,7 +58739,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2089" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58762,7 +58765,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G2090" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58788,7 +58791,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2091" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58814,7 +58817,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2092" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58840,7 +58843,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2093" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58866,7 +58869,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58892,7 +58895,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2095" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58918,7 +58921,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58944,7 +58947,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58970,7 +58973,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2098" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58996,7 +58999,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2099" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59022,7 +59025,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59048,7 +59051,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59074,7 +59077,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2102" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59100,7 +59103,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2103" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59126,7 +59129,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G2104" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59152,7 +59155,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59178,7 +59181,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2106" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59204,7 +59207,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2107" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59230,7 +59233,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59256,7 +59259,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59282,7 +59285,7 @@
         <v>8.25</v>
       </c>
       <c r="G2110" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59308,7 +59311,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2111" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59334,7 +59337,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2112" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59360,7 +59363,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2113" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59386,7 +59389,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2114" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59412,7 +59415,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59438,7 +59441,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2116" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59464,7 +59467,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59490,7 +59493,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2118" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59516,7 +59519,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2119" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59542,7 +59545,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2120" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59568,7 +59571,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2121" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59594,7 +59597,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59620,7 +59623,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2123" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59646,7 +59649,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2124" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59672,7 +59675,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59698,7 +59701,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2126" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59724,7 +59727,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2127" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59750,7 +59753,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2128" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59776,7 +59779,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2129" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59802,7 +59805,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2130" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59828,7 +59831,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2131" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59854,7 +59857,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59880,7 +59883,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2133" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59906,7 +59909,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2134" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59932,7 +59935,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2135" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59958,7 +59961,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59984,7 +59987,7 @@
         <v>9</v>
       </c>
       <c r="G2137" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60010,7 +60013,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2138" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60036,7 +60039,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2139" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60062,7 +60065,7 @@
         <v>9</v>
       </c>
       <c r="G2140" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60088,7 +60091,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2141" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60114,7 +60117,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2142" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60140,7 +60143,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2143" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60166,7 +60169,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2144" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60192,7 +60195,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2145" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60218,7 +60221,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2146" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60244,7 +60247,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2147" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60270,7 +60273,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2148" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60296,7 +60299,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2149" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60322,7 +60325,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60348,7 +60351,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2151" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60374,7 +60377,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2152" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60400,7 +60403,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60426,7 +60429,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2154" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60452,7 +60455,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2155" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60478,7 +60481,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2156" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60504,7 +60507,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2157" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60530,7 +60533,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2158" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60556,7 +60559,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60582,7 +60585,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2160" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60608,7 +60611,7 @@
         <v>8.5</v>
       </c>
       <c r="G2161" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60634,7 +60637,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2162" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60660,7 +60663,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2163" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60686,7 +60689,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60712,7 +60715,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2165" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60738,7 +60741,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2166" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60764,7 +60767,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2167" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60790,7 +60793,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2168" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60816,7 +60819,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2169" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60842,7 +60845,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2170" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60868,7 +60871,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2171" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60894,7 +60897,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2172" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60920,7 +60923,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2173" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60928,7 +60931,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6495138889</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>34213</v>
@@ -60946,9 +60949,35 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2174" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6495717593</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>83551</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>8.61999988555908</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>8.77000045776367</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -47,37 +47,37 @@
     <t xml:space="preserve">8.74573612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72105312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72928047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79510021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77864456176758</t>
+    <t xml:space="preserve">8.7210521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72928142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79509925842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77864551544189</t>
   </si>
   <si>
     <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52359485626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59764099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14513492584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10399627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60586833953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43309593200684</t>
+    <t xml:space="preserve">8.52359580993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59764289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1451358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1039981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60586929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4330940246582</t>
   </si>
   <si>
     <t xml:space="preserve">8.30968284606934</t>
@@ -86,52 +86,52 @@
     <t xml:space="preserve">8.25209140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34259223937988</t>
+    <t xml:space="preserve">8.34259128570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.54004955291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46600437164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22740840911865</t>
+    <t xml:space="preserve">8.46600341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22740936279297</t>
   </si>
   <si>
     <t xml:space="preserve">8.32613849639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63877773284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473445892334</t>
+    <t xml:space="preserve">8.63878059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473350524902</t>
   </si>
   <si>
     <t xml:space="preserve">8.6716890335083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8773717880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91851043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673873901367</t>
+    <t xml:space="preserve">8.87737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673778533936</t>
   </si>
   <si>
     <t xml:space="preserve">8.98433113098145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81978321075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91028213500977</t>
+    <t xml:space="preserve">8.81978225708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">9.0419225692749</t>
@@ -140,61 +140,61 @@
     <t xml:space="preserve">8.96787548065186</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89382648468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05014896392822</t>
+    <t xml:space="preserve">8.89382839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">8.97610378265381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07483196258545</t>
+    <t xml:space="preserve">9.07483100891113</t>
   </si>
   <si>
     <t xml:space="preserve">8.81155586242676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86091995239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09951400756836</t>
+    <t xml:space="preserve">8.86091899871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09951305389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.09128665924072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0666036605835</t>
+    <t xml:space="preserve">9.06660461425781</t>
   </si>
   <si>
     <t xml:space="preserve">9.21469688415527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46974754333496</t>
+    <t xml:space="preserve">9.46974849700928</t>
   </si>
   <si>
     <t xml:space="preserve">9.54379558563232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52733993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202293395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74947929382324</t>
+    <t xml:space="preserve">9.5273380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202388763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74947834014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.83998107910156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71656799316406</t>
+    <t xml:space="preserve">9.7165699005127</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94693660736084</t>
+    <t xml:space="preserve">9.94693565368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.51088428497314</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83175373077393</t>
+    <t xml:space="preserve">9.83175277709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.95516586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114845275879</t>
+    <t xml:space="preserve">10.1114835739136</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934516906738</t>
@@ -224,22 +224,22 @@
     <t xml:space="preserve">10.3994445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652643203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488077163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6133556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120866775513</t>
+    <t xml:space="preserve">10.4652652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133575439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120876312256</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722208023071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5307950973511</t>
+    <t xml:space="preserve">10.5307941436768</t>
   </si>
   <si>
     <t xml:space="preserve">10.2490873336792</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">10.2739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3567991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.497652053833</t>
+    <t xml:space="preserve">10.3568000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4976511001587</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805053710938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4727954864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893655776978</t>
+    <t xml:space="preserve">10.4727945327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
     <t xml:space="preserve">10.3982267379761</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">10.4396543502808</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2905158996582</t>
+    <t xml:space="preserve">10.2905149459839</t>
   </si>
   <si>
     <t xml:space="preserve">10.1910905838013</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">10.0253820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98395538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252681732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8596715927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909786224365</t>
+    <t xml:space="preserve">9.98395442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252777099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85967254638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909690856934</t>
   </si>
   <si>
     <t xml:space="preserve">9.96738338470459</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">10.0668077468872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225076675415</t>
+    <t xml:space="preserve">10.5225086212158</t>
   </si>
   <si>
     <t xml:space="preserve">10.1165218353271</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">10.5639352798462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4147977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.232518196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5887908935547</t>
+    <t xml:space="preserve">10.4147987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2325172424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.5473642349243</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5142211914062</t>
+    <t xml:space="preserve">10.5142221450806</t>
   </si>
   <si>
     <t xml:space="preserve">10.4810800552368</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">10.4645090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.133092880249</t>
+    <t xml:space="preserve">10.1330919265747</t>
   </si>
   <si>
     <t xml:space="preserve">10.3485136032104</t>
@@ -353,25 +353,25 @@
     <t xml:space="preserve">10.3650846481323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136474609375</t>
+    <t xml:space="preserve">10.6136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4562244415283</t>
+    <t xml:space="preserve">10.4562253952026</t>
   </si>
   <si>
     <t xml:space="preserve">10.5390787124634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2988004684448</t>
+    <t xml:space="preserve">10.2988014221191</t>
   </si>
   <si>
     <t xml:space="preserve">10.2242336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1662340164185</t>
+    <t xml:space="preserve">10.1662349700928</t>
   </si>
   <si>
     <t xml:space="preserve">10.1248064041138</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">10.6053628921509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3402280807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970773696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6716451644897</t>
+    <t xml:space="preserve">10.3402299880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970764160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6716461181641</t>
   </si>
   <si>
     <t xml:space="preserve">10.7213582992554</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">10.7544994354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7379283905029</t>
+    <t xml:space="preserve">10.7379302978516</t>
   </si>
   <si>
     <t xml:space="preserve">11.0610609054565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1107749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.127345085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433404922485</t>
+    <t xml:space="preserve">11.1107740402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1273460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433414459229</t>
   </si>
   <si>
     <t xml:space="preserve">11.3427677154541</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">11.4504776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">11.583044052124</t>
+    <t xml:space="preserve">11.5830450057983</t>
   </si>
   <si>
     <t xml:space="preserve">11.5167608261108</t>
@@ -431,22 +431,22 @@
     <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1853427886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.309624671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0196361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9036378860474</t>
+    <t xml:space="preserve">11.1853456497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3096237182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0196352005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9036388397217</t>
   </si>
   <si>
     <t xml:space="preserve">10.8953523635864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0776329040527</t>
+    <t xml:space="preserve">11.0776319503784</t>
   </si>
   <si>
     <t xml:space="preserve">10.8870668411255</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">10.771071434021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6799325942993</t>
+    <t xml:space="preserve">10.6799306869507</t>
   </si>
   <si>
     <t xml:space="preserve">10.6302185058594</t>
@@ -464,19 +464,19 @@
     <t xml:space="preserve">10.8622102737427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8042125701904</t>
+    <t xml:space="preserve">10.8042116165161</t>
   </si>
   <si>
     <t xml:space="preserve">10.6633605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7462139129639</t>
+    <t xml:space="preserve">10.7462129592896</t>
   </si>
   <si>
     <t xml:space="preserve">10.7627859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047882080078</t>
+    <t xml:space="preserve">10.7047863006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.8787822723389</t>
@@ -485,49 +485,49 @@
     <t xml:space="preserve">10.7959280014038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6965017318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924770355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4339065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3510513305664</t>
+    <t xml:space="preserve">10.6965026855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4339046478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3510503768921</t>
   </si>
   <si>
     <t xml:space="preserve">11.1439161300659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1024875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599115371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2681980133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0859174728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9450664520264</t>
+    <t xml:space="preserve">11.1024894714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.259913444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.268196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
     <t xml:space="preserve">11.1687726974487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.135630607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516269683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359338760376</t>
+    <t xml:space="preserve">11.1356296539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593378067017</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847681045532</t>
@@ -539,34 +539,34 @@
     <t xml:space="preserve">11.4587621688843</t>
   </si>
   <si>
-    <t xml:space="preserve">11.226770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942039489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344812393188</t>
+    <t xml:space="preserve">11.2267713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942029953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782056808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344821929932</t>
   </si>
   <si>
     <t xml:space="preserve">11.3841924667358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3013391494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.177059173584</t>
+    <t xml:space="preserve">11.3013401031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1770572662354</t>
   </si>
   <si>
     <t xml:space="preserve">10.953351020813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2764835357666</t>
+    <t xml:space="preserve">11.2764825820923</t>
   </si>
   <si>
     <t xml:space="preserve">11.6658992767334</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">12.1215972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0967416763306</t>
+    <t xml:space="preserve">12.0967407226562</t>
   </si>
   <si>
     <t xml:space="preserve">12.0470285415649</t>
@@ -587,37 +587,37 @@
     <t xml:space="preserve">12.2210235595703</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3453035354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3121633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352949142456</t>
+    <t xml:space="preserve">12.3453044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044525146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.312162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352939605713</t>
   </si>
   <si>
     <t xml:space="preserve">12.6684370040894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.809289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6021528244019</t>
+    <t xml:space="preserve">12.8092880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435794830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6021537780762</t>
   </si>
   <si>
     <t xml:space="preserve">12.4944429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3370189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695863723755</t>
+    <t xml:space="preserve">12.3370180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695873260498</t>
   </si>
   <si>
     <t xml:space="preserve">12.5938673019409</t>
@@ -629,121 +629,121 @@
     <t xml:space="preserve">12.7595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2484178543091</t>
+    <t xml:space="preserve">13.2318468093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2484169006348</t>
   </si>
   <si>
     <t xml:space="preserve">13.3644151687622</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4224109649658</t>
+    <t xml:space="preserve">13.4224119186401</t>
   </si>
   <si>
     <t xml:space="preserve">13.5466938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3420944213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7066535949707</t>
+    <t xml:space="preserve">14.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7066526412964</t>
   </si>
   <si>
     <t xml:space="preserve">14.7480821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9137916564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698253631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709747314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538290023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195365905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3255224227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3006687164307</t>
+    <t xml:space="preserve">14.9137907028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338117599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698244094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195384979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3255233764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3006677627563</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8640785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580907821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995203018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.83922290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817989349365</t>
+    <t xml:space="preserve">14.8640775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580926895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8392219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817979812622</t>
   </si>
   <si>
     <t xml:space="preserve">14.62380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7895107269287</t>
+    <t xml:space="preserve">14.7895069122314</t>
   </si>
   <si>
     <t xml:space="preserve">14.7315101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766258239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683403015137</t>
+    <t xml:space="preserve">15.4937715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.568341255188</t>
   </si>
   <si>
     <t xml:space="preserve">15.6180534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7423343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8831882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523458480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.609769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5186281204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7257642745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872091293335</t>
+    <t xml:space="preserve">15.7423372268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.883186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020570755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097679138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7257633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440565109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872110366821</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037830352783</t>
@@ -752,190 +752,190 @@
     <t xml:space="preserve">15.1371698379517</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.578462600708</t>
+    <t xml:space="preserve">15.2870426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784635543823</t>
   </si>
   <si>
     <t xml:space="preserve">15.6867055892944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2370872497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699680328369</t>
+    <t xml:space="preserve">15.2370853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699670791626</t>
   </si>
   <si>
     <t xml:space="preserve">15.7949476242065</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8615560531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451564788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5285053253174</t>
+    <t xml:space="preserve">15.861554145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201778411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451602935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285062789917</t>
   </si>
   <si>
     <t xml:space="preserve">15.4202642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1954545974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868726730347</t>
+    <t xml:space="preserve">15.1954526901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366628646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868745803833</t>
   </si>
   <si>
     <t xml:space="preserve">15.7283363342285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6783781051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9031887054443</t>
+    <t xml:space="preserve">15.6783790588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031915664673</t>
   </si>
   <si>
     <t xml:space="preserve">15.8199253082275</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040365219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372562408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701351165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951147079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618104934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284227371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533178329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.695032119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.720006942749</t>
+    <t xml:space="preserve">15.6450748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.253737449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289297103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372552871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951137542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533168792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6950330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7200088500977</t>
   </si>
   <si>
     <t xml:space="preserve">15.6117696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7449893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452438354492</t>
+    <t xml:space="preserve">15.7449903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452428817749</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037811279297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1121950149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957944869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787189483643</t>
+    <t xml:space="preserve">15.1121921539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957954406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787179946899</t>
   </si>
   <si>
     <t xml:space="preserve">15.320348739624</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872970581055</t>
+    <t xml:space="preserve">15.3120222091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872961044312</t>
   </si>
   <si>
     <t xml:space="preserve">15.1205186843872</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3369989395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538238525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702215194702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.603440284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534868240356</t>
+    <t xml:space="preserve">15.3370018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.370306968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538248062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785490036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368318557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6034450531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5035276412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534858703613</t>
   </si>
   <si>
     <t xml:space="preserve">15.4036111831665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7033586502075</t>
+    <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
     <t xml:space="preserve">15.3869581222534</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3619785308838</t>
+    <t xml:space="preserve">15.3619804382324</t>
   </si>
   <si>
     <t xml:space="preserve">16.652551651001</t>
@@ -944,70 +944,70 @@
     <t xml:space="preserve">16.4943542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.344482421875</t>
+    <t xml:space="preserve">16.5026817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110908508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3444805145264</t>
   </si>
   <si>
     <t xml:space="preserve">16.4443988800049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3028507232666</t>
+    <t xml:space="preserve">16.302848815918</t>
   </si>
   <si>
     <t xml:space="preserve">16.1446495056152</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1529750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116823196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.461895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614706039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616395950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532295227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9531469345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.003101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530624389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365793228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281663894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367464065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6534004211426</t>
+    <t xml:space="preserve">16.1529769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618949890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532304763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.953145980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0031051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530605316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365802764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367473602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6533994674683</t>
   </si>
   <si>
     <t xml:space="preserve">15.7866201400757</t>
@@ -1025,64 +1025,64 @@
     <t xml:space="preserve">16.5443115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6025981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8190803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.860710144043</t>
+    <t xml:space="preserve">16.6025943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8190784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8607120513916</t>
   </si>
   <si>
     <t xml:space="preserve">16.7774467468262</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6941871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4693737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2029361724854</t>
+    <t xml:space="preserve">16.6941833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2029342651367</t>
   </si>
   <si>
     <t xml:space="preserve">16.3694610595703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2353954315186</t>
+    <t xml:space="preserve">17.2353916168213</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272369384766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1105003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.90234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3186550140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9856052398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688667297363</t>
+    <t xml:space="preserve">17.1104984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9023418426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3186588287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4435482025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9856071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688648223877</t>
   </si>
   <si>
     <t xml:space="preserve">16.5193328857422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.136323928833</t>
+    <t xml:space="preserve">16.1363277435303</t>
   </si>
   <si>
     <t xml:space="preserve">16.1196727752686</t>
@@ -1094,76 +1094,76 @@
     <t xml:space="preserve">16.4194183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.252893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861938476562</t>
+    <t xml:space="preserve">16.2528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861976623535</t>
   </si>
   <si>
     <t xml:space="preserve">16.0364093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2695426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0705614089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703905105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535665512085</t>
+    <t xml:space="preserve">16.2695465087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0705623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535703659058</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700534820557</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6709003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878904342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376787185669</t>
+    <t xml:space="preserve">14.6709012985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.837423324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5543308258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376777648926</t>
   </si>
   <si>
     <t xml:space="preserve">14.3711547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877214431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380186080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714063644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1213665008545</t>
+    <t xml:space="preserve">14.7708158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.487720489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714092254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1213655471802</t>
   </si>
   <si>
     <t xml:space="preserve">14.387806892395</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3211975097656</t>
+    <t xml:space="preserve">14.321195602417</t>
   </si>
   <si>
     <t xml:space="preserve">14.7541627883911</t>
@@ -1172,52 +1172,52 @@
     <t xml:space="preserve">15.0039510726929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8041200637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.020604133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198427200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038665771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.095498085022</t>
+    <t xml:space="preserve">14.8041181564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954961776733</t>
   </si>
   <si>
     <t xml:space="preserve">15.0285568237305</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8946714401245</t>
+    <t xml:space="preserve">14.8946704864502</t>
   </si>
   <si>
     <t xml:space="preserve">15.1457061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293834686279</t>
+    <t xml:space="preserve">15.2293825149536</t>
   </si>
   <si>
     <t xml:space="preserve">14.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8570642471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4093379974365</t>
+    <t xml:space="preserve">13.8570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4093389511108</t>
   </si>
   <si>
     <t xml:space="preserve">14.2252473831177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.325662612915</t>
+    <t xml:space="preserve">14.3256616592407</t>
   </si>
   <si>
     <t xml:space="preserve">14.72731590271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6436357498169</t>
+    <t xml:space="preserve">14.6436367034912</t>
   </si>
   <si>
     <t xml:space="preserve">14.8444652557373</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771097183228</t>
+    <t xml:space="preserve">14.5599613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771078109741</t>
   </si>
   <si>
     <t xml:space="preserve">14.4762811660767</t>
@@ -1238,25 +1238,25 @@
     <t xml:space="preserve">14.3926038742065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9616146087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118207931519</t>
+    <t xml:space="preserve">14.6603746414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9616136550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118217468262</t>
   </si>
   <si>
     <t xml:space="preserve">14.7775230407715</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2126474380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2795886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791772842407</t>
+    <t xml:space="preserve">15.212646484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2795896530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791753768921</t>
   </si>
   <si>
     <t xml:space="preserve">14.9950857162476</t>
@@ -1265,73 +1265,73 @@
     <t xml:space="preserve">15.0452909469604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1122331619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3632688522339</t>
+    <t xml:space="preserve">15.1122341156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3632659912109</t>
   </si>
   <si>
     <t xml:space="preserve">15.2628555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0620260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.329797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812419891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6143016815186</t>
+    <t xml:space="preserve">15.0620269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.329794883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314510345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.681245803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143026351929</t>
   </si>
   <si>
     <t xml:space="preserve">15.5473585128784</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4636793136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306215286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983913421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5640916824341</t>
+    <t xml:space="preserve">15.4636812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477727890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114065170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640954971313</t>
   </si>
   <si>
     <t xml:space="preserve">15.697979927063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4971523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649211883545</t>
+    <t xml:space="preserve">15.4971542358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649230957031</t>
   </si>
   <si>
     <t xml:space="preserve">15.4804162979126</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2963247299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3130617141724</t>
+    <t xml:space="preserve">15.2963275909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.313060760498</t>
   </si>
   <si>
     <t xml:space="preserve">14.8109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1624412536621</t>
+    <t xml:space="preserve">15.1624383926392</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
@@ -1343,22 +1343,22 @@
     <t xml:space="preserve">14.5934314727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8277282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6938447952271</t>
+    <t xml:space="preserve">14.7942581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.827730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6938438415527</t>
   </si>
   <si>
     <t xml:space="preserve">13.7399168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.723180770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060314178467</t>
+    <t xml:space="preserve">13.7231798171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897106170654</t>
@@ -1370,73 +1370,73 @@
     <t xml:space="preserve">14.0913639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7064447402954</t>
+    <t xml:space="preserve">13.7064456939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211132049561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047914505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023096084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533443450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198713302612</t>
+    <t xml:space="preserve">13.5892944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533433914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198722839355</t>
   </si>
   <si>
     <t xml:space="preserve">13.0872278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1541690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0537557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.852931022644</t>
+    <t xml:space="preserve">13.1541709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8529300689697</t>
   </si>
   <si>
     <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6186332702637</t>
+    <t xml:space="preserve">12.6186323165894</t>
   </si>
   <si>
     <t xml:space="preserve">12.5516901016235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4512767791748</t>
+    <t xml:space="preserve">12.4512758255005</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965202331543</t>
+    <t xml:space="preserve">11.2965211868286</t>
   </si>
   <si>
     <t xml:space="preserve">11.7818517684937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1835060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.384334564209</t>
+    <t xml:space="preserve">12.1835069656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157361984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006544113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3843336105347</t>
   </si>
   <si>
     <t xml:space="preserve">12.5349531173706</t>
@@ -1448,34 +1448,34 @@
     <t xml:space="preserve">11.7168378829956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2764482498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2239837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8392534255981</t>
+    <t xml:space="preserve">12.2764472961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2239847183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8392524719238</t>
   </si>
   <si>
     <t xml:space="preserve">11.9266920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4894971847534</t>
+    <t xml:space="preserve">11.4894962310791</t>
   </si>
   <si>
     <t xml:space="preserve">12.0316181182861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7661066055298</t>
+    <t xml:space="preserve">12.7661075592041</t>
   </si>
   <si>
     <t xml:space="preserve">12.1365451812744</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9791555404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8917150497437</t>
+    <t xml:space="preserve">11.979154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8917169570923</t>
   </si>
   <si>
     <t xml:space="preserve">12.1540327072144</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">12.1715211868286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1190567016602</t>
+    <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
     <t xml:space="preserve">11.5594472885132</t>
@@ -1493,22 +1493,22 @@
     <t xml:space="preserve">11.8042764663696</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7518119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163494110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.521276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5912284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5037899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638858795166</t>
+    <t xml:space="preserve">11.7518129348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163503646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5212774276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5912294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5037889480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638887405396</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
@@ -1517,31 +1517,31 @@
     <t xml:space="preserve">11.6643743515015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7867889404297</t>
+    <t xml:space="preserve">11.7867879867554</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616680145264</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8567399978638</t>
+    <t xml:space="preserve">11.8567409515381</t>
   </si>
   <si>
     <t xml:space="preserve">11.874228477478</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7343254089355</t>
+    <t xml:space="preserve">11.7343263626099</t>
   </si>
   <si>
     <t xml:space="preserve">11.6993503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0491056442261</t>
+    <t xml:space="preserve">12.0491046905518</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966430664062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2589597702026</t>
+    <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
     <t xml:space="preserve">12.5562524795532</t>
@@ -1550,28 +1550,28 @@
     <t xml:space="preserve">12.8535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8360576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.69615650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.608715057373</t>
+    <t xml:space="preserve">12.8360595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6961545944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087160110474</t>
   </si>
   <si>
     <t xml:space="preserve">12.8185691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3988637924194</t>
+    <t xml:space="preserve">12.3988628387451</t>
   </si>
   <si>
     <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2939367294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9441785812378</t>
+    <t xml:space="preserve">12.2939357757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9441795349121</t>
   </si>
   <si>
     <t xml:space="preserve">11.5244722366333</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">10.8074712753296</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0173263549805</t>
+    <t xml:space="preserve">11.0173244476318</t>
   </si>
   <si>
     <t xml:space="preserve">11.2446660995483</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1397399902344</t>
+    <t xml:space="preserve">11.1397409439087</t>
   </si>
   <si>
     <t xml:space="preserve">11.2271795272827</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">11.2096910476685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4720087051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4545202255249</t>
+    <t xml:space="preserve">11.4720077514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4545211791992</t>
   </si>
   <si>
     <t xml:space="preserve">11.1922035217285</t>
@@ -1628,28 +1628,28 @@
     <t xml:space="preserve">12.1015701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3321046829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3146181106567</t>
+    <t xml:space="preserve">12.066593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.332106590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3146171569824</t>
   </si>
   <si>
     <t xml:space="preserve">11.2621545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5419588088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685169219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4565095901489</t>
+    <t xml:space="preserve">11.5419578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685178756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4565105438232</t>
   </si>
   <si>
     <t xml:space="preserve">11.6500902175903</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">11.8436727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8612699508667</t>
+    <t xml:space="preserve">11.861270904541</t>
   </si>
   <si>
     <t xml:space="preserve">11.632493019104</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">11.2981243133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1573371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1749353408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805261611938</t>
+    <t xml:space="preserve">11.157338142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1749362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
@@ -1688,82 +1688,82 @@
     <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7380819320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0548524856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8964681625366</t>
+    <t xml:space="preserve">11.7028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7380828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0548534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8964672088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.7732791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0020570755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7908763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4389114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5445003509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5093040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5269031524658</t>
+    <t xml:space="preserve">12.0020580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7908773422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4389123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5445013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5269041061401</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7204837799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2308349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.14284324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3716220855713</t>
+    <t xml:space="preserve">11.7204847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0196571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2308359146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428442001343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124082565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3716230392456</t>
   </si>
   <si>
     <t xml:space="preserve">12.0724506378174</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1604423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6707935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7059907913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4948101043701</t>
+    <t xml:space="preserve">12.1604413986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6707944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7059898376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4948110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6003999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5796966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.614893913269</t>
+    <t xml:space="preserve">11.5796976089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6148948669434</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621004104614</t>
@@ -1772,19 +1772,19 @@
     <t xml:space="preserve">11.4741077423096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333206176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4917058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132368087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5652027130127</t>
+    <t xml:space="preserve">11.7556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4917068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132377624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
     <t xml:space="preserve">12.4772129058838</t>
@@ -1793,28 +1793,28 @@
     <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4596138000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1252460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.107647895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.318826675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1780405044556</t>
+    <t xml:space="preserve">12.4596147537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1252450942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668617248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844598770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076469421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3188276290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3364267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1780414581299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2836303710938</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">12.3892202377319</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0403575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635456085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3571281433105</t>
+    <t xml:space="preserve">13.040358543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635475158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3571290969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515392303467</t>
@@ -1844,25 +1844,25 @@
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099225997925</t>
+    <t xml:space="preserve">13.4099235534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.462718963623</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6387004852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3747262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2867345809937</t>
+    <t xml:space="preserve">13.6387023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3747272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286735534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4275217056274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3395299911499</t>
+    <t xml:space="preserve">13.3395309448242</t>
   </si>
   <si>
     <t xml:space="preserve">12.5476055145264</t>
@@ -1871,31 +1871,31 @@
     <t xml:space="preserve">12.4068193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8115797042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3043346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5859050750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219327926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9523668289185</t>
+    <t xml:space="preserve">12.811580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3043336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5859060287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4803161621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283502578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
     <t xml:space="preserve">13.057957649231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9171705245972</t>
+    <t xml:space="preserve">12.9171714782715</t>
   </si>
   <si>
     <t xml:space="preserve">13.0227603912354</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347677230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8995723724365</t>
+    <t xml:space="preserve">12.9347696304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8995714187622</t>
   </si>
   <si>
     <t xml:space="preserve">12.6355972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7587852478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7411861419678</t>
+    <t xml:space="preserve">12.7587862014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7411870956421</t>
   </si>
   <si>
     <t xml:space="preserve">12.0900478363037</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">12.0372552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6676893234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6852884292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3157234191895</t>
+    <t xml:space="preserve">11.667688369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6852874755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3157224655151</t>
   </si>
   <si>
     <t xml:space="preserve">11.2629280090332</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">11.4037141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277307510376</t>
+    <t xml:space="preserve">11.2277317047119</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693464279175</t>
@@ -1961,70 +1961,70 @@
     <t xml:space="preserve">10.3126182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1894292831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94305419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57348918914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46789932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32711124420166</t>
+    <t xml:space="preserve">10.1894302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94305324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57348823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46789836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32711315155029</t>
   </si>
   <si>
     <t xml:space="preserve">9.30951404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20392322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45599555969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03363609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564247131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95133876800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25051021575928</t>
+    <t xml:space="preserve">9.20392417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03363513946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95133829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25050973892212</t>
   </si>
   <si>
     <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61697006225586</t>
+    <t xml:space="preserve">6.61697053909302</t>
   </si>
   <si>
     <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97463083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24740505218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34419584274292</t>
+    <t xml:space="preserve">5.97463178634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24740552902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34419631958008</t>
   </si>
   <si>
     <t xml:space="preserve">6.20340967178345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07142162322998</t>
+    <t xml:space="preserve">6.07142210006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.73705387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05382394790649</t>
+    <t xml:space="preserve">6.05382347106934</t>
   </si>
   <si>
     <t xml:space="preserve">6.01862764358521</t>
@@ -2033,43 +2033,43 @@
     <t xml:space="preserve">6.04502391815186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98342990875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15941333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18581104278564</t>
+    <t xml:space="preserve">5.98343086242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15941381454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
     <t xml:space="preserve">6.51138019561768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22100734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6873631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6345682144165</t>
+    <t xml:space="preserve">6.22100877761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68736362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63456869125366</t>
   </si>
   <si>
     <t xml:space="preserve">6.55537557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59057235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66096639633179</t>
+    <t xml:space="preserve">6.59057283401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66096591949463</t>
   </si>
   <si>
     <t xml:space="preserve">7.08332586288452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15371894836426</t>
+    <t xml:space="preserve">7.06572675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1537184715271</t>
   </si>
   <si>
     <t xml:space="preserve">7.25930881500244</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">7.29450559616089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03933000564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05692863464355</t>
+    <t xml:space="preserve">7.03932952880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0569281578064</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614151000977</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">6.49378204345703</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45858526229858</t>
+    <t xml:space="preserve">6.45858573913574</t>
   </si>
   <si>
     <t xml:space="preserve">6.62576961517334</t>
@@ -2102,19 +2102,19 @@
     <t xml:space="preserve">6.71376085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69616222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81935024261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03052997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18011569976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43529224395752</t>
+    <t xml:space="preserve">6.69616270065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81935119628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03053045272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18011617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
     <t xml:space="preserve">7.34730052947998</t>
@@ -2123,37 +2123,37 @@
     <t xml:space="preserve">7.32970237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31210422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928810119629</t>
+    <t xml:space="preserve">7.31210470199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928762435913</t>
   </si>
   <si>
     <t xml:space="preserve">7.99843883514404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21841812133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00723838806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204065322876</t>
+    <t xml:space="preserve">8.21841716766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00723934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204160690308</t>
   </si>
   <si>
     <t xml:space="preserve">7.78725910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36489915847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63767337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40009546279907</t>
+    <t xml:space="preserve">7.36489820480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168851852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63767290115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40009498596191</t>
   </si>
   <si>
     <t xml:space="preserve">7.41769313812256</t>
@@ -2165,52 +2165,52 @@
     <t xml:space="preserve">7.62887382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72566413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88404941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74326229095459</t>
+    <t xml:space="preserve">7.72566318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448488235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404893875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74326324462891</t>
   </si>
   <si>
     <t xml:space="preserve">7.66407012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58487749099731</t>
+    <t xml:space="preserve">7.58487796783447</t>
   </si>
   <si>
     <t xml:space="preserve">7.60247611999512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75206279754639</t>
+    <t xml:space="preserve">7.75206232070923</t>
   </si>
   <si>
     <t xml:space="preserve">7.52328395843506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59367656707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21531295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812955856323</t>
+    <t xml:space="preserve">7.59367704391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21531248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812860488892</t>
   </si>
   <si>
     <t xml:space="preserve">7.00413274765015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26810836791992</t>
+    <t xml:space="preserve">7.28570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26810789108276</t>
   </si>
   <si>
     <t xml:space="preserve">7.33850145339966</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">7.10092353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12732219696045</t>
+    <t xml:space="preserve">7.12732172012329</t>
   </si>
   <si>
     <t xml:space="preserve">7.14491939544678</t>
@@ -2228,40 +2228,40 @@
     <t xml:space="preserve">6.92494058609009</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79295253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88094472885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334705352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78415393829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72255992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70496129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738386154175</t>
+    <t xml:space="preserve">6.79295301437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88094520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334657669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78415441513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7225604057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7049617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738481521606</t>
   </si>
   <si>
     <t xml:space="preserve">6.59937191009521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43218755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620460510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37059307098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28260135650635</t>
+    <t xml:space="preserve">6.43218803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37059354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28260183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.26500368118286</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">6.5025806427002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47618341445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54657697677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66976499557495</t>
+    <t xml:space="preserve">6.47618389129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54657649993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66976547241211</t>
   </si>
   <si>
     <t xml:space="preserve">6.73135948181152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41458940505981</t>
+    <t xml:space="preserve">6.41458988189697</t>
   </si>
   <si>
     <t xml:space="preserve">6.60817098617554</t>
@@ -2303,28 +2303,28 @@
     <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67856407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40578985214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22980690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.168212890625</t>
+    <t xml:space="preserve">6.67856454849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40579032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16821336746216</t>
   </si>
   <si>
     <t xml:space="preserve">5.82504510879517</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64026308059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41148471832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37628793716431</t>
+    <t xml:space="preserve">5.64026260375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41148519515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37628841400146</t>
   </si>
   <si>
     <t xml:space="preserve">5.42908334732056</t>
@@ -2336,10 +2336,10 @@
     <t xml:space="preserve">5.67545938491821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85144329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84574890136719</t>
+    <t xml:space="preserve">5.85144281387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84574842453003</t>
   </si>
   <si>
     <t xml:space="preserve">6.80175256729126</t>
@@ -2348,82 +2348,82 @@
     <t xml:space="preserve">6.8897442817688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90164804458618</t>
+    <t xml:space="preserve">7.90164709091187</t>
   </si>
   <si>
     <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9632420539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125448226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82245492935181</t>
+    <t xml:space="preserve">7.96324110031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82245540618896</t>
   </si>
   <si>
     <t xml:space="preserve">7.7080659866333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65527105331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76086187362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80485677719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64647245407104</t>
+    <t xml:space="preserve">7.65527009963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086044311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.804856300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64647102355957</t>
   </si>
   <si>
     <t xml:space="preserve">7.53208351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8752498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49688625335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56728029251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69046783447266</t>
+    <t xml:space="preserve">7.48808670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87524938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49688673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56727933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69046688079834</t>
   </si>
   <si>
     <t xml:space="preserve">7.89284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06883144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85765171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76966047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9104471206665</t>
+    <t xml:space="preserve">8.06883239746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85765218734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76965951919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044616699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.08643054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33280563354492</t>
+    <t xml:space="preserve">8.10402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.3416051864624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06003189086914</t>
+    <t xml:space="preserve">8.06003379821777</t>
   </si>
   <si>
     <t xml:space="preserve">8.01603698730469</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">7.38249683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.444091796875</t>
+    <t xml:space="preserve">7.44409084320068</t>
   </si>
   <si>
     <t xml:space="preserve">7.42649269104004</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67286968231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98963928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721767425537</t>
+    <t xml:space="preserve">7.67286920547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98964023590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15682220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721576690674</t>
   </si>
   <si>
     <t xml:space="preserve">8.19201946258545</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">8.42079734802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678268432617</t>
+    <t xml:space="preserve">8.64957523345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678173065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.50879096984863</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43839740753174</t>
+    <t xml:space="preserve">8.43839645385742</t>
   </si>
   <si>
     <t xml:space="preserve">8.47359371185303</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">8.20081901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05123233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18321990966797</t>
+    <t xml:space="preserve">8.2448148727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05123329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18322086334229</t>
   </si>
   <si>
     <t xml:space="preserve">8.49119186401367</t>
@@ -2501,13 +2501,13 @@
     <t xml:space="preserve">8.79916286468506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8167610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71117115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78156280517578</t>
+    <t xml:space="preserve">8.81676197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7111701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78156471252441</t>
   </si>
   <si>
     <t xml:space="preserve">8.51759052276611</t>
@@ -2516,34 +2516,34 @@
     <t xml:space="preserve">8.1744213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32400703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39440059661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06313800811768</t>
+    <t xml:space="preserve">8.32400798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39440155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06313705444336</t>
   </si>
   <si>
     <t xml:space="preserve">8.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88715362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.719970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42959690093994</t>
+    <t xml:space="preserve">8.8871545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71996879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42959785461426</t>
   </si>
   <si>
     <t xml:space="preserve">8.73756885528564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79036235809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64077758789062</t>
+    <t xml:space="preserve">8.79036331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
     <t xml:space="preserve">8.57038402557373</t>
@@ -2552,34 +2552,34 @@
     <t xml:space="preserve">8.67597389221191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72876834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6055793762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35040473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36800289154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57918357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74636650085449</t>
+    <t xml:space="preserve">8.72876930236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60558032989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35040378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36800384521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57918262481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74636745452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431678771973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36230850219727</t>
+    <t xml:space="preserve">9.36230945587158</t>
   </si>
   <si>
     <t xml:space="preserve">9.15112781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13352966308594</t>
+    <t xml:space="preserve">9.13353061676025</t>
   </si>
   <si>
     <t xml:space="preserve">9.24035549163818</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">8.99109745025635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20474624633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64985179901123</t>
+    <t xml:space="preserve">9.20474720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64985084533691</t>
   </si>
   <si>
     <t xml:space="preserve">9.81008815765381</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">10.1127586364746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1661710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2373886108398</t>
+    <t xml:space="preserve">10.1661720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373876571655</t>
   </si>
   <si>
     <t xml:space="preserve">10.3086042404175</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">10.3442134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3264093399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0949544906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1305627822876</t>
+    <t xml:space="preserve">10.3264102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0949554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1305637359619</t>
   </si>
   <si>
     <t xml:space="preserve">10.1483669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9703254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91691303253174</t>
+    <t xml:space="preserve">9.97032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91691398620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.75667572021484</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">9.61424255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77447986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86350059509277</t>
+    <t xml:space="preserve">9.77447891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86350154876709</t>
   </si>
   <si>
     <t xml:space="preserve">9.54302597045898</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">9.45400524139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56082916259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68545818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63204574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43620109558105</t>
+    <t xml:space="preserve">9.56083011627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68545913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63204669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43620204925537</t>
   </si>
   <si>
     <t xml:space="preserve">9.11572647094727</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376792907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34718036651611</t>
+    <t xml:space="preserve">9.29376697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34718132019043</t>
   </si>
   <si>
     <t xml:space="preserve">9.31157207489014</t>
@@ -2684,10 +2684,10 @@
     <t xml:space="preserve">9.09792232513428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91988086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97329235076904</t>
+    <t xml:space="preserve">8.91988182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97329330444336</t>
   </si>
   <si>
     <t xml:space="preserve">9.02670574188232</t>
@@ -2699,31 +2699,31 @@
     <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40059280395508</t>
+    <t xml:space="preserve">9.40059375762939</t>
   </si>
   <si>
     <t xml:space="preserve">9.525221824646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82789134979248</t>
+    <t xml:space="preserve">9.82789325714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.8456974029541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93471717834473</t>
+    <t xml:space="preserve">9.93471813201904</t>
   </si>
   <si>
     <t xml:space="preserve">9.41839694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47180938720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3649845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32937431335449</t>
+    <t xml:space="preserve">9.47181034088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36498546600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32937622070312</t>
   </si>
   <si>
     <t xml:space="preserve">9.25815868377686</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">8.81305503845215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63501358032227</t>
+    <t xml:space="preserve">8.63501453399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.65281867980957</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6973295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525184631348</t>
+    <t xml:space="preserve">8.69732856750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525089263916</t>
   </si>
   <si>
     <t xml:space="preserve">8.64391613006592</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">8.54599380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60830783843994</t>
+    <t xml:space="preserve">8.60830879211426</t>
   </si>
   <si>
     <t xml:space="preserve">8.67062187194824</t>
@@ -2792,10 +2792,10 @@
     <t xml:space="preserve">8.62611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75074195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76854610443115</t>
+    <t xml:space="preserve">8.75074005126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76854515075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.83976268768311</t>
@@ -2807,16 +2807,16 @@
     <t xml:space="preserve">9.73887157440186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88130474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5370922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18990993499756</t>
+    <t xml:space="preserve">9.88130569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53709125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51928615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18991088867188</t>
   </si>
   <si>
     <t xml:space="preserve">8.22551822662354</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">8.21661567687988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74480581283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712223052979</t>
+    <t xml:space="preserve">7.74480533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712032318115</t>
   </si>
   <si>
     <t xml:space="preserve">7.70919799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00296688079834</t>
+    <t xml:space="preserve">8.00296592712402</t>
   </si>
   <si>
     <t xml:space="preserve">7.9050440788269</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">7.83382749557495</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32344150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17210578918457</t>
+    <t xml:space="preserve">8.32344055175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17210674285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.14540004730225</t>
@@ -2855,19 +2855,19 @@
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01186943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0563793182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28783416748047</t>
+    <t xml:space="preserve">7.94065141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01186847686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05637836456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28783226013184</t>
   </si>
   <si>
     <t xml:space="preserve">8.34124565124512</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">8.43916797637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8842716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78634929656982</t>
+    <t xml:space="preserve">8.88427257537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78634834289551</t>
   </si>
   <si>
     <t xml:space="preserve">8.7418384552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43026542663574</t>
+    <t xml:space="preserve">8.43026638031006</t>
   </si>
   <si>
     <t xml:space="preserve">8.50148296356201</t>
@@ -2894,31 +2894,31 @@
     <t xml:space="preserve">8.67952346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56379795074463</t>
+    <t xml:space="preserve">8.56379699707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.4569730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42136383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33234310150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30563735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89614200592041</t>
+    <t xml:space="preserve">8.42136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33234405517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30563640594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89614105224609</t>
   </si>
   <si>
     <t xml:space="preserve">8.29673480987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10089015960693</t>
+    <t xml:space="preserve">8.10089111328125</t>
   </si>
   <si>
     <t xml:space="preserve">8.23441982269287</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">8.12759590148926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02077007293701</t>
+    <t xml:space="preserve">8.02077102661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.40355968475342</t>
@@ -2951,55 +2951,55 @@
     <t xml:space="preserve">8.20771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08308506011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46884202957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27299690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45993995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69139432907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88723850250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10979080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11869335174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9762601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02967262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13649845123291</t>
+    <t xml:space="preserve">8.08308601379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46884155273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2729959487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45993947982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69139385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8872389793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10979175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11869430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97625970840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02967357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13649940490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.90207672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8219575881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68842792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7596435546875</t>
+    <t xml:space="preserve">8.82195663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68842697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75964260101318</t>
   </si>
   <si>
     <t xml:space="preserve">8.73293685913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38575553894043</t>
+    <t xml:space="preserve">8.38575649261475</t>
   </si>
   <si>
     <t xml:space="preserve">8.44806957244873</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">8.44745922088623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53878402709961</t>
+    <t xml:space="preserve">8.53878307342529</t>
   </si>
   <si>
     <t xml:space="preserve">8.62097454071045</t>
@@ -3044,16 +3044,16 @@
     <t xml:space="preserve">8.52051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4017972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45659255981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42919540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394580841064</t>
+    <t xml:space="preserve">8.40179824829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45659160614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42919445037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394485473633</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
@@ -3077,22 +3077,22 @@
     <t xml:space="preserve">7.75339794158936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60727977752686</t>
+    <t xml:space="preserve">7.60728025436401</t>
   </si>
   <si>
     <t xml:space="preserve">7.61641263961792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69860410690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76253080368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68033838272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5890154838562</t>
+    <t xml:space="preserve">7.69860363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76253032684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68033885955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58901643753052</t>
   </si>
   <si>
     <t xml:space="preserve">7.48855876922607</t>
@@ -3107,13 +3107,13 @@
     <t xml:space="preserve">7.32417631149292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42463254928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56161785125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50682401657104</t>
+    <t xml:space="preserve">7.42463207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56161832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5068244934082</t>
   </si>
   <si>
     <t xml:space="preserve">7.49769115447998</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">7.39723539352417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46116209030151</t>
+    <t xml:space="preserve">7.46116161346436</t>
   </si>
   <si>
     <t xml:space="preserve">7.47942638397217</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">7.24198436737061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51595544815063</t>
+    <t xml:space="preserve">7.51595592498779</t>
   </si>
   <si>
     <t xml:space="preserve">7.72600078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59814739227295</t>
+    <t xml:space="preserve">7.59814786911011</t>
   </si>
   <si>
     <t xml:space="preserve">7.53422117233276</t>
@@ -3158,31 +3158,31 @@
     <t xml:space="preserve">7.29677867889404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33330774307251</t>
+    <t xml:space="preserve">7.33330821990967</t>
   </si>
   <si>
     <t xml:space="preserve">7.27851390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21458768844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10499858856201</t>
+    <t xml:space="preserve">7.21458721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10499906539917</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99540996551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87668895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93148374557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72143888473511</t>
+    <t xml:space="preserve">6.99540948867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87668943405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93148326873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72143840789795</t>
   </si>
   <si>
     <t xml:space="preserve">6.7305703163147</t>
@@ -3206,28 +3206,28 @@
     <t xml:space="preserve">6.67577648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62098169326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64837980270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53879070281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5844521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618785858154</t>
+    <t xml:space="preserve">6.62098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6483793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53879022598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58445262908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618738174438</t>
   </si>
   <si>
     <t xml:space="preserve">6.36527490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4474663734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49312877655029</t>
+    <t xml:space="preserve">6.44746685028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49312829971313</t>
   </si>
   <si>
     <t xml:space="preserve">6.47486400604248</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">6.52965784072876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48399591445923</t>
+    <t xml:space="preserve">6.48399639129639</t>
   </si>
   <si>
     <t xml:space="preserve">6.3561429977417</t>
@@ -3257,13 +3257,13 @@
     <t xml:space="preserve">6.08217096328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05477380752563</t>
+    <t xml:space="preserve">6.05477333068848</t>
   </si>
   <si>
     <t xml:space="preserve">6.12783288955688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13696479797363</t>
+    <t xml:space="preserve">6.13696527481079</t>
   </si>
   <si>
     <t xml:space="preserve">5.96345043182373</t>
@@ -3278,13 +3278,13 @@
     <t xml:space="preserve">6.10956811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04564142227173</t>
+    <t xml:space="preserve">6.04564094543457</t>
   </si>
   <si>
     <t xml:space="preserve">6.3013482093811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57531976699829</t>
+    <t xml:space="preserve">6.57532024383545</t>
   </si>
   <si>
     <t xml:space="preserve">6.42006969451904</t>
@@ -3293,10 +3293,10 @@
     <t xml:space="preserve">6.54792261123657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27395105361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317363739014</t>
+    <t xml:space="preserve">6.27395057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317411422729</t>
   </si>
   <si>
     <t xml:space="preserve">6.50226068496704</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">6.39267206192017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33787775039673</t>
+    <t xml:space="preserve">6.33787822723389</t>
   </si>
   <si>
     <t xml:space="preserve">6.38353967666626</t>
@@ -3317,46 +3317,46 @@
     <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24655389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915674209595</t>
+    <t xml:space="preserve">6.24655437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915721893311</t>
   </si>
   <si>
     <t xml:space="preserve">6.37440729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23742151260376</t>
+    <t xml:space="preserve">6.23742198944092</t>
   </si>
   <si>
     <t xml:space="preserve">6.43833446502686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2922158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17349529266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32874584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20089197158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28308391571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870098114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14609813690186</t>
+    <t xml:space="preserve">6.29221534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17349481582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32874536514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20089244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28308343887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460976600647</t>
   </si>
   <si>
     <t xml:space="preserve">6.25568675994873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51139354705811</t>
+    <t xml:space="preserve">6.51139307022095</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180492401123</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">6.73970317840576</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94061517715454</t>
+    <t xml:space="preserve">6.9406156539917</t>
   </si>
   <si>
     <t xml:space="preserve">6.97714519500732</t>
@@ -3374,16 +3374,16 @@
     <t xml:space="preserve">7.02280712127686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81276226043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74883556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230554580688</t>
+    <t xml:space="preserve">6.81276178359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74883508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449701309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230602264404</t>
   </si>
   <si>
     <t xml:space="preserve">6.55705499649048</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">6.63924694061279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61184978485107</t>
+    <t xml:space="preserve">6.61184930801392</t>
   </si>
   <si>
     <t xml:space="preserve">6.91321849822998</t>
@@ -3407,31 +3407,31 @@
     <t xml:space="preserve">6.8584246635437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86755609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015893936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189464569092</t>
+    <t xml:space="preserve">6.86755657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189416885376</t>
   </si>
   <si>
     <t xml:space="preserve">6.89495372772217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83102655410767</t>
+    <t xml:space="preserve">6.83102703094482</t>
   </si>
   <si>
     <t xml:space="preserve">6.46573162078857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31961297988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326335906982</t>
+    <t xml:space="preserve">6.31961345672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048011779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326383590698</t>
   </si>
   <si>
     <t xml:space="preserve">6.60271739959717</t>
@@ -3443,16 +3443,16 @@
     <t xml:space="preserve">6.78536462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92235040664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066236495972</t>
+    <t xml:space="preserve">6.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066188812256</t>
   </si>
   <si>
     <t xml:space="preserve">7.00706672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79360675811768</t>
+    <t xml:space="preserve">6.79360628128052</t>
   </si>
   <si>
     <t xml:space="preserve">7.10915613174438</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">7.43398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35973978042603</t>
+    <t xml:space="preserve">7.35974025726318</t>
   </si>
   <si>
     <t xml:space="preserve">7.28549289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25765085220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23908853530884</t>
+    <t xml:space="preserve">7.25765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.239089012146</t>
   </si>
   <si>
     <t xml:space="preserve">7.19268417358398</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">7.15556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36902141571045</t>
+    <t xml:space="preserve">7.36902093887329</t>
   </si>
   <si>
     <t xml:space="preserve">7.42470645904541</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">7.27621221542358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2483696937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693105697632</t>
+    <t xml:space="preserve">7.24836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693153381348</t>
   </si>
   <si>
     <t xml:space="preserve">7.18340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16484117507935</t>
+    <t xml:space="preserve">7.1648416519165</t>
   </si>
   <si>
     <t xml:space="preserve">6.9049768447876</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">7.06275177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07203245162964</t>
+    <t xml:space="preserve">7.0720329284668</t>
   </si>
   <si>
     <t xml:space="preserve">7.13699913024902</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">7.20196533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32261657714844</t>
+    <t xml:space="preserve">7.32261610031128</t>
   </si>
   <si>
     <t xml:space="preserve">7.41542482376099</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">7.40614461898804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68457078933716</t>
+    <t xml:space="preserve">7.68457126617432</t>
   </si>
   <si>
     <t xml:space="preserve">7.77737998962402</t>
@@ -3596,31 +3596,31 @@
     <t xml:space="preserve">7.48039197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71241426467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234571456909</t>
+    <t xml:space="preserve">7.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234523773193</t>
   </si>
   <si>
     <t xml:space="preserve">7.76809883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65672874450684</t>
+    <t xml:space="preserve">7.65672826766968</t>
   </si>
   <si>
     <t xml:space="preserve">7.67529058456421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79594135284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097515106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176206588745</t>
+    <t xml:space="preserve">7.79594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176301956177</t>
   </si>
   <si>
     <t xml:space="preserve">7.54535818099976</t>
@@ -3632,25 +3632,25 @@
     <t xml:space="preserve">7.09059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87713384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072996139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77504444122314</t>
+    <t xml:space="preserve">6.87713432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85857200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7750449180603</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001016616821</t>
+    <t xml:space="preserve">6.84001064300537</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785364151001</t>
+    <t xml:space="preserve">6.86785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6543927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60798835754395</t>
+    <t xml:space="preserve">6.65439319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6079888343811</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661827087402</t>
+    <t xml:space="preserve">6.49661779403687</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3701,22 +3701,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210004806519</t>
+    <t xml:space="preserve">6.94210052490234</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980737686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63816595077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032390594482</t>
+    <t xml:space="preserve">7.22980785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6381664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679586410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3725,31 +3725,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98155975341797</t>
+    <t xml:space="preserve">7.89803123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98156023025513</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8887505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0465259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083995819092</t>
+    <t xml:space="preserve">8.05580615997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88875007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04652500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083948135376</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436752319336</t>
+    <t xml:space="preserve">8.07436847686768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286128997803</t>
+    <t xml:space="preserve">8.22286224365234</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940132141113</t>
+    <t xml:space="preserve">8.00940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3776,13 +3776,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443607330322</t>
+    <t xml:space="preserve">7.94443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488357543945</t>
+    <t xml:space="preserve">8.45488452911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -61226,7 +61226,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6495023148</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>72758</v>
@@ -61238,7 +61238,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="E2185" t="n">
-        <v>8.75</v>
+        <v>8.96000003814697</v>
       </c>
       <c r="F2185" t="n">
         <v>8.92000007629395</v>
@@ -61247,6 +61247,32 @@
         <v>1322</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6495486111</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>39978</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>8.96000003814697</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>8.71000003814697</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.8033275604248</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573612213135</t>
+    <t xml:space="preserve">8.74573707580566</t>
   </si>
   <si>
     <t xml:space="preserve">8.7210521697998</t>
@@ -53,97 +53,97 @@
     <t xml:space="preserve">8.72928047180176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79509925842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77864456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54827880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359485626221</t>
+    <t xml:space="preserve">8.79510116577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77864551544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359580993652</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764289855957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14513397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10399723052979</t>
+    <t xml:space="preserve">8.1451358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10399913787842</t>
   </si>
   <si>
     <t xml:space="preserve">8.60586929321289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43309497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25209045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259223937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5400505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46600341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22740936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613849639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63877773284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473159790039</t>
+    <t xml:space="preserve">8.4330940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968379974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34259128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54004859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46600437164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22740840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613754272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877964019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473350524902</t>
   </si>
   <si>
     <t xml:space="preserve">8.6716890335083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87737369537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9185094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92673778533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98433017730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978321075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91028308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0419225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787548065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89382934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05014991760254</t>
+    <t xml:space="preserve">8.87737560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91851139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92673873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98433208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978225708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9102840423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192066192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787643432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89383029937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05014896392822</t>
   </si>
   <si>
     <t xml:space="preserve">8.97610378265381</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">8.86091899871826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09951496124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09128570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06660270690918</t>
+    <t xml:space="preserve">9.09951305389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09128665924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0666036605835</t>
   </si>
   <si>
     <t xml:space="preserve">9.21469783782959</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">9.46974849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52733993530273</t>
+    <t xml:space="preserve">9.54379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52733898162842</t>
   </si>
   <si>
     <t xml:space="preserve">9.55202293395996</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">9.83998107910156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7165699005127</t>
+    <t xml:space="preserve">9.71656894683838</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289142608643</t>
@@ -197,37 +197,37 @@
     <t xml:space="preserve">9.94693660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51088428497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93048191070557</t>
+    <t xml:space="preserve">9.51088523864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9304838180542</t>
   </si>
   <si>
     <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83175373077393</t>
+    <t xml:space="preserve">9.83175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114854812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88934421539307</t>
+    <t xml:space="preserve">10.1114845275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8893461227417</t>
   </si>
   <si>
     <t xml:space="preserve">10.3994455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488086700439</t>
+    <t xml:space="preserve">10.4652643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488096237183</t>
   </si>
   <si>
     <t xml:space="preserve">10.613356590271</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722208023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5307941436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2490873336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2739448547363</t>
+    <t xml:space="preserve">10.5722198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5307931900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2490863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2739458084106</t>
   </si>
   <si>
     <t xml:space="preserve">10.3567991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.497652053833</t>
+    <t xml:space="preserve">10.4976511001587</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805053710938</t>
@@ -263,76 +263,76 @@
     <t xml:space="preserve">10.4893655776978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3982267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253810882568</t>
+    <t xml:space="preserve">10.3982257843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396533966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910905838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253820419312</t>
   </si>
   <si>
     <t xml:space="preserve">9.98395442962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94252681732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85967254638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96738338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0668087005615</t>
+    <t xml:space="preserve">9.94252777099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85967350006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082353591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95909881591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96738243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0668077468872</t>
   </si>
   <si>
     <t xml:space="preserve">10.5225076675415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1165199279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1579494476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3816576004028</t>
+    <t xml:space="preserve">10.1165208816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1579475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3816566467285</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5556497573853</t>
+    <t xml:space="preserve">10.5556507110596</t>
   </si>
   <si>
     <t xml:space="preserve">10.5639352798462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4147977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2325172424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5887908935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473651885986</t>
+    <t xml:space="preserve">10.4147987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232518196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.588791847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.54736328125</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142230987549</t>
@@ -344,16 +344,16 @@
     <t xml:space="preserve">10.4645099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1330919265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3485126495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3650827407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6136484146118</t>
+    <t xml:space="preserve">10.133092880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3485136032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.365083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6136474609375</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059366226196</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">10.4562244415283</t>
   </si>
   <si>
-    <t xml:space="preserve">10.539080619812</t>
+    <t xml:space="preserve">10.5390787124634</t>
   </si>
   <si>
     <t xml:space="preserve">10.2988004684448</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">10.2242336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1662359237671</t>
+    <t xml:space="preserve">10.1662340164185</t>
   </si>
   <si>
     <t xml:space="preserve">10.1248054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.323657989502</t>
+    <t xml:space="preserve">10.3236570358276</t>
   </si>
   <si>
     <t xml:space="preserve">10.182804107666</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">10.3402290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5970764160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6716451644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213582992554</t>
+    <t xml:space="preserve">10.5970773696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6716461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213592529297</t>
   </si>
   <si>
     <t xml:space="preserve">10.7544994354248</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0610609054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1107740402222</t>
+    <t xml:space="preserve">11.0610618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1107730865479</t>
   </si>
   <si>
     <t xml:space="preserve">11.127345085144</t>
@@ -431,166 +431,166 @@
     <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1853427886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3096237182617</t>
+    <t xml:space="preserve">11.1853437423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3096227645874</t>
   </si>
   <si>
     <t xml:space="preserve">11.0196342468262</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9036378860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776338577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7710695266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302194595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8622102737427</t>
+    <t xml:space="preserve">10.9036388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953523635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776319503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870658874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.771071434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6799306869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302175521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622093200684</t>
   </si>
   <si>
     <t xml:space="preserve">10.8042125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6633596420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7462139129639</t>
+    <t xml:space="preserve">10.6633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7462148666382</t>
   </si>
   <si>
     <t xml:space="preserve">10.7627859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7047882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8787822723389</t>
+    <t xml:space="preserve">10.7047872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8787832260132</t>
   </si>
   <si>
     <t xml:space="preserve">10.7959280014038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6965017318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924798965454</t>
+    <t xml:space="preserve">10.6965026855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924789428711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4339065551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3510522842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1439161300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599115371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2681980133057</t>
+    <t xml:space="preserve">11.3510503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1439151763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024885177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2599124908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2681970596313</t>
   </si>
   <si>
     <t xml:space="preserve">11.0859184265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9450635910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687726974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.135630607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.359338760376</t>
+    <t xml:space="preserve">10.9450654983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687707901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1356315612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.359335899353</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847681045532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4753341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4587640762329</t>
+    <t xml:space="preserve">11.4753351211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587621688843</t>
   </si>
   <si>
     <t xml:space="preserve">11.226770401001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344812393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3013401031494</t>
+    <t xml:space="preserve">11.0942039489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344831466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841934204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3013391494751</t>
   </si>
   <si>
     <t xml:space="preserve">11.1770572662354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9533500671387</t>
+    <t xml:space="preserve">10.9533529281616</t>
   </si>
   <si>
     <t xml:space="preserve">11.2764825820923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6658992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1215963363647</t>
+    <t xml:space="preserve">11.6658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1215972900391</t>
   </si>
   <si>
     <t xml:space="preserve">12.0967416763306</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0470275878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2624521255493</t>
+    <t xml:space="preserve">12.0470285415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2624492645264</t>
   </si>
   <si>
     <t xml:space="preserve">12.221022605896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3453054428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044515609741</t>
+    <t xml:space="preserve">12.3453035354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044525146484</t>
   </si>
   <si>
     <t xml:space="preserve">12.312162399292</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">12.6352958679199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6684370040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8092889785767</t>
+    <t xml:space="preserve">12.6684379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.809289932251</t>
   </si>
   <si>
     <t xml:space="preserve">12.6435804367065</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">12.6021537780762</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4944438934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3370180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695854187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.676721572876</t>
+    <t xml:space="preserve">12.494441986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3370189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6767225265503</t>
   </si>
   <si>
     <t xml:space="preserve">12.7595767974854</t>
@@ -632,16 +632,16 @@
     <t xml:space="preserve">13.2318477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2484178543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3644142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4224128723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466947555542</t>
+    <t xml:space="preserve">13.2484169006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3644132614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4224119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466928482056</t>
   </si>
   <si>
     <t xml:space="preserve">14.3420944213867</t>
@@ -650,34 +650,34 @@
     <t xml:space="preserve">14.7066535949707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.748083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9137916564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338079452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698244094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709775924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538280487061</t>
+    <t xml:space="preserve">14.7480812072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9137897491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698263168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709766387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538299560547</t>
   </si>
   <si>
     <t xml:space="preserve">14.0935316085815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9195384979248</t>
+    <t xml:space="preserve">13.9195375442505</t>
   </si>
   <si>
     <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
-    <t xml:space="preserve">14.300669670105</t>
+    <t xml:space="preserve">14.3006687164307</t>
   </si>
   <si>
     <t xml:space="preserve">14.2923831939697</t>
@@ -686,67 +686,67 @@
     <t xml:space="preserve">14.8640785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4580907821655</t>
+    <t xml:space="preserve">14.4580917358398</t>
   </si>
   <si>
     <t xml:space="preserve">14.4995193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8392219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6238012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895097732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315111160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937696456909</t>
+    <t xml:space="preserve">14.83922290802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817998886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895088195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315092086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937734603882</t>
   </si>
   <si>
     <t xml:space="preserve">15.5766258239746</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5683393478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180543899536</t>
+    <t xml:space="preserve">15.568341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.618052482605</t>
   </si>
   <si>
     <t xml:space="preserve">15.7423343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8831844329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523458480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6097660064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.518627166748</t>
+    <t xml:space="preserve">15.8831882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523477554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020570755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.609769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186262130737</t>
   </si>
   <si>
     <t xml:space="preserve">15.7257623672485</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037839889526</t>
+    <t xml:space="preserve">15.4440593719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203782081604</t>
   </si>
   <si>
     <t xml:space="preserve">15.1371688842773</t>
@@ -755,112 +755,112 @@
     <t xml:space="preserve">15.2870435714722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.578462600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370891571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036947250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285898208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699689865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949447631836</t>
+    <t xml:space="preserve">15.578465461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949466705322</t>
   </si>
   <si>
     <t xml:space="preserve">15.8615579605103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5201768875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528507232666</t>
+    <t xml:space="preserve">15.5201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285062789917</t>
   </si>
   <si>
     <t xml:space="preserve">15.4202642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1954555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366647720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782926559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783800125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9031896591187</t>
+    <t xml:space="preserve">15.1954545974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366619110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782945632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868774414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783790588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.90318775177</t>
   </si>
   <si>
     <t xml:space="preserve">15.8199243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450719833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040374755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951147079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618104934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284189224243</t>
+    <t xml:space="preserve">15.645073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289297103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372562408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951156616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284227371216</t>
   </si>
   <si>
     <t xml:space="preserve">15.7533168792725</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9448175430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200107574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117668151855</t>
+    <t xml:space="preserve">15.9448184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.695032119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.720009803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117677688599</t>
   </si>
   <si>
     <t xml:space="preserve">15.7449893951416</t>
@@ -869,73 +869,73 @@
     <t xml:space="preserve">15.620096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4452438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1121921539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787189483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370008468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702234268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6034421920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035285949707</t>
+    <t xml:space="preserve">15.4452428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037801742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112193107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957944869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787179946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203496932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120203018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538228988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368337631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.603443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.503529548645</t>
   </si>
   <si>
     <t xml:space="preserve">15.5118532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534830093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4036102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7033557891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869562149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619785308838</t>
+    <t xml:space="preserve">15.5534858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4036111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7033567428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869600296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619794845581</t>
   </si>
   <si>
     <t xml:space="preserve">16.6525554656982</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">16.4943561553955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026798248291</t>
+    <t xml:space="preserve">16.5026817321777</t>
   </si>
   <si>
     <t xml:space="preserve">16.4110927581787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.344482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4443969726562</t>
+    <t xml:space="preserve">16.3444805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4443988800049</t>
   </si>
   <si>
     <t xml:space="preserve">16.302848815918</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">16.1030197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7116832733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.461895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614715576172</t>
+    <t xml:space="preserve">15.7116823196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618949890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614725112915</t>
   </si>
   <si>
     <t xml:space="preserve">15.8449039459229</t>
@@ -986,22 +986,22 @@
     <t xml:space="preserve">15.8532304763794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9531469345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0031032562256</t>
+    <t xml:space="preserve">15.9531450271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.003101348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.0530605316162</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9864530563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.836576461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281692504883</t>
+    <t xml:space="preserve">15.9864511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365774154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281673431396</t>
   </si>
   <si>
     <t xml:space="preserve">15.6367464065552</t>
@@ -1010,55 +1010,55 @@
     <t xml:space="preserve">15.6533994674683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.78662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0280799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0697116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861141204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5443115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.602596282959</t>
+    <t xml:space="preserve">15.7866230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0697135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.386116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5443134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6025943756104</t>
   </si>
   <si>
     <t xml:space="preserve">16.8190784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7774486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.694185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4693756103516</t>
+    <t xml:space="preserve">16.8607120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7774505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6941833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4693775177002</t>
   </si>
   <si>
     <t xml:space="preserve">16.2029342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.369457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353935241699</t>
+    <t xml:space="preserve">16.3694610595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353916168213</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272350311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1105003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684413909912</t>
+    <t xml:space="preserve">17.1104984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684452056885</t>
   </si>
   <si>
     <t xml:space="preserve">17.4019184112549</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3186588287354</t>
+    <t xml:space="preserve">17.3186569213867</t>
   </si>
   <si>
     <t xml:space="preserve">17.443546295166</t>
@@ -1079,25 +1079,25 @@
     <t xml:space="preserve">17.0688667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5193328857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1363258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1196727752686</t>
+    <t xml:space="preserve">16.5193309783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1196708679199</t>
   </si>
   <si>
     <t xml:space="preserve">16.0197563171387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4194183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2528953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861976623535</t>
+    <t xml:space="preserve">16.4194202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861957550049</t>
   </si>
   <si>
     <t xml:space="preserve">16.0364093780518</t>
@@ -1106,34 +1106,34 @@
     <t xml:space="preserve">16.2695465087891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0705623626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.270393371582</t>
+    <t xml:space="preserve">15.0705614089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703905105591</t>
   </si>
   <si>
     <t xml:space="preserve">15.4535694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.670051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6709003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374261856079</t>
+    <t xml:space="preserve">15.6700534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709012985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.837423324585</t>
   </si>
   <si>
     <t xml:space="preserve">14.6542463302612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4044570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878904342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543336868286</t>
+    <t xml:space="preserve">14.4044589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878923416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5543327331543</t>
   </si>
   <si>
     <t xml:space="preserve">14.5376787185669</t>
@@ -1142,28 +1142,28 @@
     <t xml:space="preserve">14.3711547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708168029785</t>
+    <t xml:space="preserve">14.7708177566528</t>
   </si>
   <si>
     <t xml:space="preserve">14.4877223968506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2212800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1380176544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714063644409</t>
+    <t xml:space="preserve">14.2212810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1380186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714073181152</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3878078460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3211975097656</t>
+    <t xml:space="preserve">14.387806892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.321195602417</t>
   </si>
   <si>
     <t xml:space="preserve">14.7541627883911</t>
@@ -1172,40 +1172,40 @@
     <t xml:space="preserve">15.0039510726929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8041191101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.020604133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038665771484</t>
+    <t xml:space="preserve">14.8041181564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0206022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198408126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038646697998</t>
   </si>
   <si>
     <t xml:space="preserve">15.0954971313477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0285549163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946723937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1457042694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293844223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101665496826</t>
+    <t xml:space="preserve">15.0285558700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1457061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293825149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.8570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4093379974365</t>
+    <t xml:space="preserve">14.4093399047852</t>
   </si>
   <si>
     <t xml:space="preserve">14.2252473831177</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">14.325662612915</t>
   </si>
   <si>
-    <t xml:space="preserve">14.72731590271</t>
+    <t xml:space="preserve">14.7273149490356</t>
   </si>
   <si>
     <t xml:space="preserve">14.6436376571655</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8444652557373</t>
+    <t xml:space="preserve">14.8444671630859</t>
   </si>
   <si>
     <t xml:space="preserve">14.5264883041382</t>
@@ -1229,28 +1229,28 @@
     <t xml:space="preserve">14.5599603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6771087646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4762811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3926048278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9616136550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0118217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7775239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2126474380493</t>
+    <t xml:space="preserve">14.6771097183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.476282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3926038742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603746414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9616146087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0118198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7775230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2126455307007</t>
   </si>
   <si>
     <t xml:space="preserve">15.2795886993408</t>
@@ -1259,139 +1259,139 @@
     <t xml:space="preserve">15.1791753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9950866699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452909469604</t>
+    <t xml:space="preserve">14.9950847625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452899932861</t>
   </si>
   <si>
     <t xml:space="preserve">15.1122341156006</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3632688522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2628545761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0620288848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3297996520996</t>
+    <t xml:space="preserve">15.3632669448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2628555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0620260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3297958374023</t>
   </si>
   <si>
     <t xml:space="preserve">15.7314500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6812429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6142997741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473585128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.463680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6477699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114065170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649240493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4804153442383</t>
+    <t xml:space="preserve">15.6812448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143026351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5306234359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6477737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114055633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.56409740448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6979808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971523284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649230957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">15.2963256835938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3130617141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109922409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624402999878</t>
+    <t xml:space="preserve">15.313060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624393463135</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432243347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.593430519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942581176758</t>
+    <t xml:space="preserve">14.5432252883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5934314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">14.8277292251587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6938428878784</t>
+    <t xml:space="preserve">14.6938447952271</t>
   </si>
   <si>
     <t xml:space="preserve">13.7399168014526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7231798171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060314178467</t>
+    <t xml:space="preserve">13.723180770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897106170654</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9742136001587</t>
+    <t xml:space="preserve">13.974214553833</t>
   </si>
   <si>
     <t xml:space="preserve">14.0913639068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7064447402954</t>
+    <t xml:space="preserve">13.7064456939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211122512817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047914505005</t>
+    <t xml:space="preserve">13.5892953872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047924041748</t>
   </si>
   <si>
     <t xml:space="preserve">12.7023086547852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9533424377441</t>
+    <t xml:space="preserve">12.9533433914185</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198722839355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0872268676758</t>
+    <t xml:space="preserve">13.0872278213501</t>
   </si>
   <si>
     <t xml:space="preserve">13.1541700363159</t>
@@ -1409,43 +1409,43 @@
     <t xml:space="preserve">12.6186323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5516901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512758255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0496215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7818517684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1835060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157361984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006563186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.384334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5349531173706</t>
+    <t xml:space="preserve">12.5516891479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512748718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0496225357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965211868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1835069656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157381057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3843336105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5349540710449</t>
   </si>
   <si>
     <t xml:space="preserve">11.3801984786987</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7168369293213</t>
+    <t xml:space="preserve">11.7168378829956</t>
   </si>
   <si>
     <t xml:space="preserve">12.2764472961426</t>
@@ -1454,28 +1454,28 @@
     <t xml:space="preserve">12.2239837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8392524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9266929626465</t>
+    <t xml:space="preserve">11.8392534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9266910552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4894971847534</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0316181182861</t>
+    <t xml:space="preserve">12.0316171646118</t>
   </si>
   <si>
     <t xml:space="preserve">12.7661075592041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1365461349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9791536331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.891716003418</t>
+    <t xml:space="preserve">12.1365451812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9791564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8917169570923</t>
   </si>
   <si>
     <t xml:space="preserve">12.1540327072144</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">11.5594482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8042774200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7518119812012</t>
+    <t xml:space="preserve">11.8042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7518138885498</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163503646851</t>
@@ -1502,31 +1502,31 @@
     <t xml:space="preserve">12.521276473999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5912275314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5037899017334</t>
+    <t xml:space="preserve">12.5912284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5037889480591</t>
   </si>
   <si>
     <t xml:space="preserve">12.3638868331909</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4688138961792</t>
+    <t xml:space="preserve">12.4688148498535</t>
   </si>
   <si>
     <t xml:space="preserve">11.6643743515015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7867889404297</t>
+    <t xml:space="preserve">11.7867879867554</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616670608521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8567399978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8742275238037</t>
+    <t xml:space="preserve">11.8567409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.874228477478</t>
   </si>
   <si>
     <t xml:space="preserve">11.7343254089355</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8535461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8360586166382</t>
+    <t xml:space="preserve">12.5562543869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8535451889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8360576629639</t>
   </si>
   <si>
     <t xml:space="preserve">12.69615650177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087169647217</t>
+    <t xml:space="preserve">12.6087160110474</t>
   </si>
   <si>
     <t xml:space="preserve">12.8185701370239</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2939357757568</t>
+    <t xml:space="preserve">12.2939367294312</t>
   </si>
   <si>
     <t xml:space="preserve">11.9441795349121</t>
@@ -1583,52 +1583,52 @@
     <t xml:space="preserve">11.3845691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9298868179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8074712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2446670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1572275161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1397390365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2096910476685</t>
+    <t xml:space="preserve">10.9298858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8074703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446660995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1572284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1397399902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271776199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2096900939941</t>
   </si>
   <si>
     <t xml:space="preserve">11.4720077514648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4545211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1922025680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.437032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6818628311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141315460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1015691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0665941238403</t>
+    <t xml:space="preserve">11.4545202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1922035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4370336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6818609237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141305923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1015701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0665950775146</t>
   </si>
   <si>
     <t xml:space="preserve">11.3321056365967</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">11.3146181106567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621536254883</t>
+    <t xml:space="preserve">11.2621545791626</t>
   </si>
   <si>
     <t xml:space="preserve">11.5419597625732</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0869455337524</t>
+    <t xml:space="preserve">11.0869436264038</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
@@ -1652,31 +1652,31 @@
     <t xml:space="preserve">11.4565095901489</t>
   </si>
   <si>
-    <t xml:space="preserve">11.650089263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8436737060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.861270904541</t>
+    <t xml:space="preserve">11.6500902175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8436727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
     <t xml:space="preserve">11.632493019104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1925344467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2981243133545</t>
+    <t xml:space="preserve">11.192533493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2981233596802</t>
   </si>
   <si>
     <t xml:space="preserve">11.157338142395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.174934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805261611938</t>
+    <t xml:space="preserve">11.1749353408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">11.386116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.421311378479</t>
+    <t xml:space="preserve">11.4213123321533</t>
   </si>
   <si>
     <t xml:space="preserve">11.7028856277466</t>
@@ -1694,31 +1694,31 @@
     <t xml:space="preserve">11.7380828857422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0548515319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8964672088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7732791900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0020589828491</t>
+    <t xml:space="preserve">12.0548534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.896466255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7732782363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0020570755005</t>
   </si>
   <si>
     <t xml:space="preserve">11.7908773422241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.438910484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5445013046265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5093040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5269041061401</t>
+    <t xml:space="preserve">11.4389114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5445003509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5269021987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084754943848</t>
@@ -1733,25 +1733,25 @@
     <t xml:space="preserve">12.2308349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3716220855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0724515914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1604423522949</t>
+    <t xml:space="preserve">12.1428451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124082565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3716230392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0724506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1604413986206</t>
   </si>
   <si>
     <t xml:space="preserve">12.6707935333252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059898376465</t>
+    <t xml:space="preserve">12.7059888839722</t>
   </si>
   <si>
     <t xml:space="preserve">12.4948101043701</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">11.5796966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.614893913269</t>
+    <t xml:space="preserve">11.6148948669434</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621004104614</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">11.4741077423096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7556810379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333206176758</t>
+    <t xml:space="preserve">11.7556800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333215713501</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917058944702</t>
@@ -1784,10 +1784,10 @@
     <t xml:space="preserve">12.2132368087769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.565203666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4772119522095</t>
+    <t xml:space="preserve">12.5652027130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4772109985352</t>
   </si>
   <si>
     <t xml:space="preserve">12.5828018188477</t>
@@ -1796,16 +1796,16 @@
     <t xml:space="preserve">12.4596138000488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.125244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844598770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076469421387</t>
+    <t xml:space="preserve">12.1252450942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668617248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844579696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076459884644</t>
   </si>
   <si>
     <t xml:space="preserve">12.3188276290894</t>
@@ -1814,28 +1814,28 @@
     <t xml:space="preserve">12.33642578125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1780405044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2836294174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3892211914062</t>
+    <t xml:space="preserve">12.1780414581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2836303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3892202377319</t>
   </si>
   <si>
     <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923254013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451198577881</t>
+    <t xml:space="preserve">13.3923244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451208114624</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635465621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3571281433105</t>
+    <t xml:space="preserve">13.3571290969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.2515392303467</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4627180099487</t>
+    <t xml:space="preserve">13.4099225997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.462718963623</t>
   </si>
   <si>
     <t xml:space="preserve">13.6387014389038</t>
@@ -1859,37 +1859,37 @@
     <t xml:space="preserve">13.2867345809937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4275217056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3395299911499</t>
+    <t xml:space="preserve">13.4275207519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3395309448242</t>
   </si>
   <si>
     <t xml:space="preserve">12.5476064682007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4068183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.811580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3043336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5859060287476</t>
+    <t xml:space="preserve">12.4068193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8115797042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3043327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5859069824219</t>
   </si>
   <si>
     <t xml:space="preserve">13.4803161621094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3219327926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283502578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9523668289185</t>
+    <t xml:space="preserve">13.3219308853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9523677825928</t>
   </si>
   <si>
     <t xml:space="preserve">13.0579566955566</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">12.9171695709229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0227603912354</t>
+    <t xml:space="preserve">13.022759437561</t>
   </si>
   <si>
     <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347686767578</t>
+    <t xml:space="preserve">12.9347677230835</t>
   </si>
   <si>
     <t xml:space="preserve">12.8995714187622</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6355962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7587842941284</t>
+    <t xml:space="preserve">12.6355981826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7587862014771</t>
   </si>
   <si>
     <t xml:space="preserve">12.7411861419678</t>
@@ -1922,16 +1922,16 @@
     <t xml:space="preserve">12.090048789978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012294769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0372552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6676893234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6852884292603</t>
+    <t xml:space="preserve">12.3012285232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0372543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.667688369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6852874755859</t>
   </si>
   <si>
     <t xml:space="preserve">11.3157224655151</t>
@@ -1946,13 +1946,13 @@
     <t xml:space="preserve">11.2277317047119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0693464279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2101335525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1366357803345</t>
+    <t xml:space="preserve">11.0693454742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.210132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366348266602</t>
   </si>
   <si>
     <t xml:space="preserve">10.0134468078613</t>
@@ -1961,22 +1961,22 @@
     <t xml:space="preserve">10.3126182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1894292831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94305324554443</t>
+    <t xml:space="preserve">10.1894302368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94305419921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.57348823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46789836883545</t>
+    <t xml:space="preserve">9.46789741516113</t>
   </si>
   <si>
     <t xml:space="preserve">9.32711219787598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30951309204102</t>
+    <t xml:space="preserve">9.30951404571533</t>
   </si>
   <si>
     <t xml:space="preserve">9.20392417907715</t>
@@ -1988,16 +1988,16 @@
     <t xml:space="preserve">8.03363513946533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564342498779</t>
+    <t xml:space="preserve">7.94564390182495</t>
   </si>
   <si>
     <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25051021575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">7.25050973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97463083267212</t>
+    <t xml:space="preserve">5.97463130950928</t>
   </si>
   <si>
     <t xml:space="preserve">6.24740505218506</t>
@@ -2015,37 +2015,37 @@
     <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20340919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07142210006714</t>
+    <t xml:space="preserve">6.20340967178345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0714225769043</t>
   </si>
   <si>
     <t xml:space="preserve">5.73705387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05382347106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01862764358521</t>
+    <t xml:space="preserve">6.05382299423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01862716674805</t>
   </si>
   <si>
     <t xml:space="preserve">6.04502439498901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98342990875244</t>
+    <t xml:space="preserve">5.98343086242676</t>
   </si>
   <si>
     <t xml:space="preserve">6.15941381454468</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18581104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51138019561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100734710693</t>
+    <t xml:space="preserve">6.1858115196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51137971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100782394409</t>
   </si>
   <si>
     <t xml:space="preserve">6.6873631477356</t>
@@ -2060,28 +2060,28 @@
     <t xml:space="preserve">6.59057235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66096639633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1537184715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25930833816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96893692016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29450559616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03932952880859</t>
+    <t xml:space="preserve">6.66096544265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06572675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15371894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25930881500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96893644332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29450511932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03933000564575</t>
   </si>
   <si>
     <t xml:space="preserve">7.05692863464355</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">6.91614151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378156661987</t>
+    <t xml:space="preserve">6.49378204345703</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858478546143</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">6.62576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71376085281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69616270065308</t>
+    <t xml:space="preserve">6.71376037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69616222381592</t>
   </si>
   <si>
     <t xml:space="preserve">6.8193507194519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03052997589111</t>
+    <t xml:space="preserve">7.03053045272827</t>
   </si>
   <si>
     <t xml:space="preserve">7.18011617660522</t>
@@ -2117,31 +2117,31 @@
     <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34730052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970285415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31210422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47928762435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843883514404</t>
+    <t xml:space="preserve">7.34730005264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31210470199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47928810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99843788146973</t>
   </si>
   <si>
     <t xml:space="preserve">8.21841716766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00723743438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97204113006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725957870483</t>
+    <t xml:space="preserve">8.00723838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97204160690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725910186768</t>
   </si>
   <si>
     <t xml:space="preserve">7.36489868164062</t>
@@ -2150,37 +2150,37 @@
     <t xml:space="preserve">7.46168899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63767337799072</t>
+    <t xml:space="preserve">7.63767290115356</t>
   </si>
   <si>
     <t xml:space="preserve">7.40009546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41769361495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62887334823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7256646156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448488235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88404989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74326276779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66407012939453</t>
+    <t xml:space="preserve">7.41769409179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6288743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72566318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74326324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66407108306885</t>
   </si>
   <si>
     <t xml:space="preserve">7.58487844467163</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">7.60247659683228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75206136703491</t>
+    <t xml:space="preserve">7.75206279754639</t>
   </si>
   <si>
     <t xml:space="preserve">7.5232834815979</t>
@@ -2198,103 +2198,103 @@
     <t xml:space="preserve">7.59367704391479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21531343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04812955856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0041332244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26810789108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33850193023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10092401504517</t>
+    <t xml:space="preserve">7.21531248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04812860488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00413274765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26810741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3385009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10092353820801</t>
   </si>
   <si>
     <t xml:space="preserve">7.12732219696045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14491891860962</t>
+    <t xml:space="preserve">7.14491987228394</t>
   </si>
   <si>
     <t xml:space="preserve">6.92494058609009</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79295301437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88094472885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334705352783</t>
+    <t xml:space="preserve">6.79295349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88094520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334609985352</t>
   </si>
   <si>
     <t xml:space="preserve">6.78415441513062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72255992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7049617767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738433837891</t>
+    <t xml:space="preserve">6.7225604057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70496129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738386154175</t>
   </si>
   <si>
     <t xml:space="preserve">6.59937143325806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43218755722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620460510254</t>
+    <t xml:space="preserve">6.43218803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620412826538</t>
   </si>
   <si>
     <t xml:space="preserve">6.37059307098389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28260183334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2650032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19461059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23860597610474</t>
+    <t xml:space="preserve">6.28260135650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26500368118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19461011886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23860549926758</t>
   </si>
   <si>
     <t xml:space="preserve">6.48498249053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5025806427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47618341445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54657745361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66976499557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73135900497437</t>
+    <t xml:space="preserve">6.50258111953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47618389129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54657697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66976547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73135948181152</t>
   </si>
   <si>
     <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60817050933838</t>
+    <t xml:space="preserve">6.6081714630127</t>
   </si>
   <si>
     <t xml:space="preserve">6.52897834777832</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67856407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40579032897949</t>
+    <t xml:space="preserve">6.67856454849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40578985214233</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980690002441</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">6.168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82504463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64026308059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4114842414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37628889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4290828704834</t>
+    <t xml:space="preserve">5.82504510879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64026260375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41148471832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37628841400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42908334732056</t>
   </si>
   <si>
     <t xml:space="preserve">5.45548057556152</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">5.85144281387329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84574794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80175256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8897442817688</t>
+    <t xml:space="preserve">6.84574842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8017520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88974380493164</t>
   </si>
   <si>
     <t xml:space="preserve">7.90164709091187</t>
@@ -2354,76 +2354,76 @@
     <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96324253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125400543213</t>
+    <t xml:space="preserve">7.9632420539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125495910645</t>
   </si>
   <si>
     <t xml:space="preserve">7.82245540618896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70806550979614</t>
+    <t xml:space="preserve">7.70806694030762</t>
   </si>
   <si>
     <t xml:space="preserve">7.65527057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76086091995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80485725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64647197723389</t>
+    <t xml:space="preserve">7.76086044311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.804856300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64647150039673</t>
   </si>
   <si>
     <t xml:space="preserve">7.53208351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87525033950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49688673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56728076934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69046783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8928484916687</t>
+    <t xml:space="preserve">7.48808765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8752498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49688625335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56727933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6904673576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284944534302</t>
   </si>
   <si>
     <t xml:space="preserve">8.06883239746094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85765171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76966047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91044664382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0864315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402870178223</t>
+    <t xml:space="preserve">7.85765266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76965951919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08643054962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402774810791</t>
   </si>
   <si>
     <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34160614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06003189086914</t>
+    <t xml:space="preserve">8.34160423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06003284454346</t>
   </si>
   <si>
     <t xml:space="preserve">8.01603603363037</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">7.38249731063843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.444091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42649221420288</t>
+    <t xml:space="preserve">7.44409132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42649364471436</t>
   </si>
   <si>
     <t xml:space="preserve">7.67286968231201</t>
@@ -2444,10 +2444,10 @@
     <t xml:space="preserve">7.98963928222656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721767425537</t>
+    <t xml:space="preserve">8.15682315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721576690674</t>
   </si>
   <si>
     <t xml:space="preserve">8.19202041625977</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">8.64957618713379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59678268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5087890625</t>
+    <t xml:space="preserve">8.59678173065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50879001617432</t>
   </si>
   <si>
     <t xml:space="preserve">8.46479415893555</t>
@@ -2483,67 +2483,67 @@
     <t xml:space="preserve">8.20081901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24481582641602</t>
+    <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
     <t xml:space="preserve">8.05123233795166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18321990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49119091033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93994808197021</t>
+    <t xml:space="preserve">8.18322086334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49119186401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93994903564453</t>
   </si>
   <si>
     <t xml:space="preserve">8.79916191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8167610168457</t>
+    <t xml:space="preserve">8.81676197052002</t>
   </si>
   <si>
     <t xml:space="preserve">8.7111701965332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78156280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1744213104248</t>
+    <t xml:space="preserve">8.78156471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51758861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17442226409912</t>
   </si>
   <si>
     <t xml:space="preserve">8.32400798797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39440155029297</t>
+    <t xml:space="preserve">8.39440059661865</t>
   </si>
   <si>
     <t xml:space="preserve">9.06313705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8871545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.719970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42959785461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73756790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79036331176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64077758789062</t>
+    <t xml:space="preserve">8.92234992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88715362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71996879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42959690093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73756885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79036426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
     <t xml:space="preserve">8.57038402557373</t>
@@ -2552,22 +2552,22 @@
     <t xml:space="preserve">8.67597389221191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72876834869385</t>
+    <t xml:space="preserve">8.72876930236816</t>
   </si>
   <si>
     <t xml:space="preserve">8.60558032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35040473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36800289154053</t>
+    <t xml:space="preserve">8.35040378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36800384521484</t>
   </si>
   <si>
     <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74636745452881</t>
+    <t xml:space="preserve">8.74636650085449</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431678771973</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">9.36230945587158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1511287689209</t>
+    <t xml:space="preserve">9.15112781524658</t>
   </si>
   <si>
     <t xml:space="preserve">9.13353061676025</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">9.24035549163818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06231307983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99109745025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20474720001221</t>
+    <t xml:space="preserve">9.06231498718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99109649658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20474624633789</t>
   </si>
   <si>
     <t xml:space="preserve">9.64985084533691</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">10.3442125320435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3264083862305</t>
+    <t xml:space="preserve">10.3264093399048</t>
   </si>
   <si>
     <t xml:space="preserve">10.0949554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1305637359619</t>
+    <t xml:space="preserve">10.1305627822876</t>
   </si>
   <si>
     <t xml:space="preserve">10.1483669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9703254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91691398620605</t>
+    <t xml:space="preserve">9.97032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91691303253174</t>
   </si>
   <si>
     <t xml:space="preserve">9.75667572021484</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">9.86350059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54302501678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45400524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56082916259766</t>
+    <t xml:space="preserve">9.54302597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45400428771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56083011627197</t>
   </si>
   <si>
     <t xml:space="preserve">9.68545913696289</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">9.43620109558105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11572647094727</t>
+    <t xml:space="preserve">9.11572551727295</t>
   </si>
   <si>
     <t xml:space="preserve">9.27596378326416</t>
@@ -2675,31 +2675,31 @@
     <t xml:space="preserve">9.29376792907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3471794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31157112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09792137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91988086700439</t>
+    <t xml:space="preserve">9.34718036651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31157207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09792232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91988182067871</t>
   </si>
   <si>
     <t xml:space="preserve">8.97329330444336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02670574188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48961353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57863426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40059185028076</t>
+    <t xml:space="preserve">9.02670478820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4896125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57863330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40059280395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.52522087097168</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">9.41839694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47180938720703</t>
+    <t xml:space="preserve">9.47181034088135</t>
   </si>
   <si>
     <t xml:space="preserve">9.3649845123291</t>
@@ -2726,19 +2726,19 @@
     <t xml:space="preserve">9.32937526702881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25816059112549</t>
+    <t xml:space="preserve">9.25815868377686</t>
   </si>
   <si>
     <t xml:space="preserve">9.70326328277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72106647491455</t>
+    <t xml:space="preserve">9.72106742858887</t>
   </si>
   <si>
     <t xml:space="preserve">9.04450988769531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95549011230469</t>
+    <t xml:space="preserve">8.95548820495605</t>
   </si>
   <si>
     <t xml:space="preserve">8.85756587982178</t>
@@ -2747,34 +2747,34 @@
     <t xml:space="preserve">8.93768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81305599212646</t>
+    <t xml:space="preserve">8.81305503845215</t>
   </si>
   <si>
     <t xml:space="preserve">8.63501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65281772613525</t>
+    <t xml:space="preserve">8.65281867980957</t>
   </si>
   <si>
     <t xml:space="preserve">8.87537002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59940528869629</t>
+    <t xml:space="preserve">8.59940624237061</t>
   </si>
   <si>
     <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6973295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79525184631348</t>
+    <t xml:space="preserve">8.69732856750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79525089263916</t>
   </si>
   <si>
     <t xml:space="preserve">8.64391613006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80415344238281</t>
+    <t xml:space="preserve">8.80415439605713</t>
   </si>
   <si>
     <t xml:space="preserve">8.54599380493164</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">8.75074100494385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76854610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83976173400879</t>
+    <t xml:space="preserve">8.76854705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83976268768311</t>
   </si>
   <si>
     <t xml:space="preserve">9.79228401184082</t>
@@ -2807,31 +2807,31 @@
     <t xml:space="preserve">9.73887157440186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88130474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53709030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51928615570068</t>
+    <t xml:space="preserve">9.88130569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5370922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.18990993499756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22551822662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712223052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70919799804688</t>
+    <t xml:space="preserve">8.22551918029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480581283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70919847488403</t>
   </si>
   <si>
     <t xml:space="preserve">8.00296592712402</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">7.9050440788269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83382654190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32344150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1721076965332</t>
+    <t xml:space="preserve">7.83382749557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32344055175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17210578918457</t>
   </si>
   <si>
     <t xml:space="preserve">8.14539909362793</t>
@@ -2855,31 +2855,31 @@
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065237045288</t>
+    <t xml:space="preserve">7.94065093994141</t>
   </si>
   <si>
     <t xml:space="preserve">8.07418346405029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01186847686768</t>
+    <t xml:space="preserve">8.01186943054199</t>
   </si>
   <si>
     <t xml:space="preserve">8.0563793182373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28783416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3412446975708</t>
+    <t xml:space="preserve">8.28783321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34124565124512</t>
   </si>
   <si>
     <t xml:space="preserve">8.43916702270508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8842716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78634929656982</t>
+    <t xml:space="preserve">8.88427257537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78634834289551</t>
   </si>
   <si>
     <t xml:space="preserve">8.7418384552002</t>
@@ -2897,22 +2897,22 @@
     <t xml:space="preserve">8.56379699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45697116851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42136383056641</t>
+    <t xml:space="preserve">8.4569730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42136478424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.33234405517578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30563640594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89614152908325</t>
+    <t xml:space="preserve">8.30563831329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03857517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89614105224609</t>
   </si>
   <si>
     <t xml:space="preserve">8.29673480987549</t>
@@ -2921,25 +2921,25 @@
     <t xml:space="preserve">8.10089015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23442077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31453990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12759494781494</t>
+    <t xml:space="preserve">8.23441982269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31453895568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12759590148926</t>
   </si>
   <si>
     <t xml:space="preserve">8.02077102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40356063842773</t>
+    <t xml:space="preserve">8.4035587310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.2789306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36795234680176</t>
+    <t xml:space="preserve">8.36795139312744</t>
   </si>
   <si>
     <t xml:space="preserve">8.46587467193604</t>
@@ -2948,19 +2948,19 @@
     <t xml:space="preserve">8.35014820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20771503448486</t>
+    <t xml:space="preserve">8.20771408081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884250640869</t>
+    <t xml:space="preserve">7.46884202957153</t>
   </si>
   <si>
     <t xml:space="preserve">7.27299642562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45993995666504</t>
+    <t xml:space="preserve">7.4599404335022</t>
   </si>
   <si>
     <t xml:space="preserve">7.69139432907104</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">8.11869335174561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97625970840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02967357635498</t>
+    <t xml:space="preserve">7.9762601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02967262268066</t>
   </si>
   <si>
     <t xml:space="preserve">8.13649845123291</t>
@@ -2987,37 +2987,37 @@
     <t xml:space="preserve">8.90207576751709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8219575881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68842601776123</t>
+    <t xml:space="preserve">8.82195663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68842697143555</t>
   </si>
   <si>
     <t xml:space="preserve">8.75964260101318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73293781280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38575649261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44807052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48367881774902</t>
+    <t xml:space="preserve">8.73293685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38575553894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44806957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48367786407471</t>
   </si>
   <si>
     <t xml:space="preserve">8.49258041381836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16320323944092</t>
+    <t xml:space="preserve">8.16320419311523</t>
   </si>
   <si>
     <t xml:space="preserve">8.35904979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91394567489624</t>
+    <t xml:space="preserve">7.9139461517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.41246223449707</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">8.2374153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44745922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53878307342529</t>
+    <t xml:space="preserve">8.44746017456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53878402709961</t>
   </si>
   <si>
     <t xml:space="preserve">8.62097454071045</t>
@@ -3044,31 +3044,31 @@
     <t xml:space="preserve">8.52051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40179824829102</t>
+    <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
     <t xml:space="preserve">8.45659160614014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42919445037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27394485473633</t>
+    <t xml:space="preserve">8.42919540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27394580841064</t>
   </si>
   <si>
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686840057373</t>
+    <t xml:space="preserve">7.71686887741089</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63467693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62554502487183</t>
+    <t xml:space="preserve">7.63467741012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62554454803467</t>
   </si>
   <si>
     <t xml:space="preserve">7.57988309860229</t>
@@ -3080,25 +3080,25 @@
     <t xml:space="preserve">7.60728025436401</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61641263961792</t>
+    <t xml:space="preserve">7.61641216278076</t>
   </si>
   <si>
     <t xml:space="preserve">7.69860363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76253032684326</t>
+    <t xml:space="preserve">7.76253080368042</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58901643753052</t>
+    <t xml:space="preserve">7.58901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">7.48855876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57075071334839</t>
+    <t xml:space="preserve">7.57075023651123</t>
   </si>
   <si>
     <t xml:space="preserve">7.30591106414795</t>
@@ -3107,19 +3107,19 @@
     <t xml:space="preserve">7.32417631149292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42463207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56161832809448</t>
+    <t xml:space="preserve">7.42463254928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56161785125732</t>
   </si>
   <si>
     <t xml:space="preserve">7.5068244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49769115447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39723539352417</t>
+    <t xml:space="preserve">7.49769067764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39723587036133</t>
   </si>
   <si>
     <t xml:space="preserve">7.46116161346436</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">7.72600078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59814786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53422117233276</t>
+    <t xml:space="preserve">7.59814739227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53422069549561</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">7.29677867889404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33330821990967</t>
+    <t xml:space="preserve">7.33330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">7.27851390838623</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">7.21458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10499906539917</t>
+    <t xml:space="preserve">7.10499858856201</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">6.98627758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80362939834595</t>
+    <t xml:space="preserve">6.80362987518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.67577648162842</t>
@@ -3212,25 +3212,25 @@
     <t xml:space="preserve">6.6483793258667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53879022598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58445262908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618738174438</t>
+    <t xml:space="preserve">6.53879070281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5844521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618785858154</t>
   </si>
   <si>
     <t xml:space="preserve">6.36527490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44746685028076</t>
+    <t xml:space="preserve">6.4474663734436</t>
   </si>
   <si>
     <t xml:space="preserve">6.49312829971313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47486400604248</t>
+    <t xml:space="preserve">6.47486352920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.41093683242798</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">6.08217096328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05477333068848</t>
+    <t xml:space="preserve">6.05477380752563</t>
   </si>
   <si>
     <t xml:space="preserve">6.12783288955688</t>
@@ -3278,10 +3278,10 @@
     <t xml:space="preserve">6.10956811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3013482093811</t>
+    <t xml:space="preserve">6.04564142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30134868621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.57532024383545</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">6.42006969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54792261123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395057678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317411422729</t>
+    <t xml:space="preserve">6.54792308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395105361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317363739014</t>
   </si>
   <si>
     <t xml:space="preserve">6.50226068496704</t>
@@ -3311,22 +3311,22 @@
     <t xml:space="preserve">6.38353967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19176006317139</t>
+    <t xml:space="preserve">6.19175958633423</t>
   </si>
   <si>
     <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24655437469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915721893311</t>
+    <t xml:space="preserve">6.24655389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915674209595</t>
   </si>
   <si>
     <t xml:space="preserve">6.37440729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23742198944092</t>
+    <t xml:space="preserve">6.23742151260376</t>
   </si>
   <si>
     <t xml:space="preserve">6.43833446502686</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">6.29221534729004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17349481582642</t>
+    <t xml:space="preserve">6.17349529266357</t>
   </si>
   <si>
     <t xml:space="preserve">6.32874536514282</t>
@@ -3344,19 +3344,19 @@
     <t xml:space="preserve">6.20089244842529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28308343887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870050430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1460976600647</t>
+    <t xml:space="preserve">6.28308391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870098114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14609813690186</t>
   </si>
   <si>
     <t xml:space="preserve">6.25568675994873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51139307022095</t>
+    <t xml:space="preserve">6.51139354705811</t>
   </si>
   <si>
     <t xml:space="preserve">6.40180492401123</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">6.9406156539917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97714519500732</t>
+    <t xml:space="preserve">6.97714567184448</t>
   </si>
   <si>
     <t xml:space="preserve">7.02280712127686</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">6.81276178359985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74883508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449701309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230602264404</t>
+    <t xml:space="preserve">6.74883556365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230554580688</t>
   </si>
   <si>
     <t xml:space="preserve">6.55705499649048</t>
@@ -3407,31 +3407,31 @@
     <t xml:space="preserve">6.8584246635437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86755657196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89495372772217</t>
+    <t xml:space="preserve">6.86755609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015893936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189464569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89495325088501</t>
   </si>
   <si>
     <t xml:space="preserve">6.83102703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46573162078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31961345672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048011779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326383590698</t>
+    <t xml:space="preserve">6.46573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31961297988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048059463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326335906982</t>
   </si>
   <si>
     <t xml:space="preserve">6.60271739959717</t>
@@ -3443,16 +3443,16 @@
     <t xml:space="preserve">6.78536462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066188812256</t>
+    <t xml:space="preserve">6.92235040664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066236495972</t>
   </si>
   <si>
     <t xml:space="preserve">7.00706672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79360628128052</t>
+    <t xml:space="preserve">6.79360675811768</t>
   </si>
   <si>
     <t xml:space="preserve">7.10915613174438</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">7.43398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35974025726318</t>
+    <t xml:space="preserve">7.35973978042603</t>
   </si>
   <si>
     <t xml:space="preserve">7.28549289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.239089012146</t>
+    <t xml:space="preserve">7.25765085220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23908853530884</t>
   </si>
   <si>
     <t xml:space="preserve">7.19268417358398</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">7.15556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36902093887329</t>
+    <t xml:space="preserve">7.36902141571045</t>
   </si>
   <si>
     <t xml:space="preserve">7.42470645904541</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">7.27621221542358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693153381348</t>
+    <t xml:space="preserve">7.2483696937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693105697632</t>
   </si>
   <si>
     <t xml:space="preserve">7.18340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1648416519165</t>
+    <t xml:space="preserve">7.16484117507935</t>
   </si>
   <si>
     <t xml:space="preserve">6.9049768447876</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">7.06275177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0720329284668</t>
+    <t xml:space="preserve">7.07203245162964</t>
   </si>
   <si>
     <t xml:space="preserve">7.13699913024902</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">7.20196533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32261610031128</t>
+    <t xml:space="preserve">7.32261657714844</t>
   </si>
   <si>
     <t xml:space="preserve">7.41542482376099</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">7.40614461898804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68457126617432</t>
+    <t xml:space="preserve">7.68457078933716</t>
   </si>
   <si>
     <t xml:space="preserve">7.77737998962402</t>
@@ -3596,31 +3596,31 @@
     <t xml:space="preserve">7.48039197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234523773193</t>
+    <t xml:space="preserve">7.71241426467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234571456909</t>
   </si>
   <si>
     <t xml:space="preserve">7.76809883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65672826766968</t>
+    <t xml:space="preserve">7.65672874450684</t>
   </si>
   <si>
     <t xml:space="preserve">7.67529058456421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097562789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176301956177</t>
+    <t xml:space="preserve">7.79594135284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176206588745</t>
   </si>
   <si>
     <t xml:space="preserve">7.54535818099976</t>
@@ -3632,25 +3632,25 @@
     <t xml:space="preserve">7.09059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87713432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7750449180603</t>
+    <t xml:space="preserve">6.87713384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85857248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072996139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77504444122314</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001064300537</t>
+    <t xml:space="preserve">6.84001016616821</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785316467285</t>
+    <t xml:space="preserve">6.86785364151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65439319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6079888343811</t>
+    <t xml:space="preserve">6.6543927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60798835754395</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661779403687</t>
+    <t xml:space="preserve">6.49661827087402</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3701,22 +3701,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210052490234</t>
+    <t xml:space="preserve">6.94210004806519</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6381664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679586410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032342910767</t>
+    <t xml:space="preserve">7.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63816595077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032390594482</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3725,31 +3725,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98156023025513</t>
+    <t xml:space="preserve">7.89803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98155975341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580615997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88875007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083948135376</t>
+    <t xml:space="preserve">8.05580711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8887505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0465259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083995819092</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436847686768</t>
+    <t xml:space="preserve">8.07436752319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286224365234</t>
+    <t xml:space="preserve">8.22286128997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940227508545</t>
+    <t xml:space="preserve">8.00940132141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3776,13 +3776,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443559646606</t>
+    <t xml:space="preserve">7.94443607330322</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488452911377</t>
+    <t xml:space="preserve">8.45488357543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -61446,7 +61446,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="1" t="n">
-        <v>45516.649537037</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B2193" t="n">
         <v>29410</v>
@@ -61467,6 +61467,32 @@
         <v>1339</v>
       </c>
       <c r="H2193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>45517.6493634259</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>33861</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>8.72999954223633</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>8.57999992370605</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>8.71000003814697</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>8.64999961853027</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2194" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">8.72105312347412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72928047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79509925842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77864551544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54827880859375</t>
+    <t xml:space="preserve">8.72928142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79510021209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77864456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
     <t xml:space="preserve">8.52359485626221</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">8.59764194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14513492584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10399723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60586929321289</t>
+    <t xml:space="preserve">8.1451358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1039981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60586833953857</t>
   </si>
   <si>
     <t xml:space="preserve">8.4330940246582</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">8.30968284606934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25209045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259223937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54004955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46600246429443</t>
+    <t xml:space="preserve">8.25209140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3425931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5400505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46600437164307</t>
   </si>
   <si>
     <t xml:space="preserve">8.22740936279297</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">8.32613849639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63877773284912</t>
+    <t xml:space="preserve">8.63877868652344</t>
   </si>
   <si>
     <t xml:space="preserve">8.49068546295166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56473350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67168998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737369537354</t>
+    <t xml:space="preserve">8.56473255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6716890335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737560272217</t>
   </si>
   <si>
     <t xml:space="preserve">8.77041816711426</t>
@@ -125,25 +125,25 @@
     <t xml:space="preserve">8.92673873901367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98433017730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978416442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9102840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04192352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787548065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89382839202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05014896392822</t>
+    <t xml:space="preserve">8.98433113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978130340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028308868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04192161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787643432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89383029937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">8.97610282897949</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">9.07483196258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81155490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86091899871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09951400756836</t>
+    <t xml:space="preserve">8.81155586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86091804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09951305389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.09128665924072</t>
@@ -167,40 +167,40 @@
     <t xml:space="preserve">9.0666036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21469783782959</t>
+    <t xml:space="preserve">9.21469688415527</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52733993530273</t>
+    <t xml:space="preserve">9.54379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52733898162842</t>
   </si>
   <si>
     <t xml:space="preserve">9.55202102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74947834014893</t>
+    <t xml:space="preserve">9.74948024749756</t>
   </si>
   <si>
     <t xml:space="preserve">9.83998107910156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7165699005127</t>
+    <t xml:space="preserve">9.71656894683838</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94693660736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466407775879</t>
+    <t xml:space="preserve">9.94693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088523864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466312408447</t>
   </si>
   <si>
     <t xml:space="preserve">9.93048286437988</t>
@@ -215,28 +215,28 @@
     <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114864349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8893461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3994455337524</t>
+    <t xml:space="preserve">10.1114845275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88934516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3994445800781</t>
   </si>
   <si>
     <t xml:space="preserve">10.4652633666992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4488096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.613356590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120876312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722198486328</t>
+    <t xml:space="preserve">10.4488105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133575439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120866775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722188949585</t>
   </si>
   <si>
     <t xml:space="preserve">10.5307931900024</t>
@@ -245,31 +245,31 @@
     <t xml:space="preserve">10.2490882873535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2739448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3567991256714</t>
+    <t xml:space="preserve">10.2739458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3567981719971</t>
   </si>
   <si>
     <t xml:space="preserve">10.497652053833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5805053710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4727964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4893646240234</t>
+    <t xml:space="preserve">10.5805063247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4727945327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
     <t xml:space="preserve">10.3982267379761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4396524429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905158996582</t>
+    <t xml:space="preserve">10.4396553039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905149459839</t>
   </si>
   <si>
     <t xml:space="preserve">10.1910905838013</t>
@@ -278,70 +278,70 @@
     <t xml:space="preserve">10.0253810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98395538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252586364746</t>
+    <t xml:space="preserve">9.98395347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252777099609</t>
   </si>
   <si>
     <t xml:space="preserve">9.85967350006104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1082353591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230833053589</t>
+    <t xml:space="preserve">10.1082363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230813980103</t>
   </si>
   <si>
     <t xml:space="preserve">9.95909786224365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96738529205322</t>
+    <t xml:space="preserve">9.96738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0668077468872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225076675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1165199279785</t>
+    <t xml:space="preserve">10.5225067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1165208816528</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579494476318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3816547393799</t>
+    <t xml:space="preserve">10.3816566467285</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5556497573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5639352798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4147968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2325191497803</t>
+    <t xml:space="preserve">10.5556488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5639362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4147977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2325172424316</t>
   </si>
   <si>
     <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5473651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142221450806</t>
+    <t xml:space="preserve">10.54736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142230987549</t>
   </si>
   <si>
     <t xml:space="preserve">10.4810800552368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4645109176636</t>
+    <t xml:space="preserve">10.4645080566406</t>
   </si>
   <si>
     <t xml:space="preserve">10.1330919265747</t>
@@ -353,37 +353,37 @@
     <t xml:space="preserve">10.365083694458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136465072632</t>
+    <t xml:space="preserve">10.6136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4562253952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5390777587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2988014221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.224232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1662359237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236589431763</t>
+    <t xml:space="preserve">10.456223487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5390796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2988004684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2242317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1662349700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.323657989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.182804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6053619384766</t>
+    <t xml:space="preserve">10.6053628921509</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402280807495</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">10.5970764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6716451644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213582992554</t>
+    <t xml:space="preserve">10.6716470718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213592529297</t>
   </si>
   <si>
     <t xml:space="preserve">10.7544994354248</t>
@@ -404,34 +404,34 @@
     <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0610618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1107749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1273460388184</t>
+    <t xml:space="preserve">11.0610609054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1107740402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.127345085144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2433414459229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3427648544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.450478553772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5830450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5167608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996141433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1853437423706</t>
+    <t xml:space="preserve">11.3427667617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4504776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.583044052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5167598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996150970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1853427886963</t>
   </si>
   <si>
     <t xml:space="preserve">11.3096256256104</t>
@@ -440,10 +440,10 @@
     <t xml:space="preserve">11.0196352005005</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9036388397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953533172607</t>
+    <t xml:space="preserve">10.903639793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953542709351</t>
   </si>
   <si>
     <t xml:space="preserve">11.0776319503784</t>
@@ -452,31 +452,31 @@
     <t xml:space="preserve">10.8870677947998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7710704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6799306869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302175521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.862211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8042116165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6633596420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7462148666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047872543335</t>
+    <t xml:space="preserve">10.771071434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.679931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622102737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8042125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7462139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627859115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047863006592</t>
   </si>
   <si>
     <t xml:space="preserve">10.8787813186646</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">10.6965017318726</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9947776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3924789428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4339065551758</t>
+    <t xml:space="preserve">10.994776725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3924798965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4339056015015</t>
   </si>
   <si>
     <t xml:space="preserve">11.3510513305664</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">11.1439161300659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1024866104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599115371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2681970596313</t>
+    <t xml:space="preserve">11.1024885177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2599124908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.26819896698</t>
   </si>
   <si>
     <t xml:space="preserve">11.0859184265137</t>
@@ -518,43 +518,43 @@
     <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1687726974487</t>
+    <t xml:space="preserve">11.1687698364258</t>
   </si>
   <si>
     <t xml:space="preserve">11.1356315612793</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2516250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3593378067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4753341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4587631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2267684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344802856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841934204102</t>
+    <t xml:space="preserve">11.2516260147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847681045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4753332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587621688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2267694473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942049026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782075881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344812393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841943740845</t>
   </si>
   <si>
     <t xml:space="preserve">11.3013381958008</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">11.1770572662354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9533519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6658973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1215982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0967416763306</t>
+    <t xml:space="preserve">10.953351020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.276481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6658983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1215991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0967426300049</t>
   </si>
   <si>
     <t xml:space="preserve">12.0470285415649</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">12.262451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">12.221022605896</t>
+    <t xml:space="preserve">12.2210216522217</t>
   </si>
   <si>
     <t xml:space="preserve">12.3453035354614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2044525146484</t>
+    <t xml:space="preserve">12.2044534683228</t>
   </si>
   <si>
     <t xml:space="preserve">12.3121633529663</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">12.6684370040894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8092880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435804367065</t>
+    <t xml:space="preserve">12.809289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435813903809</t>
   </si>
   <si>
     <t xml:space="preserve">12.6021547317505</t>
   </si>
   <si>
-    <t xml:space="preserve">12.494441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3370189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4695873260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938663482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6767206192017</t>
+    <t xml:space="preserve">12.4944429397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3370180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4695863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.676721572876</t>
   </si>
   <si>
     <t xml:space="preserve">12.759575843811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2318477630615</t>
+    <t xml:space="preserve">13.2318458557129</t>
   </si>
   <si>
     <t xml:space="preserve">13.2484169006348</t>
@@ -638,40 +638,40 @@
     <t xml:space="preserve">13.3644142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4224119186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466938018799</t>
+    <t xml:space="preserve">13.4224128723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466947555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.342095375061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.748083114624</t>
+    <t xml:space="preserve">14.7066516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7480821609497</t>
   </si>
   <si>
     <t xml:space="preserve">14.9137907028198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3338108062744</t>
+    <t xml:space="preserve">14.3338088989258</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698253631592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6709756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538290023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935325622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195384979248</t>
+    <t xml:space="preserve">13.6709747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935306549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195375442505</t>
   </si>
   <si>
     <t xml:space="preserve">14.3255224227905</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">14.2923822402954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8640775680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580898284912</t>
+    <t xml:space="preserve">14.8640766143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580926895142</t>
   </si>
   <si>
     <t xml:space="preserve">14.4995193481445</t>
@@ -695,31 +695,31 @@
     <t xml:space="preserve">14.83922290802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6817989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6238012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895078659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.618052482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423362731934</t>
+    <t xml:space="preserve">14.6817979812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895088195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.568341255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423343658447</t>
   </si>
   <si>
     <t xml:space="preserve">15.8831882476807</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">15.5020589828491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6097679138184</t>
+    <t xml:space="preserve">15.609769821167</t>
   </si>
   <si>
     <t xml:space="preserve">15.5186262130737</t>
@@ -740,76 +740,76 @@
     <t xml:space="preserve">15.7257633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037839889526</t>
+    <t xml:space="preserve">15.4440584182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872110366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037801742554</t>
   </si>
   <si>
     <t xml:space="preserve">15.1371698379517</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5784645080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867055892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370843887329</t>
+    <t xml:space="preserve">15.2870445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867074966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370862960815</t>
   </si>
   <si>
     <t xml:space="preserve">15.3036975860596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4285917282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699680328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201807022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.528507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202651977539</t>
+    <t xml:space="preserve">15.4285907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699689865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949447631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615560531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201787948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285062789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202632904053</t>
   </si>
   <si>
     <t xml:space="preserve">15.1954545974731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366628646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868726730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283372879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783800125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9031896591187</t>
+    <t xml:space="preserve">15.7366619110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782945632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.486873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783790588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031887054443</t>
   </si>
   <si>
     <t xml:space="preserve">15.8199253082275</t>
@@ -818,121 +818,121 @@
     <t xml:space="preserve">15.6450748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9040355682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289316177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539093017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372562408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951137542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618095397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284208297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533159255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448175430298</t>
+    <t xml:space="preserve">14.904034614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537393569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289268493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372552871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951147079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618124008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533168792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448204040527</t>
   </si>
   <si>
     <t xml:space="preserve">15.6950311660767</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7200107574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7449884414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200981140137</t>
+    <t xml:space="preserve">15.7200088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117658615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200952529907</t>
   </si>
   <si>
     <t xml:space="preserve">15.4452428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1121921539307</t>
+    <t xml:space="preserve">15.203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112193107605</t>
   </si>
   <si>
     <t xml:space="preserve">14.7957935333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2787199020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203496932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872961044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703098297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702215194702</t>
+    <t xml:space="preserve">15.2787160873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.320348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3369998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703060150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785490036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368337631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702234268188</t>
   </si>
   <si>
     <t xml:space="preserve">15.6034412384033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5035276412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118532180786</t>
+    <t xml:space="preserve">15.5035266876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118522644043</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534839630127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4036102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7033567428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869581222534</t>
+    <t xml:space="preserve">15.4036130905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7033576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869590759277</t>
   </si>
   <si>
     <t xml:space="preserve">15.3619804382324</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">16.5026817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4110927581787</t>
+    <t xml:space="preserve">16.4110908508301</t>
   </si>
   <si>
     <t xml:space="preserve">16.3444805145264</t>
@@ -956,115 +956,115 @@
     <t xml:space="preserve">16.4443950653076</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3028469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1446495056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1529769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116823196411</t>
+    <t xml:space="preserve">16.302848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1446514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116842269897</t>
   </si>
   <si>
     <t xml:space="preserve">15.461895942688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9614744186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.761643409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9531440734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.003101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0530605316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9864530563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.928168296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367464065552</t>
+    <t xml:space="preserve">15.9614725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532304763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9531450271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0031032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0530624389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9864511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365774154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367454528809</t>
   </si>
   <si>
     <t xml:space="preserve">15.6534004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.78662109375</t>
+    <t xml:space="preserve">15.7866220474243</t>
   </si>
   <si>
     <t xml:space="preserve">16.0280818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0697154998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861141204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5443096160889</t>
+    <t xml:space="preserve">16.0697135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861122131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5443115234375</t>
   </si>
   <si>
     <t xml:space="preserve">16.602596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8190784454346</t>
+    <t xml:space="preserve">16.8190803527832</t>
   </si>
   <si>
     <t xml:space="preserve">16.860710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7774486541748</t>
+    <t xml:space="preserve">16.7774467468262</t>
   </si>
   <si>
     <t xml:space="preserve">16.6941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4693756103516</t>
+    <t xml:space="preserve">16.4693737030029</t>
   </si>
   <si>
     <t xml:space="preserve">16.2029342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3694610595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272331237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1104984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.90234375</t>
+    <t xml:space="preserve">16.3694591522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272350311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1105003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9023418426514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3186569213867</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">17.4435501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9856052398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0688667297363</t>
+    <t xml:space="preserve">16.9856071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.068868637085</t>
   </si>
   <si>
     <t xml:space="preserve">16.5193328857422</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">16.136323928833</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1196708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0197563171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4194164276123</t>
+    <t xml:space="preserve">16.1196727752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0197582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4194202423096</t>
   </si>
   <si>
     <t xml:space="preserve">16.252893447876</t>
@@ -1112,49 +1112,49 @@
     <t xml:space="preserve">15.2703905105591</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4535684585571</t>
+    <t xml:space="preserve">15.4535694122314</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700534820557</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6709003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8374261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542472839355</t>
+    <t xml:space="preserve">14.6708984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.837423324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542463302612</t>
   </si>
   <si>
     <t xml:space="preserve">14.4044580459595</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2878913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5543336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376787185669</t>
+    <t xml:space="preserve">14.2878904342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376806259155</t>
   </si>
   <si>
     <t xml:space="preserve">14.3711538314819</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877214431763</t>
+    <t xml:space="preserve">14.7708158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877223968506</t>
   </si>
   <si>
     <t xml:space="preserve">14.2212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1380186080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714073181152</t>
+    <t xml:space="preserve">14.1380195617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714063644409</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">14.7541618347168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0039510726929</t>
+    <t xml:space="preserve">15.0039529800415</t>
   </si>
   <si>
     <t xml:space="preserve">14.8041200637817</t>
@@ -1181,28 +1181,28 @@
     <t xml:space="preserve">15.9198417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1038646697998</t>
+    <t xml:space="preserve">15.1038665771484</t>
   </si>
   <si>
     <t xml:space="preserve">15.0954971313477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0285568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946723937988</t>
+    <t xml:space="preserve">15.0285558700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946714401245</t>
   </si>
   <si>
     <t xml:space="preserve">15.1457061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293815612793</t>
+    <t xml:space="preserve">15.2293796539307</t>
   </si>
   <si>
     <t xml:space="preserve">14.6101675033569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8570642471313</t>
+    <t xml:space="preserve">13.8570652008057</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093379974365</t>
@@ -1211,55 +1211,55 @@
     <t xml:space="preserve">14.225248336792</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3256616592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.72731590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6436386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444662094116</t>
+    <t xml:space="preserve">14.325662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7273149490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6436376571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444652557373</t>
   </si>
   <si>
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771097183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.476282119751</t>
+    <t xml:space="preserve">14.5599603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771087646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4762811660767</t>
   </si>
   <si>
     <t xml:space="preserve">14.3926067352295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603717803955</t>
+    <t xml:space="preserve">14.6603727340698</t>
   </si>
   <si>
     <t xml:space="preserve">14.961615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0118217468262</t>
+    <t xml:space="preserve">15.0118188858032</t>
   </si>
   <si>
     <t xml:space="preserve">14.7775230407715</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2126455307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2795896530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950838088989</t>
+    <t xml:space="preserve">15.212646484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2795906066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791772842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950847625732</t>
   </si>
   <si>
     <t xml:space="preserve">15.0452909469604</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">15.1122331619263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3632688522339</t>
+    <t xml:space="preserve">15.3632678985596</t>
   </si>
   <si>
     <t xml:space="preserve">15.2628545761108</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0620250701904</t>
+    <t xml:space="preserve">15.0620269775391</t>
   </si>
   <si>
     <t xml:space="preserve">15.3297967910767</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">15.6812429428101</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6143016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5473585128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.463680267334</t>
+    <t xml:space="preserve">15.6143026351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5473604202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4636812210083</t>
   </si>
   <si>
     <t xml:space="preserve">15.5306234359741</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">15.6477727890015</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7983903884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114065170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6979789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7649230957031</t>
+    <t xml:space="preserve">15.7983913421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114055633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.697979927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7649240493774</t>
   </si>
   <si>
     <t xml:space="preserve">15.4804182052612</t>
@@ -1325,49 +1325,49 @@
     <t xml:space="preserve">15.2963256835938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3130617141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109922409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624402999878</t>
+    <t xml:space="preserve">15.313060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624393463135</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921895980835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432243347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5934295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8277273178101</t>
+    <t xml:space="preserve">14.5432233810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5934314727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942600250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8277282714844</t>
   </si>
   <si>
     <t xml:space="preserve">14.6938438415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7399168014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7231788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6060314178467</t>
+    <t xml:space="preserve">13.7399158477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7231798171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6060304641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9742126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.091362953186</t>
+    <t xml:space="preserve">13.974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0913639068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.7064447402954</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">13.2211122512817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892963409424</t>
+    <t xml:space="preserve">13.5892953872681</t>
   </si>
   <si>
     <t xml:space="preserve">13.3047914505005</t>
@@ -1388,64 +1388,64 @@
     <t xml:space="preserve">12.9533433914185</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9198722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0872268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1541700363159</t>
+    <t xml:space="preserve">12.9198713302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0872278213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1541709899902</t>
   </si>
   <si>
     <t xml:space="preserve">13.0537567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.852931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.618631362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512739181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0496225357056</t>
+    <t xml:space="preserve">12.8529300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194589614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6186323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516910552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512758255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0496215820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7818517684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1835069656372</t>
+    <t xml:space="preserve">11.781852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1835060119629</t>
   </si>
   <si>
     <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157381057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006553649902</t>
+    <t xml:space="preserve">11.9157371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006544113159</t>
   </si>
   <si>
     <t xml:space="preserve">12.384334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5349531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3801984786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7168369293213</t>
+    <t xml:space="preserve">12.5349540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.380199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7168378829956</t>
   </si>
   <si>
     <t xml:space="preserve">12.2764472961426</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">11.9266920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4894962310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0316190719604</t>
+    <t xml:space="preserve">11.4894952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0316181182861</t>
   </si>
   <si>
     <t xml:space="preserve">12.7661066055298</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">11.891716003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1540336608887</t>
+    <t xml:space="preserve">12.1540327072144</t>
   </si>
   <si>
     <t xml:space="preserve">12.1715211868286</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5594472885132</t>
+    <t xml:space="preserve">11.5594482421875</t>
   </si>
   <si>
     <t xml:space="preserve">11.8042774200439</t>
@@ -1496,19 +1496,19 @@
     <t xml:space="preserve">11.7518129348755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4163513183594</t>
+    <t xml:space="preserve">12.4163503646851</t>
   </si>
   <si>
     <t xml:space="preserve">12.521276473999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5912284851074</t>
+    <t xml:space="preserve">12.5912294387817</t>
   </si>
   <si>
     <t xml:space="preserve">12.5037889480591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3638868331909</t>
+    <t xml:space="preserve">12.3638877868652</t>
   </si>
   <si>
     <t xml:space="preserve">12.4688138961792</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">11.6643753051758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7867879867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8567399978638</t>
+    <t xml:space="preserve">11.7867870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8567409515381</t>
   </si>
   <si>
     <t xml:space="preserve">11.8742275238037</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">11.6993503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0491046905518</t>
+    <t xml:space="preserve">12.0491056442261</t>
   </si>
   <si>
     <t xml:space="preserve">11.9966440200806</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562534332275</t>
+    <t xml:space="preserve">12.5562524795532</t>
   </si>
   <si>
     <t xml:space="preserve">12.8535461425781</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">12.8360586166382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.69615650177</t>
+    <t xml:space="preserve">12.6961555480957</t>
   </si>
   <si>
     <t xml:space="preserve">12.6087169647217</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8185710906982</t>
+    <t xml:space="preserve">12.8185701370239</t>
   </si>
   <si>
     <t xml:space="preserve">12.3988628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1890077590942</t>
+    <t xml:space="preserve">12.1890087127686</t>
   </si>
   <si>
     <t xml:space="preserve">12.2939367294312</t>
@@ -1574,55 +1574,55 @@
     <t xml:space="preserve">11.9441795349121</t>
   </si>
   <si>
-    <t xml:space="preserve">11.524471282959</t>
+    <t xml:space="preserve">11.5244722366333</t>
   </si>
   <si>
     <t xml:space="preserve">11.419545173645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3845691680908</t>
+    <t xml:space="preserve">11.3845701217651</t>
   </si>
   <si>
     <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8074703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173263549805</t>
+    <t xml:space="preserve">10.8074712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173244476318</t>
   </si>
   <si>
     <t xml:space="preserve">11.2446660995483</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1572284698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1397399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271776199341</t>
+    <t xml:space="preserve">11.1572275161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1397390365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271785736084</t>
   </si>
   <si>
     <t xml:space="preserve">11.2096910476685</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4720087051392</t>
+    <t xml:space="preserve">11.4720077514648</t>
   </si>
   <si>
     <t xml:space="preserve">11.4545202255249</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1922035217285</t>
+    <t xml:space="preserve">11.1922025680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.437032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6818609237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141296386719</t>
+    <t xml:space="preserve">11.6818618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141305923462</t>
   </si>
   <si>
     <t xml:space="preserve">12.1015691757202</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">11.3321056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3146181106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2621545791626</t>
+    <t xml:space="preserve">11.3146171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2621555328369</t>
   </si>
   <si>
     <t xml:space="preserve">11.5419597625732</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0869455337524</t>
+    <t xml:space="preserve">11.0869445800781</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">11.6500902175903</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8436737060547</t>
+    <t xml:space="preserve">11.8436727523804</t>
   </si>
   <si>
     <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6324920654297</t>
+    <t xml:space="preserve">11.632493019104</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">11.1749353408813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2805261611938</t>
+    <t xml:space="preserve">11.2805252075195</t>
   </si>
   <si>
     <t xml:space="preserve">11.3509187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.386116027832</t>
+    <t xml:space="preserve">11.3861150741577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4213123321533</t>
@@ -1703,16 +1703,16 @@
     <t xml:space="preserve">11.7732791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0020580291748</t>
+    <t xml:space="preserve">12.0020570755005</t>
   </si>
   <si>
     <t xml:space="preserve">11.7908763885498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.438910484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5445013046265</t>
+    <t xml:space="preserve">11.4389114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5445003509521</t>
   </si>
   <si>
     <t xml:space="preserve">11.5093040466309</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">12.2308359146118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428442001343</t>
+    <t xml:space="preserve">12.1428451538086</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124092102051</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">12.7059898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4948110580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6003999710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5796976089478</t>
+    <t xml:space="preserve">12.4948101043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.600399017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5796966552734</t>
   </si>
   <si>
     <t xml:space="preserve">11.6148948669434</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">11.7556800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3333215713501</t>
+    <t xml:space="preserve">11.3333225250244</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917058944702</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">12.4772119522095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5828018188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4596138000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.125244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668607711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9844598770142</t>
+    <t xml:space="preserve">12.582802772522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4596128463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1252450942993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668617248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9844589233398</t>
   </si>
   <si>
     <t xml:space="preserve">12.107647895813</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">12.3892202377319</t>
   </si>
   <si>
-    <t xml:space="preserve">13.040358543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3923254013062</t>
+    <t xml:space="preserve">13.0403594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3923244476318</t>
   </si>
   <si>
     <t xml:space="preserve">13.4451208114624</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099235534668</t>
+    <t xml:space="preserve">13.4099225997925</t>
   </si>
   <si>
     <t xml:space="preserve">13.4627180099487</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">13.2867345809937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4275226593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3395290374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5476055145264</t>
+    <t xml:space="preserve">13.4275217056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3395299911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5476064682007</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068183898926</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">12.9171705245972</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0227613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8467769622803</t>
+    <t xml:space="preserve">13.0227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
     <t xml:space="preserve">12.9347686767578</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">12.7587862014771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7411851882935</t>
+    <t xml:space="preserve">12.7411861419678</t>
   </si>
   <si>
     <t xml:space="preserve">12.0900478363037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012294769287</t>
+    <t xml:space="preserve">12.3012285232544</t>
   </si>
   <si>
     <t xml:space="preserve">12.0372543334961</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">11.6676893234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6852874755859</t>
+    <t xml:space="preserve">11.6852865219116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3157224655151</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">11.210132598877</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1366367340088</t>
+    <t xml:space="preserve">10.1366357803345</t>
   </si>
   <si>
     <t xml:space="preserve">10.0134468078613</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">10.3126182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1894302368164</t>
+    <t xml:space="preserve">10.1894311904907</t>
   </si>
   <si>
     <t xml:space="preserve">9.94305324554443</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">9.46789836883545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32711315155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30951309204102</t>
+    <t xml:space="preserve">9.32711219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30951404571533</t>
   </si>
   <si>
     <t xml:space="preserve">9.20392417907715</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">8.03363418579102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95133876800537</t>
+    <t xml:space="preserve">7.94564294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
     <t xml:space="preserve">7.25050926208496</t>
@@ -2003,22 +2003,22 @@
     <t xml:space="preserve">6.61697006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93943500518799</t>
+    <t xml:space="preserve">5.93943452835083</t>
   </si>
   <si>
     <t xml:space="preserve">5.97463083267212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24740552902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34419631958008</t>
+    <t xml:space="preserve">6.24740505218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
     <t xml:space="preserve">6.20340919494629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07142210006714</t>
+    <t xml:space="preserve">6.0714225769043</t>
   </si>
   <si>
     <t xml:space="preserve">5.73705387115479</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">6.04502391815186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9834303855896</t>
+    <t xml:space="preserve">5.98343086242676</t>
   </si>
   <si>
     <t xml:space="preserve">6.15941333770752</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51138067245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100782394409</t>
+    <t xml:space="preserve">6.51138019561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100830078125</t>
   </si>
   <si>
     <t xml:space="preserve">6.6873631477356</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">7.08332538604736</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06572723388672</t>
+    <t xml:space="preserve">7.06572675704956</t>
   </si>
   <si>
     <t xml:space="preserve">7.15371942520142</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">6.91614151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378204345703</t>
+    <t xml:space="preserve">6.49378156661987</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858526229858</t>
@@ -2099,22 +2099,22 @@
     <t xml:space="preserve">6.62576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71376132965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69616270065308</t>
+    <t xml:space="preserve">6.71376085281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69616222381592</t>
   </si>
   <si>
     <t xml:space="preserve">6.81935119628906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03052997589111</t>
+    <t xml:space="preserve">7.03053045272827</t>
   </si>
   <si>
     <t xml:space="preserve">7.18011665344238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4352912902832</t>
+    <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
     <t xml:space="preserve">7.34730100631714</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">7.31210422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47928810119629</t>
+    <t xml:space="preserve">7.47928857803345</t>
   </si>
   <si>
     <t xml:space="preserve">7.99843883514404</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">8.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97204113006592</t>
+    <t xml:space="preserve">7.97204160690308</t>
   </si>
   <si>
     <t xml:space="preserve">7.78725957870483</t>
@@ -2156,28 +2156,28 @@
     <t xml:space="preserve">7.40009546279907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41769409179688</t>
+    <t xml:space="preserve">7.41769361495972</t>
   </si>
   <si>
     <t xml:space="preserve">7.54968166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62887334823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72566366195679</t>
+    <t xml:space="preserve">7.62887382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72566318511963</t>
   </si>
   <si>
     <t xml:space="preserve">7.51448488235474</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91924619674683</t>
+    <t xml:space="preserve">7.91924571990967</t>
   </si>
   <si>
     <t xml:space="preserve">7.88405084609985</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74326372146606</t>
+    <t xml:space="preserve">7.74326324462891</t>
   </si>
   <si>
     <t xml:space="preserve">7.66407012939453</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">7.58487749099731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60247564315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75206327438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52328395843506</t>
+    <t xml:space="preserve">7.60247611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75206279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5232834815979</t>
   </si>
   <si>
     <t xml:space="preserve">7.59367704391479</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">7.21531248092651</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04812955856323</t>
+    <t xml:space="preserve">7.04812908172607</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
@@ -2210,22 +2210,22 @@
     <t xml:space="preserve">7.28570604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26810836791992</t>
+    <t xml:space="preserve">7.26810789108276</t>
   </si>
   <si>
     <t xml:space="preserve">7.33850145339966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10092353820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12732172012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14491939544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92494058609009</t>
+    <t xml:space="preserve">7.10092306137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12732219696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14491987228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92494106292725</t>
   </si>
   <si>
     <t xml:space="preserve">6.79295349121094</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">6.88094472885132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86334705352783</t>
+    <t xml:space="preserve">6.86334657669067</t>
   </si>
   <si>
     <t xml:space="preserve">6.78415441513062</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">6.7225604057312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7049617767334</t>
+    <t xml:space="preserve">6.70496129989624</t>
   </si>
   <si>
     <t xml:space="preserve">6.46738433837891</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">6.25620460510254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37059259414673</t>
+    <t xml:space="preserve">6.37059307098389</t>
   </si>
   <si>
     <t xml:space="preserve">6.28260183334351</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">6.47618389129639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54657697677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66976451873779</t>
+    <t xml:space="preserve">6.54657649993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66976499557495</t>
   </si>
   <si>
     <t xml:space="preserve">6.73135900497437</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">6.52897834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82814979553223</t>
+    <t xml:space="preserve">6.82815027236938</t>
   </si>
   <si>
     <t xml:space="preserve">6.67856407165527</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">6.40579032897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22980690002441</t>
+    <t xml:space="preserve">6.22980642318726</t>
   </si>
   <si>
     <t xml:space="preserve">6.168212890625</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">5.82504510879517</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64026308059692</t>
+    <t xml:space="preserve">5.64026260375977</t>
   </si>
   <si>
     <t xml:space="preserve">5.41148519515991</t>
@@ -2339,52 +2339,52 @@
     <t xml:space="preserve">5.85144329071045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84574794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80175256729126</t>
+    <t xml:space="preserve">6.84574842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8017520904541</t>
   </si>
   <si>
     <t xml:space="preserve">6.8897442817688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90164709091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16562271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96324157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82245540618896</t>
+    <t xml:space="preserve">7.90164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16562366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9632420539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125448226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82245492935181</t>
   </si>
   <si>
     <t xml:space="preserve">7.70806550979614</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65527153015137</t>
+    <t xml:space="preserve">7.65527105331421</t>
   </si>
   <si>
     <t xml:space="preserve">7.76086091995239</t>
   </si>
   <si>
-    <t xml:space="preserve">7.804856300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6464729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53208255767822</t>
+    <t xml:space="preserve">7.80485677719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64647245407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53208303451538</t>
   </si>
   <si>
     <t xml:space="preserve">7.48808717727661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87525081634521</t>
+    <t xml:space="preserve">7.87525033950806</t>
   </si>
   <si>
     <t xml:space="preserve">7.49688720703125</t>
@@ -2405,31 +2405,31 @@
     <t xml:space="preserve">7.85765171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76965951919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91044664382935</t>
+    <t xml:space="preserve">7.76965999603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91044616699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.08642959594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33280754089355</t>
+    <t xml:space="preserve">8.10402774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.3416051864624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06003189086914</t>
+    <t xml:space="preserve">8.06003284454346</t>
   </si>
   <si>
     <t xml:space="preserve">8.01603698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38249778747559</t>
+    <t xml:space="preserve">7.38249826431274</t>
   </si>
   <si>
     <t xml:space="preserve">7.44409084320068</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">8.22721672058105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19202041625977</t>
+    <t xml:space="preserve">8.19202136993408</t>
   </si>
   <si>
     <t xml:space="preserve">8.42079830169678</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">8.46479415893555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55278587341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43839740753174</t>
+    <t xml:space="preserve">8.55278491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43839645385742</t>
   </si>
   <si>
     <t xml:space="preserve">8.47359371185303</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">8.35920333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20081806182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2448148727417</t>
+    <t xml:space="preserve">8.20081901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24481391906738</t>
   </si>
   <si>
     <t xml:space="preserve">8.05123329162598</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">8.18322086334229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49118995666504</t>
+    <t xml:space="preserve">8.49119091033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.93994903564453</t>
@@ -2501,16 +2501,16 @@
     <t xml:space="preserve">8.79916286468506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81676006317139</t>
+    <t xml:space="preserve">8.8167610168457</t>
   </si>
   <si>
     <t xml:space="preserve">8.71117115020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78156280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51758861541748</t>
+    <t xml:space="preserve">8.7815637588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5175895690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.1744213104248</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">8.39440059661865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06313800811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88715362548828</t>
+    <t xml:space="preserve">9.06313705444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92234992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8871545791626</t>
   </si>
   <si>
     <t xml:space="preserve">8.71996879577637</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">8.42959785461426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73756885528564</t>
+    <t xml:space="preserve">8.73756790161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.79036235809326</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">8.57038497924805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6759729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72876930236816</t>
+    <t xml:space="preserve">8.67597389221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72876834869385</t>
   </si>
   <si>
     <t xml:space="preserve">8.60558032989502</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">8.74636650085449</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27431583404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36230945587158</t>
+    <t xml:space="preserve">9.27431678771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36230850219727</t>
   </si>
   <si>
     <t xml:space="preserve">9.15112781524658</t>
@@ -4116,6 +4116,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.93000030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85000038146973</t>
   </si>
 </sst>
 </file>
@@ -61553,7 +61556,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="1" t="n">
-        <v>45523.6493287037</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B2197" t="n">
         <v>64913</v>
@@ -61574,6 +61577,32 @@
         <v>1367</v>
       </c>
       <c r="H2197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>45524.6495601852</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>50011</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>8.97999954223633</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>8.81999969482422</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>8.89000034332275</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>8.85000038146973</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H2198" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8033275604248</t>
+    <t xml:space="preserve">8.80332660675049</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74573707580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72105312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72928142547607</t>
+    <t xml:space="preserve">8.74573612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72105407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72928047180176</t>
   </si>
   <si>
     <t xml:space="preserve">8.79510021209717</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52359485626221</t>
+    <t xml:space="preserve">8.52359390258789</t>
   </si>
   <si>
     <t xml:space="preserve">8.59764194488525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1451358795166</t>
+    <t xml:space="preserve">8.14513492584229</t>
   </si>
   <si>
     <t xml:space="preserve">8.1039981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60586833953857</t>
+    <t xml:space="preserve">8.60586929321289</t>
   </si>
   <si>
     <t xml:space="preserve">8.4330940246582</t>
@@ -86,19 +86,19 @@
     <t xml:space="preserve">8.25209140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3425931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5400505065918</t>
+    <t xml:space="preserve">8.34259223937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54004955291748</t>
   </si>
   <si>
     <t xml:space="preserve">8.46600437164307</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22740936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613849639893</t>
+    <t xml:space="preserve">8.22740840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613754272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.63877868652344</t>
@@ -107,55 +107,55 @@
     <t xml:space="preserve">8.49068546295166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56473255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6716890335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87737560272217</t>
+    <t xml:space="preserve">8.56473350524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67169094085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87737369537354</t>
   </si>
   <si>
     <t xml:space="preserve">8.77041816711426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91851139068604</t>
+    <t xml:space="preserve">8.91851234436035</t>
   </si>
   <si>
     <t xml:space="preserve">8.92673873901367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98433113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978130340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91028308868408</t>
+    <t xml:space="preserve">8.98432922363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978225708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">9.04192161560059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96787643432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89383029937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05014991760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97610282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07483196258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81155586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86091804504395</t>
+    <t xml:space="preserve">8.96787548065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89382839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05014896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97610187530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07483291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81155490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86091899871826</t>
   </si>
   <si>
     <t xml:space="preserve">9.09951305389404</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">9.0666036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21469688415527</t>
+    <t xml:space="preserve">9.21469783782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974849700928</t>
@@ -176,19 +176,19 @@
     <t xml:space="preserve">9.54379367828369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52733898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202102661133</t>
+    <t xml:space="preserve">9.52734088897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202293395996</t>
   </si>
   <si>
     <t xml:space="preserve">9.74948024749756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83998107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71656894683838</t>
+    <t xml:space="preserve">9.83998012542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71657085418701</t>
   </si>
   <si>
     <t xml:space="preserve">9.87289047241211</t>
@@ -197,46 +197,46 @@
     <t xml:space="preserve">9.94693756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51088523864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93048286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77416229248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83175373077393</t>
+    <t xml:space="preserve">9.51088428497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466217041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93048191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77416324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83175277709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.95516490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114845275879</t>
+    <t xml:space="preserve">10.1114854812622</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934516906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3994445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4652633666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6133575439453</t>
+    <t xml:space="preserve">10.3994455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4652652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.613356590271</t>
   </si>
   <si>
     <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722188949585</t>
+    <t xml:space="preserve">10.5722208023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.5307931900024</t>
@@ -245,82 +245,82 @@
     <t xml:space="preserve">10.2490882873535</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2739458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3567981719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.497652053833</t>
+    <t xml:space="preserve">10.2739448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3567991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4976511001587</t>
   </si>
   <si>
     <t xml:space="preserve">10.5805063247681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4727945327759</t>
+    <t xml:space="preserve">10.4727954864502</t>
   </si>
   <si>
     <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3982267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4396553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2905149459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1910905838013</t>
+    <t xml:space="preserve">10.3982276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4396533966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2905168533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.191089630127</t>
   </si>
   <si>
     <t xml:space="preserve">10.0253810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98395347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94252777099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85967350006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230813980103</t>
+    <t xml:space="preserve">9.98395442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94252681732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85967254638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230823516846</t>
   </si>
   <si>
     <t xml:space="preserve">9.95909786224365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96738433837891</t>
+    <t xml:space="preserve">9.96738338470459</t>
   </si>
   <si>
     <t xml:space="preserve">10.0668077468872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1165208816528</t>
+    <t xml:space="preserve">10.5225086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1165199279785</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579494476318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3816566467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153715133667</t>
+    <t xml:space="preserve">10.3816556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.315372467041</t>
   </si>
   <si>
     <t xml:space="preserve">10.5556488037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5639362335205</t>
+    <t xml:space="preserve">10.5639352798462</t>
   </si>
   <si>
     <t xml:space="preserve">10.4147977828979</t>
@@ -329,22 +329,22 @@
     <t xml:space="preserve">10.2325172424316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.588791847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.54736328125</t>
+    <t xml:space="preserve">10.5887899398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5473642349243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142230987549</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4810800552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4645080566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1330919265747</t>
+    <t xml:space="preserve">10.4810810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4645109176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.133092880249</t>
   </si>
   <si>
     <t xml:space="preserve">10.3485136032104</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">10.365083694458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136484146118</t>
+    <t xml:space="preserve">10.6136465072632</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.456223487854</t>
+    <t xml:space="preserve">10.4562253952026</t>
   </si>
   <si>
     <t xml:space="preserve">10.5390796661377</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">10.1662349700928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1248064041138</t>
+    <t xml:space="preserve">10.1248073577881</t>
   </si>
   <si>
     <t xml:space="preserve">10.323657989502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.182804107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6053628921509</t>
+    <t xml:space="preserve">10.1828031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6053609848022</t>
   </si>
   <si>
     <t xml:space="preserve">10.3402280807495</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">10.5970764160156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6716470718384</t>
+    <t xml:space="preserve">10.6716451644897</t>
   </si>
   <si>
     <t xml:space="preserve">10.7213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7544994354248</t>
+    <t xml:space="preserve">10.7544984817505</t>
   </si>
   <si>
     <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0610609054565</t>
+    <t xml:space="preserve">11.0610618591309</t>
   </si>
   <si>
     <t xml:space="preserve">11.1107740402222</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">11.3427667617798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4504776000977</t>
+    <t xml:space="preserve">11.4504766464233</t>
   </si>
   <si>
     <t xml:space="preserve">11.583044052124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5167598724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996150970459</t>
+    <t xml:space="preserve">11.5167608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996131896973</t>
   </si>
   <si>
     <t xml:space="preserve">11.1853427886963</t>
@@ -437,22 +437,22 @@
     <t xml:space="preserve">11.3096256256104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0196352005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.903639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8953542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776319503784</t>
+    <t xml:space="preserve">11.0196342468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9036388397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8953533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776329040527</t>
   </si>
   <si>
     <t xml:space="preserve">10.8870677947998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.771071434021</t>
+    <t xml:space="preserve">10.7710704803467</t>
   </si>
   <si>
     <t xml:space="preserve">10.679931640625</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">10.6302185058594</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8622102737427</t>
+    <t xml:space="preserve">10.862211227417</t>
   </si>
   <si>
     <t xml:space="preserve">10.8042125701904</t>
@@ -470,37 +470,37 @@
     <t xml:space="preserve">10.6633605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7462139129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627859115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047863006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8787813186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7959270477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6965017318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.994776725769</t>
+    <t xml:space="preserve">10.7462129592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7959280014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6965007781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947776794434</t>
   </si>
   <si>
     <t xml:space="preserve">11.3924798965454</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4339056015015</t>
+    <t xml:space="preserve">11.4339046478271</t>
   </si>
   <si>
     <t xml:space="preserve">11.3510513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1439161300659</t>
+    <t xml:space="preserve">11.1439170837402</t>
   </si>
   <si>
     <t xml:space="preserve">11.1024885177612</t>
@@ -509,88 +509,88 @@
     <t xml:space="preserve">11.2599124908447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.26819896698</t>
+    <t xml:space="preserve">11.2681970596313</t>
   </si>
   <si>
     <t xml:space="preserve">11.0859184265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1687698364258</t>
+    <t xml:space="preserve">10.9450664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1687717437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.1356315612793</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2516260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3593368530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847681045532</t>
+    <t xml:space="preserve">11.2516269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593378067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847690582275</t>
   </si>
   <si>
     <t xml:space="preserve">11.4753332138062</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4587621688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2267694473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942049026489</t>
+    <t xml:space="preserve">11.4587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2267713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942039489746</t>
   </si>
   <si>
     <t xml:space="preserve">10.9782075881958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3344812393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3841943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3013381958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1770572662354</t>
+    <t xml:space="preserve">11.1522016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3344802856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3841934204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3013401031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1770582199097</t>
   </si>
   <si>
     <t xml:space="preserve">10.953351020813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.276481628418</t>
+    <t xml:space="preserve">11.2764835357666</t>
   </si>
   <si>
     <t xml:space="preserve">11.6658983230591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1215991973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0967426300049</t>
+    <t xml:space="preserve">12.1215972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0967397689819</t>
   </si>
   <si>
     <t xml:space="preserve">12.0470285415649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.262451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2210216522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3453035354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044534683228</t>
+    <t xml:space="preserve">12.2624492645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.221022605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3453044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044525146484</t>
   </si>
   <si>
     <t xml:space="preserve">12.3121633529663</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">12.6352939605713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6684370040894</t>
+    <t xml:space="preserve">12.668436050415</t>
   </si>
   <si>
     <t xml:space="preserve">12.809289932251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6435813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6021547317505</t>
+    <t xml:space="preserve">12.6435804367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6021556854248</t>
   </si>
   <si>
     <t xml:space="preserve">12.4944429397583</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">12.5938682556152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.676721572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.759575843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2318458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2484169006348</t>
+    <t xml:space="preserve">12.6767206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7595767974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2318468093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2484159469604</t>
   </si>
   <si>
     <t xml:space="preserve">13.3644142150879</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">13.4224128723145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5466947555542</t>
+    <t xml:space="preserve">13.5466938018799</t>
   </si>
   <si>
     <t xml:space="preserve">14.342095375061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7066516876221</t>
+    <t xml:space="preserve">14.7066526412964</t>
   </si>
   <si>
     <t xml:space="preserve">14.7480821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9137907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338088989258</t>
+    <t xml:space="preserve">14.9137897491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338117599487</t>
   </si>
   <si>
     <t xml:space="preserve">13.8698253631592</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">13.6709747314453</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7538280487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935306549072</t>
+    <t xml:space="preserve">13.7538290023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935316085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.9195375442505</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3255224227905</t>
+    <t xml:space="preserve">14.3255233764648</t>
   </si>
   <si>
     <t xml:space="preserve">14.3006687164307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2923822402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8640766143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580926895142</t>
+    <t xml:space="preserve">14.2923831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8640775680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580898284912</t>
   </si>
   <si>
     <t xml:space="preserve">14.4995193481445</t>
@@ -698,37 +698,37 @@
     <t xml:space="preserve">14.6817979812622</t>
   </si>
   <si>
-    <t xml:space="preserve">14.62380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315120697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937715530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766267776489</t>
+    <t xml:space="preserve">14.6237983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895097732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937696456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766258239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.568341255188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6180534362793</t>
+    <t xml:space="preserve">15.6180543899536</t>
   </si>
   <si>
     <t xml:space="preserve">15.7423343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8831882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020589828491</t>
+    <t xml:space="preserve">15.883186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523439407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020599365234</t>
   </si>
   <si>
     <t xml:space="preserve">15.609769821167</t>
@@ -746,199 +746,199 @@
     <t xml:space="preserve">15.1872110366821</t>
   </si>
   <si>
+    <t xml:space="preserve">15.2037830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1371698379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.578465461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867074966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036985397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4285907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949476242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8615579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451583862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5285053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868726730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783781051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.645073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040365219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289297103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701360702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951137542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6284217834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533178329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9448194503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6950330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.720009803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117668151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.620096206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452419281006</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.2037801742554</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1371698379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5784664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867074966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699689865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949447631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8615560531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5285062789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954545974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366619110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782945632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.486873626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9031887054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.904034614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537393569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289268493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4119396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951147079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618124008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6284217834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9448204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6950311660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117658615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7449903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6200952529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.203782081604</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.112193107605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7957935333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2787160873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.320348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3120231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3369998931885</t>
+    <t xml:space="preserve">14.7957925796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2787189483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203496932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3120222091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872961044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205186843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370027542114</t>
   </si>
   <si>
     <t xml:space="preserve">15.3703060150146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1538200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785490036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368337631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702234268188</t>
+    <t xml:space="preserve">15.1538219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702215194702</t>
   </si>
   <si>
     <t xml:space="preserve">15.6034412384033</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5035266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4036130905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7033576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869590759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6525535583496</t>
+    <t xml:space="preserve">15.5035276412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.553484916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4036111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7033586502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869581222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6525554656982</t>
   </si>
   <si>
     <t xml:space="preserve">16.4943561553955</t>
@@ -962,55 +962,55 @@
     <t xml:space="preserve">16.1446514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1030216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.461895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614725112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616395950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532304763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9531450271606</t>
+    <t xml:space="preserve">16.1529769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1030197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116823196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618978500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614706039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.853232383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9531478881836</t>
   </si>
   <si>
     <t xml:space="preserve">16.0031032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0530624389648</t>
+    <t xml:space="preserve">16.0530605316162</t>
   </si>
   <si>
     <t xml:space="preserve">15.9864511489868</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8365774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6534004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7866220474243</t>
+    <t xml:space="preserve">15.836576461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281644821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367473602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6533994674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.78662109375</t>
   </si>
   <si>
     <t xml:space="preserve">16.0280818939209</t>
@@ -1022,31 +1022,31 @@
     <t xml:space="preserve">16.3861122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5443115234375</t>
+    <t xml:space="preserve">16.5443134307861</t>
   </si>
   <si>
     <t xml:space="preserve">16.602596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8190803527832</t>
+    <t xml:space="preserve">16.8190765380859</t>
   </si>
   <si>
     <t xml:space="preserve">16.860710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7774467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6941833496094</t>
+    <t xml:space="preserve">16.7774505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.694185256958</t>
   </si>
   <si>
     <t xml:space="preserve">16.4693737030029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2029342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694591522217</t>
+    <t xml:space="preserve">16.2029361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694610595703</t>
   </si>
   <si>
     <t xml:space="preserve">17.2353935241699</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">17.0272350311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1105003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019165039062</t>
+    <t xml:space="preserve">17.1104965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684452056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019184112549</t>
   </si>
   <si>
     <t xml:space="preserve">16.9023418426514</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">17.3186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4435501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9856071472168</t>
+    <t xml:space="preserve">17.4435482025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9856033325195</t>
   </si>
   <si>
     <t xml:space="preserve">17.068868637085</t>
@@ -1082,34 +1082,34 @@
     <t xml:space="preserve">16.5193328857422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.136323928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1196727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0197582244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4194202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.252893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861957550049</t>
+    <t xml:space="preserve">16.1363258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1196708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0197563171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4194164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2528953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861938476562</t>
   </si>
   <si>
     <t xml:space="preserve">16.0364112854004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2695446014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0705614089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703905105591</t>
+    <t xml:space="preserve">16.2695484161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0705604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703914642334</t>
   </si>
   <si>
     <t xml:space="preserve">15.4535694122314</t>
@@ -1118,43 +1118,43 @@
     <t xml:space="preserve">15.6700534820557</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.837423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6542463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044580459595</t>
+    <t xml:space="preserve">14.6709003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8374261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6542453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044589996338</t>
   </si>
   <si>
     <t xml:space="preserve">14.2878904342651</t>
   </si>
   <si>
-    <t xml:space="preserve">14.55433177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376806259155</t>
+    <t xml:space="preserve">14.5543327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376796722412</t>
   </si>
   <si>
     <t xml:space="preserve">14.3711538314819</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7708158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877223968506</t>
+    <t xml:space="preserve">14.7708148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877243041992</t>
   </si>
   <si>
     <t xml:space="preserve">14.2212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1380195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0714063644409</t>
+    <t xml:space="preserve">14.1380186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0714082717896</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">14.3211984634399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7541618347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041200637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0206022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038665771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285558700562</t>
+    <t xml:space="preserve">14.7541608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039501190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0206031799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198436737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285568237305</t>
   </si>
   <si>
     <t xml:space="preserve">14.8946714401245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1457061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293796539307</t>
+    <t xml:space="preserve">15.1457052230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.229380607605</t>
   </si>
   <si>
     <t xml:space="preserve">14.6101675033569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8570652008057</t>
+    <t xml:space="preserve">13.8570642471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093379974365</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">14.225248336792</t>
   </si>
   <si>
-    <t xml:space="preserve">14.325662612915</t>
+    <t xml:space="preserve">14.3256616592407</t>
   </si>
   <si>
     <t xml:space="preserve">14.7273149490356</t>
@@ -1226,25 +1226,25 @@
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6771087646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4762811660767</t>
+    <t xml:space="preserve">14.5599613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6771097183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.476282119751</t>
   </si>
   <si>
     <t xml:space="preserve">14.3926067352295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603727340698</t>
+    <t xml:space="preserve">14.6603717803955</t>
   </si>
   <si>
     <t xml:space="preserve">14.961615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0118188858032</t>
+    <t xml:space="preserve">15.0118198394775</t>
   </si>
   <si>
     <t xml:space="preserve">14.7775230407715</t>
@@ -1253,16 +1253,16 @@
     <t xml:space="preserve">15.212646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2795906066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791772842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950847625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0452909469604</t>
+    <t xml:space="preserve">15.2795886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950828552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0452899932861</t>
   </si>
   <si>
     <t xml:space="preserve">15.1122331619263</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">15.3632678985596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2628545761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0620269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3297967910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7314510345459</t>
+    <t xml:space="preserve">15.2628555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0620260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3297958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7314500808716</t>
   </si>
   <si>
     <t xml:space="preserve">15.6812429428101</t>
@@ -1289,61 +1289,61 @@
     <t xml:space="preserve">15.6143026351929</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5473604202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4636812210083</t>
+    <t xml:space="preserve">15.5473585128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.463680267334</t>
   </si>
   <si>
     <t xml:space="preserve">15.5306234359741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6477727890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7983913421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114055633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5640935897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.697979927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4971513748169</t>
+    <t xml:space="preserve">15.6477708816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7983922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114065170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.564094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6979789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4971532821655</t>
   </si>
   <si>
     <t xml:space="preserve">15.7649240493774</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4804182052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2963256835938</t>
+    <t xml:space="preserve">15.4804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2963275909424</t>
   </si>
   <si>
     <t xml:space="preserve">15.313060760498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8109941482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624393463135</t>
+    <t xml:space="preserve">14.8109912872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624383926392</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921895980835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5432233810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5934314727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942600250244</t>
+    <t xml:space="preserve">14.5432243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5934295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">14.8277282714844</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">13.7399158477783</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7231798171997</t>
+    <t xml:space="preserve">13.7231788635254</t>
   </si>
   <si>
     <t xml:space="preserve">13.6060304641724</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">13.6897096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">13.974214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0913639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064447402954</t>
+    <t xml:space="preserve">13.9742136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.091362953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7064456939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211122512817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892953872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047914505005</t>
+    <t xml:space="preserve">13.5892972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047924041748</t>
   </si>
   <si>
     <t xml:space="preserve">12.7023086547852</t>
@@ -1391,58 +1391,58 @@
     <t xml:space="preserve">12.9198713302612</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0872278213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1541709899902</t>
+    <t xml:space="preserve">13.0872268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1541700363159</t>
   </si>
   <si>
     <t xml:space="preserve">13.0537567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8529300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194589614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6186323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5516910552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512758255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0496215820312</t>
+    <t xml:space="preserve">12.852931022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.618631362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5516901016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512748718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0496225357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">11.781852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1835060119629</t>
+    <t xml:space="preserve">11.7818517684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1835069656372</t>
   </si>
   <si>
     <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3006544113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.384334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5349540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.380199432373</t>
+    <t xml:space="preserve">11.9157381057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3006553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3843336105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5349531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3801984786987</t>
   </si>
   <si>
     <t xml:space="preserve">11.7168378829956</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">12.2764472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239847183228</t>
+    <t xml:space="preserve">12.2239837646484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8392524719238</t>
@@ -1460,16 +1460,16 @@
     <t xml:space="preserve">11.9266920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4894952774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0316181182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7661066055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1365461349487</t>
+    <t xml:space="preserve">11.4894962310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0316200256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7661075592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1365451812744</t>
   </si>
   <si>
     <t xml:space="preserve">11.979154586792</t>
@@ -1487,40 +1487,40 @@
     <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8042774200439</t>
+    <t xml:space="preserve">11.5594472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8042764663696</t>
   </si>
   <si>
     <t xml:space="preserve">11.7518129348755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4163503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.521276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5912294387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5037889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4688138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6643753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7867870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9616680145264</t>
+    <t xml:space="preserve">12.4163513183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5212755203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5912284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5037899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638868331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4688129425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6643743515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7867879867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9616670608521</t>
   </si>
   <si>
     <t xml:space="preserve">11.8567409515381</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">11.6993503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0491056442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966440200806</t>
+    <t xml:space="preserve">12.0491065979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966430664062</t>
   </si>
   <si>
     <t xml:space="preserve">12.258960723877</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">12.6961555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087169647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8185701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3988628387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1890087127686</t>
+    <t xml:space="preserve">12.6087160110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8185710906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3988637924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1890077590942</t>
   </si>
   <si>
     <t xml:space="preserve">12.2939367294312</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">11.9441795349121</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5244722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.419545173645</t>
+    <t xml:space="preserve">11.524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4195461273193</t>
   </si>
   <si>
     <t xml:space="preserve">11.3845701217651</t>
@@ -1586,31 +1586,31 @@
     <t xml:space="preserve">10.9298858642578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8074712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0173244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2446660995483</t>
+    <t xml:space="preserve">10.8074703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0173263549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2446670532227</t>
   </si>
   <si>
     <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1397390365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2096910476685</t>
+    <t xml:space="preserve">11.1397399902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271776199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2096900939941</t>
   </si>
   <si>
     <t xml:space="preserve">11.4720077514648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4545202255249</t>
+    <t xml:space="preserve">11.4545192718506</t>
   </si>
   <si>
     <t xml:space="preserve">11.1922025680542</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">11.437032699585</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6818618774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141305923462</t>
+    <t xml:space="preserve">11.6818609237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141296386719</t>
   </si>
   <si>
     <t xml:space="preserve">12.1015691757202</t>
@@ -1634,34 +1634,34 @@
     <t xml:space="preserve">11.3321056365967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3146171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2621555328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5419597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0869445800781</t>
+    <t xml:space="preserve">11.3146181106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2621545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5419588088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0869455337524</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685178756714</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4565095901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6500902175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8436727523804</t>
+    <t xml:space="preserve">11.4565105438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6500911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8436737060547</t>
   </si>
   <si>
     <t xml:space="preserve">11.8612699508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.632493019104</t>
+    <t xml:space="preserve">11.6324920654297</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">11.3509187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3861150741577</t>
+    <t xml:space="preserve">11.386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">11.4213123321533</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">11.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7380838394165</t>
+    <t xml:space="preserve">11.7380828857422</t>
   </si>
   <si>
     <t xml:space="preserve">12.0548515319824</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">11.7732791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0020570755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7908763885498</t>
+    <t xml:space="preserve">12.0020580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7908773422241</t>
   </si>
   <si>
     <t xml:space="preserve">11.4389114379883</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">11.5093040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5269021987915</t>
+    <t xml:space="preserve">11.5269012451172</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084754943848</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">12.0196561813354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2308359146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428451538086</t>
+    <t xml:space="preserve">12.2308349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428442001343</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124092102051</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">12.3716230392456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0724515914917</t>
+    <t xml:space="preserve">12.0724506378174</t>
   </si>
   <si>
     <t xml:space="preserve">12.1604423522949</t>
@@ -1754,58 +1754,58 @@
     <t xml:space="preserve">12.7059898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4948101043701</t>
+    <t xml:space="preserve">12.4948110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.600399017334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5796966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6148948669434</t>
+    <t xml:space="preserve">11.5796976089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.614893913269</t>
   </si>
   <si>
     <t xml:space="preserve">11.5620994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4741077423096</t>
+    <t xml:space="preserve">11.4741086959839</t>
   </si>
   <si>
     <t xml:space="preserve">11.7556800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3333225250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4917058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132377624512</t>
+    <t xml:space="preserve">11.3333215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4917068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132368087769</t>
   </si>
   <si>
     <t xml:space="preserve">12.565203666687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4772119522095</t>
+    <t xml:space="preserve">12.4772129058838</t>
   </si>
   <si>
     <t xml:space="preserve">12.582802772522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4596128463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1252450942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9668617248535</t>
+    <t xml:space="preserve">12.4596138000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1252460479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9668607711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.9844589233398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.107647895813</t>
+    <t xml:space="preserve">12.1076488494873</t>
   </si>
   <si>
     <t xml:space="preserve">12.318826675415</t>
@@ -1820,25 +1820,25 @@
     <t xml:space="preserve">12.2836303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3892202377319</t>
+    <t xml:space="preserve">12.3892211914062</t>
   </si>
   <si>
     <t xml:space="preserve">13.0403594970703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3923244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4451208114624</t>
+    <t xml:space="preserve">13.3923254013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4451198577881</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3571281433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2515392303467</t>
+    <t xml:space="preserve">13.3571290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2515382766724</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">13.4627180099487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6387023925781</t>
+    <t xml:space="preserve">13.6387014389038</t>
   </si>
   <si>
     <t xml:space="preserve">13.3747262954712</t>
@@ -1862,16 +1862,16 @@
     <t xml:space="preserve">13.4275217056274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3395299911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5476064682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.811580657959</t>
+    <t xml:space="preserve">13.3395290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5476045608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8115816116333</t>
   </si>
   <si>
     <t xml:space="preserve">13.3043336868286</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">13.5859069824219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4803161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283502578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9523677825928</t>
+    <t xml:space="preserve">13.4803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219308853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9523668289185</t>
   </si>
   <si>
     <t xml:space="preserve">13.0579566955566</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">12.9171705245972</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0227603912354</t>
+    <t xml:space="preserve">13.0227613449097</t>
   </si>
   <si>
     <t xml:space="preserve">12.8467779159546</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">12.8995723724365</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6355972290039</t>
+    <t xml:space="preserve">12.6355962753296</t>
   </si>
   <si>
     <t xml:space="preserve">12.7587862014771</t>
@@ -1934,19 +1934,19 @@
     <t xml:space="preserve">11.6852865219116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3157224655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2629280090332</t>
+    <t xml:space="preserve">11.3157234191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2629270553589</t>
   </si>
   <si>
     <t xml:space="preserve">11.4037141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277317047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693464279175</t>
+    <t xml:space="preserve">11.2277307510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693454742432</t>
   </si>
   <si>
     <t xml:space="preserve">11.210132598877</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">10.0134468078613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126182556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1894311904907</t>
+    <t xml:space="preserve">10.3126192092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1894302368164</t>
   </si>
   <si>
     <t xml:space="preserve">9.94305324554443</t>
@@ -1982,22 +1982,22 @@
     <t xml:space="preserve">9.20392417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45599460601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03363418579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564294815063</t>
+    <t xml:space="preserve">8.45599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03363513946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564247131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.95133829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25050926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96013689041138</t>
+    <t xml:space="preserve">7.25050973892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2009,22 +2009,22 @@
     <t xml:space="preserve">5.97463083267212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24740505218506</t>
+    <t xml:space="preserve">6.24740552902222</t>
   </si>
   <si>
     <t xml:space="preserve">6.34419584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20340919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0714225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73705387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05382394790649</t>
+    <t xml:space="preserve">6.20340967178345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07142210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73705434799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05382442474365</t>
   </si>
   <si>
     <t xml:space="preserve">6.01862716674805</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">6.04502391815186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98343086242676</t>
+    <t xml:space="preserve">5.9834303855896</t>
   </si>
   <si>
     <t xml:space="preserve">6.15941333770752</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51138019561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100830078125</t>
+    <t xml:space="preserve">6.51138067245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100782394409</t>
   </si>
   <si>
     <t xml:space="preserve">6.6873631477356</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">6.59057283401489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08332538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06572675704956</t>
+    <t xml:space="preserve">6.66096544265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08332586288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06572723388672</t>
   </si>
   <si>
     <t xml:space="preserve">7.15371942520142</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">7.05692863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91614151000977</t>
+    <t xml:space="preserve">6.91614198684692</t>
   </si>
   <si>
     <t xml:space="preserve">6.49378156661987</t>
@@ -2096,40 +2096,40 @@
     <t xml:space="preserve">6.45858526229858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62576961517334</t>
+    <t xml:space="preserve">6.62576913833618</t>
   </si>
   <si>
     <t xml:space="preserve">6.71376085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69616222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81935119628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03053045272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18011665344238</t>
+    <t xml:space="preserve">6.69616270065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8193507194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03052997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18011617660522</t>
   </si>
   <si>
     <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34730100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970237731934</t>
+    <t xml:space="preserve">7.34730052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970190048218</t>
   </si>
   <si>
     <t xml:space="preserve">7.31210422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47928857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99843883514404</t>
+    <t xml:space="preserve">7.47928810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9984393119812</t>
   </si>
   <si>
     <t xml:space="preserve">8.21841716766357</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">8.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97204160690308</t>
+    <t xml:space="preserve">7.97204113006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.78725957870483</t>
@@ -2147,43 +2147,43 @@
     <t xml:space="preserve">7.36489915847778</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46168851852417</t>
+    <t xml:space="preserve">7.46168899536133</t>
   </si>
   <si>
     <t xml:space="preserve">7.63767337799072</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40009546279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41769361495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54968166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62887382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72566318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51448488235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91924571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88405084609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74326324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66407012939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58487749099731</t>
+    <t xml:space="preserve">7.40009498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41769456863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54968118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6288743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72566366195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51448440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91924667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88404941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74326372146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66406965255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58487796783447</t>
   </si>
   <si>
     <t xml:space="preserve">7.60247611999512</t>
@@ -2201,25 +2201,25 @@
     <t xml:space="preserve">7.21531248092651</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04812908172607</t>
+    <t xml:space="preserve">7.04812955856323</t>
   </si>
   <si>
     <t xml:space="preserve">7.0041332244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26810789108276</t>
+    <t xml:space="preserve">7.28570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26810836791992</t>
   </si>
   <si>
     <t xml:space="preserve">7.33850145339966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10092306137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12732219696045</t>
+    <t xml:space="preserve">7.10092353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12732172012329</t>
   </si>
   <si>
     <t xml:space="preserve">7.14491987228394</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">6.79295349121094</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88094472885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86334657669067</t>
+    <t xml:space="preserve">6.88094520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86334705352783</t>
   </si>
   <si>
     <t xml:space="preserve">6.78415441513062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7225604057312</t>
+    <t xml:space="preserve">6.72255992889404</t>
   </si>
   <si>
     <t xml:space="preserve">6.70496129989624</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">6.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59937143325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4321870803833</t>
+    <t xml:space="preserve">6.59937191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43218755722046</t>
   </si>
   <si>
     <t xml:space="preserve">6.25620460510254</t>
@@ -2267,25 +2267,25 @@
     <t xml:space="preserve">6.26500368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19461011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23860597610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48498249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50258016586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47618389129639</t>
+    <t xml:space="preserve">6.19461059570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23860645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48498201370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5025806427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47618341445923</t>
   </si>
   <si>
     <t xml:space="preserve">6.54657649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66976499557495</t>
+    <t xml:space="preserve">6.66976451873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.73135900497437</t>
@@ -2294,28 +2294,28 @@
     <t xml:space="preserve">6.41458940505981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60817098617554</t>
+    <t xml:space="preserve">6.6081714630127</t>
   </si>
   <si>
     <t xml:space="preserve">6.52897834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82815027236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67856407165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40579032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22980642318726</t>
+    <t xml:space="preserve">6.82814979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67856454849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40579080581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22980690002441</t>
   </si>
   <si>
     <t xml:space="preserve">6.168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82504510879517</t>
+    <t xml:space="preserve">5.82504558563232</t>
   </si>
   <si>
     <t xml:space="preserve">5.64026260375977</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">5.41148519515991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37628793716431</t>
+    <t xml:space="preserve">5.37628841400146</t>
   </si>
   <si>
     <t xml:space="preserve">5.42908334732056</t>
@@ -2339,25 +2339,25 @@
     <t xml:space="preserve">5.85144329071045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84574842453003</t>
+    <t xml:space="preserve">6.84574794769287</t>
   </si>
   <si>
     <t xml:space="preserve">6.8017520904541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8897442817688</t>
+    <t xml:space="preserve">6.88974380493164</t>
   </si>
   <si>
     <t xml:space="preserve">7.90164756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16562366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9632420539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83125448226929</t>
+    <t xml:space="preserve">8.16562271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96324253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83125400543213</t>
   </si>
   <si>
     <t xml:space="preserve">7.82245492935181</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">7.70806550979614</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65527105331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76086091995239</t>
+    <t xml:space="preserve">7.65527153015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086139678955</t>
   </si>
   <si>
     <t xml:space="preserve">7.80485677719116</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64647245407104</t>
+    <t xml:space="preserve">7.64647197723389</t>
   </si>
   <si>
     <t xml:space="preserve">7.53208303451538</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">7.48808717727661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87525033950806</t>
+    <t xml:space="preserve">7.87525081634521</t>
   </si>
   <si>
     <t xml:space="preserve">7.49688720703125</t>
@@ -2393,19 +2393,19 @@
     <t xml:space="preserve">7.56728029251099</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69046783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8928484916687</t>
+    <t xml:space="preserve">7.69046688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89284896850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.06883239746094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85765171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76965999603271</t>
+    <t xml:space="preserve">7.8576512336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76966047286987</t>
   </si>
   <si>
     <t xml:space="preserve">7.91044616699219</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">8.10402774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33280658721924</t>
+    <t xml:space="preserve">8.33280754089355</t>
   </si>
   <si>
     <t xml:space="preserve">8.3416051864624</t>
@@ -2435,10 +2435,10 @@
     <t xml:space="preserve">7.44409084320068</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4264931678772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6728687286377</t>
+    <t xml:space="preserve">7.42649269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67286968231201</t>
   </si>
   <si>
     <t xml:space="preserve">7.98963832855225</t>
@@ -2450,16 +2450,16 @@
     <t xml:space="preserve">8.22721672058105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19202136993408</t>
+    <t xml:space="preserve">8.19202041625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.42079830169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64957523345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678268432617</t>
+    <t xml:space="preserve">8.64957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678173065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.5087890625</t>
@@ -2468,22 +2468,22 @@
     <t xml:space="preserve">8.46479415893555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55278491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43839645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47359371185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35920333862305</t>
+    <t xml:space="preserve">8.55278587341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43839740753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47359275817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35920429229736</t>
   </si>
   <si>
     <t xml:space="preserve">8.20081901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24481391906738</t>
+    <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
     <t xml:space="preserve">8.05123329162598</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">8.18322086334229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49119091033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93994903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79916286468506</t>
+    <t xml:space="preserve">8.49118995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93994998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79916191101074</t>
   </si>
   <si>
     <t xml:space="preserve">8.8167610168457</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">8.71117115020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7815637588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5175895690918</t>
+    <t xml:space="preserve">8.78156185150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51758861541748</t>
   </si>
   <si>
     <t xml:space="preserve">8.1744213104248</t>
@@ -2519,22 +2519,22 @@
     <t xml:space="preserve">8.32400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39440059661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06313705444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92234992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8871545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71996879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42959785461426</t>
+    <t xml:space="preserve">8.39440155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06313800811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88715362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71996974945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42959690093994</t>
   </si>
   <si>
     <t xml:space="preserve">8.73756790161133</t>
@@ -2546,19 +2546,19 @@
     <t xml:space="preserve">8.64077663421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57038497924805</t>
+    <t xml:space="preserve">8.57038402557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.67597389221191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72876834869385</t>
+    <t xml:space="preserve">8.72876930236816</t>
   </si>
   <si>
     <t xml:space="preserve">8.60558032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35040473937988</t>
+    <t xml:space="preserve">8.3504056930542</t>
   </si>
   <si>
     <t xml:space="preserve">8.36800289154053</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">8.57918357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74636650085449</t>
+    <t xml:space="preserve">8.74636745452881</t>
   </si>
   <si>
     <t xml:space="preserve">9.27431678771973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36230850219727</t>
+    <t xml:space="preserve">9.36230945587158</t>
   </si>
   <si>
     <t xml:space="preserve">9.15112781524658</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">9.24035453796387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06231307983398</t>
+    <t xml:space="preserve">9.0623140335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.99109745025635</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">9.64985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81008720397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1127586364746</t>
+    <t xml:space="preserve">9.81008815765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1127595901489</t>
   </si>
   <si>
     <t xml:space="preserve">10.1661720275879</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">10.2373886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3086051940918</t>
+    <t xml:space="preserve">10.3086042404175</t>
   </si>
   <si>
     <t xml:space="preserve">10.3976259231567</t>
@@ -2621,16 +2621,16 @@
     <t xml:space="preserve">10.3264083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0949544906616</t>
+    <t xml:space="preserve">10.0949535369873</t>
   </si>
   <si>
     <t xml:space="preserve">10.1305627822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1483669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97032642364502</t>
+    <t xml:space="preserve">10.1483659744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9703254699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.91691303253174</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">9.75667572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61424255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77447986602783</t>
+    <t xml:space="preserve">9.61424160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77447891235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.86350059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54302501678467</t>
+    <t xml:space="preserve">9.54302597045898</t>
   </si>
   <si>
     <t xml:space="preserve">9.45400524139404</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">9.27596378326416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29376792907715</t>
+    <t xml:space="preserve">9.29376697540283</t>
   </si>
   <si>
     <t xml:space="preserve">9.34718036651611</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">9.31157207489014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09792232513428</t>
+    <t xml:space="preserve">9.09792327880859</t>
   </si>
   <si>
     <t xml:space="preserve">8.91988086700439</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">8.97329235076904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02670478820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48961353302002</t>
+    <t xml:space="preserve">9.02670574188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4896125793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40059185028076</t>
+    <t xml:space="preserve">9.40059280395508</t>
   </si>
   <si>
     <t xml:space="preserve">9.52522087097168</t>
@@ -2714,10 +2714,10 @@
     <t xml:space="preserve">9.93471717834473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41839694976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47180938720703</t>
+    <t xml:space="preserve">9.41839599609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47181034088135</t>
   </si>
   <si>
     <t xml:space="preserve">9.3649845123291</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">9.32937622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25815868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7032642364502</t>
+    <t xml:space="preserve">9.25815963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70326328277588</t>
   </si>
   <si>
     <t xml:space="preserve">9.72106742858887</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">9.04450988769531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95549011230469</t>
+    <t xml:space="preserve">8.95548915863037</t>
   </si>
   <si>
     <t xml:space="preserve">8.85756587982178</t>
@@ -2753,10 +2753,10 @@
     <t xml:space="preserve">8.63501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65281772613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87536907196045</t>
+    <t xml:space="preserve">8.65281867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87537002563477</t>
   </si>
   <si>
     <t xml:space="preserve">8.59940528869629</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">8.67062282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47477722167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62611198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75074005126953</t>
+    <t xml:space="preserve">8.47477626800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62611103057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75074100494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.76854610443115</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">9.79228401184082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73887157440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88130474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53709125518799</t>
+    <t xml:space="preserve">9.73887062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88130569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5370922088623</t>
   </si>
   <si>
     <t xml:space="preserve">8.519287109375</t>
@@ -2828,40 +2828,40 @@
     <t xml:space="preserve">7.74480628967285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80712127685547</t>
+    <t xml:space="preserve">7.80712080001831</t>
   </si>
   <si>
     <t xml:space="preserve">7.70919799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00296592712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9050440788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83382749557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32344150543213</t>
+    <t xml:space="preserve">8.00296688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90504360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83382797241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32344055175781</t>
   </si>
   <si>
     <t xml:space="preserve">8.17210578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14540004730225</t>
+    <t xml:space="preserve">8.14539909362793</t>
   </si>
   <si>
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065141677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01186847686768</t>
+    <t xml:space="preserve">7.94065189361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01186943054199</t>
   </si>
   <si>
     <t xml:space="preserve">8.0563793182373</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">8.28783416748047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3412446975708</t>
+    <t xml:space="preserve">8.34124565124512</t>
   </si>
   <si>
     <t xml:space="preserve">8.43916797637939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8842716217041</t>
+    <t xml:space="preserve">8.88427066802979</t>
   </si>
   <si>
     <t xml:space="preserve">8.78634929656982</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">8.45697212219238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42136383056641</t>
+    <t xml:space="preserve">8.42136478424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.33234310150146</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">8.03857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89614152908325</t>
+    <t xml:space="preserve">7.89614105224609</t>
   </si>
   <si>
     <t xml:space="preserve">8.29673480987549</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">8.31453895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12759494781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40355968475342</t>
+    <t xml:space="preserve">8.12759590148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4035587310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.2789306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36795139312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46587371826172</t>
+    <t xml:space="preserve">8.36795234680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46587467193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.35014724731445</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">8.20771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08308410644531</t>
+    <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
     <t xml:space="preserve">7.46884298324585</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">7.4599404335022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69139385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88723945617676</t>
+    <t xml:space="preserve">7.69139432907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88723993301392</t>
   </si>
   <si>
     <t xml:space="preserve">8.10979175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11869430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97626161575317</t>
+    <t xml:space="preserve">8.11869335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97626113891602</t>
   </si>
   <si>
     <t xml:space="preserve">8.02967262268066</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">8.90207672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82195663452148</t>
+    <t xml:space="preserve">8.8219575881958</t>
   </si>
   <si>
     <t xml:space="preserve">8.68842601776123</t>
@@ -3005,22 +3005,22 @@
     <t xml:space="preserve">8.44807052612305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48367881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49258041381836</t>
+    <t xml:space="preserve">8.48367786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49258136749268</t>
   </si>
   <si>
     <t xml:space="preserve">8.16320419311523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35905075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91394567489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41246128082275</t>
+    <t xml:space="preserve">8.35904979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91394662857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41246223449707</t>
   </si>
   <si>
     <t xml:space="preserve">8.3744010925293</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">8.26481246948242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2374153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44745922088623</t>
+    <t xml:space="preserve">8.23741436004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44746017456055</t>
   </si>
   <si>
     <t xml:space="preserve">8.53878402709961</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">8.5205192565918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40179824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45659160614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42919445037842</t>
+    <t xml:space="preserve">8.4017972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45659255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4291934967041</t>
   </si>
   <si>
     <t xml:space="preserve">8.27394485473633</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686840057373</t>
+    <t xml:space="preserve">7.71686792373657</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
@@ -3071,16 +3071,16 @@
     <t xml:space="preserve">7.62554502487183</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57988309860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75339794158936</t>
+    <t xml:space="preserve">7.57988262176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75339841842651</t>
   </si>
   <si>
     <t xml:space="preserve">7.60728025436401</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61641263961792</t>
+    <t xml:space="preserve">7.61641216278076</t>
   </si>
   <si>
     <t xml:space="preserve">7.69860458374023</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">7.5890154838562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48855876922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57074975967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30591106414795</t>
+    <t xml:space="preserve">7.48855829238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57075023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30591154098511</t>
   </si>
   <si>
     <t xml:space="preserve">7.32417631149292</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">7.50682401657104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49769115447998</t>
+    <t xml:space="preserve">7.49769163131714</t>
   </si>
   <si>
     <t xml:space="preserve">7.39723491668701</t>
@@ -3134,19 +3134,19 @@
     <t xml:space="preserve">7.2328519821167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24198436737061</t>
+    <t xml:space="preserve">7.24198484420776</t>
   </si>
   <si>
     <t xml:space="preserve">7.51595592498779</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72600078582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59814786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53422117233276</t>
+    <t xml:space="preserve">7.72600126266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59814739227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53422069549561</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">7.29677820205688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33330821990967</t>
+    <t xml:space="preserve">7.33330774307251</t>
   </si>
   <si>
     <t xml:space="preserve">7.27851390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21458721160889</t>
+    <t xml:space="preserve">7.21458768844604</t>
   </si>
   <si>
     <t xml:space="preserve">7.10499858856201</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">6.90408611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99540948867798</t>
+    <t xml:space="preserve">6.99540996551514</t>
   </si>
   <si>
     <t xml:space="preserve">6.87668895721436</t>
@@ -3185,454 +3185,457 @@
     <t xml:space="preserve">6.72143793106079</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7305703163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75796794891357</t>
+    <t xml:space="preserve">6.73057079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75796747207642</t>
   </si>
   <si>
     <t xml:space="preserve">6.66664457321167</t>
   </si>
   <si>
+    <t xml:space="preserve">6.84929132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98627758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80362939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67577600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62098217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6483793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53879022598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5844521522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56618785858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36527442932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44746685028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49312829971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47486400604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41093683242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52965831756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48399591445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3561429977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16436243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09130382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02737712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0821704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05477380752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13696527481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96345043182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94518518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03650903701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10956811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04564142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3013482093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57532024383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42006969451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54792308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27395057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70317363739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5022611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39267206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33787822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38353967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19176006317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22828912734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24655437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21915721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37440776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23742151260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43833446502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2922158241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17349481582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32874536514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20089197158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28308391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11870050430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1460976600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25568628311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51139354705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40180492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73970317840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94061517715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97714519500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02280712127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81276226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74883508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230602264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55705499649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63924694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61184930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91321802139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88582134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95888042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8584246635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86755657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84015941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82189464569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89495372772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83102703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46573114395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31961297988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31048107147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326383590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60271739959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5935845375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78536462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92235088348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96066188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00706672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79360628128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10915613174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3318977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31333589553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30405473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34117794036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45254850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43398761749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35974025726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28549289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.239089012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19268417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15556049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36902093887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42470645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29477405548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39686346054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35045909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27621221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18340301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1648416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9049768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92353868484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93281936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06275177001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0720329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13699913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17412233352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11843729019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01634740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20196533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32261610031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41542482376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49895334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51751518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44326829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40614461898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68457126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77737998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7216944694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56391906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47111082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57320022583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48967218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48039197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76809883117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65672826766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67529058456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097562789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176301956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54535818099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09059429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87713432312012</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.84929180145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98627710342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80362939834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67577600479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62098217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64837980270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53879022598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5844521522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56618785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36527490615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44746685028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49312829971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47486400604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41093683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52965831756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48399591445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3561429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16436243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09130334854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02737712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0821704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05477380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12783288955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13696527481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96344995498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94518566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03650903701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10956811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04564142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3013482093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57531976699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42006969451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54792308807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27395057678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70317363739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50226068496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39267206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33787822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38353967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19176006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22828960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24655437469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21915721893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37440729141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23742198944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43833446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29221534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17349481582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32874536514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20089197158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28308343887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11870050430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14609813690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25568675994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51139307022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40180492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73970317840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9406156539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97714519500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02280712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81276226043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74883508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449701309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230602264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55705499649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63924694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61184930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91321849822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88582134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95888042449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8584246635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86755657196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84015941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82189416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89495372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46573162078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31961297988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31048059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326383590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60271692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5935845375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78536462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92235088348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96066188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00706672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79360628128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10915613174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3318977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31333589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30405473709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34117794036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45254850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35974025726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28549289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.239089012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19268417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15556049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36902093887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42470645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29477405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39686346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35045909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27621221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693153381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18340301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1648416519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9049768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92353868484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93281936645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06275177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0720329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13699913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17412233352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11843729019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01634740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20196533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32261610031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41542482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49895334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51751518249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44326829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40614461898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68457126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77737998962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7216944694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56391906738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47111082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57320022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48967218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48039197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234523773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76809883117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65672826766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67529058456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097562789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176301956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54535818099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55463886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87713432312012</t>
   </si>
   <si>
     <t xml:space="preserve">6.85857200622559</t>
@@ -55672,7 +55675,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>1060</v>
+        <v>1207</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55698,7 +55701,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1971" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55724,7 +55727,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1972" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55750,7 +55753,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1973" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55776,7 +55779,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1974" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55802,7 +55805,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55828,7 +55831,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1976" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55854,7 +55857,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55880,7 +55883,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1978" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55906,7 +55909,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1979" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55932,7 +55935,7 @@
         <v>7.25</v>
       </c>
       <c r="G1980" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55958,7 +55961,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55984,7 +55987,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56010,7 +56013,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56036,7 +56039,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1984" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56062,7 +56065,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56088,7 +56091,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1986" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56114,7 +56117,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1987" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56140,7 +56143,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56166,7 +56169,7 @@
         <v>7</v>
       </c>
       <c r="G1989" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56192,7 +56195,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56218,7 +56221,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1991" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56244,7 +56247,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56270,7 +56273,7 @@
         <v>7</v>
       </c>
       <c r="G1993" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56296,7 +56299,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56322,7 +56325,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1995" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56348,7 +56351,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1996" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56374,7 +56377,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56400,7 +56403,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1998" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56426,7 +56429,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1999" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56452,7 +56455,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G2000" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56478,7 +56481,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56556,7 +56559,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56582,7 +56585,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56686,7 +56689,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2009" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56842,7 +56845,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2015" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56920,7 +56923,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2018" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56946,7 +56949,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56972,7 +56975,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2020" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56998,7 +57001,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2021" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57024,7 +57027,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2022" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57050,7 +57053,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2023" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57076,7 +57079,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2024" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57102,7 +57105,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2025" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57128,7 +57131,7 @@
         <v>8.5</v>
       </c>
       <c r="G2026" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57154,7 +57157,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57180,7 +57183,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57206,7 +57209,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2029" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57232,7 +57235,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2030" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57258,7 +57261,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2031" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57284,7 +57287,7 @@
         <v>8.75</v>
       </c>
       <c r="G2032" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57310,7 +57313,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2033" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57336,7 +57339,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2034" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57362,7 +57365,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57388,7 +57391,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2036" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57414,7 +57417,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2037" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57440,7 +57443,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57466,7 +57469,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57492,7 +57495,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2040" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57518,7 +57521,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2041" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57544,7 +57547,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57570,7 +57573,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2043" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57596,7 +57599,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2044" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57622,7 +57625,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2045" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57648,7 +57651,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57674,7 +57677,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G2047" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57700,7 +57703,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57726,7 +57729,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2049" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57752,7 +57755,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57778,7 +57781,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2051" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57804,7 +57807,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G2052" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57830,7 +57833,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2053" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57856,7 +57859,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57882,7 +57885,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57908,7 +57911,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2056" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57934,7 +57937,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2057" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57960,7 +57963,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2058" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57986,7 +57989,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2059" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58012,7 +58015,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2060" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58038,7 +58041,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2061" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58064,7 +58067,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2062" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58090,7 +58093,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58116,7 +58119,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2064" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58142,7 +58145,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2065" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58168,7 +58171,7 @@
         <v>8.5</v>
       </c>
       <c r="G2066" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58194,7 +58197,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2067" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58220,7 +58223,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2068" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58246,7 +58249,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2069" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58272,7 +58275,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2070" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58298,7 +58301,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2071" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58324,7 +58327,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2072" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58350,7 +58353,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58376,7 +58379,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2074" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58402,7 +58405,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2075" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58428,7 +58431,7 @@
         <v>8.75</v>
       </c>
       <c r="G2076" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58454,7 +58457,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2077" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58480,7 +58483,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2078" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58506,7 +58509,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58532,7 +58535,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58558,7 +58561,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58584,7 +58587,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2082" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58610,7 +58613,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2083" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58636,7 +58639,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2084" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58662,7 +58665,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2085" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58688,7 +58691,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58714,7 +58717,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2087" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58740,7 +58743,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2088" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58766,7 +58769,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2089" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58792,7 +58795,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G2090" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58818,7 +58821,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2091" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58844,7 +58847,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2092" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58870,7 +58873,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2093" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58896,7 +58899,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58922,7 +58925,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2095" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58948,7 +58951,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58974,7 +58977,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59000,7 +59003,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2098" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59026,7 +59029,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2099" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59052,7 +59055,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59078,7 +59081,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59104,7 +59107,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2102" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59130,7 +59133,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2103" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59156,7 +59159,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G2104" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59182,7 +59185,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59208,7 +59211,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2106" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59234,7 +59237,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2107" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59260,7 +59263,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59286,7 +59289,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59312,7 +59315,7 @@
         <v>8.25</v>
       </c>
       <c r="G2110" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59338,7 +59341,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2111" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59364,7 +59367,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2112" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59390,7 +59393,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2113" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59416,7 +59419,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2114" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59442,7 +59445,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59468,7 +59471,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2116" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59494,7 +59497,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59520,7 +59523,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2118" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59546,7 +59549,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2119" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59572,7 +59575,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2120" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59598,7 +59601,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2121" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59624,7 +59627,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59650,7 +59653,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2123" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59676,7 +59679,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2124" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59702,7 +59705,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59728,7 +59731,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2126" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59754,7 +59757,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2127" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59780,7 +59783,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2128" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59806,7 +59809,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2129" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59832,7 +59835,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2130" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59858,7 +59861,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2131" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59884,7 +59887,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59910,7 +59913,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2133" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59936,7 +59939,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2134" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59962,7 +59965,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2135" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59988,7 +59991,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60014,7 +60017,7 @@
         <v>9</v>
       </c>
       <c r="G2137" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60040,7 +60043,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2138" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60066,7 +60069,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2139" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60092,7 +60095,7 @@
         <v>9</v>
       </c>
       <c r="G2140" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60118,7 +60121,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2141" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60144,7 +60147,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2142" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60170,7 +60173,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2143" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60196,7 +60199,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2144" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60222,7 +60225,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2145" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60248,7 +60251,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2146" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60274,7 +60277,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2147" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60300,7 +60303,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2148" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60326,7 +60329,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2149" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60352,7 +60355,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60378,7 +60381,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2151" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60404,7 +60407,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2152" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60430,7 +60433,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60456,7 +60459,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2154" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60482,7 +60485,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2155" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60508,7 +60511,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2156" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60534,7 +60537,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2157" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60560,7 +60563,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2158" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60586,7 +60589,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60612,7 +60615,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2160" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60638,7 +60641,7 @@
         <v>8.5</v>
       </c>
       <c r="G2161" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60664,7 +60667,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2162" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60690,7 +60693,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2163" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60716,7 +60719,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60742,7 +60745,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2165" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60768,7 +60771,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2166" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60794,7 +60797,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2167" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60820,7 +60823,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2168" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60846,7 +60849,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2169" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60872,7 +60875,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2170" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60898,7 +60901,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2171" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60924,7 +60927,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2172" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60950,7 +60953,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2173" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60976,7 +60979,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2174" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61002,7 +61005,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2175" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61028,7 +61031,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2176" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61054,7 +61057,7 @@
         <v>8.75</v>
       </c>
       <c r="G2177" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61080,7 +61083,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2178" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61106,7 +61109,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2179" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61132,7 +61135,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G2180" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61158,7 +61161,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2181" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61184,7 +61187,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2182" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61210,7 +61213,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2183" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61236,7 +61239,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2184" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61262,7 +61265,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2185" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61288,7 +61291,7 @@
         <v>8.75</v>
       </c>
       <c r="G2186" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61314,7 +61317,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2187" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61340,7 +61343,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2188" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61366,7 +61369,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2189" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61392,7 +61395,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G2190" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61418,7 +61421,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2191" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61444,7 +61447,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2192" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61470,7 +61473,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2193" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61496,7 +61499,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2194" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61522,7 +61525,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2195" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61548,7 +61551,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2196" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61574,7 +61577,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2197" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -61582,7 +61585,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="1" t="n">
-        <v>45524.6495601852</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B2198" t="n">
         <v>50011</v>
@@ -61600,9 +61603,35 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G2198" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>45525.6493865741</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>51406</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>9.03999996185303</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>9.02999973297119</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H2199" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80332660675049</t>
+    <t xml:space="preserve">8.8033275604248</t>
   </si>
   <si>
     <t xml:space="preserve">FILA.MI</t>
@@ -59,40 +59,40 @@
     <t xml:space="preserve">8.77864456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54827785491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52359390258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59764194488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14513492584229</t>
+    <t xml:space="preserve">8.54827880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52359485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59764289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1451358795166</t>
   </si>
   <si>
     <t xml:space="preserve">8.1039981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60586929321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4330940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25209140777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34259223937988</t>
+    <t xml:space="preserve">8.60587024688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43309307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25208950042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3425931930542</t>
   </si>
   <si>
     <t xml:space="preserve">8.54004955291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46600437164307</t>
+    <t xml:space="preserve">8.46600341796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.22740840911865</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">8.32613754272461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63877868652344</t>
+    <t xml:space="preserve">8.63877773284912</t>
   </si>
   <si>
     <t xml:space="preserve">8.49068546295166</t>
@@ -113,16 +113,16 @@
     <t xml:space="preserve">8.67169094085693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87737369537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77041816711426</t>
+    <t xml:space="preserve">8.87737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77041721343994</t>
   </si>
   <si>
     <t xml:space="preserve">8.91851234436035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92673873901367</t>
+    <t xml:space="preserve">8.92673969268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.98432922363281</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">8.81978225708008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91028499603271</t>
+    <t xml:space="preserve">8.91028308868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.04192161560059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96787548065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89382839202881</t>
+    <t xml:space="preserve">8.96787452697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
     <t xml:space="preserve">9.05014896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97610187530518</t>
+    <t xml:space="preserve">8.97610282897949</t>
   </si>
   <si>
     <t xml:space="preserve">9.07483291625977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81155490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86091899871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09951305389404</t>
+    <t xml:space="preserve">8.81155586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86091804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09951400756836</t>
   </si>
   <si>
     <t xml:space="preserve">9.09128665924072</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">9.0666036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21469783782959</t>
+    <t xml:space="preserve">9.21469879150391</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54379367828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52734088897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55202293395996</t>
+    <t xml:space="preserve">9.54379463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52733993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55202198028564</t>
   </si>
   <si>
     <t xml:space="preserve">9.74948024749756</t>
@@ -188,34 +188,34 @@
     <t xml:space="preserve">9.83998012542725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71657085418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87289047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94693756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088428497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86466217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93048191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77416324615479</t>
+    <t xml:space="preserve">9.7165699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87289142608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94693660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088237762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86466312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93048286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
     <t xml:space="preserve">9.83175277709961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95516490936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1114854812622</t>
+    <t xml:space="preserve">9.95516681671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1114845275879</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934516906738</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">10.3994455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4652652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488086700439</t>
+    <t xml:space="preserve">10.4652662277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488077163696</t>
   </si>
   <si>
     <t xml:space="preserve">10.613356590271</t>
@@ -236,25 +236,25 @@
     <t xml:space="preserve">10.7120866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722208023071</t>
+    <t xml:space="preserve">10.5722198486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.5307931900024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2490882873535</t>
+    <t xml:space="preserve">10.2490873336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.2739448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3567991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4976511001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805063247681</t>
+    <t xml:space="preserve">10.3568000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4976501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805053710938</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727954864502</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">10.4893665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3982276916504</t>
+    <t xml:space="preserve">10.3982267379761</t>
   </si>
   <si>
     <t xml:space="preserve">10.4396533966064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2905168533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191089630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253810882568</t>
+    <t xml:space="preserve">10.2905158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1910886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253820419312</t>
   </si>
   <si>
     <t xml:space="preserve">9.98395442962646</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85967254638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082372665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230823516846</t>
+    <t xml:space="preserve">9.8596715927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230813980103</t>
   </si>
   <si>
     <t xml:space="preserve">9.95909786224365</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">10.0668077468872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225086212158</t>
+    <t xml:space="preserve">10.5225067138672</t>
   </si>
   <si>
     <t xml:space="preserve">10.1165199279785</t>
@@ -311,34 +311,37 @@
     <t xml:space="preserve">10.1579494476318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3816556930542</t>
+    <t xml:space="preserve">10.3816566467285</t>
   </si>
   <si>
     <t xml:space="preserve">10.315372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5556488037109</t>
+    <t xml:space="preserve">10.5556497573853</t>
   </si>
   <si>
     <t xml:space="preserve">10.5639352798462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4147977828979</t>
+    <t xml:space="preserve">10.5722188949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4147968292236</t>
   </si>
   <si>
     <t xml:space="preserve">10.2325172424316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5887899398804</t>
+    <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.5473642349243</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5142230987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4810810089111</t>
+    <t xml:space="preserve">10.5142211914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4810800552368</t>
   </si>
   <si>
     <t xml:space="preserve">10.4645109176636</t>
@@ -353,52 +356,52 @@
     <t xml:space="preserve">10.365083694458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6136465072632</t>
+    <t xml:space="preserve">10.6136474609375</t>
   </si>
   <si>
     <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4562253952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5390796661377</t>
+    <t xml:space="preserve">10.456223487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5390815734863</t>
   </si>
   <si>
     <t xml:space="preserve">10.2988004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2242317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1662349700928</t>
+    <t xml:space="preserve">10.224232673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1662330627441</t>
   </si>
   <si>
     <t xml:space="preserve">10.1248073577881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.323657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1828031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6053609848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402280807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5970764160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6716451644897</t>
+    <t xml:space="preserve">10.3236570358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.182804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6053628921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402299880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5970773696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6716470718384</t>
   </si>
   <si>
     <t xml:space="preserve">10.7213592529297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7544984817505</t>
+    <t xml:space="preserve">10.7544994354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.7379293441772</t>
@@ -407,34 +410,34 @@
     <t xml:space="preserve">11.0610618591309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1107740402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.127345085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433414459229</t>
+    <t xml:space="preserve">11.1107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1273460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433404922485</t>
   </si>
   <si>
     <t xml:space="preserve">11.3427667617798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4504766464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.583044052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5167608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996131896973</t>
+    <t xml:space="preserve">11.4504776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5830450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5167598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996150970459</t>
   </si>
   <si>
     <t xml:space="preserve">11.1853427886963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3096256256104</t>
+    <t xml:space="preserve">11.3096227645874</t>
   </si>
   <si>
     <t xml:space="preserve">11.0196342468262</t>
@@ -443,10 +446,10 @@
     <t xml:space="preserve">10.9036388397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8953533172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776329040527</t>
+    <t xml:space="preserve">10.8953523635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776319503784</t>
   </si>
   <si>
     <t xml:space="preserve">10.8870677947998</t>
@@ -455,22 +458,22 @@
     <t xml:space="preserve">10.7710704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.679931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302185058594</t>
+    <t xml:space="preserve">10.6799297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302175521851</t>
   </si>
   <si>
     <t xml:space="preserve">10.862211227417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8042125701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6633605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7462129592896</t>
+    <t xml:space="preserve">10.8042135238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6633625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7462148666382</t>
   </si>
   <si>
     <t xml:space="preserve">10.7627849578857</t>
@@ -479,7 +482,7 @@
     <t xml:space="preserve">10.7047872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8787822723389</t>
+    <t xml:space="preserve">10.8787813186646</t>
   </si>
   <si>
     <t xml:space="preserve">10.7959280014038</t>
@@ -491,31 +494,31 @@
     <t xml:space="preserve">10.9947776794434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3924798965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4339046478271</t>
+    <t xml:space="preserve">11.3924789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4339056015015</t>
   </si>
   <si>
     <t xml:space="preserve">11.3510513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1439170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024885177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599124908447</t>
+    <t xml:space="preserve">11.1439151763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024875640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2599105834961</t>
   </si>
   <si>
     <t xml:space="preserve">11.2681970596313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0859184265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9450664520264</t>
+    <t xml:space="preserve">11.085916519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
     <t xml:space="preserve">11.1687717437744</t>
@@ -524,40 +527,40 @@
     <t xml:space="preserve">11.1356315612793</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2516269683838</t>
+    <t xml:space="preserve">11.2516260147095</t>
   </si>
   <si>
     <t xml:space="preserve">11.3593378067017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2847690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4753332138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4587631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2267713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0942039489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782075881958</t>
+    <t xml:space="preserve">11.2847681045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4753341674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4587640762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.226770401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0942029953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782056808472</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3344802856445</t>
+    <t xml:space="preserve">11.3344812393188</t>
   </si>
   <si>
     <t xml:space="preserve">11.3841934204102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3013401031494</t>
+    <t xml:space="preserve">11.3013391494751</t>
   </si>
   <si>
     <t xml:space="preserve">11.1770582199097</t>
@@ -578,34 +581,34 @@
     <t xml:space="preserve">12.0967397689819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0470285415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2624492645264</t>
+    <t xml:space="preserve">12.0470294952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.262451171875</t>
   </si>
   <si>
     <t xml:space="preserve">12.221022605896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3453044891357</t>
+    <t xml:space="preserve">12.3453025817871</t>
   </si>
   <si>
     <t xml:space="preserve">12.2044525146484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3121633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352939605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.668436050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.809289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435804367065</t>
+    <t xml:space="preserve">12.3121643066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.635293006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6684370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8092889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435794830322</t>
   </si>
   <si>
     <t xml:space="preserve">12.6021556854248</t>
@@ -614,217 +617,217 @@
     <t xml:space="preserve">12.4944429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3370180130005</t>
+    <t xml:space="preserve">12.3370189666748</t>
   </si>
   <si>
     <t xml:space="preserve">12.4695863723755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5938682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6767206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7595767974854</t>
+    <t xml:space="preserve">12.5938673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.676721572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7595748901367</t>
   </si>
   <si>
     <t xml:space="preserve">13.2318468093872</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2484159469604</t>
+    <t xml:space="preserve">13.2484169006348</t>
   </si>
   <si>
     <t xml:space="preserve">13.3644142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4224128723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.342095375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7066526412964</t>
+    <t xml:space="preserve">13.4224119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466928482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3420944213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.706654548645</t>
   </si>
   <si>
     <t xml:space="preserve">14.7480821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9137897491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3338117599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698253631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709747314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538290023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195375442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3255233764648</t>
+    <t xml:space="preserve">14.9137907028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3338108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709756851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935306549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3255224227905</t>
   </si>
   <si>
     <t xml:space="preserve">14.3006687164307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2923831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8640775680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4580898284912</t>
+    <t xml:space="preserve">14.2923812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8640794754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4580917358398</t>
   </si>
   <si>
     <t xml:space="preserve">14.4995193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.83922290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6817979812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6237983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895097732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937696456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766258239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.568341255188</t>
+    <t xml:space="preserve">14.8392219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6817989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6238012313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895088195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315092086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683422088623</t>
   </si>
   <si>
     <t xml:space="preserve">15.6180543899536</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7423343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.883186340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4523439407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020599365234</t>
+    <t xml:space="preserve">15.7423372268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8831872940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4523448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020570755005</t>
   </si>
   <si>
     <t xml:space="preserve">15.609769821167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5186262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7257633209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872110366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037830352783</t>
+    <t xml:space="preserve">15.518627166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7257652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440565109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872119903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037811279297</t>
   </si>
   <si>
     <t xml:space="preserve">15.1371698379517</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2870445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.578465461731</t>
+    <t xml:space="preserve">15.2870435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784635543823</t>
   </si>
   <si>
     <t xml:space="preserve">15.6867074966431</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2370853424072</t>
+    <t xml:space="preserve">15.2370872497559</t>
   </si>
   <si>
     <t xml:space="preserve">15.3036985397339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7699661254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7949476242065</t>
+    <t xml:space="preserve">15.4285888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7699689865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7949457168579</t>
   </si>
   <si>
     <t xml:space="preserve">15.8615579605103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5201797485352</t>
+    <t xml:space="preserve">15.5201778411865</t>
   </si>
   <si>
     <t xml:space="preserve">15.5451583862305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5285053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366647720337</t>
+    <t xml:space="preserve">15.5285062789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954555511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366628646851</t>
   </si>
   <si>
     <t xml:space="preserve">15.7782936096191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4868726730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7283353805542</t>
+    <t xml:space="preserve">15.4868745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7283363342285</t>
   </si>
   <si>
     <t xml:space="preserve">15.6783781051636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9031896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.645073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040365219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2537384033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0289297103882</t>
+    <t xml:space="preserve">15.90318775177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199272155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6450748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2537412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0289306640625</t>
   </si>
   <si>
     <t xml:space="preserve">15.0539083480835</t>
@@ -833,52 +836,49 @@
     <t xml:space="preserve">15.0372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4119396209717</t>
+    <t xml:space="preserve">15.411940574646</t>
   </si>
   <si>
     <t xml:space="preserve">15.5701360702515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5951137542725</t>
+    <t xml:space="preserve">15.5951166152954</t>
   </si>
   <si>
     <t xml:space="preserve">15.5618114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6284217834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7533178329468</t>
+    <t xml:space="preserve">15.6284198760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7533168792725</t>
   </si>
   <si>
     <t xml:space="preserve">15.9448194503784</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6950330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.720009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117668151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7449903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.620096206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4452419281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.112193107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7957925796509</t>
+    <t xml:space="preserve">15.695032119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7200117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7449884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6200952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4452428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1121912002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7957935333252</t>
   </si>
   <si>
     <t xml:space="preserve">15.2787189483643</t>
@@ -887,37 +887,37 @@
     <t xml:space="preserve">15.3203496932983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120222091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9872961044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370027542114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368328094482</t>
+    <t xml:space="preserve">15.3120241165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9872980117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3369998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3703050613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538228988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368318557739</t>
   </si>
   <si>
     <t xml:space="preserve">15.4702215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6034412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5035276412964</t>
+    <t xml:space="preserve">15.603443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5035285949707</t>
   </si>
   <si>
     <t xml:space="preserve">15.5118541717529</t>
@@ -929,25 +929,25 @@
     <t xml:space="preserve">15.4036111831665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7033586502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3869581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6525554656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4943561553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4110908508301</t>
+    <t xml:space="preserve">15.7033576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3869571685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6525535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4943542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4110927581787</t>
   </si>
   <si>
     <t xml:space="preserve">16.3444805145264</t>
@@ -959,34 +959,34 @@
     <t xml:space="preserve">16.302848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1446514129639</t>
+    <t xml:space="preserve">16.1446495056152</t>
   </si>
   <si>
     <t xml:space="preserve">16.1529769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1030197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7116823196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4618978500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9614706039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8449020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7616415023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.853232383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9531478881836</t>
+    <t xml:space="preserve">16.1030216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7116842269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.461895942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9614725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8449039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7616424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.953145980835</t>
   </si>
   <si>
     <t xml:space="preserve">16.0031032562256</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">15.9864511489868</t>
   </si>
   <si>
-    <t xml:space="preserve">15.836576461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281644821167</t>
+    <t xml:space="preserve">15.8365793228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281663894653</t>
   </si>
   <si>
     <t xml:space="preserve">15.6367473602295</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">15.78662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0280818939209</t>
+    <t xml:space="preserve">16.0280838012695</t>
   </si>
   <si>
     <t xml:space="preserve">16.0697135925293</t>
@@ -1022,46 +1022,46 @@
     <t xml:space="preserve">16.3861122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5443134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.602596282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8190765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.860710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7774505615234</t>
+    <t xml:space="preserve">16.5443115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6025943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8190784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8607082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.694185256958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4693737030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2029361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3694610595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272350311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1104965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5684452056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4019184112549</t>
+    <t xml:space="preserve">16.4693756103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2029342651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3694629669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353954315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272312164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1104984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4019203186035</t>
   </si>
   <si>
     <t xml:space="preserve">16.9023418426514</t>
@@ -1073,16 +1073,16 @@
     <t xml:space="preserve">17.4435482025146</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9856033325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.068868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5193328857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1363258361816</t>
+    <t xml:space="preserve">16.9856052398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0688648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5193290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136323928833</t>
   </si>
   <si>
     <t xml:space="preserve">16.1196708679199</t>
@@ -1091,25 +1091,25 @@
     <t xml:space="preserve">16.0197563171387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4194164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2528953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364112854004</t>
+    <t xml:space="preserve">16.4194183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861957550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364093780518</t>
   </si>
   <si>
     <t xml:space="preserve">16.2695484161377</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0705604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703914642334</t>
+    <t xml:space="preserve">15.0705614089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703905105591</t>
   </si>
   <si>
     <t xml:space="preserve">15.4535694122314</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">15.6700534820557</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6709003448486</t>
+    <t xml:space="preserve">14.6708993911743</t>
   </si>
   <si>
     <t xml:space="preserve">14.8374261856079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6542453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4044589996338</t>
+    <t xml:space="preserve">14.6542472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4044580459595</t>
   </si>
   <si>
     <t xml:space="preserve">14.2878904342651</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">14.5376796722412</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3711538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877243041992</t>
+    <t xml:space="preserve">14.3711528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877214431763</t>
   </si>
   <si>
     <t xml:space="preserve">14.2212800979614</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">14.1380186080933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0714082717896</t>
+    <t xml:space="preserve">14.0714073181152</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
@@ -1163,58 +1163,58 @@
     <t xml:space="preserve">14.3878078460693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3211984634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7541608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0039501190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041191101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0206031799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9198436737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1038646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0954990386963</t>
+    <t xml:space="preserve">14.3211975097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7541618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0039520263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041181564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.020601272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9198417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1038665771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0954971313477</t>
   </si>
   <si>
     <t xml:space="preserve">15.0285568237305</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8946714401245</t>
+    <t xml:space="preserve">14.8946704864502</t>
   </si>
   <si>
     <t xml:space="preserve">15.1457052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.229380607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6101675033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8570642471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4093379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.225248336792</t>
+    <t xml:space="preserve">15.2293825149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6101665496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8570652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4093389511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2252473831177</t>
   </si>
   <si>
     <t xml:space="preserve">14.3256616592407</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7273149490356</t>
+    <t xml:space="preserve">14.72731590271</t>
   </si>
   <si>
     <t xml:space="preserve">14.6436376571655</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599613189697</t>
+    <t xml:space="preserve">14.5599594116211</t>
   </si>
   <si>
     <t xml:space="preserve">14.6771097183228</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">14.476282119751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3926067352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603717803955</t>
+    <t xml:space="preserve">14.3926057815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603736877441</t>
   </si>
   <si>
     <t xml:space="preserve">14.961615562439</t>
@@ -1247,19 +1247,19 @@
     <t xml:space="preserve">15.0118198394775</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7775230407715</t>
+    <t xml:space="preserve">14.7775211334229</t>
   </si>
   <si>
     <t xml:space="preserve">15.212646484375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2795886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1791753768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9950828552246</t>
+    <t xml:space="preserve">15.2795896530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1791772842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9950838088989</t>
   </si>
   <si>
     <t xml:space="preserve">15.0452899932861</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">15.2628555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0620260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3297958374023</t>
+    <t xml:space="preserve">15.0620269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3297986984253</t>
   </si>
   <si>
     <t xml:space="preserve">15.7314500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6812429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6143026351929</t>
+    <t xml:space="preserve">15.6812438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6143016815186</t>
   </si>
   <si>
     <t xml:space="preserve">15.5473585128784</t>
   </si>
   <si>
-    <t xml:space="preserve">15.463680267334</t>
+    <t xml:space="preserve">15.4636793136597</t>
   </si>
   <si>
     <t xml:space="preserve">15.5306234359741</t>
@@ -1301,19 +1301,19 @@
     <t xml:space="preserve">15.6477708816528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7983922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9114065170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.564094543457</t>
+    <t xml:space="preserve">15.7983951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9114074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640954971313</t>
   </si>
   <si>
     <t xml:space="preserve">15.6979789733887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4971532821655</t>
+    <t xml:space="preserve">15.4971504211426</t>
   </si>
   <si>
     <t xml:space="preserve">15.7649240493774</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">15.4804162979126</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2963275909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.313060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8109912872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1624383926392</t>
+    <t xml:space="preserve">15.2963247299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3130626678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1624402999878</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921895980835</t>
@@ -1340,22 +1340,22 @@
     <t xml:space="preserve">14.5432243347168</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5934295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8277282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6938438415527</t>
+    <t xml:space="preserve">14.593430519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7942581176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8277292251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6938447952271</t>
   </si>
   <si>
     <t xml:space="preserve">13.7399158477783</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7231788635254</t>
+    <t xml:space="preserve">13.723180770874</t>
   </si>
   <si>
     <t xml:space="preserve">13.6060304641724</t>
@@ -1367,25 +1367,25 @@
     <t xml:space="preserve">13.9742136001587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.091362953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7064456939697</t>
+    <t xml:space="preserve">14.0913639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7064437866211</t>
   </si>
   <si>
     <t xml:space="preserve">13.2211122512817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5892972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3047924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7023086547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9533433914185</t>
+    <t xml:space="preserve">13.5892953872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3047914505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7023096084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9533443450928</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198713302612</t>
@@ -1400,25 +1400,25 @@
     <t xml:space="preserve">13.0537567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.852931022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194580078125</t>
+    <t xml:space="preserve">12.8529300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194589614868</t>
   </si>
   <si>
     <t xml:space="preserve">12.618631362915</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5516901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4512748718262</t>
+    <t xml:space="preserve">12.5516891479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4512758255005</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496225357056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965202331543</t>
+    <t xml:space="preserve">11.2965211868286</t>
   </si>
   <si>
     <t xml:space="preserve">11.7818517684937</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157381057739</t>
+    <t xml:space="preserve">11.9157371520996</t>
   </si>
   <si>
     <t xml:space="preserve">12.3006553649902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3843336105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5349531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3801984786987</t>
+    <t xml:space="preserve">12.384334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5349540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3801975250244</t>
   </si>
   <si>
     <t xml:space="preserve">11.7168378829956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2764472961426</t>
+    <t xml:space="preserve">12.2764482498169</t>
   </si>
   <si>
     <t xml:space="preserve">12.2239837646484</t>
@@ -1457,22 +1457,22 @@
     <t xml:space="preserve">11.8392524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9266920089722</t>
+    <t xml:space="preserve">11.9266929626465</t>
   </si>
   <si>
     <t xml:space="preserve">11.4894962310791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0316200256348</t>
+    <t xml:space="preserve">12.0316190719604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7661075592041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1365451812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.979154586792</t>
+    <t xml:space="preserve">12.1365442276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9791555404663</t>
   </si>
   <si>
     <t xml:space="preserve">11.891716003418</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">12.1190576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5594472885132</t>
+    <t xml:space="preserve">11.5594482421875</t>
   </si>
   <si>
     <t xml:space="preserve">11.8042764663696</t>
@@ -1499,67 +1499,67 @@
     <t xml:space="preserve">12.4163513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5212755203247</t>
+    <t xml:space="preserve">12.521276473999</t>
   </si>
   <si>
     <t xml:space="preserve">12.5912284851074</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5037899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3638868331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4688129425049</t>
+    <t xml:space="preserve">12.5037889480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3638858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4688138961792</t>
   </si>
   <si>
     <t xml:space="preserve">11.6643743515015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7867879867554</t>
+    <t xml:space="preserve">11.7867889404297</t>
   </si>
   <si>
     <t xml:space="preserve">11.9616670608521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8567409515381</t>
+    <t xml:space="preserve">11.8567419052124</t>
   </si>
   <si>
     <t xml:space="preserve">11.8742275238037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7343254089355</t>
+    <t xml:space="preserve">11.7343263626099</t>
   </si>
   <si>
     <t xml:space="preserve">11.6993503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0491065979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9966430664062</t>
+    <t xml:space="preserve">12.0491075515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9966421127319</t>
   </si>
   <si>
     <t xml:space="preserve">12.258960723877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5562524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8535461425781</t>
+    <t xml:space="preserve">12.5562515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8535451889038</t>
   </si>
   <si>
     <t xml:space="preserve">12.8360586166382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6961555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087160110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8185710906982</t>
+    <t xml:space="preserve">12.69615650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.608715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8185701370239</t>
   </si>
   <si>
     <t xml:space="preserve">12.3988637924194</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">12.2939367294312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9441795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.524471282959</t>
+    <t xml:space="preserve">11.9441776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5244703292847</t>
   </si>
   <si>
     <t xml:space="preserve">11.4195461273193</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">11.1572275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1397399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2271776199341</t>
+    <t xml:space="preserve">11.1397390365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2271785736084</t>
   </si>
   <si>
     <t xml:space="preserve">11.2096900939941</t>
@@ -1616,28 +1616,28 @@
     <t xml:space="preserve">11.1922025680542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.437032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6818609237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0141296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1015691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0665941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3321056365967</t>
+    <t xml:space="preserve">11.4370336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6818618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0141305923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1015701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.066593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3321046829224</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146181106567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2621545791626</t>
+    <t xml:space="preserve">11.2621536254883</t>
   </si>
   <si>
     <t xml:space="preserve">11.5419588088989</t>
@@ -1652,25 +1652,25 @@
     <t xml:space="preserve">11.4565105438232</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6500911712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8436737060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8612699508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6324920654297</t>
+    <t xml:space="preserve">11.6500902175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8436727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.861270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.632493019104</t>
   </si>
   <si>
     <t xml:space="preserve">11.1925344467163</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2981233596802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1573371887207</t>
+    <t xml:space="preserve">11.2981243133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.157338142395</t>
   </si>
   <si>
     <t xml:space="preserve">11.1749353408813</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">11.7380828857422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0548515319824</t>
+    <t xml:space="preserve">12.0548524856567</t>
   </si>
   <si>
     <t xml:space="preserve">11.8964672088623</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">11.7732791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0020580291748</t>
+    <t xml:space="preserve">12.0020589828491</t>
   </si>
   <si>
     <t xml:space="preserve">11.7908773422241</t>
@@ -1715,25 +1715,25 @@
     <t xml:space="preserve">11.5445003509521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5093040466309</t>
+    <t xml:space="preserve">11.5093050003052</t>
   </si>
   <si>
     <t xml:space="preserve">11.5269012451172</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8084754943848</t>
+    <t xml:space="preserve">11.8084764480591</t>
   </si>
   <si>
     <t xml:space="preserve">11.7204837799072</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0196561813354</t>
+    <t xml:space="preserve">12.0196542739868</t>
   </si>
   <si>
     <t xml:space="preserve">12.2308349609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428442001343</t>
+    <t xml:space="preserve">12.14284324646</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124092102051</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">12.3716230392456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0724506378174</t>
+    <t xml:space="preserve">12.0724496841431</t>
   </si>
   <si>
     <t xml:space="preserve">12.1604423522949</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">12.4948110580444</t>
   </si>
   <si>
-    <t xml:space="preserve">12.600399017334</t>
+    <t xml:space="preserve">12.6003999710083</t>
   </si>
   <si>
     <t xml:space="preserve">11.5796976089478</t>
@@ -1769,34 +1769,34 @@
     <t xml:space="preserve">11.5620994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4741086959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7556800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3333215713501</t>
+    <t xml:space="preserve">11.4741077423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7556810379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3333206176758</t>
   </si>
   <si>
     <t xml:space="preserve">11.4917068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2132368087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.565203666687</t>
+    <t xml:space="preserve">12.2132358551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5652017593384</t>
   </si>
   <si>
     <t xml:space="preserve">12.4772129058838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.582802772522</t>
+    <t xml:space="preserve">12.5828018188477</t>
   </si>
   <si>
     <t xml:space="preserve">12.4596138000488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1252460479736</t>
+    <t xml:space="preserve">12.1252470016479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9668607711792</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.9844589233398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1076488494873</t>
+    <t xml:space="preserve">12.107647895813</t>
   </si>
   <si>
     <t xml:space="preserve">12.318826675415</t>
@@ -1814,112 +1814,112 @@
     <t xml:space="preserve">12.33642578125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1780405044556</t>
+    <t xml:space="preserve">12.1780414581299</t>
   </si>
   <si>
     <t xml:space="preserve">12.2836303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3892211914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0403594970703</t>
+    <t xml:space="preserve">12.3892202377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.040358543396</t>
   </si>
   <si>
     <t xml:space="preserve">13.3923254013062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4451198577881</t>
+    <t xml:space="preserve">13.4451189041138</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3571290969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2515382766724</t>
+    <t xml:space="preserve">13.3571300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.251537322998</t>
   </si>
   <si>
     <t xml:space="preserve">13.5507097244263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4099225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4627180099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6387014389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3747262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2867345809937</t>
+    <t xml:space="preserve">13.4099235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.462718963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6387004852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3747253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286735534668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4275217056274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3395290374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5476045608521</t>
+    <t xml:space="preserve">13.3395299911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5476055145264</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8115816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3043336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5859069824219</t>
+    <t xml:space="preserve">12.811580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.30433177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5859060287476</t>
   </si>
   <si>
     <t xml:space="preserve">13.4803171157837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3219308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1283512115479</t>
+    <t xml:space="preserve">13.3219318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1283502578735</t>
   </si>
   <si>
     <t xml:space="preserve">12.9523668289185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0579566955566</t>
+    <t xml:space="preserve">13.0579557418823</t>
   </si>
   <si>
     <t xml:space="preserve">12.9171705245972</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0227613449097</t>
+    <t xml:space="preserve">13.0227603912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8467779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9347686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8995723724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6355962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7587862014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7411861419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0900478363037</t>
+    <t xml:space="preserve">12.9347677230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8995714187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6355953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7587842941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7411880493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.090048789978</t>
   </si>
   <si>
     <t xml:space="preserve">12.3012285232544</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">11.6676893234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6852865219116</t>
+    <t xml:space="preserve">11.6852874755859</t>
   </si>
   <si>
     <t xml:space="preserve">11.3157234191895</t>
@@ -1940,28 +1940,28 @@
     <t xml:space="preserve">11.2629270553589</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4037141799927</t>
+    <t xml:space="preserve">11.4037132263184</t>
   </si>
   <si>
     <t xml:space="preserve">11.2277307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0693454742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.210132598877</t>
+    <t xml:space="preserve">11.0693464279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2101316452026</t>
   </si>
   <si>
     <t xml:space="preserve">10.1366357803345</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0134468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3126192092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1894302368164</t>
+    <t xml:space="preserve">10.0134477615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126182556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1894292831421</t>
   </si>
   <si>
     <t xml:space="preserve">9.94305324554443</t>
@@ -1970,34 +1970,34 @@
     <t xml:space="preserve">9.57348823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46789836883545</t>
+    <t xml:space="preserve">9.46789932250977</t>
   </si>
   <si>
     <t xml:space="preserve">9.32711219787598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30951404571533</t>
+    <t xml:space="preserve">9.30951309204102</t>
   </si>
   <si>
     <t xml:space="preserve">9.20392417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45599365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03363513946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564247131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95133829116821</t>
+    <t xml:space="preserve">8.45599460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03363609313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564342498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95133876800537</t>
   </si>
   <si>
     <t xml:space="preserve">7.25050973892212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96013736724854</t>
+    <t xml:space="preserve">6.96013689041138</t>
   </si>
   <si>
     <t xml:space="preserve">6.61697006225586</t>
@@ -2012,25 +2012,25 @@
     <t xml:space="preserve">6.24740552902222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34419584274292</t>
+    <t xml:space="preserve">6.34419536590576</t>
   </si>
   <si>
     <t xml:space="preserve">6.20340967178345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07142210006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73705434799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05382442474365</t>
+    <t xml:space="preserve">6.07142162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73705387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05382394790649</t>
   </si>
   <si>
     <t xml:space="preserve">6.01862716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04502391815186</t>
+    <t xml:space="preserve">6.04502439498901</t>
   </si>
   <si>
     <t xml:space="preserve">5.9834303855896</t>
@@ -2042,61 +2042,61 @@
     <t xml:space="preserve">6.1858115196228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51138067245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22100782394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6873631477356</t>
+    <t xml:space="preserve">6.51138019561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22100734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68736267089844</t>
   </si>
   <si>
     <t xml:space="preserve">6.6345682144165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55537557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59057283401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66096544265747</t>
+    <t xml:space="preserve">6.55537605285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59057188034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66096591949463</t>
   </si>
   <si>
     <t xml:space="preserve">7.08332586288452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15371942520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25930881500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96893644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29450511932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03932952880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05692863464355</t>
+    <t xml:space="preserve">7.06572675704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15371894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2593092918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9689359664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29450654983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03933000564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0569281578064</t>
   </si>
   <si>
     <t xml:space="preserve">6.91614198684692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49378156661987</t>
+    <t xml:space="preserve">6.49378204345703</t>
   </si>
   <si>
     <t xml:space="preserve">6.45858526229858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62576913833618</t>
+    <t xml:space="preserve">6.62576866149902</t>
   </si>
   <si>
     <t xml:space="preserve">6.71376085281372</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">6.69616270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8193507194519</t>
+    <t xml:space="preserve">6.81935024261475</t>
   </si>
   <si>
     <t xml:space="preserve">7.03052997589111</t>
@@ -2117,10 +2117,10 @@
     <t xml:space="preserve">7.43529176712036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34730052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32970190048218</t>
+    <t xml:space="preserve">7.34730100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32970142364502</t>
   </si>
   <si>
     <t xml:space="preserve">7.31210422515869</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">7.47928810119629</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9984393119812</t>
+    <t xml:space="preserve">7.99843740463257</t>
   </si>
   <si>
     <t xml:space="preserve">8.21841716766357</t>
@@ -2138,16 +2138,16 @@
     <t xml:space="preserve">8.00723838806152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97204113006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725957870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36489915847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46168899536133</t>
+    <t xml:space="preserve">7.97204208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725862503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36489820480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46168947219849</t>
   </si>
   <si>
     <t xml:space="preserve">7.63767337799072</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">7.41769456863403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54968118667603</t>
+    <t xml:space="preserve">7.54968070983887</t>
   </si>
   <si>
     <t xml:space="preserve">7.6288743019104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72566366195679</t>
+    <t xml:space="preserve">7.72566413879395</t>
   </si>
   <si>
     <t xml:space="preserve">7.51448440551758</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">7.88404941558838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74326372146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66406965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58487796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60247611999512</t>
+    <t xml:space="preserve">7.74326324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66407012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58487701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60247659683228</t>
   </si>
   <si>
     <t xml:space="preserve">7.75206279754639</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">7.59367704391479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21531248092651</t>
+    <t xml:space="preserve">7.21531295776367</t>
   </si>
   <si>
     <t xml:space="preserve">7.04812955856323</t>
@@ -2210,25 +2210,25 @@
     <t xml:space="preserve">7.28570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26810836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33850145339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10092353820801</t>
+    <t xml:space="preserve">7.26810789108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3385009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10092401504517</t>
   </si>
   <si>
     <t xml:space="preserve">7.12732172012329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14491987228394</t>
+    <t xml:space="preserve">7.14491891860962</t>
   </si>
   <si>
     <t xml:space="preserve">6.92494106292725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79295349121094</t>
+    <t xml:space="preserve">6.79295301437378</t>
   </si>
   <si>
     <t xml:space="preserve">6.88094520568848</t>
@@ -2237,43 +2237,43 @@
     <t xml:space="preserve">6.86334705352783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78415441513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72255992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70496129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46738433837891</t>
+    <t xml:space="preserve">6.78415393829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72255945205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7049617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46738386154175</t>
   </si>
   <si>
     <t xml:space="preserve">6.59937191009521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43218755722046</t>
+    <t xml:space="preserve">6.43218803405762</t>
   </si>
   <si>
     <t xml:space="preserve">6.25620460510254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37059307098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28260183334351</t>
+    <t xml:space="preserve">6.3705940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28260087966919</t>
   </si>
   <si>
     <t xml:space="preserve">6.26500368118286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19461059570312</t>
+    <t xml:space="preserve">6.19461011886597</t>
   </si>
   <si>
     <t xml:space="preserve">6.23860645294189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48498201370239</t>
+    <t xml:space="preserve">6.48498249053955</t>
   </si>
   <si>
     <t xml:space="preserve">6.5025806427002</t>
@@ -2285,28 +2285,28 @@
     <t xml:space="preserve">6.54657649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66976451873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73135900497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41458940505981</t>
+    <t xml:space="preserve">6.66976499557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73135948181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41458892822266</t>
   </si>
   <si>
     <t xml:space="preserve">6.6081714630127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52897834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82814979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67856454849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40579080581665</t>
+    <t xml:space="preserve">6.52897787094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82815027236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67856502532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40579032897949</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980690002441</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">6.168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82504558563232</t>
+    <t xml:space="preserve">5.82504510879517</t>
   </si>
   <si>
     <t xml:space="preserve">5.64026260375977</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">5.37628841400146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42908334732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45548057556152</t>
+    <t xml:space="preserve">5.4290828704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45548009872437</t>
   </si>
   <si>
     <t xml:space="preserve">5.67545938491821</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">5.85144329071045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84574794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8017520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88974380493164</t>
+    <t xml:space="preserve">6.84574842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80175256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8897442817688</t>
   </si>
   <si>
     <t xml:space="preserve">7.90164756774902</t>
@@ -2354,25 +2354,25 @@
     <t xml:space="preserve">8.16562271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96324253082275</t>
+    <t xml:space="preserve">7.96324157714844</t>
   </si>
   <si>
     <t xml:space="preserve">7.83125400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82245492935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70806550979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65527153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76086139678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80485677719116</t>
+    <t xml:space="preserve">7.82245540618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70806694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65527057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76086044311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80485725402832</t>
   </si>
   <si>
     <t xml:space="preserve">7.64647197723389</t>
@@ -2381,19 +2381,19 @@
     <t xml:space="preserve">7.53208303451538</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48808717727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87525081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49688720703125</t>
+    <t xml:space="preserve">7.48808670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8752498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49688673019409</t>
   </si>
   <si>
     <t xml:space="preserve">7.56728029251099</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69046688079834</t>
+    <t xml:space="preserve">7.69046783447266</t>
   </si>
   <si>
     <t xml:space="preserve">7.89284896850586</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">7.76966047286987</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91044616699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08642959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33280754089355</t>
+    <t xml:space="preserve">7.9104471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08642864227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33280658721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.3416051864624</t>
@@ -2429,25 +2429,25 @@
     <t xml:space="preserve">8.01603698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38249826431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44409084320068</t>
+    <t xml:space="preserve">7.38249778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.444091796875</t>
   </si>
   <si>
     <t xml:space="preserve">7.42649269104004</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67286968231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98963832855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22721672058105</t>
+    <t xml:space="preserve">7.67286920547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98963975906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15682315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22721767425537</t>
   </si>
   <si>
     <t xml:space="preserve">8.19202041625977</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">8.42079830169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59678173065186</t>
+    <t xml:space="preserve">8.64957714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59678268432617</t>
   </si>
   <si>
     <t xml:space="preserve">8.5087890625</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">8.55278587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43839740753174</t>
+    <t xml:space="preserve">8.43839645385742</t>
   </si>
   <si>
     <t xml:space="preserve">8.47359275817871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35920429229736</t>
+    <t xml:space="preserve">8.35920524597168</t>
   </si>
   <si>
     <t xml:space="preserve">8.20081901550293</t>
@@ -2486,43 +2486,43 @@
     <t xml:space="preserve">8.2448148727417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05123329162598</t>
+    <t xml:space="preserve">8.05123424530029</t>
   </si>
   <si>
     <t xml:space="preserve">8.18322086334229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49118995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93994998931885</t>
+    <t xml:space="preserve">8.49119091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93994808197021</t>
   </si>
   <si>
     <t xml:space="preserve">8.79916191101074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8167610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71117115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78156185150146</t>
+    <t xml:space="preserve">8.81676006317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7111701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7815637588501</t>
   </si>
   <si>
     <t xml:space="preserve">8.51758861541748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1744213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32400703430176</t>
+    <t xml:space="preserve">8.17442226409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32400798797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.39440155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06313800811768</t>
+    <t xml:space="preserve">9.06313705444336</t>
   </si>
   <si>
     <t xml:space="preserve">8.92235088348389</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">8.88715362548828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71996974945068</t>
+    <t xml:space="preserve">8.719970703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.42959690093994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73756790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79036235809326</t>
+    <t xml:space="preserve">8.73756885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79036331176758</t>
   </si>
   <si>
     <t xml:space="preserve">8.64077663421631</t>
@@ -2549,28 +2549,28 @@
     <t xml:space="preserve">8.57038402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67597389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72876930236816</t>
+    <t xml:space="preserve">8.6759729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72877025604248</t>
   </si>
   <si>
     <t xml:space="preserve">8.60558032989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3504056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36800289154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57918357849121</t>
+    <t xml:space="preserve">8.35040473937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36800384521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57918262481689</t>
   </si>
   <si>
     <t xml:space="preserve">8.74636745452881</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27431678771973</t>
+    <t xml:space="preserve">9.27431774139404</t>
   </si>
   <si>
     <t xml:space="preserve">9.36230945587158</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">9.13352966308594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24035453796387</t>
+    <t xml:space="preserve">9.24035549163818</t>
   </si>
   <si>
     <t xml:space="preserve">9.0623140335083</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">8.99109745025635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20474720001221</t>
+    <t xml:space="preserve">9.20474624633789</t>
   </si>
   <si>
     <t xml:space="preserve">9.64985084533691</t>
@@ -2600,16 +2600,16 @@
     <t xml:space="preserve">9.81008815765381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1127595901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1661720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2373886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3086042404175</t>
+    <t xml:space="preserve">10.1127586364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1661710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2373876571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3086032867432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3976259231567</t>
@@ -2618,55 +2618,55 @@
     <t xml:space="preserve">10.3442125320435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3264083862305</t>
+    <t xml:space="preserve">10.3264093399048</t>
   </si>
   <si>
     <t xml:space="preserve">10.0949535369873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1305627822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1483659744263</t>
+    <t xml:space="preserve">10.1305637359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1483669281006</t>
   </si>
   <si>
     <t xml:space="preserve">9.9703254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91691303253174</t>
+    <t xml:space="preserve">9.91691398620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.75667572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61424160003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77447891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86350059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54302597045898</t>
+    <t xml:space="preserve">9.61424255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77447986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86349964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5430269241333</t>
   </si>
   <si>
     <t xml:space="preserve">9.45400524139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56083011627197</t>
+    <t xml:space="preserve">9.56082916259766</t>
   </si>
   <si>
     <t xml:space="preserve">9.68545913696289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63204669952393</t>
+    <t xml:space="preserve">9.63204574584961</t>
   </si>
   <si>
     <t xml:space="preserve">9.43620109558105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11572551727295</t>
+    <t xml:space="preserve">9.11572647094727</t>
   </si>
   <si>
     <t xml:space="preserve">9.27596378326416</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">9.34718036651611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31157207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09792327880859</t>
+    <t xml:space="preserve">9.31157302856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09792232513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.91988086700439</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">9.57863426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40059280395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52522087097168</t>
+    <t xml:space="preserve">9.40059185028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.525221824646</t>
   </si>
   <si>
     <t xml:space="preserve">9.8278923034668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84569644927979</t>
+    <t xml:space="preserve">9.8456974029541</t>
   </si>
   <si>
     <t xml:space="preserve">9.93471717834473</t>
@@ -2723,19 +2723,19 @@
     <t xml:space="preserve">9.3649845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32937622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25815963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70326328277588</t>
+    <t xml:space="preserve">9.32937431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25815868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70326232910156</t>
   </si>
   <si>
     <t xml:space="preserve">9.72106742858887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04450988769531</t>
+    <t xml:space="preserve">9.044508934021</t>
   </si>
   <si>
     <t xml:space="preserve">8.95548915863037</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">8.93768501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81305599212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63501358032227</t>
+    <t xml:space="preserve">8.81305503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63501453399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.65281867980957</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">8.59940528869629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59050273895264</t>
+    <t xml:space="preserve">8.59050369262695</t>
   </si>
   <si>
     <t xml:space="preserve">8.6973295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79525184631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64391613006592</t>
+    <t xml:space="preserve">8.79525089263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6439151763916</t>
   </si>
   <si>
     <t xml:space="preserve">8.80415344238281</t>
@@ -2783,19 +2783,19 @@
     <t xml:space="preserve">8.60830688476562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67062282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47477626800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62611103057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75074100494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76854610443115</t>
+    <t xml:space="preserve">8.67062187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47477722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62611198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75074195861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76854515075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.83976173400879</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">9.73887062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88130569458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5370922088623</t>
+    <t xml:space="preserve">9.88130474090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53709125518799</t>
   </si>
   <si>
     <t xml:space="preserve">8.519287109375</t>
@@ -2822,16 +2822,16 @@
     <t xml:space="preserve">8.22551822662354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80712080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70919799804688</t>
+    <t xml:space="preserve">8.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480581283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80712175369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70919847488403</t>
   </si>
   <si>
     <t xml:space="preserve">8.00296688079834</t>
@@ -2840,25 +2840,25 @@
     <t xml:space="preserve">7.90504360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83382797241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32344055175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17210578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14539909362793</t>
+    <t xml:space="preserve">7.83382749557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32344150543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17210674285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14540004730225</t>
   </si>
   <si>
     <t xml:space="preserve">8.04747676849365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94065189361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07418251037598</t>
+    <t xml:space="preserve">7.94065284729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07418346405029</t>
   </si>
   <si>
     <t xml:space="preserve">8.01186943054199</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">8.34124565124512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43916797637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88427066802979</t>
+    <t xml:space="preserve">8.43916702270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8842716217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.78634929656982</t>
@@ -2894,25 +2894,25 @@
     <t xml:space="preserve">8.67952442169189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56379699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45697212219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42136478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33234310150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30563735961914</t>
+    <t xml:space="preserve">8.56379795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4569730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42136383056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33234405517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30563640594482</t>
   </si>
   <si>
     <t xml:space="preserve">8.03857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89614105224609</t>
+    <t xml:space="preserve">7.89614200592041</t>
   </si>
   <si>
     <t xml:space="preserve">8.29673480987549</t>
@@ -2921,25 +2921,25 @@
     <t xml:space="preserve">8.10089015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23442077636719</t>
+    <t xml:space="preserve">8.23441982269287</t>
   </si>
   <si>
     <t xml:space="preserve">8.31453895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12759590148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02077102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4035587310791</t>
+    <t xml:space="preserve">8.12759685516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02077007293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40355968475342</t>
   </si>
   <si>
     <t xml:space="preserve">8.2789306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36795234680176</t>
+    <t xml:space="preserve">8.36795139312744</t>
   </si>
   <si>
     <t xml:space="preserve">8.46587467193604</t>
@@ -2954,31 +2954,31 @@
     <t xml:space="preserve">8.08308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46884298324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27299690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4599404335022</t>
+    <t xml:space="preserve">7.46884250640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27299642562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45993947982788</t>
   </si>
   <si>
     <t xml:space="preserve">7.69139432907104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88723993301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10979175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11869335174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97626113891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02967262268066</t>
+    <t xml:space="preserve">7.8872389793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10979080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11869239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9762601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02967357635498</t>
   </si>
   <si>
     <t xml:space="preserve">8.13649845123291</t>
@@ -2987,19 +2987,19 @@
     <t xml:space="preserve">8.90207672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8219575881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68842601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75964260101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73293685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38575649261475</t>
+    <t xml:space="preserve">8.82195854187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68842697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7596435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73293781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38575553894043</t>
   </si>
   <si>
     <t xml:space="preserve">8.44807052612305</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">8.49258136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16320419311523</t>
+    <t xml:space="preserve">8.16320323944092</t>
   </si>
   <si>
     <t xml:space="preserve">8.35904979705811</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">8.23741436004639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44746017456055</t>
+    <t xml:space="preserve">8.44745922088623</t>
   </si>
   <si>
     <t xml:space="preserve">8.53878402709961</t>
@@ -3041,16 +3041,16 @@
     <t xml:space="preserve">8.62097454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5205192565918</t>
+    <t xml:space="preserve">8.52051830291748</t>
   </si>
   <si>
     <t xml:space="preserve">8.4017972946167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45659255981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4291934967041</t>
+    <t xml:space="preserve">8.45659160614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42919445037842</t>
   </si>
   <si>
     <t xml:space="preserve">8.27394485473633</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">7.96344327926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71686792373657</t>
+    <t xml:space="preserve">7.71686840057373</t>
   </si>
   <si>
     <t xml:space="preserve">7.84472227096558</t>
@@ -3074,31 +3074,31 @@
     <t xml:space="preserve">7.57988262176514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75339841842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60728025436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61641216278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69860458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76253032684326</t>
+    <t xml:space="preserve">7.7533974647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60727977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61641263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69860410690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76253080368042</t>
   </si>
   <si>
     <t xml:space="preserve">7.68033885955811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5890154838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48855829238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57075023651123</t>
+    <t xml:space="preserve">7.58901596069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48855876922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57075071334839</t>
   </si>
   <si>
     <t xml:space="preserve">7.30591154098511</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">7.42463254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56161832809448</t>
+    <t xml:space="preserve">7.56161785125732</t>
   </si>
   <si>
     <t xml:space="preserve">7.50682401657104</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">7.46116209030151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47942590713501</t>
+    <t xml:space="preserve">7.47942638397217</t>
   </si>
   <si>
     <t xml:space="preserve">7.31504392623901</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">7.2328519821167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24198484420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51595592498779</t>
+    <t xml:space="preserve">7.24198436737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51595544815063</t>
   </si>
   <si>
     <t xml:space="preserve">7.72600126266479</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">7.59814739227295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53422069549561</t>
+    <t xml:space="preserve">7.53422117233276</t>
   </si>
   <si>
     <t xml:space="preserve">7.64380931854248</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">7.21458768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10499858856201</t>
+    <t xml:space="preserve">7.10499906539917</t>
   </si>
   <si>
     <t xml:space="preserve">6.90408611297607</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">6.93148374557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72143793106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73057079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75796747207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66664457321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84929132461548</t>
+    <t xml:space="preserve">6.72143840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7305703163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75796794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66664409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84929180145264</t>
   </si>
   <si>
     <t xml:space="preserve">6.98627758026123</t>
@@ -3221,10 +3221,10 @@
     <t xml:space="preserve">6.56618785858154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36527442932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44746685028076</t>
+    <t xml:space="preserve">6.36527490615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4474663734436</t>
   </si>
   <si>
     <t xml:space="preserve">6.49312829971313</t>
@@ -3245,16 +3245,16 @@
     <t xml:space="preserve">6.3561429977417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16436243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09130382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02737712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0821704864502</t>
+    <t xml:space="preserve">6.16436195373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09130334854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02737665176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08217096328735</t>
   </si>
   <si>
     <t xml:space="preserve">6.05477380752563</t>
@@ -3269,13 +3269,13 @@
     <t xml:space="preserve">5.96345043182373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94518518447876</t>
+    <t xml:space="preserve">5.94518566131592</t>
   </si>
   <si>
     <t xml:space="preserve">6.03650903701782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10956811904907</t>
+    <t xml:space="preserve">6.10956859588623</t>
   </si>
   <si>
     <t xml:space="preserve">6.04564142227173</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">6.42006969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54792308807373</t>
+    <t xml:space="preserve">6.54792261123657</t>
   </si>
   <si>
     <t xml:space="preserve">6.27395057678223</t>
@@ -3299,31 +3299,31 @@
     <t xml:space="preserve">6.70317363739014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5022611618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39267206192017</t>
+    <t xml:space="preserve">6.50226068496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39267253875732</t>
   </si>
   <si>
     <t xml:space="preserve">6.33787822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38353967666626</t>
+    <t xml:space="preserve">6.3835391998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.19176006317139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22828912734985</t>
+    <t xml:space="preserve">6.22828960418701</t>
   </si>
   <si>
     <t xml:space="preserve">6.24655437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21915721893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37440776824951</t>
+    <t xml:space="preserve">6.21915674209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37440729141235</t>
   </si>
   <si>
     <t xml:space="preserve">6.23742151260376</t>
@@ -3332,10 +3332,10 @@
     <t xml:space="preserve">6.43833446502686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2922158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17349481582642</t>
+    <t xml:space="preserve">6.29221630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17349529266357</t>
   </si>
   <si>
     <t xml:space="preserve">6.32874536514282</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">6.51139354705811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40180492401123</t>
+    <t xml:space="preserve">6.40180540084839</t>
   </si>
   <si>
     <t xml:space="preserve">6.73970317840576</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">6.81276226043701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74883508682251</t>
+    <t xml:space="preserve">6.74883556365967</t>
   </si>
   <si>
     <t xml:space="preserve">6.7944974899292</t>
@@ -3395,13 +3395,13 @@
     <t xml:space="preserve">6.61184930801392</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91321802139282</t>
+    <t xml:space="preserve">6.91321849822998</t>
   </si>
   <si>
     <t xml:space="preserve">6.88582134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95888042449951</t>
+    <t xml:space="preserve">6.95887994766235</t>
   </si>
   <si>
     <t xml:space="preserve">6.8584246635437</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">6.86755657196045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84015941619873</t>
+    <t xml:space="preserve">6.84015893936157</t>
   </si>
   <si>
     <t xml:space="preserve">6.82189464569092</t>
@@ -3419,19 +3419,19 @@
     <t xml:space="preserve">6.89495372772217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83102703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46573114395142</t>
+    <t xml:space="preserve">6.83102655410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46573162078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.31961297988892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31048107147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12326383590698</t>
+    <t xml:space="preserve">6.31048059463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12326335906982</t>
   </si>
   <si>
     <t xml:space="preserve">6.60271739959717</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">6.92235088348389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96066188812256</t>
+    <t xml:space="preserve">6.96066236495972</t>
   </si>
   <si>
     <t xml:space="preserve">7.00706672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79360628128052</t>
+    <t xml:space="preserve">6.79360675811768</t>
   </si>
   <si>
     <t xml:space="preserve">7.10915613174438</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">7.43398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35974025726318</t>
+    <t xml:space="preserve">7.35973978042603</t>
   </si>
   <si>
     <t xml:space="preserve">7.28549289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.239089012146</t>
+    <t xml:space="preserve">7.25765085220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23908853530884</t>
   </si>
   <si>
     <t xml:space="preserve">7.19268417358398</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">7.15556049346924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36902093887329</t>
+    <t xml:space="preserve">7.36902141571045</t>
   </si>
   <si>
     <t xml:space="preserve">7.42470645904541</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">7.27621221542358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26693153381348</t>
+    <t xml:space="preserve">7.2483696937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26693105697632</t>
   </si>
   <si>
     <t xml:space="preserve">7.18340301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1648416519165</t>
+    <t xml:space="preserve">7.16484117507935</t>
   </si>
   <si>
     <t xml:space="preserve">6.9049768447876</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">7.06275177001953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0720329284668</t>
+    <t xml:space="preserve">7.07203245162964</t>
   </si>
   <si>
     <t xml:space="preserve">7.13699913024902</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">7.20196533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32261610031128</t>
+    <t xml:space="preserve">7.32261657714844</t>
   </si>
   <si>
     <t xml:space="preserve">7.41542482376099</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">7.40614461898804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68457126617432</t>
+    <t xml:space="preserve">7.68457078933716</t>
   </si>
   <si>
     <t xml:space="preserve">7.77737998962402</t>
@@ -3596,31 +3596,31 @@
     <t xml:space="preserve">7.48039197921753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84234523773193</t>
+    <t xml:space="preserve">7.71241426467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84234571456909</t>
   </si>
   <si>
     <t xml:space="preserve">7.76809883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65672826766968</t>
+    <t xml:space="preserve">7.65672874450684</t>
   </si>
   <si>
     <t xml:space="preserve">7.67529058456421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73097562789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74025583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59176301956177</t>
+    <t xml:space="preserve">7.79594135284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73097515106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74025630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59176206588745</t>
   </si>
   <si>
     <t xml:space="preserve">7.54535818099976</t>
@@ -3632,28 +3632,25 @@
     <t xml:space="preserve">7.09059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87713432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84929180145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85857200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83072948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95138120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7750449180603</t>
+    <t xml:space="preserve">6.87713384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85857248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83072996139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95138072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77504444122314</t>
   </si>
   <si>
     <t xml:space="preserve">6.71007823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84001064300537</t>
+    <t xml:space="preserve">6.84001016616821</t>
   </si>
   <si>
     <t xml:space="preserve">6.63583135604858</t>
@@ -3662,16 +3659,16 @@
     <t xml:space="preserve">6.72864007949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86785316467285</t>
+    <t xml:space="preserve">6.86785364151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.81216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65439319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6079888343811</t>
+    <t xml:space="preserve">6.6543927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60798835754395</t>
   </si>
   <si>
     <t xml:space="preserve">6.67295503616333</t>
@@ -3680,7 +3677,7 @@
     <t xml:space="preserve">6.53374147415161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49661779403687</t>
+    <t xml:space="preserve">6.49661827087402</t>
   </si>
   <si>
     <t xml:space="preserve">6.37596607208252</t>
@@ -3704,22 +3701,22 @@
     <t xml:space="preserve">6.91425752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94210052490234</t>
+    <t xml:space="preserve">6.94210004806519</t>
   </si>
   <si>
     <t xml:space="preserve">7.09987545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22980785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6381664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52679586410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61032342910767</t>
+    <t xml:space="preserve">7.22980737686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63816595077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52679538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61032390594482</t>
   </si>
   <si>
     <t xml:space="preserve">7.70313262939453</t>
@@ -3728,31 +3725,31 @@
     <t xml:space="preserve">7.83306503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89803123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98156023025513</t>
+    <t xml:space="preserve">7.89803171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98155975341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.17645835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05580615997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88875007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04652500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99083948135376</t>
+    <t xml:space="preserve">8.05580711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8887505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0465259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99083995819092</t>
   </si>
   <si>
     <t xml:space="preserve">8.09292984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07436847686768</t>
+    <t xml:space="preserve">8.07436752319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.12077236175537</t>
@@ -3761,7 +3758,7 @@
     <t xml:space="preserve">8.11149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22286224365234</t>
+    <t xml:space="preserve">8.22286128997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.14861488342285</t>
@@ -3770,7 +3767,7 @@
     <t xml:space="preserve">8.10221004486084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00940227508545</t>
+    <t xml:space="preserve">8.00940132141113</t>
   </si>
   <si>
     <t xml:space="preserve">8.13005352020264</t>
@@ -3779,13 +3776,13 @@
     <t xml:space="preserve">7.96299743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94443559646606</t>
+    <t xml:space="preserve">7.94443607330322</t>
   </si>
   <si>
     <t xml:space="preserve">8.29710865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45488452911377</t>
+    <t xml:space="preserve">8.45488357543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.31567096710205</t>
@@ -8095,7 +8092,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G140" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -8199,7 +8196,7 @@
         <v>12.0293064117432</v>
       </c>
       <c r="G144" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8225,7 +8222,7 @@
         <v>11.8187694549561</v>
       </c>
       <c r="G145" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8277,7 +8274,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G147" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8303,7 +8300,7 @@
         <v>12.1824235916138</v>
       </c>
       <c r="G148" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8329,7 +8326,7 @@
         <v>12.1441440582275</v>
       </c>
       <c r="G149" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8355,7 +8352,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8381,7 +8378,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G151" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8407,7 +8404,7 @@
         <v>11.7039308547974</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8433,7 +8430,7 @@
         <v>11.9527473449707</v>
       </c>
       <c r="G153" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8485,7 +8482,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G155" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8511,7 +8508,7 @@
         <v>12.2111330032349</v>
       </c>
       <c r="G156" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8589,7 +8586,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G159" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8615,7 +8612,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G160" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8641,7 +8638,7 @@
         <v>12.1345748901367</v>
       </c>
       <c r="G161" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8667,7 +8664,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G162" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8693,7 +8690,7 @@
         <v>12.0771551132202</v>
       </c>
       <c r="G163" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8719,7 +8716,7 @@
         <v>12.1728544235229</v>
       </c>
       <c r="G164" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8771,7 +8768,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G166" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8797,7 +8794,7 @@
         <v>11.8953275680542</v>
       </c>
       <c r="G167" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8823,7 +8820,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G168" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8849,7 +8846,7 @@
         <v>11.8092002868652</v>
       </c>
       <c r="G169" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8901,7 +8898,7 @@
         <v>11.7422113418579</v>
       </c>
       <c r="G171" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8927,7 +8924,7 @@
         <v>11.6943607330322</v>
       </c>
       <c r="G172" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8979,7 +8976,7 @@
         <v>12.2302732467651</v>
       </c>
       <c r="G174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9005,7 +9002,7 @@
         <v>11.9240379333496</v>
       </c>
       <c r="G175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9031,7 +9028,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G176" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9161,7 +9158,7 @@
         <v>11.7613496780396</v>
       </c>
       <c r="G181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9213,7 +9210,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9239,7 +9236,7 @@
         <v>12.0867252349854</v>
       </c>
       <c r="G184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9265,7 +9262,7 @@
         <v>11.9431781768799</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9317,7 +9314,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G187" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9343,7 +9340,7 @@
         <v>12.2398433685303</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9369,7 +9366,7 @@
         <v>11.9718866348267</v>
       </c>
       <c r="G189" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9421,7 +9418,7 @@
         <v>12.2494125366211</v>
       </c>
       <c r="G191" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9447,7 +9444,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G192" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9473,7 +9470,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G193" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9499,7 +9496,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G194" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9525,7 +9522,7 @@
         <v>12.2589826583862</v>
       </c>
       <c r="G195" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9551,7 +9548,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G196" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9577,7 +9574,7 @@
         <v>12.402530670166</v>
       </c>
       <c r="G197" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9603,7 +9600,7 @@
         <v>12.3259716033936</v>
       </c>
       <c r="G198" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9629,7 +9626,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G199" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9655,7 +9652,7 @@
         <v>12.8331737518311</v>
       </c>
       <c r="G200" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9681,7 +9678,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G201" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9707,7 +9704,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G202" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9733,7 +9730,7 @@
         <v>13.1011295318604</v>
       </c>
       <c r="G203" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9759,7 +9756,7 @@
         <v>13.2255382537842</v>
       </c>
       <c r="G204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9785,7 +9782,7 @@
         <v>13.3786563873291</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9811,7 +9808,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G206" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9837,7 +9834,7 @@
         <v>13.3977947235107</v>
       </c>
       <c r="G207" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9863,7 +9860,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G208" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9889,7 +9886,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G209" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9915,7 +9912,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9941,7 +9938,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G211" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9967,7 +9964,7 @@
         <v>12.5939283370972</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9993,7 +9990,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G213" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10019,7 +10016,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G214" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10045,7 +10042,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G215" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10071,7 +10068,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G216" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10097,7 +10094,7 @@
         <v>12.5747880935669</v>
       </c>
       <c r="G217" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10123,7 +10120,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G218" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10227,7 +10224,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G222" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10253,7 +10250,7 @@
         <v>12.3355417251587</v>
       </c>
       <c r="G223" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10279,7 +10276,7 @@
         <v>12.1058645248413</v>
       </c>
       <c r="G224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10305,7 +10302,7 @@
         <v>12.2781219482422</v>
       </c>
       <c r="G225" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10331,7 +10328,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10357,7 +10354,7 @@
         <v>12.4408102035522</v>
       </c>
       <c r="G227" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10383,7 +10380,7 @@
         <v>12.5460777282715</v>
       </c>
       <c r="G228" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10409,7 +10406,7 @@
         <v>12.4790887832642</v>
       </c>
       <c r="G229" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10435,7 +10432,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G230" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10461,7 +10458,7 @@
         <v>12.4120998382568</v>
       </c>
       <c r="G231" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10487,7 +10484,7 @@
         <v>12.4312400817871</v>
       </c>
       <c r="G232" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10513,7 +10510,7 @@
         <v>12.3642511367798</v>
       </c>
       <c r="G233" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10539,7 +10536,7 @@
         <v>12.3164024353027</v>
       </c>
       <c r="G234" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10565,7 +10562,7 @@
         <v>12.5652179718018</v>
       </c>
       <c r="G235" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10591,7 +10588,7 @@
         <v>12.421669960022</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10617,7 +10614,7 @@
         <v>12.4695196151733</v>
       </c>
       <c r="G237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10643,7 +10640,7 @@
         <v>12.3546810150146</v>
       </c>
       <c r="G238" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10669,7 +10666,7 @@
         <v>12.3833913803101</v>
       </c>
       <c r="G239" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10695,7 +10692,7 @@
         <v>12.6991958618164</v>
       </c>
       <c r="G240" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10721,7 +10718,7 @@
         <v>13.0628499984741</v>
       </c>
       <c r="G241" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10747,7 +10744,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G242" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10773,7 +10770,7 @@
         <v>12.986291885376</v>
       </c>
       <c r="G243" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10799,7 +10796,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G244" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10825,7 +10822,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G245" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10851,7 +10848,7 @@
         <v>12.8714532852173</v>
       </c>
       <c r="G246" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10877,7 +10874,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G247" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10903,7 +10900,7 @@
         <v>13.0054311752319</v>
       </c>
       <c r="G248" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10929,7 +10926,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G249" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10955,7 +10952,7 @@
         <v>12.80446434021</v>
       </c>
       <c r="G250" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10981,7 +10978,7 @@
         <v>12.6417770385742</v>
       </c>
       <c r="G251" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11007,7 +11004,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G252" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11033,7 +11030,7 @@
         <v>12.9001626968384</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11059,7 +11056,7 @@
         <v>12.8236036300659</v>
       </c>
       <c r="G254" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11085,7 +11082,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G255" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11111,7 +11108,7 @@
         <v>12.8618841171265</v>
       </c>
       <c r="G256" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11137,7 +11134,7 @@
         <v>12.9958610534668</v>
       </c>
       <c r="G257" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11163,7 +11160,7 @@
         <v>13.1202697753906</v>
       </c>
       <c r="G258" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11189,7 +11186,7 @@
         <v>13.1585493087769</v>
       </c>
       <c r="G259" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11215,7 +11212,7 @@
         <v>13.034140586853</v>
       </c>
       <c r="G260" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11241,7 +11238,7 @@
         <v>13.2063980102539</v>
       </c>
       <c r="G261" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11267,7 +11264,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G262" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11293,7 +11290,7 @@
         <v>13.2542476654053</v>
       </c>
       <c r="G263" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11319,7 +11316,7 @@
         <v>13.2351083755493</v>
       </c>
       <c r="G264" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11345,7 +11342,7 @@
         <v>13.3020973205566</v>
       </c>
       <c r="G265" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11371,7 +11368,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G266" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11397,7 +11394,7 @@
         <v>12.8140344619751</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11423,7 +11420,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G268" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11449,7 +11446,7 @@
         <v>12.6800556182861</v>
       </c>
       <c r="G269" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11475,7 +11472,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G270" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11501,7 +11498,7 @@
         <v>12.7948951721191</v>
       </c>
       <c r="G271" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11527,7 +11524,7 @@
         <v>12.7757549285889</v>
       </c>
       <c r="G272" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11553,7 +11550,7 @@
         <v>13.0915603637695</v>
       </c>
       <c r="G273" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11579,7 +11576,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G274" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11605,7 +11602,7 @@
         <v>13.1489791870117</v>
       </c>
       <c r="G275" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11631,7 +11628,7 @@
         <v>12.9671516418457</v>
       </c>
       <c r="G276" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11657,7 +11654,7 @@
         <v>13.0532808303833</v>
       </c>
       <c r="G277" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11683,7 +11680,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G278" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11709,7 +11706,7 @@
         <v>13.0150012969971</v>
       </c>
       <c r="G279" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11735,7 +11732,7 @@
         <v>12.8523139953613</v>
       </c>
       <c r="G280" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11761,7 +11758,7 @@
         <v>12.584358215332</v>
       </c>
       <c r="G281" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11787,7 +11784,7 @@
         <v>12.6513471603394</v>
       </c>
       <c r="G282" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11813,7 +11810,7 @@
         <v>12.9097328186035</v>
       </c>
       <c r="G283" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11839,7 +11836,7 @@
         <v>12.9193029403687</v>
       </c>
       <c r="G284" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11865,7 +11862,7 @@
         <v>13.0245714187622</v>
       </c>
       <c r="G285" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11891,7 +11888,7 @@
         <v>12.8810234069824</v>
       </c>
       <c r="G286" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11917,7 +11914,7 @@
         <v>12.7279062271118</v>
       </c>
       <c r="G287" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11943,7 +11940,7 @@
         <v>13.1106996536255</v>
       </c>
       <c r="G288" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11969,7 +11966,7 @@
         <v>13.4743537902832</v>
       </c>
       <c r="G289" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11995,7 +11992,7 @@
         <v>14.000696182251</v>
       </c>
       <c r="G290" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12021,7 +12018,7 @@
         <v>13.9719867706299</v>
       </c>
       <c r="G291" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12047,7 +12044,7 @@
         <v>13.9145669937134</v>
       </c>
       <c r="G292" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12073,7 +12070,7 @@
         <v>14.163384437561</v>
       </c>
       <c r="G293" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12099,7 +12096,7 @@
         <v>14.1155338287354</v>
       </c>
       <c r="G294" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12125,7 +12122,7 @@
         <v>14.2590818405151</v>
       </c>
       <c r="G295" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12151,7 +12148,7 @@
         <v>14.0963945388794</v>
       </c>
       <c r="G296" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12177,7 +12174,7 @@
         <v>14.2208032608032</v>
       </c>
       <c r="G297" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12203,7 +12200,7 @@
         <v>14.5940265655518</v>
       </c>
       <c r="G298" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12229,7 +12226,7 @@
         <v>14.6323070526123</v>
       </c>
       <c r="G299" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12255,7 +12252,7 @@
         <v>14.794994354248</v>
       </c>
       <c r="G300" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12281,7 +12278,7 @@
         <v>14.6035966873169</v>
       </c>
       <c r="G301" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12307,7 +12304,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G302" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12333,7 +12330,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G303" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12359,7 +12356,7 @@
         <v>14.24951171875</v>
       </c>
       <c r="G304" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12385,7 +12382,7 @@
         <v>14.4313402175903</v>
       </c>
       <c r="G305" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12411,7 +12408,7 @@
         <v>14.4026298522949</v>
       </c>
       <c r="G306" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12437,7 +12434,7 @@
         <v>14.5461778640747</v>
       </c>
       <c r="G307" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12463,7 +12460,7 @@
         <v>14.5557479858398</v>
       </c>
       <c r="G308" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12489,7 +12486,7 @@
         <v>14.6418762207031</v>
       </c>
       <c r="G309" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12515,7 +12512,7 @@
         <v>14.7375745773315</v>
       </c>
       <c r="G310" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12541,7 +12538,7 @@
         <v>15.2830572128296</v>
       </c>
       <c r="G311" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12567,7 +12564,7 @@
         <v>15.3021955490112</v>
       </c>
       <c r="G312" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12593,7 +12590,7 @@
         <v>15.4361743927002</v>
       </c>
       <c r="G313" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12619,7 +12616,7 @@
         <v>15.5031633377075</v>
       </c>
       <c r="G314" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12645,7 +12642,7 @@
         <v>15.6467113494873</v>
       </c>
       <c r="G315" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12671,7 +12668,7 @@
         <v>16.5654163360596</v>
       </c>
       <c r="G316" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12697,7 +12694,7 @@
         <v>16.9864902496338</v>
       </c>
       <c r="G317" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12723,7 +12720,7 @@
         <v>17.0343399047852</v>
       </c>
       <c r="G318" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12749,7 +12746,7 @@
         <v>17.225736618042</v>
       </c>
       <c r="G319" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12775,7 +12772,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G320" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12801,7 +12798,7 @@
         <v>16.0199356079102</v>
       </c>
       <c r="G321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12827,7 +12824,7 @@
         <v>15.7902593612671</v>
       </c>
       <c r="G322" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12853,7 +12850,7 @@
         <v>15.8859567642212</v>
       </c>
       <c r="G323" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12879,7 +12876,7 @@
         <v>16.2783203125</v>
       </c>
       <c r="G324" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12905,7 +12902,7 @@
         <v>16.0773544311523</v>
       </c>
       <c r="G325" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12931,7 +12928,7 @@
         <v>16.5462760925293</v>
       </c>
       <c r="G326" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12957,7 +12954,7 @@
         <v>16.5558471679688</v>
       </c>
       <c r="G327" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12983,7 +12980,7 @@
         <v>16.5175685882568</v>
       </c>
       <c r="G328" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13009,7 +13006,7 @@
         <v>16.5079975128174</v>
       </c>
       <c r="G329" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13035,7 +13032,7 @@
         <v>17.1683177947998</v>
       </c>
       <c r="G330" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13061,7 +13058,7 @@
         <v>16.6993942260742</v>
       </c>
       <c r="G331" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13087,7 +13084,7 @@
         <v>16.7472438812256</v>
       </c>
       <c r="G332" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13113,7 +13110,7 @@
         <v>17.1396083831787</v>
       </c>
       <c r="G333" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13139,7 +13136,7 @@
         <v>16.9577808380127</v>
       </c>
       <c r="G334" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13165,7 +13162,7 @@
         <v>16.8907928466797</v>
       </c>
       <c r="G335" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13191,7 +13188,7 @@
         <v>17.0821895599365</v>
       </c>
       <c r="G336" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13217,7 +13214,7 @@
         <v>17.0151996612549</v>
       </c>
       <c r="G337" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13243,7 +13240,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G338" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13269,7 +13266,7 @@
         <v>17.991325378418</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13295,7 +13292,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G340" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13321,7 +13318,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G341" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13347,7 +13344,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G342" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13373,7 +13370,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G343" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13399,7 +13396,7 @@
         <v>18.3454093933105</v>
       </c>
       <c r="G344" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13425,7 +13422,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G345" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13451,7 +13448,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G346" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13477,7 +13474,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G347" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13503,7 +13500,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G348" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13529,7 +13526,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G349" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13555,7 +13552,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G350" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13581,7 +13578,7 @@
         <v>18.1635837554932</v>
       </c>
       <c r="G351" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13607,7 +13604,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13633,7 +13630,7 @@
         <v>17.5415420532227</v>
       </c>
       <c r="G353" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13659,7 +13656,7 @@
         <v>17.5606822967529</v>
       </c>
       <c r="G354" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13685,7 +13682,7 @@
         <v>17.3979930877686</v>
       </c>
       <c r="G355" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13711,7 +13708,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G356" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13737,7 +13734,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G357" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13763,7 +13760,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13789,7 +13786,7 @@
         <v>17.5128326416016</v>
       </c>
       <c r="G359" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13815,7 +13812,7 @@
         <v>17.589391708374</v>
       </c>
       <c r="G360" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13841,7 +13838,7 @@
         <v>17.7329387664795</v>
       </c>
       <c r="G361" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13867,7 +13864,7 @@
         <v>18.1253032684326</v>
       </c>
       <c r="G362" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13893,7 +13890,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G363" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13919,7 +13916,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G364" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13945,7 +13942,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G365" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13971,7 +13968,7 @@
         <v>17.838207244873</v>
       </c>
       <c r="G366" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13997,7 +13994,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G367" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14023,7 +14020,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14049,7 +14046,7 @@
         <v>17.7233695983887</v>
       </c>
       <c r="G369" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14075,7 +14072,7 @@
         <v>17.4649829864502</v>
       </c>
       <c r="G370" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14101,7 +14098,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G371" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14127,7 +14124,7 @@
         <v>18.1348724365234</v>
       </c>
       <c r="G372" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14153,7 +14150,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G373" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14179,7 +14176,7 @@
         <v>18.0774536132812</v>
       </c>
       <c r="G374" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14205,7 +14202,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G375" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14231,7 +14228,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G376" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14257,7 +14254,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G377" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14283,7 +14280,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G378" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14309,7 +14306,7 @@
         <v>18.0200347900391</v>
       </c>
       <c r="G379" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14335,7 +14332,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G380" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14361,7 +14358,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G381" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14387,7 +14384,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G382" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14413,7 +14410,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G383" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14439,7 +14436,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G384" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14465,7 +14462,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G385" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14491,7 +14488,7 @@
         <v>17.2735862731934</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14517,7 +14514,7 @@
         <v>17.3022956848145</v>
       </c>
       <c r="G387" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14543,7 +14540,7 @@
         <v>17.2831554412842</v>
       </c>
       <c r="G388" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14569,7 +14566,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G389" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14595,7 +14592,7 @@
         <v>17.7138004302979</v>
       </c>
       <c r="G390" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14621,7 +14618,7 @@
         <v>17.5319728851318</v>
       </c>
       <c r="G391" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14647,7 +14644,7 @@
         <v>18.1540126800537</v>
       </c>
       <c r="G392" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14673,7 +14670,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14699,7 +14696,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14725,7 +14722,7 @@
         <v>17.9817562103271</v>
       </c>
       <c r="G395" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14751,7 +14748,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G396" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14777,7 +14774,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G397" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14803,7 +14800,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G398" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14829,7 +14826,7 @@
         <v>17.9626159667969</v>
       </c>
       <c r="G399" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14855,7 +14852,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G400" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14881,7 +14878,7 @@
         <v>18.3262691497803</v>
       </c>
       <c r="G401" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14907,7 +14904,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G402" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14933,7 +14930,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G403" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14959,7 +14956,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G404" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14985,7 +14982,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G405" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15011,7 +15008,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G406" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15037,7 +15034,7 @@
         <v>18.0965938568115</v>
       </c>
       <c r="G407" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15063,7 +15060,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G408" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15089,7 +15086,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G409" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15115,7 +15112,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G410" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15141,7 +15138,7 @@
         <v>17.7520790100098</v>
       </c>
       <c r="G411" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15167,7 +15164,7 @@
         <v>17.474552154541</v>
       </c>
       <c r="G412" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15609,7 +15606,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G429" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15635,7 +15632,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15739,7 +15736,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G434" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15765,7 +15762,7 @@
         <v>17.8477783203125</v>
       </c>
       <c r="G435" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15895,7 +15892,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G440" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15921,7 +15918,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G441" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15947,7 +15944,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G442" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15999,7 +15996,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G444" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16025,7 +16022,7 @@
         <v>17.8860569000244</v>
       </c>
       <c r="G445" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16077,7 +16074,7 @@
         <v>17.8669166564941</v>
       </c>
       <c r="G447" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16181,7 +16178,7 @@
         <v>18.0391750335693</v>
       </c>
       <c r="G451" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16519,7 +16516,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G464" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16597,7 +16594,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G467" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16623,7 +16620,7 @@
         <v>17.9051971435547</v>
       </c>
       <c r="G468" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16649,7 +16646,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G469" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16779,7 +16776,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G474" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16805,7 +16802,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G475" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16883,7 +16880,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G478" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16909,7 +16906,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G479" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17013,7 +17010,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G483" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17039,7 +17036,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G484" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17065,7 +17062,7 @@
         <v>17.9434757232666</v>
       </c>
       <c r="G485" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17091,7 +17088,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G486" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17273,7 +17270,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G493" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17299,7 +17296,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G494" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17325,7 +17322,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G495" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17351,7 +17348,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G496" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17429,7 +17426,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G499" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17507,7 +17504,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G502" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17585,7 +17582,7 @@
         <v>17.9243354797363</v>
       </c>
       <c r="G505" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17637,7 +17634,7 @@
         <v>18.2305717468262</v>
       </c>
       <c r="G507" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18469,7 +18466,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G539" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18521,7 +18518,7 @@
         <v>17.8956260681152</v>
       </c>
       <c r="G541" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18547,7 +18544,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G542" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18573,7 +18570,7 @@
         <v>18.0296058654785</v>
       </c>
       <c r="G543" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18651,7 +18648,7 @@
         <v>18.1827220916748</v>
       </c>
       <c r="G546" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18677,7 +18674,7 @@
         <v>18.0678844451904</v>
       </c>
       <c r="G547" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18989,7 +18986,7 @@
         <v>18.106164932251</v>
       </c>
       <c r="G559" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19015,7 +19012,7 @@
         <v>18.0870246887207</v>
       </c>
       <c r="G560" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19067,7 +19064,7 @@
         <v>17.9530467987061</v>
       </c>
       <c r="G562" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19093,7 +19090,7 @@
         <v>17.5702514648438</v>
       </c>
       <c r="G563" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19925,7 +19922,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G595" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19977,7 +19974,7 @@
         <v>17.1300392150879</v>
       </c>
       <c r="G597" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20029,7 +20026,7 @@
         <v>18.2784214019775</v>
       </c>
       <c r="G599" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20159,7 +20156,7 @@
         <v>17.7999286651611</v>
       </c>
       <c r="G604" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>1207</v>
+        <v>1060</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1971" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1972" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1973" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1974" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1975" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1976" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G1978" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1979" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>7.25</v>
       </c>
       <c r="G1980" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G1982" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1983" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G1984" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1986" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1987" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>7</v>
       </c>
       <c r="G1989" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1990" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1991" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>7</v>
       </c>
       <c r="G1993" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G1995" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1996" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1998" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1999" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G2000" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2009" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2015" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2018" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2020" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2021" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2022" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2023" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2024" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2025" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>8.5</v>
       </c>
       <c r="G2026" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2029" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2030" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2031" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>8.75</v>
       </c>
       <c r="G2032" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2033" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2034" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2035" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2036" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2037" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2040" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2041" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57573,7 +57570,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G2043" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57599,7 +57596,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2044" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57625,7 +57622,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2045" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57651,7 +57648,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57677,7 +57674,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G2047" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57703,7 +57700,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2048" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57729,7 +57726,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2049" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57755,7 +57752,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57781,7 +57778,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2051" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57807,7 +57804,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G2052" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57833,7 +57830,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G2053" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57859,7 +57856,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2054" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57885,7 +57882,7 @@
         <v>9.76000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57911,7 +57908,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2056" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57937,7 +57934,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2057" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57963,7 +57960,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2058" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57989,7 +57986,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2059" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58015,7 +58012,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2060" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58041,7 +58038,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2061" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58067,7 +58064,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2062" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58093,7 +58090,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58119,7 +58116,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2064" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58145,7 +58142,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2065" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58171,7 +58168,7 @@
         <v>8.5</v>
       </c>
       <c r="G2066" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58197,7 +58194,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2067" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58223,7 +58220,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2068" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58249,7 +58246,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2069" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58275,7 +58272,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2070" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58301,7 +58298,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2071" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58327,7 +58324,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2072" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58353,7 +58350,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58379,7 +58376,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2074" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58405,7 +58402,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2075" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58431,7 +58428,7 @@
         <v>8.75</v>
       </c>
       <c r="G2076" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58457,7 +58454,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2077" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58483,7 +58480,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2078" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58509,7 +58506,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58535,7 +58532,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58561,7 +58558,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58587,7 +58584,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2082" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58613,7 +58610,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2083" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58639,7 +58636,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2084" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58665,7 +58662,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2085" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58691,7 +58688,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58717,7 +58714,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2087" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58743,7 +58740,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2088" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58769,7 +58766,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G2089" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58795,7 +58792,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G2090" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58821,7 +58818,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2091" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58847,7 +58844,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2092" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58873,7 +58870,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2093" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58899,7 +58896,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G2094" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58925,7 +58922,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2095" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58951,7 +58948,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58977,7 +58974,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59003,7 +59000,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2098" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59029,7 +59026,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2099" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59055,7 +59052,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59081,7 +59078,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59107,7 +59104,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G2102" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59133,7 +59130,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2103" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59159,7 +59156,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G2104" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59185,7 +59182,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59211,7 +59208,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2106" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59237,7 +59234,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2107" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59263,7 +59260,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59289,7 +59286,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59315,7 +59312,7 @@
         <v>8.25</v>
       </c>
       <c r="G2110" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59341,7 +59338,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2111" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59367,7 +59364,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2112" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59393,7 +59390,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2113" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59419,7 +59416,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G2114" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59445,7 +59442,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59471,7 +59468,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2116" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59497,7 +59494,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59523,7 +59520,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2118" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59549,7 +59546,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G2119" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59575,7 +59572,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2120" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59601,7 +59598,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2121" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59627,7 +59624,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2122" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59653,7 +59650,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G2123" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59679,7 +59676,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2124" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59705,7 +59702,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59731,7 +59728,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2126" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59757,7 +59754,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2127" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59783,7 +59780,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2128" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59809,7 +59806,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2129" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59835,7 +59832,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2130" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59861,7 +59858,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G2131" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59887,7 +59884,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59913,7 +59910,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2133" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59939,7 +59936,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2134" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59965,7 +59962,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2135" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59991,7 +59988,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60017,7 +60014,7 @@
         <v>9</v>
       </c>
       <c r="G2137" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60043,7 +60040,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G2138" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60069,7 +60066,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2139" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60095,7 +60092,7 @@
         <v>9</v>
       </c>
       <c r="G2140" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60121,7 +60118,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2141" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60147,7 +60144,7 @@
         <v>9.31999969482422</v>
       </c>
       <c r="G2142" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60173,7 +60170,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G2143" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60199,7 +60196,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2144" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60225,7 +60222,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G2145" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60251,7 +60248,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G2146" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60277,7 +60274,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2147" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60303,7 +60300,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2148" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60329,7 +60326,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2149" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60355,7 +60352,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G2150" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60381,7 +60378,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2151" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60407,7 +60404,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2152" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60433,7 +60430,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2153" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60459,7 +60456,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2154" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60485,7 +60482,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2155" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60511,7 +60508,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2156" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60537,7 +60534,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2157" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60563,7 +60560,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G2158" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60589,7 +60586,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60615,7 +60612,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G2160" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60641,7 +60638,7 @@
         <v>8.5</v>
       </c>
       <c r="G2161" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60667,7 +60664,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2162" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60693,7 +60690,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2163" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60719,7 +60716,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60745,7 +60742,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2165" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60771,7 +60768,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G2166" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60797,7 +60794,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2167" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60823,7 +60820,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2168" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60849,7 +60846,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2169" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60875,7 +60872,7 @@
         <v>8.4399995803833</v>
       </c>
       <c r="G2170" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60901,7 +60898,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G2171" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60927,7 +60924,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2172" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60953,7 +60950,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G2173" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60979,7 +60976,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2174" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61005,7 +61002,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2175" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61031,7 +61028,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2176" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61057,7 +61054,7 @@
         <v>8.75</v>
       </c>
       <c r="G2177" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61083,7 +61080,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2178" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61109,7 +61106,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2179" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61135,7 +61132,7 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G2180" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61161,7 +61158,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G2181" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61187,7 +61184,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G2182" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61213,7 +61210,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2183" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61239,7 +61236,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2184" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61265,7 +61262,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G2185" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61291,7 +61288,7 @@
         <v>8.75</v>
       </c>
       <c r="G2186" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61317,7 +61314,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2187" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61343,7 +61340,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2188" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61369,7 +61366,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2189" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61395,7 +61392,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G2190" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61421,7 +61418,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2191" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61447,7 +61444,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2192" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61473,7 +61470,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2193" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61499,7 +61496,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2194" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61525,7 +61522,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2195" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61551,7 +61548,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2196" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61577,7 +61574,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G2197" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -61603,7 +61600,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G2198" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -61611,7 +61608,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="1" t="n">
-        <v>45525.6493865741</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B2199" t="n">
         <v>51406</v>
@@ -61629,9 +61626,35 @@
         <v>9.02999973297119</v>
       </c>
       <c r="G2199" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>45526.6495717593</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>21088</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>9.03999996185303</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>8.97000026702881</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>9.01000022888184</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H2200" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/FILA.MI.xlsx
+++ b/data/FILA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.74573612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72105407714844</t>
+    <t xml:space="preserve">8.72105312347412</t>
   </si>
   <si>
     <t xml:space="preserve">8.72928047180176</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">8.79510021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77864456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54827880859375</t>
+    <t xml:space="preserve">8.77864551544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54827785491943</t>
   </si>
   <si>
     <t xml:space="preserve">8.52359485626221</t>
@@ -68,49 +68,49 @@
     <t xml:space="preserve">8.59764289855957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1451358795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1039981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60587024688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43309307098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30968189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25208950042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3425931930542</t>
+    <t xml:space="preserve">8.14513492584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10399913787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60586929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4330940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30968379974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25209045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34259128570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.54004955291748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46600341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22740840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32613754272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63877773284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49068546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56473350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67169094085693</t>
+    <t xml:space="preserve">8.46600246429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22741031646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32613849639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63877868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49068641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56473445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67168998718262</t>
   </si>
   <si>
     <t xml:space="preserve">8.87737464904785</t>
@@ -119,55 +119,55 @@
     <t xml:space="preserve">8.77041721343994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91851234436035</t>
+    <t xml:space="preserve">8.91851139068604</t>
   </si>
   <si>
     <t xml:space="preserve">8.92673969268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98432922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81978225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91028308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04192161560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96787452697754</t>
+    <t xml:space="preserve">8.98433113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81978321075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9102840423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0419225692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96787548065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.89382934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05014896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97610282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07483291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81155586242676</t>
+    <t xml:space="preserve">9.05014991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97610378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07483196258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81155395507812</t>
   </si>
   <si>
     <t xml:space="preserve">8.86091804504395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09951400756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09128665924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0666036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21469879150391</t>
+    <t xml:space="preserve">9.09951305389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09128761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06660270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21469783782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.46974849700928</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">9.52733993530273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55202198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74948024749756</t>
+    <t xml:space="preserve">9.55202293395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74947929382324</t>
   </si>
   <si>
     <t xml:space="preserve">9.83998012542725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7165699005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87289142608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94693660736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51088237762451</t>
+    <t xml:space="preserve">9.71656894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87289047241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94693565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51088333129883</t>
   </si>
   <si>
     <t xml:space="preserve">9.86466312408447</t>
@@ -209,34 +209,34 @@
     <t xml:space="preserve">9.77416229248047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83175277709961</t>
+    <t xml:space="preserve">9.83175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">9.95516681671143</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1114845275879</t>
+    <t xml:space="preserve">10.1114854812622</t>
   </si>
   <si>
     <t xml:space="preserve">9.88934516906738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3994455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4652662277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4488077163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.613356590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7120866775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722198486328</t>
+    <t xml:space="preserve">10.3994445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4652643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4488105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6133556365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7120876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722208023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.5307931900024</t>
@@ -245,22 +245,22 @@
     <t xml:space="preserve">10.2490873336792</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2739448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3568000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4976501464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5805053710938</t>
+    <t xml:space="preserve">10.273943901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3567981719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4976511001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5805044174194</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727954864502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4893665313721</t>
+    <t xml:space="preserve">10.4893646240234</t>
   </si>
   <si>
     <t xml:space="preserve">10.3982267379761</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">10.2905158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1910886764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0253820419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98395442962646</t>
+    <t xml:space="preserve">10.191089630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0253829956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98395538330078</t>
   </si>
   <si>
     <t xml:space="preserve">9.94252681732178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8596715927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1082363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4230813980103</t>
+    <t xml:space="preserve">9.85967350006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1082353591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4230833053589</t>
   </si>
   <si>
     <t xml:space="preserve">9.95909786224365</t>
@@ -302,40 +302,37 @@
     <t xml:space="preserve">10.0668077468872</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1165199279785</t>
+    <t xml:space="preserve">10.5225086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1165208816528</t>
   </si>
   <si>
     <t xml:space="preserve">10.1579494476318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3816566467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.315372467041</t>
+    <t xml:space="preserve">10.3816556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153715133667</t>
   </si>
   <si>
     <t xml:space="preserve">10.5556497573853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5639352798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722188949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4147968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2325172424316</t>
+    <t xml:space="preserve">10.5639343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4147987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232518196106</t>
   </si>
   <si>
     <t xml:space="preserve">10.588791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5473642349243</t>
+    <t xml:space="preserve">10.5473651885986</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142211914062</t>
@@ -353,7 +350,7 @@
     <t xml:space="preserve">10.3485136032104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.365083694458</t>
+    <t xml:space="preserve">10.3650827407837</t>
   </si>
   <si>
     <t xml:space="preserve">10.6136474609375</t>
@@ -362,22 +359,22 @@
     <t xml:space="preserve">10.5059366226196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.456223487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5390815734863</t>
+    <t xml:space="preserve">10.4562244415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5390787124634</t>
   </si>
   <si>
     <t xml:space="preserve">10.2988004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.224232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1662330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1248073577881</t>
+    <t xml:space="preserve">10.2242336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1662340164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1248054504395</t>
   </si>
   <si>
     <t xml:space="preserve">10.3236570358276</t>
@@ -386,16 +383,16 @@
     <t xml:space="preserve">10.182804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6053628921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3402299880981</t>
+    <t xml:space="preserve">10.6053619384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3402290344238</t>
   </si>
   <si>
     <t xml:space="preserve">10.5970773696899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6716470718384</t>
+    <t xml:space="preserve">10.6716442108154</t>
   </si>
   <si>
     <t xml:space="preserve">10.7213592529297</t>
@@ -407,7 +404,7 @@
     <t xml:space="preserve">10.7379293441772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0610618591309</t>
+    <t xml:space="preserve">11.0610609054565</t>
   </si>
   <si>
     <t xml:space="preserve">11.1107749938965</t>
@@ -419,73 +416,73 @@
     <t xml:space="preserve">11.2433404922485</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3427667617798</t>
+    <t xml:space="preserve">11.3427658081055</t>
   </si>
   <si>
     <t xml:space="preserve">11.4504776000977</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5830450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5167598724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996150970459</t>
+    <t xml:space="preserve">11.583044052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5167617797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996141433716</t>
   </si>
   <si>
     <t xml:space="preserve">11.1853427886963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3096227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0196342468262</t>
+    <t xml:space="preserve">11.3096237182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0196352005005</t>
   </si>
   <si>
     <t xml:space="preserve">10.9036388397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8953523635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0776319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8870677947998</t>
+    <t xml:space="preserve">10.8953542709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0776329040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8870668411255</t>
   </si>
   <si>
     <t xml:space="preserve">10.7710704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6799297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6302175521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.862211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8042135238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6633625030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7462148666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7627849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7047872543335</t>
+    <t xml:space="preserve">10.679931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6302185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8622102737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8042144775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7462139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7627859115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7047882080078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8787813186646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7959280014038</t>
+    <t xml:space="preserve">10.7959270477295</t>
   </si>
   <si>
     <t xml:space="preserve">10.6965007781982</t>
@@ -503,37 +500,37 @@
     <t xml:space="preserve">11.3510513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1439151763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1024875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2599105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2681970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.085916519165</t>
+    <t xml:space="preserve">11.1439161300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1024866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2599124908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.268196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0859174728394</t>
   </si>
   <si>
     <t xml:space="preserve">10.9450654983521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1687717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1356315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2516260147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3593378067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847681045532</t>
+    <t xml:space="preserve">11.1687726974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.135630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2516250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3593368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847690582275</t>
   </si>
   <si>
     <t xml:space="preserve">11.4753341674805</t>
@@ -545,13 +542,13 @@
     <t xml:space="preserve">11.226770401001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0942029953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9782056808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1522016525269</t>
+    <t xml:space="preserve">11.0942039489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9782066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1522026062012</t>
   </si>
   <si>
     <t xml:space="preserve">11.3344812393188</t>
@@ -560,13 +557,13 @@
     <t xml:space="preserve">11.3841934204102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3013391494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1770582199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.953351020813</t>
+    <t xml:space="preserve">11.3013401031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1770572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9533529281616</t>
   </si>
   <si>
     <t xml:space="preserve">11.2764835357666</t>
@@ -578,79 +575,79 @@
     <t xml:space="preserve">12.1215972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0967397689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0470294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.262451171875</t>
+    <t xml:space="preserve">12.0967407226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0470275878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2624502182007</t>
   </si>
   <si>
     <t xml:space="preserve">12.221022605896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3453025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2044525146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3121643066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.635293006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6684370040894</t>
+    <t xml:space="preserve">12.3453035354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2044515609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.312162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352949142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.668436050415</t>
   </si>
   <si>
     <t xml:space="preserve">12.8092889785767</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6435794830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6021556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4944429397583</t>
+    <t xml:space="preserve">12.6435804367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6021547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.494441986084</t>
   </si>
   <si>
     <t xml:space="preserve">12.3370189666748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4695863723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5938673019409</t>
+    <t xml:space="preserve">12.4695873260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5938682556152</t>
   </si>
   <si>
     <t xml:space="preserve">12.676721572876</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7595748901367</t>
+    <t xml:space="preserve">12.759575843811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2318468093872</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2484169006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3644142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4224119186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466928482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3420944213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706654548645</t>
+    <t xml:space="preserve">13.2484178543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3644132614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4224109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.342095375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7066535949707</t>
   </si>
   <si>
     <t xml:space="preserve">14.7480821609497</t>
@@ -659,31 +656,31 @@
     <t xml:space="preserve">14.9137907028198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3338108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8698272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6709756851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538280487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0935306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9195394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3255224227905</t>
+    <t xml:space="preserve">14.3338117599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8698253631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6709747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0935297012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9195375442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3255243301392</t>
   </si>
   <si>
     <t xml:space="preserve">14.3006687164307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2923812866211</t>
+    <t xml:space="preserve">14.292384147644</t>
   </si>
   <si>
     <t xml:space="preserve">14.8640794754028</t>
@@ -692,178 +689,178 @@
     <t xml:space="preserve">14.4580917358398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4995193481445</t>
+    <t xml:space="preserve">14.4995203018188</t>
   </si>
   <si>
     <t xml:space="preserve">14.8392219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6817989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6238012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7895088195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7315092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4937715530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5766277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683422088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6180543899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7423372268677</t>
+    <t xml:space="preserve">14.6817960739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6237993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7895078659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7315101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4937725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6180505752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7423343658447</t>
   </si>
   <si>
     <t xml:space="preserve">15.8831872940063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4523448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5020570755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.609769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.518627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7257652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440565109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1371698379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2870435714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5784635543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6867074966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2370872497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3036985397339</t>
+    <t xml:space="preserve">15.4523458480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5020561218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6097688674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5186281204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7257642745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440593719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1371688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2870445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5784645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6867055892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2370862960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3036956787109</t>
   </si>
   <si>
     <t xml:space="preserve">15.4285888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7699689865112</t>
+    <t xml:space="preserve">15.7699680328369</t>
   </si>
   <si>
     <t xml:space="preserve">15.7949457168579</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8615579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5201778411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5451583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5285062789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4202632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1954555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366628646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7782936096191</t>
+    <t xml:space="preserve">15.8615550994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5201797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5451574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.528507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4202642440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1954565048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.736665725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7782926559448</t>
   </si>
   <si>
     <t xml:space="preserve">15.4868745803833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7283363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6783781051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.90318775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8199272155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9040355682373</t>
+    <t xml:space="preserve">15.7283372879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6783790588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9031896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8199253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.645073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9040365219116</t>
   </si>
   <si>
     <t xml:space="preserve">15.2537412643433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0372543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411940574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5701360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5951166152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5618114471436</t>
+    <t xml:space="preserve">15.0289316177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539093017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0372533798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5701398849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5951137542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5618095397949</t>
   </si>
   <si>
     <t xml:space="preserve">15.6284198760986</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7533168792725</t>
+    <t xml:space="preserve">15.7533187866211</t>
   </si>
   <si>
     <t xml:space="preserve">15.9448194503784</t>
   </si>
   <si>
-    <t xml:space="preserve">15.695032119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7200117111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6117687225342</t>
+    <t xml:space="preserve">15.6950330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.720009803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6117677688599</t>
   </si>
   <si>
     <t xml:space="preserve">15.7449884414673</t>
@@ -875,55 +872,58 @@
     <t xml:space="preserve">15.4452428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1121912002563</t>
+    <t xml:space="preserve">15.2037801742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112193107605</t>
   </si>
   <si>
     <t xml:space="preserve">14.7957935333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2787189483643</t>
+    <t xml:space="preserve">15.2787199020386</t>
   </si>
   <si>
     <t xml:space="preserve">15.3203496932983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3120241165161</t>
+    <t xml:space="preserve">15.3120231628418</t>
   </si>
   <si>
     <t xml:space="preserve">14.9872980117798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1205196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3369998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3703050613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1538228988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4785461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5368318557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4702215194702</t>
+    <t xml:space="preserve">15.1205177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.370306968689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1538209915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4785470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5368309020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4702224731445</t>
   </si>
   <si>
     <t xml:space="preserve">15.603443145752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5035285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5118541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.553484916687</t>
+    <t xml:space="preserve">15.5035276412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5118560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534839630127</t>
   </si>
   <si>
     <t xml:space="preserve">15.4036111831665</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">15.7033576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3869571685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3619804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6525535583496</t>
+    <t xml:space="preserve">15.3869552612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3619794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.652551651001</t>
   </si>
   <si>
     <t xml:space="preserve">16.4943542480469</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">16.3444805145264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4443950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.302848815918</t>
+    <t xml:space="preserve">16.4443969726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3028469085693</t>
   </si>
   <si>
     <t xml:space="preserve">16.1446495056152</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">16.1529769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1030216217041</t>
+    <t xml:space="preserve">16.1030197143555</t>
   </si>
   <si>
     <t xml:space="preserve">15.7116842269897</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">15.8449039459229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7616424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8532333374023</t>
+    <t xml:space="preserve">15.7616405487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8532304763794</t>
   </si>
   <si>
     <t xml:space="preserve">15.953145980835</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">16.0530605316162</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9864511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8365793228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281663894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6367473602295</t>
+    <t xml:space="preserve">15.9864530563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8365783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928168296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6367454528809</t>
   </si>
   <si>
     <t xml:space="preserve">15.6533994674683</t>
@@ -1019,25 +1019,25 @@
     <t xml:space="preserve">16.0697135925293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861122131348</t>
+    <t xml:space="preserve">16.3861103057861</t>
   </si>
   <si>
     <t xml:space="preserve">16.5443115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6025943756104</t>
+    <t xml:space="preserve">16.602596282959</t>
   </si>
   <si>
     <t xml:space="preserve">16.8190784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8607082366943</t>
+    <t xml:space="preserve">16.8607120513916</t>
   </si>
   <si>
     <t xml:space="preserve">16.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.694185256958</t>
+    <t xml:space="preserve">16.6941871643066</t>
   </si>
   <si>
     <t xml:space="preserve">16.4693756103516</t>
@@ -1046,22 +1046,22 @@
     <t xml:space="preserve">16.2029342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3694629669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2353954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272312164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1104984283447</t>
+    <t xml:space="preserve">16.3694610595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2353935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272350311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1105003356934</t>
   </si>
   <si>
     <t xml:space="preserve">17.5684432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4019203186035</t>
+    <t xml:space="preserve">17.4019184112549</t>
   </si>
   <si>
     <t xml:space="preserve">16.9023418426514</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">17.0688648223877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5193290710449</t>
+    <t xml:space="preserve">16.5193328857422</t>
   </si>
   <si>
     <t xml:space="preserve">16.136323928833</t>
@@ -1091,40 +1091,40 @@
     <t xml:space="preserve">16.0197563171387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4194183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2528915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2861957550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0364093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2695484161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0705614089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2703905105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4535694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700534820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6708993911743</t>
+    <t xml:space="preserve">16.4194164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.252893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2861976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0364074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2695465087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0705633163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2703914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4535713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.67005443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6709003448486</t>
   </si>
   <si>
     <t xml:space="preserve">14.8374261856079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6542472839355</t>
+    <t xml:space="preserve">14.6542453765869</t>
   </si>
   <si>
     <t xml:space="preserve">14.4044580459595</t>
@@ -1133,34 +1133,34 @@
     <t xml:space="preserve">14.2878904342651</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5543327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5376796722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3711528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7708158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4877214431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2212800979614</t>
+    <t xml:space="preserve">14.5543346405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5376768112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3711547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7708148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4877233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2212810516357</t>
   </si>
   <si>
     <t xml:space="preserve">14.1380186080933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0714073181152</t>
+    <t xml:space="preserve">14.0714063644409</t>
   </si>
   <si>
     <t xml:space="preserve">14.1213655471802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3878078460693</t>
+    <t xml:space="preserve">14.3878059387207</t>
   </si>
   <si>
     <t xml:space="preserve">14.3211975097656</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">14.7541618347168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0039520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8041181564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.020601272583</t>
+    <t xml:space="preserve">15.0039491653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8041191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0206031799316</t>
   </si>
   <si>
     <t xml:space="preserve">15.9198417663574</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">15.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0954971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0285568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8946704864502</t>
+    <t xml:space="preserve">15.095498085022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0285558700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8946723937988</t>
   </si>
   <si>
     <t xml:space="preserve">15.1457052230835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293825149536</t>
+    <t xml:space="preserve">15.2293834686279</t>
   </si>
   <si>
     <t xml:space="preserve">14.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8570652008057</t>
+    <t xml:space="preserve">13.8570642471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.4093389511108</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">14.2252473831177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3256616592407</t>
+    <t xml:space="preserve">14.325662612915</t>
   </si>
   <si>
     <t xml:space="preserve">14.72731590271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6436376571655</t>
+    <t xml:space="preserve">14.6436386108398</t>
   </si>
   <si>
     <t xml:space="preserve">14.8444652557373</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">14.5264883041382</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5599594116211</t>
+    <t xml:space="preserve">14.5599603652954</t>
   </si>
   <si>
     <t xml:space="preserve">14.6771097183228</t>
@@ -1235,43 +1235,43 @@
     <t xml:space="preserve">14.476282119751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3926057815552</t>
+    <t xml:space="preserve">14.3926048278809</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603736877441<